--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F88EED-E80F-D74F-9B6D-E4270AAFB3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4D3E5-609F-FF4C-B5E0-1DECE86698AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="380" yWindow="860" windowWidth="28040" windowHeight="16940" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>number</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>course_x</t>
+  </si>
+  <si>
+    <t>Differential Calculus with Applications to Life Sciences</t>
+  </si>
+  <si>
+    <t>Functions, derivatives, optimization, growth and decay, discrete probability.</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +596,23 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1141,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4D3E5-609F-FF4C-B5E0-1DECE86698AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB584E-9867-6C4B-8F51-2A22EF85CB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="860" windowWidth="28040" windowHeight="16940" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="8480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="308">
   <si>
     <t>number</t>
   </si>
@@ -179,6 +188,853 @@
   </si>
   <si>
     <t>Functions, derivatives, optimization, growth and decay, discrete probability.</t>
+  </si>
+  <si>
+    <t>Integral Calculus with Applications to Life Sciences</t>
+  </si>
+  <si>
+    <t>Antiderivatives and definite integrals, infinite series, applications to probability and dynamical systems. </t>
+  </si>
+  <si>
+    <t>Differential Calculus with Applications to Commerce and Social Sciences</t>
+  </si>
+  <si>
+    <t>Derivatives and rates of change, exponential and trigonometric functions, Newton's method, Taylor polynomials, maxima and minima, and graphing.</t>
+  </si>
+  <si>
+    <t>Integral Calculus with Applications to Commerce and Social Sciences</t>
+  </si>
+  <si>
+    <t>Antiderivatives, the definite integral, techniques of integration, infinite series, partial derivatives, maxima and minima with constraints, discrete and continuous random variables. </t>
+  </si>
+  <si>
+    <t>Topics as for MATH 100, but including relevant topics from algebra, geometry, functions, trigonometry, logarithms, and exponentials.</t>
+  </si>
+  <si>
+    <t>[3-0-1.5]</t>
+  </si>
+  <si>
+    <t>Limits, derivatives, Mean Value Theorem and applications, elementary functions, optimization, Taylor series, approximation. </t>
+  </si>
+  <si>
+    <t>[4-0-0]</t>
+  </si>
+  <si>
+    <t>Honours Integral Calculus</t>
+  </si>
+  <si>
+    <t>Definite integrals and the Fundamental Theorem of Calculus, techniques and applications of integration, infinite series.</t>
+  </si>
+  <si>
+    <t>Linear Systems</t>
+  </si>
+  <si>
+    <t>2D and 3D geometry, vectors and matrices, eigenvalues and vibration, physical applications. Laboratories demonstrate computer solutions of large systems. </t>
+  </si>
+  <si>
+    <t>[3-1*-0]</t>
+  </si>
+  <si>
+    <t>Differential Calculus with Physical Applications</t>
+  </si>
+  <si>
+    <t>Topics as for Math 100; intended for students with no previous knowledge of Calculus. </t>
+  </si>
+  <si>
+    <t>Differential Calculus for Social Science and Commerce</t>
+  </si>
+  <si>
+    <t>Topics as for Math 104; intended for students with no previous knowledge of Calculus.</t>
+  </si>
+  <si>
+    <t>Calculus Survey</t>
+  </si>
+  <si>
+    <t>Functions, derivatives, integrals, curve sketching growth functions, volume calculations. Only for credit in the Faculty of Forestry. </t>
+  </si>
+  <si>
+    <t>[3-0-2]</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>Analytic geometry in 2 and 3 dimensions, partial and directional derivatives, chain rule, maxima and minima, second derivative test, Lagrange multipliers, multiple integrals with applications.</t>
+  </si>
+  <si>
+    <t>Introduction to numerical computation, computer algebra, mathematical graphics. Primarily for second year students taking a degree in mathematics. </t>
+  </si>
+  <si>
+    <t>[3-1-0]</t>
+  </si>
+  <si>
+    <t>Elementary Differential Equations I</t>
+  </si>
+  <si>
+    <t>First-order equations; linear equations; linear systems; Laplace transforms; numerical methods; trajectory analysis of plane nonlinear systems. Applications of these topics will be emphasized.</t>
+  </si>
+  <si>
+    <t>Multivariable and Vector Calculus</t>
+  </si>
+  <si>
+    <t>Partial differentiation, extreme values, multiple integration, vector fields, line and surface integrals, the divergence theorem, Green's and Stokes' theorems. Intended for students in Honours Physics and Engineering Physics. </t>
+  </si>
+  <si>
+    <t>Mathematical Proof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets and functions; induction; cardinality; properties of the real numbers; sequences, series, and limits. Logic, structure, style, and clarity of proofs emphasized throughout. </t>
+  </si>
+  <si>
+    <t>Matrix Algebra</t>
+  </si>
+  <si>
+    <t>Systems of linear equations, operations on matrices, determinants, eigenvalues and eigenvectors, diagonalization of symmetric matrices.</t>
+  </si>
+  <si>
+    <t>Matrices, eigenvectors, diagonalization, orthogonality, linear systems, applications. Intended for Honours students. </t>
+  </si>
+  <si>
+    <t>Advanced Calculus I</t>
+  </si>
+  <si>
+    <t>Functions of several variables: limits, continuity, differentiability; implicit functions; Taylor's theorem; extrema; Lagrange multipliers; multiple integration, Fubini's theorem; improper integrals.</t>
+  </si>
+  <si>
+    <t>Advanced Calculus II</t>
+  </si>
+  <si>
+    <t>Parametrization of curves and surfaces; line and surface integrals; theorems of Green, Gauss, Stokes; applications to physics and/or introduction to differential forms.</t>
+  </si>
+  <si>
+    <t>Introduction to Finite Mathematics</t>
+  </si>
+  <si>
+    <t>Difference equations, number theory, counting. Intended primarily for students not in the Faculty of Science who wish to have some exposure to mathematical thinking. Students who obtain credit for MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184, or SCIE 001 cannot in the same year or in later years obtain credit for MATH 230. </t>
+  </si>
+  <si>
+    <t>Multivariable Calculus</t>
+  </si>
+  <si>
+    <t>Partial and directional derivatives; maxima and minima; Lagrange multipliers and second derivative test; multiple integrals and applications. </t>
+  </si>
+  <si>
+    <t>Multivariable and Vector Calculus for Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Partial differentiation, extreme values, multiple integration, vector fields, line and surface integrals, the divergence and Stokes' theorems; applications to fluid mechanics: buoyancy, hydrostatic force, pipe flow, drag; applications to thermodynamics: work, entropy, heat transfer; numerical methods. Emphasis on mechanical engineering applications.</t>
+  </si>
+  <si>
+    <t>[3-0-1*]</t>
+  </si>
+  <si>
+    <t>Review of linear systems; nonlinear equations and applications; phase plane analysis; Laplace transforms; numerical methods.</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>Linear ordinary differential equations, Laplace transforms, Fourier series and separation of variables for linear partial differential equations.</t>
+  </si>
+  <si>
+    <t>Partial Differential Equations</t>
+  </si>
+  <si>
+    <t>Introduction to partial differential equations; Fourier series; the heat, wave and potential equations; boundary-value problems; numerical methods. </t>
+  </si>
+  <si>
+    <t>Differential Equations for Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>First-order equations; linear equations; linear systems; Laplace transforms; trajectory analysis of plane nonlinear systems; translational and rotational vibrations; applications to RLC circuit analysis; numerical and graphical methods. Emphasis on mechanical engineering applications.</t>
+  </si>
+  <si>
+    <t>Vector Calculus for Electrical Engineering</t>
+  </si>
+  <si>
+    <r>
+      <t>Divergence, gradient, curl, theorems of Gauss and Stokes. Applications to Electrostatics and Magnetostatics. MATH 264 content is strongly coupled to BMEG 220 and ELEC 211 with topics and student evaluations weighted accordingly. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>This course is not eligible for Credit/D/Fail grading.</t>
+    </r>
+  </si>
+  <si>
+    <t>Functions of a complex variable, Cauchy-Riemann equations, elementary functions, Cauchy's theorem and contour integration, Laurent series, poles and residues. </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Applied Analysis</t>
+  </si>
+  <si>
+    <t>Integrals involving multi-valued functions, conformal mapping and applications, analytic continuation, Laplace and Fourier transforms.</t>
+  </si>
+  <si>
+    <t>Introduction to Probability</t>
+  </si>
+  <si>
+    <t>Basic notions of probability, random variables, expectation and conditional expectation, limit theorems.</t>
+  </si>
+  <si>
+    <t>Introduction to Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Discrete-time Markov chains, Poisson processes, continuous time Markov chains, renewal theory.</t>
+  </si>
+  <si>
+    <t>Applied Complex Analysis</t>
+  </si>
+  <si>
+    <t>Functions of a complex variable, Cauchy-Riemann equations, contour integration, Laurent series, residues, integrals of multi-valued functions, Fourier transforms. </t>
+  </si>
+  <si>
+    <t>Applied Linear Algebra</t>
+  </si>
+  <si>
+    <t>Applications of linear algebra to problems in science and engineering; use of computer algebra systems for solving problems in linear algebra. </t>
+  </si>
+  <si>
+    <t>Euclidean Geometry</t>
+  </si>
+  <si>
+    <t>Classical plane geometry, solid geometry, spherical trigonometry, polyhedra, linear and affine transformations. Linear algebra proofs are used. It is suggested that MATH 307 be taken concurrently.</t>
+  </si>
+  <si>
+    <t>Topics in Geometry</t>
+  </si>
+  <si>
+    <t>Topics chosen by the instructor. These may include conic sections, projective configuration, convexity, non-Euclidean geometries, fractal geometry, combinatorial problems of points in the plane. </t>
+  </si>
+  <si>
+    <t>Abstract Linear Algebra</t>
+  </si>
+  <si>
+    <t>Linear spaces, duality, linear mappings, matrices, determinant and trace, spectral theory, Euclidean structure. </t>
+  </si>
+  <si>
+    <t>Introduction to Number Theory</t>
+  </si>
+  <si>
+    <t>Euclidean algorithm, congruences, Fermat's theorem, applications. Some diophantine equations. Distribution of the prime numbers. </t>
+  </si>
+  <si>
+    <t>Topics in Number Theory</t>
+  </si>
+  <si>
+    <t>Topics chosen by the instructor. These might include: division algorithms, group theory, continued fractions, primality testing, factoring.</t>
+  </si>
+  <si>
+    <t>Elementary Differential Equations II</t>
+  </si>
+  <si>
+    <t>Power series methods (ordinary and regular singular points, Bessel's equation); boundary value problems and separation of variables (Fourier series and other orthogonal series), applications to the vibrating string, heat flow, potentials. </t>
+  </si>
+  <si>
+    <t>Calculus IV</t>
+  </si>
+  <si>
+    <t>Parametrizations, inverse and implicit functions, integrals with respect to length and area; grad, div, and curl, theorems of Green, Gauss, and Stokes.</t>
+  </si>
+  <si>
+    <t>Real Variables I</t>
+  </si>
+  <si>
+    <t>Probability with Physical Applications</t>
+  </si>
+  <si>
+    <t>Random variables, discrete and continuous distributions. Random walk, Markov chains, Monte Carlo methods. Characteristic functions, limit laws. </t>
+  </si>
+  <si>
+    <t>The real number system; real Euclidean n-space; open, closed, compact, and connected sets; Bolzano-Weierstrass theorem; sequences and series. Continuity and uniform continuity. Differentiability and mean-value theorems.</t>
+  </si>
+  <si>
+    <t>Real Variables II</t>
+  </si>
+  <si>
+    <r>
+      <t>The Riemann or Riemann-Stieltjes integrals. Sequences and series of functions, uniform convergence. Approximation of continuous functions by polynomials. Fourier series. Functions from R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, inverse and implicit function theorems.</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction to Group Theory</t>
+  </si>
+  <si>
+    <t>Groups, cosets, homomorphisms, group actions, p-groups, Sylow theorems, composition series, finitely generated Abelian groups.</t>
+  </si>
+  <si>
+    <t>Introduction to Rings and Modules</t>
+  </si>
+  <si>
+    <t>Rings, ideals, unique factorization, Euclidean rings, fields, polynomial rings, modules; structure theory of modules over a principal ideal domain.</t>
+  </si>
+  <si>
+    <t>Introduction to Mathematics</t>
+  </si>
+  <si>
+    <t>Intensive course with required tutorial. Combinatorics, probability, geometry and elementary number theory. Not for credit in the Faculty of Science. Students who obtain credit at UBC for any other mathematics course cannot in the same or later years obtain credit for MATH 335. </t>
+  </si>
+  <si>
+    <t>Introduction to Linear Programming</t>
+  </si>
+  <si>
+    <t>Linear programming problems, dual problems, the simplex algorithm, solution of primal and dual problems, sensitivity analysis. Additional topics chosen from: Karmarkar's algorithm, non-linear programming, game theory, applications.</t>
+  </si>
+  <si>
+    <t>Introduction to Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Introduction to ideas and methods of discrete mathematics and their application.</t>
+  </si>
+  <si>
+    <t>Algebra and Coding Theory</t>
+  </si>
+  <si>
+    <t>Error-correcting codes via abstract and linear algebra. Emphasis on proofs and computation. Finite fields, Hamming distance and error-correction, upper and lower bounds on the size of a code, linear codes, groups and cosets, encoding and decoding schemes.</t>
+  </si>
+  <si>
+    <t>Mathematical Game Theory</t>
+  </si>
+  <si>
+    <t>Introduction to mathematical game theory and its applications. </t>
+  </si>
+  <si>
+    <t>Applied Nonlinear Dynamics and Chaos</t>
+  </si>
+  <si>
+    <t>Phase plane methods, bifurcation and stability theory, limit-cycle behavior and chaos for nonlinear differential equations with applications to the sciences. Assignments involve the use of computers.</t>
+  </si>
+  <si>
+    <t>Engineering Analysis</t>
+  </si>
+  <si>
+    <t>[3-2*-0]</t>
+  </si>
+  <si>
+    <t>Mathematical Modelling in Science</t>
+  </si>
+  <si>
+    <t>Principles of model selection and basic modelling techniques in biology, earth science, chemistry and physics. Optimization, dynamical systems and stochastic processes. Preference will be given to Combined Major in Science students, or to students in Year 3 or higher.</t>
+  </si>
+  <si>
+    <t>Introduction to Mathematical Biology</t>
+  </si>
+  <si>
+    <t>Mathematical modelling of basic biological processes in ecology, physiology, neuroscience and genetics. Dynamic behavior of difference equations, differential equations, and partial differential equations, explained with reference to concrete biological examples.</t>
+  </si>
+  <si>
+    <t>Applied Partial Differential Equations</t>
+  </si>
+  <si>
+    <t>Separation of variables, first order equations, Sturm-Liouville theory, integral transform methods.</t>
+  </si>
+  <si>
+    <t>Green's Functions and Variational Methods</t>
+  </si>
+  <si>
+    <t>Green's functions for partial differential equations. Calculus of variations. Eigenfunction expansions. Rayleigh-Ritz and finite element methods.</t>
+  </si>
+  <si>
+    <t>Calculus of Variations</t>
+  </si>
+  <si>
+    <t>Classical variational problems; necessary conditions of Euler, Weierstrass, Legendre, and Jacobi; Erdmann corner conditions, transversality, convex Lagrangians, fields of extremals, sufficient conditions for optimality, numerical methods; applications to classical mechanics, engineering and economics. </t>
+  </si>
+  <si>
+    <t>Stabilization and Optimal Control of Dynamical Systems</t>
+  </si>
+  <si>
+    <t>Dynamical systems; stability by Liapunov's direct method; controllability and eigenvalue assignment for autonomous linear systems; linear-quadratic regulator, time optimal control, Pontryagin maximum principle, dynamic programming; applications in engineering, economics and resource management.</t>
+  </si>
+  <si>
+    <t>Harmonic Analysis I</t>
+  </si>
+  <si>
+    <t>Harmonic analysis on Euclidean spaces, with applications to number theory, partial differential equations and geometric measure theory.</t>
+  </si>
+  <si>
+    <t>Numerical Methods for Differential Equations</t>
+  </si>
+  <si>
+    <t>Interpolation, numerical integration, numerical solution of ordinary and partial differential equations. Practical computational methods emphasized and basic theory developed through simple models.</t>
+  </si>
+  <si>
+    <t>Variational and Approximate Methods in Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Variational and Green's function methods for ordinary and partial differential equations, introduction to finite difference, finite element and boundary element methods. </t>
+  </si>
+  <si>
+    <t>Advanced Linear Algebra</t>
+  </si>
+  <si>
+    <t>Topics include decompositions of linear operators, multi linear algebra, bilinear forms, metric spaces. </t>
+  </si>
+  <si>
+    <t>Mathematical Demonstrations</t>
+  </si>
+  <si>
+    <t>Students will prepare material illustrating ideas and applications of mathematics and present it to audiences outside the University. Intended for third or fourth year Mathematics students and Math/Science Education students. </t>
+  </si>
+  <si>
+    <t>[2-0-0; 1-0-0] or [3-0-0]</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Probability spaces, random variables, distributions, expectation, conditional probabilities, convergence of random variables, generating and characteristic functions, weak and strong laws of large numbers, central limit theorem.</t>
+  </si>
+  <si>
+    <t>Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Random walks, Markov chains, branching processes, Poisson processes, continuous time Markov chains, martingales, Brownian motion.</t>
+  </si>
+  <si>
+    <t>Real Analysis I</t>
+  </si>
+  <si>
+    <t>Real Analysis II</t>
+  </si>
+  <si>
+    <r>
+      <t>Sigma-algebras, Lebesgue measure, Borel measures, measurable functions, integration, convergence theorems, L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> spaces, Holder and Minkowski inequalities, Lebesgue and/or Radon-Nikodym differentiation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Banach spaces, linear operators, bounded and compact operators, strong, weak, and weak* topology. Hahn-Banach, open mapping, and closed graph theorems. Hilbert spaces, symmetric and self-adjoint operators, spectral theory for bounded operators. </t>
+  </si>
+  <si>
+    <t>Fields and Galois Theory</t>
+  </si>
+  <si>
+    <t>Field extensions, the Galois correspondence, finite fields, insolvability in radicals, ruler and compass constructions, additional topics chosen by instructor. </t>
+  </si>
+  <si>
+    <t>Commutative Algebra</t>
+  </si>
+  <si>
+    <t>Commutative algebra; homological algebra or representation theory of finite groups.</t>
+  </si>
+  <si>
+    <t>Classical Differential Geometry</t>
+  </si>
+  <si>
+    <t>The differential geometry of curves and surfaces in three-dimensional Euclidean space. Mean curvature and Gaussian curvature. Geodesics. Gauss's Theorema Egregium. </t>
+  </si>
+  <si>
+    <t>Introduction to Modern Differential Geometry</t>
+  </si>
+  <si>
+    <t>Riemannian manifolds, tensors and differential forms, curvature and geodesics.</t>
+  </si>
+  <si>
+    <t> Introduction to Topology</t>
+  </si>
+  <si>
+    <t>General topology, combinatorial topology, fundamental group and covering spaces, topics chosen by the instructor.</t>
+  </si>
+  <si>
+    <t>Topics in Topology</t>
+  </si>
+  <si>
+    <t>Homology theory, homotopy theory, manifolds, and other topics chosen by the instructor. </t>
+  </si>
+  <si>
+    <t>Mathematical Classical Mechanics I</t>
+  </si>
+  <si>
+    <t>Newton's equation, conservation laws, the Euler-Lagrange equation; Hamilton's principle of least action, Hamilton's equations, Lagrangian mechanics on manifolds. </t>
+  </si>
+  <si>
+    <t>Complex Analysis</t>
+  </si>
+  <si>
+    <t>Number Theory</t>
+  </si>
+  <si>
+    <t>Divisibility, congruences, Diophantine equations, arithmetic functions, quadratic reciprocity, advanced topics. </t>
+  </si>
+  <si>
+    <t>The residue theorem, the argument principle, conformal mapping, the maximum modulus principle, harmonic functions, representation of functions by integrals, series, and products. Other topics at the discretion of the instructor. </t>
+  </si>
+  <si>
+    <t>Mathematical Modelling: Discrete Optimization Problems</t>
+  </si>
+  <si>
+    <t>Formulation of real-world optimization problems using techniques such as linear programming, network flows, integer programming, dynamic programming. Solution by appropriate software. </t>
+  </si>
+  <si>
+    <t>Graphs and Networks</t>
+  </si>
+  <si>
+    <t>Graph theory, emphasizing trees, tree growing algorithms, and proof techniques. Other topics chosen from shortest paths, maximum flows, minimum cost flows, matchings, and graph colouring. </t>
+  </si>
+  <si>
+    <t>Graph Theory</t>
+  </si>
+  <si>
+    <t>Introductory course in mostly non-algorithmic topics including: planarity and Kuratowski's theorem, graph colouring, graph minors, random graphs, cycles in graphs, Ramsey theory, extremal graph theory. Proofs emphasized. Intended for Honours students.</t>
+  </si>
+  <si>
+    <t>Mathematical Research and Writing</t>
+  </si>
+  <si>
+    <t>Current research topics in pure and applied mathematics are explored at the undergraduate level. Technical communication and research skills are developed.</t>
+  </si>
+  <si>
+    <t>Topics in the History of Mathematics I</t>
+  </si>
+  <si>
+    <t>Historical development of concepts and techniques in areas chosen from Geometry, Number Theory, Algebra, Calculus, Probability, Analysis. The focus is on historically significant writings of important contributors and on famous problems of Mathematics. </t>
+  </si>
+  <si>
+    <t>Asymptotic and Perturbation Methods</t>
+  </si>
+  <si>
+    <t>Asymptotic expansions. Asymptotic evaluation of integrals; WKBJ methods. Regular and singular expansions. Boundary layer theory; matched asymptotic expansions. Multiple scale techniques.</t>
+  </si>
+  <si>
+    <t>Projects in Mathematical Biology</t>
+  </si>
+  <si>
+    <t>Development and analysis of mathematical models for complex systems in ecology, evolution, cell biology, neurophysiology, and other biological and medical disciplines.</t>
+  </si>
+  <si>
+    <t>Introduction to Complex Variables</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Ordinary Differential Equations</t>
+  </si>
+  <si>
+    <t>Introduction to Mathematical Computing</t>
+  </si>
+  <si>
+    <t>Differential Calculus</t>
+  </si>
+  <si>
+    <t>Honours Differential Calculus</t>
+  </si>
+  <si>
+    <t>One of MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184.</t>
+  </si>
+  <si>
+    <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of MATH 215, MATH 255, MATH 256, MATH 258 </t>
+  </si>
+  <si>
+    <t>One of MATH 152, MATH 221, MATH 223.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either (a) a score of 68% or higher in MATH 120 </t>
+  </si>
+  <si>
+    <t>or (b) a score of 80% or higher in one of MATH 100, MATH 102, MATH 104, MATH 180, MATH 184 or (c) a score of 5 in AP Calculus AB.</t>
+  </si>
+  <si>
+    <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001</t>
+  </si>
+  <si>
+    <t>One of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254.</t>
+  </si>
+  <si>
+    <t>pre_soft</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 64% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001</t>
+  </si>
+  <si>
+    <t>Or (b) one of MATH 121, MATH 200, MATH 217, MATH 226, MATH 253, MATH 254.</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 64% or higher in one of MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or (b) one of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001 </t>
+  </si>
+  <si>
+    <t>Either (a) MATH 121</t>
+  </si>
+  <si>
+    <t>Or (b) a score of 68% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001.</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 121</t>
+  </si>
+  <si>
+    <t>Or (b) a score of 80% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001.</t>
+  </si>
+  <si>
+    <t>One of MATH 152, MATH 221, MATH 223</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 226.</t>
+  </si>
+  <si>
+    <t>All of MECH 222, MECH 225.</t>
+  </si>
+  <si>
+    <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001 </t>
+  </si>
+  <si>
+    <t>One of MATH 200, MATH 217, MATH 226, MATH 253, MATH 263.</t>
+  </si>
+  <si>
+    <t>One of MATH 215, MATH 255, MATH 256, MATH 258.</t>
+  </si>
+  <si>
+    <t>All of MECH 221, MECH 224.</t>
+  </si>
+  <si>
+    <t>One of BMEG 220, ELEC 211.</t>
+  </si>
+  <si>
+    <t>One of MATH 217, MATH 227, MATH 254, MATH 317.</t>
+  </si>
+  <si>
+    <t>One of MATH 300, MATH 305</t>
+  </si>
+  <si>
+    <t>One of MATH 256, MATH 257, MATH 316, MATH 358, MECH 358, PHYS 312.</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>STAT 302.</t>
+  </si>
+  <si>
+    <t>One of MATH 302, STAT 302.</t>
+  </si>
+  <si>
+    <t>One of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254</t>
+  </si>
+  <si>
+    <t>One of MATH 152, MATH 221, MATH 223 </t>
+  </si>
+  <si>
+    <t>Either (a) one of MATH 152, MATH 221 and one of MATH 220, MATH 226, CPSC 121;</t>
+  </si>
+  <si>
+    <t>One of MATH 152, MATH 221</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 226, CPSC 121.</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121 and 9 additional credits of mathematics courses.</t>
+  </si>
+  <si>
+    <t>MATH 312.</t>
+  </si>
+  <si>
+    <t>One of MATH 200, MATH 226, MATH 253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One of MATH 152, MATH 221, MATH 223 is recommended.</t>
+  </si>
+  <si>
+    <t> Either (a) a score of 68% or higher in MATH 226</t>
+  </si>
+  <si>
+    <t>Or (b) one of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254 and a score of 80% or higher in MATH 220.</t>
+  </si>
+  <si>
+    <t>MATH 320.</t>
+  </si>
+  <si>
+    <t> Either (a) a score of 68% or higher in one of MATH 223, MATH 310 </t>
+  </si>
+  <si>
+    <t>Or (b) one of MATH 152, MATH 221, MATH 223 and a score of 80% or higher in MATH 220.</t>
+  </si>
+  <si>
+    <t>MATH 322.</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121.</t>
+  </si>
+  <si>
+    <t>Either (a) one of MATH 152, MATH 221 and one of MATH 220, MATH 226, CPSC 121</t>
+  </si>
+  <si>
+    <t>(b) MATH 223.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 215, MATH 255, MATH 256, MATH 258.</t>
+  </si>
+  <si>
+    <t>One of BIOL 301, MATH 215, MATH 255, MATH 256, MATH 258.</t>
+  </si>
+  <si>
+    <t>Fourier series; auto- and cross-correlation; power spectra; discrete Fourier transform; boundary-value problems; numerical methods; partial differential equations; heat, wave, Laplace, Poisson, and wave equations. Applications to mechanical engineering and practical computing applications emphasized. Credit will be granted for only one of MECH 358 or MATH 358. </t>
+  </si>
+  <si>
+    <t>Either (a) a score of 80% or higher in one of MATH 256, MATH 257, MATH 316, MATH 358, MECH 358, PHYS 312</t>
+  </si>
+  <si>
+    <t>Or (b) MATH 400.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 301, MATH 320.</t>
+  </si>
+  <si>
+    <t>MATH 402 is recommended.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 301, MATH 320. </t>
+  </si>
+  <si>
+    <t>MATH 420.</t>
+  </si>
+  <si>
+    <t>One of MATH 307, CPSC 302</t>
+  </si>
+  <si>
+    <t> A score of 68% or higher in MATH 320.</t>
+  </si>
+  <si>
+    <t> A score of 68% or higher in MATH 322.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 321.</t>
+  </si>
+  <si>
+    <t>MATH 418.</t>
+  </si>
+  <si>
+    <t>MATH 323.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 412, MATH 422.</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 223 </t>
+  </si>
+  <si>
+    <t>Or (b) a score of 80% or higher in one of MATH 152, MATH 221</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 227</t>
+  </si>
+  <si>
+    <t>Or (b) a score of 80% or higher in one of MATH 217, MATH 254, MATH 264, MATH 317.</t>
+  </si>
+  <si>
+    <t>MATH 424.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in all of MATH 321, MATH 322.</t>
+  </si>
+  <si>
+    <t>MATH 426.</t>
+  </si>
+  <si>
+    <t>One of MATH 215, MATH 255, MATH 256, MATH 258</t>
+  </si>
+  <si>
+    <t>One of PHYS 216, PHYS 306, ENPH 270.</t>
+  </si>
+  <si>
+    <t>One of MATH 320, MATH 322.</t>
+  </si>
+  <si>
+    <t>MATH 300.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 320.</t>
+  </si>
+  <si>
+    <t>MATH 340.</t>
+  </si>
+  <si>
+    <t>3rd year standing and one of MATH 220, MATH 223, MATH 226 or CPSC 221.</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 220, MATH 223, MATH 226, CPSC 121. And 6 credits of MATH numbered 300 or above.</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 226 and 6 credits of MATH courses numbered 300 or higher.</t>
+  </si>
+  <si>
+    <t>27 credits of MATH.</t>
+  </si>
+  <si>
+    <t>MATH 301.</t>
+  </si>
+  <si>
+    <t>MATH 400.</t>
+  </si>
+  <si>
+    <t>One of MATH 361, MATH 345.</t>
   </si>
 </sst>
 </file>
@@ -189,13 +1045,32 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,10 +1093,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,6 +1492,1417 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>184</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>210</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>215</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>217</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>220</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>221</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>223</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>226</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>227</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>253</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>254</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>255</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>258</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>264</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>301</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>302</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>303</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>305</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>307</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>308</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>309</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>310</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>312</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>313</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>316</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>317</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>318</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>320</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>321</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>322</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>323</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>335</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>340</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>341</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>342</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>344</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>345</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>358</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>360</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>361</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>400</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>401</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>402</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>403</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>404</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>405</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>406</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>412</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>414</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>418</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>419</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>420</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>421</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>422</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>423</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>424</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>425</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>426</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>427</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>428</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>437</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>440</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>441</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>442</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>443</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>444</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>446</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>450</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>462</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC08885-D475-D740-B093-B1999F0EDA05}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,6 +2979,1714 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>220</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>226</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>255</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>255</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>255</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>256</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>258</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>264</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>264</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>301</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>302</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>305</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>307</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>307</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>308</v>
+      </c>
+      <c r="C54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>308</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>309</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>309</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>310</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>310</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>312</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>313</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>316</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>318</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>318</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>318</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>320</v>
+      </c>
+      <c r="C69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>321</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>322</v>
+      </c>
+      <c r="C71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>322</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>323</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>341</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>342</v>
+      </c>
+      <c r="C77" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>344</v>
+      </c>
+      <c r="C78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>344</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>345</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>360</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>361</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>400</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>400</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>401</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>401</v>
+      </c>
+      <c r="C86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>402</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>403</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>403</v>
+      </c>
+      <c r="C89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>404</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>404</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>405</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>406</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>406</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>406</v>
+      </c>
+      <c r="C95" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>412</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>418</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>419</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>420</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>421</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>422</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>423</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>423</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>424</v>
+      </c>
+      <c r="C105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>424</v>
+      </c>
+      <c r="C106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>424</v>
+      </c>
+      <c r="C107" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>424</v>
+      </c>
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>425</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>426</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>427</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>428</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>428</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>428</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>437</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>440</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>440</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>441</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>442</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>443</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>444</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>446</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>450</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>462</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>404</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,9 +4694,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -873,6 +4870,3515 @@
       </c>
       <c r="C15">
         <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>152</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>121</v>
+      </c>
+      <c r="C26">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>121</v>
+      </c>
+      <c r="C27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>121</v>
+      </c>
+      <c r="C29">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>210</v>
+      </c>
+      <c r="C34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>210</v>
+      </c>
+      <c r="C35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>210</v>
+      </c>
+      <c r="C36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>210</v>
+      </c>
+      <c r="C37">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>210</v>
+      </c>
+      <c r="C38">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>210</v>
+      </c>
+      <c r="C39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>210</v>
+      </c>
+      <c r="C40">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>210</v>
+      </c>
+      <c r="C41">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>210</v>
+      </c>
+      <c r="C42">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>210</v>
+      </c>
+      <c r="C43">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>210</v>
+      </c>
+      <c r="C44">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>215</v>
+      </c>
+      <c r="C45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>215</v>
+      </c>
+      <c r="C46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>215</v>
+      </c>
+      <c r="C47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>215</v>
+      </c>
+      <c r="C48">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>215</v>
+      </c>
+      <c r="C49">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>215</v>
+      </c>
+      <c r="C50">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>215</v>
+      </c>
+      <c r="C51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>215</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>215</v>
+      </c>
+      <c r="C53">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>215</v>
+      </c>
+      <c r="C54">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>215</v>
+      </c>
+      <c r="C55">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>220</v>
+      </c>
+      <c r="C56">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>220</v>
+      </c>
+      <c r="C57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>220</v>
+      </c>
+      <c r="C58">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>220</v>
+      </c>
+      <c r="C59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>220</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>220</v>
+      </c>
+      <c r="C61">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>220</v>
+      </c>
+      <c r="C62">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>220</v>
+      </c>
+      <c r="C63">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>220</v>
+      </c>
+      <c r="C64">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>221</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>221</v>
+      </c>
+      <c r="C66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>221</v>
+      </c>
+      <c r="C67">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>221</v>
+      </c>
+      <c r="C68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>221</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>221</v>
+      </c>
+      <c r="C70">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>221</v>
+      </c>
+      <c r="C71">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <v>221</v>
+      </c>
+      <c r="C72">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>221</v>
+      </c>
+      <c r="C73">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>221</v>
+      </c>
+      <c r="C74">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>221</v>
+      </c>
+      <c r="C75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>223</v>
+      </c>
+      <c r="C76">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>223</v>
+      </c>
+      <c r="C77">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>223</v>
+      </c>
+      <c r="C78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>223</v>
+      </c>
+      <c r="C79">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>226</v>
+      </c>
+      <c r="C80">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>21</v>
+      </c>
+      <c r="B81">
+        <v>226</v>
+      </c>
+      <c r="C81">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>226</v>
+      </c>
+      <c r="C82">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>21</v>
+      </c>
+      <c r="B83">
+        <v>226</v>
+      </c>
+      <c r="C83">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>226</v>
+      </c>
+      <c r="C84">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>226</v>
+      </c>
+      <c r="C85">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>226</v>
+      </c>
+      <c r="C86">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>227</v>
+      </c>
+      <c r="C87">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88">
+        <v>253</v>
+      </c>
+      <c r="C88">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>253</v>
+      </c>
+      <c r="C89">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>253</v>
+      </c>
+      <c r="C90">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>253</v>
+      </c>
+      <c r="C91">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>254</v>
+      </c>
+      <c r="C92">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="B93">
+        <v>254</v>
+      </c>
+      <c r="C93">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>254</v>
+      </c>
+      <c r="C94">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>26</v>
+      </c>
+      <c r="B95">
+        <v>254</v>
+      </c>
+      <c r="C95">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>255</v>
+      </c>
+      <c r="C96">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>255</v>
+      </c>
+      <c r="C97">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>255</v>
+      </c>
+      <c r="C98">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>255</v>
+      </c>
+      <c r="C99">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>29</v>
+      </c>
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>29</v>
+      </c>
+      <c r="B101">
+        <v>255</v>
+      </c>
+      <c r="C101">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>29</v>
+      </c>
+      <c r="B102">
+        <v>255</v>
+      </c>
+      <c r="C102">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>255</v>
+      </c>
+      <c r="C103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <v>255</v>
+      </c>
+      <c r="C104">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>255</v>
+      </c>
+      <c r="C105">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>255</v>
+      </c>
+      <c r="C106">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107">
+        <v>255</v>
+      </c>
+      <c r="C107">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>31</v>
+      </c>
+      <c r="B108">
+        <v>256</v>
+      </c>
+      <c r="C108">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>31</v>
+      </c>
+      <c r="B109">
+        <v>256</v>
+      </c>
+      <c r="C109">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>31</v>
+      </c>
+      <c r="B110">
+        <v>256</v>
+      </c>
+      <c r="C110">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>31</v>
+      </c>
+      <c r="B111">
+        <v>256</v>
+      </c>
+      <c r="C111">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <v>256</v>
+      </c>
+      <c r="C112">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>32</v>
+      </c>
+      <c r="B113">
+        <v>256</v>
+      </c>
+      <c r="C113">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>32</v>
+      </c>
+      <c r="B114">
+        <v>256</v>
+      </c>
+      <c r="C114">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>33</v>
+      </c>
+      <c r="B115">
+        <v>256</v>
+      </c>
+      <c r="C115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>33</v>
+      </c>
+      <c r="B116">
+        <v>256</v>
+      </c>
+      <c r="C116">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>33</v>
+      </c>
+      <c r="B117">
+        <v>256</v>
+      </c>
+      <c r="C117">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>33</v>
+      </c>
+      <c r="B118">
+        <v>256</v>
+      </c>
+      <c r="C118">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>33</v>
+      </c>
+      <c r="B119">
+        <v>256</v>
+      </c>
+      <c r="C119">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <v>257</v>
+      </c>
+      <c r="C120">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>34</v>
+      </c>
+      <c r="B121">
+        <v>257</v>
+      </c>
+      <c r="C121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>34</v>
+      </c>
+      <c r="B122">
+        <v>257</v>
+      </c>
+      <c r="C122">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>34</v>
+      </c>
+      <c r="B123">
+        <v>257</v>
+      </c>
+      <c r="C123">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>35</v>
+      </c>
+      <c r="B124">
+        <v>258</v>
+      </c>
+      <c r="C124">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>36</v>
+      </c>
+      <c r="B125">
+        <v>258</v>
+      </c>
+      <c r="C125">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>36</v>
+      </c>
+      <c r="B126">
+        <v>258</v>
+      </c>
+      <c r="C126">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>36</v>
+      </c>
+      <c r="B127">
+        <v>258</v>
+      </c>
+      <c r="C127">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>38</v>
+      </c>
+      <c r="B128">
+        <v>264</v>
+      </c>
+      <c r="C128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>38</v>
+      </c>
+      <c r="B129">
+        <v>264</v>
+      </c>
+      <c r="C129">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>38</v>
+      </c>
+      <c r="B130">
+        <v>264</v>
+      </c>
+      <c r="C130">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>38</v>
+      </c>
+      <c r="B131">
+        <v>264</v>
+      </c>
+      <c r="C131">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>38</v>
+      </c>
+      <c r="B132">
+        <v>264</v>
+      </c>
+      <c r="C132">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>40</v>
+      </c>
+      <c r="B133">
+        <v>300</v>
+      </c>
+      <c r="C133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>40</v>
+      </c>
+      <c r="B134">
+        <v>300</v>
+      </c>
+      <c r="C134">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>40</v>
+      </c>
+      <c r="B135">
+        <v>300</v>
+      </c>
+      <c r="C135">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>40</v>
+      </c>
+      <c r="B136">
+        <v>300</v>
+      </c>
+      <c r="C136">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>40</v>
+      </c>
+      <c r="B137">
+        <v>300</v>
+      </c>
+      <c r="C137">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>41</v>
+      </c>
+      <c r="B138">
+        <v>300</v>
+      </c>
+      <c r="C138">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>41</v>
+      </c>
+      <c r="B139">
+        <v>300</v>
+      </c>
+      <c r="C139">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>41</v>
+      </c>
+      <c r="B140">
+        <v>300</v>
+      </c>
+      <c r="C140">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>41</v>
+      </c>
+      <c r="B141">
+        <v>300</v>
+      </c>
+      <c r="C141">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>42</v>
+      </c>
+      <c r="B142">
+        <v>301</v>
+      </c>
+      <c r="C142">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>42</v>
+      </c>
+      <c r="B143">
+        <v>301</v>
+      </c>
+      <c r="C143">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>43</v>
+      </c>
+      <c r="B144">
+        <v>301</v>
+      </c>
+      <c r="C144">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>43</v>
+      </c>
+      <c r="B145">
+        <v>301</v>
+      </c>
+      <c r="C145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>43</v>
+      </c>
+      <c r="B146">
+        <v>301</v>
+      </c>
+      <c r="C146">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>43</v>
+      </c>
+      <c r="B147">
+        <v>301</v>
+      </c>
+      <c r="C147">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>44</v>
+      </c>
+      <c r="B148">
+        <v>301</v>
+      </c>
+      <c r="C148">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>44</v>
+      </c>
+      <c r="B149">
+        <v>301</v>
+      </c>
+      <c r="C149">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>44</v>
+      </c>
+      <c r="B150">
+        <v>301</v>
+      </c>
+      <c r="C150">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>44</v>
+      </c>
+      <c r="B151">
+        <v>301</v>
+      </c>
+      <c r="C151">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>45</v>
+      </c>
+      <c r="B152">
+        <v>302</v>
+      </c>
+      <c r="C152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>45</v>
+      </c>
+      <c r="B153">
+        <v>302</v>
+      </c>
+      <c r="C153">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>45</v>
+      </c>
+      <c r="B154">
+        <v>302</v>
+      </c>
+      <c r="C154">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>45</v>
+      </c>
+      <c r="B155">
+        <v>302</v>
+      </c>
+      <c r="C155">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>45</v>
+      </c>
+      <c r="B156">
+        <v>302</v>
+      </c>
+      <c r="C156">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>47</v>
+      </c>
+      <c r="B157">
+        <v>303</v>
+      </c>
+      <c r="C157">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>48</v>
+      </c>
+      <c r="B158">
+        <v>305</v>
+      </c>
+      <c r="C158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>48</v>
+      </c>
+      <c r="B159">
+        <v>305</v>
+      </c>
+      <c r="C159">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>48</v>
+      </c>
+      <c r="B160">
+        <v>305</v>
+      </c>
+      <c r="C160">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>48</v>
+      </c>
+      <c r="B161">
+        <v>305</v>
+      </c>
+      <c r="C161">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>48</v>
+      </c>
+      <c r="B162">
+        <v>305</v>
+      </c>
+      <c r="C162">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>49</v>
+      </c>
+      <c r="B163">
+        <v>305</v>
+      </c>
+      <c r="C163">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>49</v>
+      </c>
+      <c r="B164">
+        <v>305</v>
+      </c>
+      <c r="C164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>49</v>
+      </c>
+      <c r="B165">
+        <v>305</v>
+      </c>
+      <c r="C165">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>49</v>
+      </c>
+      <c r="B166">
+        <v>305</v>
+      </c>
+      <c r="C166">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>50</v>
+      </c>
+      <c r="B167">
+        <v>305</v>
+      </c>
+      <c r="C167">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>50</v>
+      </c>
+      <c r="B168">
+        <v>305</v>
+      </c>
+      <c r="C168">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>50</v>
+      </c>
+      <c r="B169">
+        <v>305</v>
+      </c>
+      <c r="C169">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>50</v>
+      </c>
+      <c r="B170">
+        <v>305</v>
+      </c>
+      <c r="C170">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>51</v>
+      </c>
+      <c r="B171">
+        <v>307</v>
+      </c>
+      <c r="C171">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>51</v>
+      </c>
+      <c r="B172">
+        <v>307</v>
+      </c>
+      <c r="C172">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>51</v>
+      </c>
+      <c r="B173">
+        <v>307</v>
+      </c>
+      <c r="C173">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>52</v>
+      </c>
+      <c r="B174">
+        <v>307</v>
+      </c>
+      <c r="C174">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>52</v>
+      </c>
+      <c r="B175">
+        <v>307</v>
+      </c>
+      <c r="C175">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>52</v>
+      </c>
+      <c r="B176">
+        <v>307</v>
+      </c>
+      <c r="C176">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>52</v>
+      </c>
+      <c r="B177">
+        <v>307</v>
+      </c>
+      <c r="C177">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>52</v>
+      </c>
+      <c r="B178">
+        <v>307</v>
+      </c>
+      <c r="C178">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>53</v>
+      </c>
+      <c r="B179">
+        <v>308</v>
+      </c>
+      <c r="C179">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>53</v>
+      </c>
+      <c r="B180">
+        <v>308</v>
+      </c>
+      <c r="C180">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>53</v>
+      </c>
+      <c r="B181">
+        <v>308</v>
+      </c>
+      <c r="C181">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>53</v>
+      </c>
+      <c r="B182">
+        <v>308</v>
+      </c>
+      <c r="C182">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>54</v>
+      </c>
+      <c r="B183">
+        <v>308</v>
+      </c>
+      <c r="C183">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>55</v>
+      </c>
+      <c r="B184">
+        <v>309</v>
+      </c>
+      <c r="C184">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>55</v>
+      </c>
+      <c r="B185">
+        <v>309</v>
+      </c>
+      <c r="C185">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>55</v>
+      </c>
+      <c r="B186">
+        <v>309</v>
+      </c>
+      <c r="C186">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>55</v>
+      </c>
+      <c r="B187">
+        <v>309</v>
+      </c>
+      <c r="C187">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>56</v>
+      </c>
+      <c r="B188">
+        <v>309</v>
+      </c>
+      <c r="C188">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>57</v>
+      </c>
+      <c r="B189">
+        <v>310</v>
+      </c>
+      <c r="C189">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>57</v>
+      </c>
+      <c r="B190">
+        <v>310</v>
+      </c>
+      <c r="C190">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>58</v>
+      </c>
+      <c r="B191">
+        <v>310</v>
+      </c>
+      <c r="C191">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>58</v>
+      </c>
+      <c r="B192">
+        <v>310</v>
+      </c>
+      <c r="C192">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>59</v>
+      </c>
+      <c r="B193">
+        <v>312</v>
+      </c>
+      <c r="C193">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>59</v>
+      </c>
+      <c r="B194">
+        <v>312</v>
+      </c>
+      <c r="C194">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>59</v>
+      </c>
+      <c r="B195">
+        <v>312</v>
+      </c>
+      <c r="C195">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>60</v>
+      </c>
+      <c r="B196">
+        <v>313</v>
+      </c>
+      <c r="C196">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>61</v>
+      </c>
+      <c r="B197">
+        <v>316</v>
+      </c>
+      <c r="C197">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>61</v>
+      </c>
+      <c r="B198">
+        <v>316</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>61</v>
+      </c>
+      <c r="B199">
+        <v>316</v>
+      </c>
+      <c r="C199">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>61</v>
+      </c>
+      <c r="B200">
+        <v>316</v>
+      </c>
+      <c r="C200">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>62</v>
+      </c>
+      <c r="B201">
+        <v>317</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>62</v>
+      </c>
+      <c r="B202">
+        <v>317</v>
+      </c>
+      <c r="C202">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>62</v>
+      </c>
+      <c r="B203">
+        <v>317</v>
+      </c>
+      <c r="C203">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>63</v>
+      </c>
+      <c r="B204">
+        <v>317</v>
+      </c>
+      <c r="C204">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>63</v>
+      </c>
+      <c r="B205">
+        <v>317</v>
+      </c>
+      <c r="C205">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>63</v>
+      </c>
+      <c r="B206">
+        <v>317</v>
+      </c>
+      <c r="C206">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>64</v>
+      </c>
+      <c r="B207">
+        <v>318</v>
+      </c>
+      <c r="C207">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>64</v>
+      </c>
+      <c r="B208">
+        <v>318</v>
+      </c>
+      <c r="C208">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>64</v>
+      </c>
+      <c r="B209">
+        <v>318</v>
+      </c>
+      <c r="C209">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>65</v>
+      </c>
+      <c r="B210">
+        <v>318</v>
+      </c>
+      <c r="C210">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>65</v>
+      </c>
+      <c r="B211">
+        <v>318</v>
+      </c>
+      <c r="C211">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>65</v>
+      </c>
+      <c r="B212">
+        <v>318</v>
+      </c>
+      <c r="C212">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>65</v>
+      </c>
+      <c r="B213">
+        <v>318</v>
+      </c>
+      <c r="C213">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>66</v>
+      </c>
+      <c r="B214">
+        <v>318</v>
+      </c>
+      <c r="C214">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>66</v>
+      </c>
+      <c r="B215">
+        <v>318</v>
+      </c>
+      <c r="C215">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>66</v>
+      </c>
+      <c r="B216">
+        <v>318</v>
+      </c>
+      <c r="C216">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>66</v>
+      </c>
+      <c r="B217">
+        <v>318</v>
+      </c>
+      <c r="C217">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>67</v>
+      </c>
+      <c r="B218">
+        <v>320</v>
+      </c>
+      <c r="C218">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>68</v>
+      </c>
+      <c r="B219">
+        <v>320</v>
+      </c>
+      <c r="C219">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>68</v>
+      </c>
+      <c r="B220">
+        <v>320</v>
+      </c>
+      <c r="C220">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>68</v>
+      </c>
+      <c r="B221">
+        <v>320</v>
+      </c>
+      <c r="C221">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>68</v>
+      </c>
+      <c r="B222">
+        <v>320</v>
+      </c>
+      <c r="C222">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>68</v>
+      </c>
+      <c r="B223">
+        <v>320</v>
+      </c>
+      <c r="C223">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>68</v>
+      </c>
+      <c r="B224">
+        <v>320</v>
+      </c>
+      <c r="C224">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>69</v>
+      </c>
+      <c r="B225">
+        <v>321</v>
+      </c>
+      <c r="C225">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>70</v>
+      </c>
+      <c r="B226">
+        <v>322</v>
+      </c>
+      <c r="C226">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>70</v>
+      </c>
+      <c r="B227">
+        <v>322</v>
+      </c>
+      <c r="C227">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>71</v>
+      </c>
+      <c r="B228">
+        <v>322</v>
+      </c>
+      <c r="C228">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>71</v>
+      </c>
+      <c r="B229">
+        <v>322</v>
+      </c>
+      <c r="C229">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>71</v>
+      </c>
+      <c r="B230">
+        <v>322</v>
+      </c>
+      <c r="C230">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>71</v>
+      </c>
+      <c r="B231">
+        <v>322</v>
+      </c>
+      <c r="C231">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>72</v>
+      </c>
+      <c r="B232">
+        <v>323</v>
+      </c>
+      <c r="C232">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>73</v>
+      </c>
+      <c r="B233">
+        <v>340</v>
+      </c>
+      <c r="C233">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>73</v>
+      </c>
+      <c r="B234">
+        <v>340</v>
+      </c>
+      <c r="C234">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>73</v>
+      </c>
+      <c r="B235">
+        <v>340</v>
+      </c>
+      <c r="C235">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>74</v>
+      </c>
+      <c r="B236">
+        <v>341</v>
+      </c>
+      <c r="C236">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>74</v>
+      </c>
+      <c r="B237">
+        <v>341</v>
+      </c>
+      <c r="C237">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>74</v>
+      </c>
+      <c r="B238">
+        <v>341</v>
+      </c>
+      <c r="C238">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>75</v>
+      </c>
+      <c r="B239">
+        <v>342</v>
+      </c>
+      <c r="C239">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>75</v>
+      </c>
+      <c r="B240">
+        <v>342</v>
+      </c>
+      <c r="C240">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>75</v>
+      </c>
+      <c r="B241">
+        <v>342</v>
+      </c>
+      <c r="C241">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>75</v>
+      </c>
+      <c r="B242">
+        <v>342</v>
+      </c>
+      <c r="C242">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>76</v>
+      </c>
+      <c r="B243">
+        <v>342</v>
+      </c>
+      <c r="C243">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>77</v>
+      </c>
+      <c r="B244">
+        <v>344</v>
+      </c>
+      <c r="C244">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>77</v>
+      </c>
+      <c r="B245">
+        <v>344</v>
+      </c>
+      <c r="C245">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>77</v>
+      </c>
+      <c r="B246">
+        <v>344</v>
+      </c>
+      <c r="C246">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>77</v>
+      </c>
+      <c r="B247">
+        <v>344</v>
+      </c>
+      <c r="C247">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>78</v>
+      </c>
+      <c r="B248">
+        <v>344</v>
+      </c>
+      <c r="C248">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>79</v>
+      </c>
+      <c r="B249">
+        <v>345</v>
+      </c>
+      <c r="C249">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>79</v>
+      </c>
+      <c r="B250">
+        <v>345</v>
+      </c>
+      <c r="C250">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>79</v>
+      </c>
+      <c r="B251">
+        <v>345</v>
+      </c>
+      <c r="C251">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>79</v>
+      </c>
+      <c r="B252">
+        <v>345</v>
+      </c>
+      <c r="C252">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>80</v>
+      </c>
+      <c r="B253">
+        <v>360</v>
+      </c>
+      <c r="C253">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>80</v>
+      </c>
+      <c r="B254">
+        <v>360</v>
+      </c>
+      <c r="C254">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>80</v>
+      </c>
+      <c r="B255">
+        <v>360</v>
+      </c>
+      <c r="C255">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>80</v>
+      </c>
+      <c r="B256">
+        <v>360</v>
+      </c>
+      <c r="C256">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>81</v>
+      </c>
+      <c r="B257">
+        <v>361</v>
+      </c>
+      <c r="C257">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>81</v>
+      </c>
+      <c r="B258">
+        <v>361</v>
+      </c>
+      <c r="C258">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>81</v>
+      </c>
+      <c r="B259">
+        <v>361</v>
+      </c>
+      <c r="C259">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>81</v>
+      </c>
+      <c r="B260">
+        <v>361</v>
+      </c>
+      <c r="C260">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>82</v>
+      </c>
+      <c r="B261">
+        <v>400</v>
+      </c>
+      <c r="C261">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>82</v>
+      </c>
+      <c r="B262">
+        <v>400</v>
+      </c>
+      <c r="C262">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>83</v>
+      </c>
+      <c r="B263">
+        <v>400</v>
+      </c>
+      <c r="C263">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>83</v>
+      </c>
+      <c r="B264">
+        <v>400</v>
+      </c>
+      <c r="C264">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>83</v>
+      </c>
+      <c r="B265">
+        <v>400</v>
+      </c>
+      <c r="C265">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>83</v>
+      </c>
+      <c r="B266">
+        <v>400</v>
+      </c>
+      <c r="C266">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>84</v>
+      </c>
+      <c r="B267">
+        <v>401</v>
+      </c>
+      <c r="C267">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>84</v>
+      </c>
+      <c r="B268">
+        <v>401</v>
+      </c>
+      <c r="C268">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>84</v>
+      </c>
+      <c r="B269">
+        <v>401</v>
+      </c>
+      <c r="C269">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>84</v>
+      </c>
+      <c r="B270">
+        <v>401</v>
+      </c>
+      <c r="C270">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>85</v>
+      </c>
+      <c r="B271">
+        <v>401</v>
+      </c>
+      <c r="C271">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>86</v>
+      </c>
+      <c r="B272">
+        <v>402</v>
+      </c>
+      <c r="C272">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>86</v>
+      </c>
+      <c r="B273">
+        <v>402</v>
+      </c>
+      <c r="C273">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>87</v>
+      </c>
+      <c r="B274">
+        <v>403</v>
+      </c>
+      <c r="C274">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>87</v>
+      </c>
+      <c r="B275">
+        <v>403</v>
+      </c>
+      <c r="C275">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>88</v>
+      </c>
+      <c r="B276">
+        <v>403</v>
+      </c>
+      <c r="C276">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>89</v>
+      </c>
+      <c r="B277">
+        <v>404</v>
+      </c>
+      <c r="C277">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>89</v>
+      </c>
+      <c r="B278">
+        <v>404</v>
+      </c>
+      <c r="C278">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>90</v>
+      </c>
+      <c r="B279">
+        <v>404</v>
+      </c>
+      <c r="C279">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>91</v>
+      </c>
+      <c r="B280">
+        <v>405</v>
+      </c>
+      <c r="C280">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>91</v>
+      </c>
+      <c r="B281">
+        <v>405</v>
+      </c>
+      <c r="C281">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>91</v>
+      </c>
+      <c r="B282">
+        <v>405</v>
+      </c>
+      <c r="C282">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>91</v>
+      </c>
+      <c r="B283">
+        <v>405</v>
+      </c>
+      <c r="C283">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>92</v>
+      </c>
+      <c r="B284">
+        <v>406</v>
+      </c>
+      <c r="C284">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>92</v>
+      </c>
+      <c r="B285">
+        <v>406</v>
+      </c>
+      <c r="C285">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>93</v>
+      </c>
+      <c r="B286">
+        <v>406</v>
+      </c>
+      <c r="C286">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>93</v>
+      </c>
+      <c r="B287">
+        <v>406</v>
+      </c>
+      <c r="C287">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>93</v>
+      </c>
+      <c r="B288">
+        <v>406</v>
+      </c>
+      <c r="C288">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>93</v>
+      </c>
+      <c r="B289">
+        <v>406</v>
+      </c>
+      <c r="C289">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>94</v>
+      </c>
+      <c r="B290">
+        <v>406</v>
+      </c>
+      <c r="C290">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>95</v>
+      </c>
+      <c r="B291">
+        <v>412</v>
+      </c>
+      <c r="C291">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>96</v>
+      </c>
+      <c r="B292">
+        <v>412</v>
+      </c>
+      <c r="C292">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>97</v>
+      </c>
+      <c r="B293">
+        <v>418</v>
+      </c>
+      <c r="C293">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>98</v>
+      </c>
+      <c r="B294">
+        <v>419</v>
+      </c>
+      <c r="C294">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>99</v>
+      </c>
+      <c r="B295">
+        <v>420</v>
+      </c>
+      <c r="C295">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>100</v>
+      </c>
+      <c r="B296">
+        <v>421</v>
+      </c>
+      <c r="C296">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>101</v>
+      </c>
+      <c r="B297">
+        <v>422</v>
+      </c>
+      <c r="C297">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>102</v>
+      </c>
+      <c r="B298">
+        <v>423</v>
+      </c>
+      <c r="C298">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>103</v>
+      </c>
+      <c r="B299">
+        <v>423</v>
+      </c>
+      <c r="C299">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>103</v>
+      </c>
+      <c r="B300">
+        <v>423</v>
+      </c>
+      <c r="C300">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>104</v>
+      </c>
+      <c r="B301">
+        <v>424</v>
+      </c>
+      <c r="C301">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>105</v>
+      </c>
+      <c r="B302">
+        <v>424</v>
+      </c>
+      <c r="C302">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>105</v>
+      </c>
+      <c r="B303">
+        <v>424</v>
+      </c>
+      <c r="C303">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>106</v>
+      </c>
+      <c r="B304">
+        <v>424</v>
+      </c>
+      <c r="C304">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>107</v>
+      </c>
+      <c r="B305">
+        <v>424</v>
+      </c>
+      <c r="C305">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>107</v>
+      </c>
+      <c r="B306">
+        <v>424</v>
+      </c>
+      <c r="C306">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>107</v>
+      </c>
+      <c r="B307">
+        <v>424</v>
+      </c>
+      <c r="C307">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>107</v>
+      </c>
+      <c r="B308">
+        <v>424</v>
+      </c>
+      <c r="C308">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>108</v>
+      </c>
+      <c r="B309">
+        <v>425</v>
+      </c>
+      <c r="C309">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>109</v>
+      </c>
+      <c r="B310">
+        <v>426</v>
+      </c>
+      <c r="C310">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>109</v>
+      </c>
+      <c r="B311">
+        <v>426</v>
+      </c>
+      <c r="C311">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>110</v>
+      </c>
+      <c r="B312">
+        <v>427</v>
+      </c>
+      <c r="C312">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>111</v>
+      </c>
+      <c r="B313">
+        <v>428</v>
+      </c>
+      <c r="C313">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>111</v>
+      </c>
+      <c r="B314">
+        <v>428</v>
+      </c>
+      <c r="C314">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>111</v>
+      </c>
+      <c r="B315">
+        <v>428</v>
+      </c>
+      <c r="C315">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>113</v>
+      </c>
+      <c r="B316">
+        <v>428</v>
+      </c>
+      <c r="C316">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>114</v>
+      </c>
+      <c r="B317">
+        <v>437</v>
+      </c>
+      <c r="C317">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>114</v>
+      </c>
+      <c r="B318">
+        <v>437</v>
+      </c>
+      <c r="C318">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>115</v>
+      </c>
+      <c r="B319">
+        <v>440</v>
+      </c>
+      <c r="C319">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>116</v>
+      </c>
+      <c r="B320">
+        <v>440</v>
+      </c>
+      <c r="C320">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>117</v>
+      </c>
+      <c r="B321">
+        <v>441</v>
+      </c>
+      <c r="C321">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>118</v>
+      </c>
+      <c r="B322">
+        <v>442</v>
+      </c>
+      <c r="C322">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>118</v>
+      </c>
+      <c r="B323">
+        <v>442</v>
+      </c>
+      <c r="C323">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>118</v>
+      </c>
+      <c r="B324">
+        <v>442</v>
+      </c>
+      <c r="C324">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>119</v>
+      </c>
+      <c r="B325">
+        <v>443</v>
+      </c>
+      <c r="C325">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>119</v>
+      </c>
+      <c r="B326">
+        <v>443</v>
+      </c>
+      <c r="C326">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>119</v>
+      </c>
+      <c r="B327">
+        <v>443</v>
+      </c>
+      <c r="C327">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>120</v>
+      </c>
+      <c r="B328">
+        <v>444</v>
+      </c>
+      <c r="C328">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>120</v>
+      </c>
+      <c r="B329">
+        <v>444</v>
+      </c>
+      <c r="C329">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>122</v>
+      </c>
+      <c r="B330">
+        <v>450</v>
+      </c>
+      <c r="C330">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>123</v>
+      </c>
+      <c r="B331">
+        <v>450</v>
+      </c>
+      <c r="C331">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>124</v>
+      </c>
+      <c r="B332">
+        <v>462</v>
+      </c>
+      <c r="C332">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>124</v>
+      </c>
+      <c r="B333">
+        <v>462</v>
+      </c>
+      <c r="C333">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>125</v>
+      </c>
+      <c r="B334">
+        <v>404</v>
+      </c>
+      <c r="C334">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1050,9 +8556,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC045EC-A8A3-974C-9403-34BA5D62B768}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1155,6 +8663,334 @@
         <v>121</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1164,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,762 +9030,762 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <f>B2*COS(C2/30*3.14159)</f>
-        <v>4.9726095230706244</v>
+        <v>1.326794896677558E-6</v>
       </c>
       <c r="E2" s="1">
         <f>B2*SIN(C2/30*3.14159)</f>
-        <v>0.52264187649607352</v>
+        <v>0.99999999999911982</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="0">B3*COS(C3/30*3.14159)</f>
-        <v>5.96713142768475</v>
+        <f>B3*COS(C3/30*3.14159)</f>
+        <v>2.653589793355116E-6</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="1">B3*SIN(C3/30*3.14159)</f>
-        <v>0.62717025179528818</v>
+        <f>B3*SIN(C3/30*3.14159)</f>
+        <v>1.9999999999982396</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>423</v>
+        <v>102</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>B4*COS(C4/30*3.14159)</f>
+        <v>-0.58778374953199164</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>B4*SIN(C4/30*3.14159)</f>
+        <v>0.80901808619221416</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>422</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9616533322988747</v>
+        <f>B5*COS(C5/30*3.14159)</f>
+        <v>-1.1755674990639833</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73169862709450295</v>
+        <f>B5*SIN(C5/30*3.14159)</f>
+        <v>1.6180361723844283</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8470334626022913</v>
+        <f>B6*COS(C6/30*3.14159)</f>
+        <v>-0.80901574658036768</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4553806244431307</v>
+        <f>B6*SIN(C6/30*3.14159)</f>
+        <v>0.58778696973053957</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6573961880688799</v>
+        <f>B7*COS(C7/30*3.14159)</f>
+        <v>-1.6180314931607354</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.163117194024851</v>
+        <f>B7*SIN(C7/30*3.14159)</f>
+        <v>1.1755739394610791</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3948192108558635</v>
+        <f>B8*COS(C8/30*3.14159)</f>
+        <v>-0.99999999999647926</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8471542389671813</v>
+        <f>B8*SIN(C8/30*3.14159)</f>
+        <v>2.6535897933527804E-6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>426</v>
+        <v>120</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0621793744178571</v>
+        <f>B9*COS(C9/30*3.14159)</f>
+        <v>0.80901730632302271</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4999973189107898</v>
+        <f>B9*SIN(C9/30*3.14159)</f>
+        <v>0.58778482293254264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>427</v>
+        <v>121</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9282049993346941</v>
+        <f>B10*COS(C10/30*3.14159)</f>
+        <v>1.6180346126460454</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9999969358980456</v>
+        <f>B10*SIN(C10/30*3.14159)</f>
+        <v>1.1755696458650853</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0450865316151132</v>
+        <f>B11*COS(C11/30*3.14159)</f>
+        <v>-0.30901548014623692</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9389241146627132</v>
+        <f>B11*SIN(C11/30*3.14159)</f>
+        <v>0.95105700829655349</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.854103837938136</v>
+        <f>B12*COS(C12/30*3.14159)</f>
+        <v>-0.95105577828853327</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5267089375952558</v>
+        <f>B12*SIN(C12/30*3.14159)</f>
+        <v>0.30901926571654431</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6631211442611589</v>
+        <f>B13*COS(C13/30*3.14159)</f>
+        <v>-0.95105741829587842</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1144937605277985</v>
+        <f>B13*SIN(C13/30*3.14159)</f>
+        <v>-0.30901421828838005</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421</v>
+        <v>200</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4721384505841817</v>
+        <f>B14*COS(C14/30*3.14159)</f>
+        <v>3.9803846900326745E-6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7022785834603411</v>
+        <f>B14*SIN(C14/30*3.14159)</f>
+        <v>2.9999999999973594</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2020166784844033</v>
+        <f>B15*COS(C15/30*3.14159)</f>
+        <v>-3.2360629863214707</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6839110235752877</v>
+        <f>B15*SIN(C15/30*3.14159)</f>
+        <v>2.3511478789221583</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>5.945161918267889</v>
+        <f>B16*COS(C16/30*3.14159)</f>
+        <v>-1.2360619205849477</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3530411698003286</v>
+        <f>B16*SIN(C16/30*3.14159)</f>
+        <v>3.8042280331862139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6839179255803467</v>
+        <f>B17*COS(C17/30*3.14159)</f>
+        <v>-1.2360619205849477</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2020104638905815</v>
+        <f>B17*SIN(C17/30*3.14159)</f>
+        <v>3.8042280331862139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>404</v>
+        <v>221</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3530490578061105</v>
+        <f>B18*COS(C18/30*3.14159)</f>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9451548158749503</v>
+        <f>B18*SIN(C18/30*3.14159)</f>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>428</v>
+        <v>223</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.11450127432441</v>
+        <f>B19*COS(C19/30*3.14159)</f>
+        <v>2.983565713842375</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6631156851668507</v>
+        <f>B19*SIN(C19/30*3.14159)</f>
+        <v>0.31358512589764409</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>403</v>
+        <v>226</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5000053621763669</v>
+        <f>B20*COS(C20/30*3.14159)</f>
+        <v>2.427051918969068</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0621747306339397</v>
+        <f>B20*SIN(C20/30*3.14159)</f>
+        <v>1.7633544687976279</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0336876596986921</v>
+        <f>B21*COS(C21/30*3.14159)</f>
+        <v>3.2360692252920908</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5677253094718004</v>
+        <f>B21*SIN(C21/30*3.14159)</f>
+        <v>2.3511392917301706</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4404251916384307</v>
+        <f>B22*COS(C22/30*3.14159)</f>
+        <v>2.0336876596986921</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4812703713661612</v>
+        <f>B22*SIN(C22/30*3.14159)</f>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>440</v>
+        <v>301</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8471627235781689</v>
+        <f>B23*COS(C23/30*3.14159)</f>
+        <v>2.4404251916384307</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3948154332605212</v>
+        <f>B23*SIN(C23/30*3.14159)</f>
+        <v>5.4812703713661612</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2539002555179075</v>
+        <f>B24*COS(C24/30*3.14159)</f>
+        <v>-0.52263527886267447</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>7.3083604951548811</v>
+        <f>B24*SIN(C24/30*3.14159)</f>
+        <v>4.9726102165048216</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5450900193015951</v>
+        <f>B25*COS(C25/30*3.14159)</f>
+        <v>-0.62716233463520943</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7552809414644051</v>
+        <f>B25*SIN(C25/30*3.14159)</f>
+        <v>5.9671322598057861</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>2.163126027022233</v>
+        <f>B26*COS(C26/30*3.14159)</f>
+        <v>-2.0336755388222723</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6573933180501665</v>
+        <f>B26*SIN(C26/30*3.14159)</f>
+        <v>4.5677307060285353</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4721440308825522</v>
+        <f>B27*COS(C27/30*3.14159)</f>
+        <v>-4.755278891442666</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>7.6084495063430477</v>
+        <f>B27*SIN(C27/30*3.14159)</f>
+        <v>1.5450963285827215</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52264847412855131</v>
+        <f>B28*COS(C28/30*3.14159)</f>
+        <v>-4.567722611181372</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9726088296276734</v>
+        <f>B28*SIN(C28/30*3.14159)</f>
+        <v>2.0336937201315322</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4553897090509051</v>
+        <f>B29*COS(C29/30*3.14159)</f>
+        <v>-4.0450787329018381</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8470315316046797</v>
+        <f>B29*SIN(C29/30*3.14159)</f>
+        <v>2.9389348486526981</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>424</v>
+        <v>312</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73170786377997177</v>
+        <f>B30*COS(C30/30*3.14159)</f>
+        <v>-2.4999923397421799</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9616523614787429</v>
+        <f>B30*SIN(C30/30*3.14159)</f>
+        <v>4.3301314415650731</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.83623755860568205</v>
+        <f>B31*COS(C31/30*3.14159)</f>
+        <v>-2.9999908076906157</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9561741274042772</v>
+        <f>B31*SIN(C31/30*3.14159)</f>
+        <v>5.1961577298780881</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6339744833877897E-6</v>
+        <f>B32*COS(C32/30*3.14159)</f>
+        <v>1.5450900193015951</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9999999999955991</v>
+        <f>B32*SIN(C32/30*3.14159)</f>
+        <v>4.7552809414644051</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2875642767429066E-6</v>
+        <f>B33*COS(C33/30*3.14159)</f>
+        <v>5.3071795867102321E-6</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9999999999938387</v>
+        <f>B33*SIN(C33/30*3.14159)</f>
+        <v>3.9999999999964793</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.52263527886267447</v>
+        <f>B34*COS(C34/30*3.14159)</f>
+        <v>4.0450865316151132</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9726102165048216</v>
+        <f>B34*SIN(C34/30*3.14159)</f>
+        <v>2.9389241146627132</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.62716233463520943</v>
+        <f>B35*COS(C35/30*3.14159)</f>
+        <v>4.854103837938136</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9671322598057861</v>
+        <f>B35*SIN(C35/30*3.14159)</f>
+        <v>3.5267089375952558</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.5450774007311847</v>
+        <f>B36*COS(C36/30*3.14159)</f>
+        <v>4.9726095230706244</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7552850414827672</v>
+        <f>B36*SIN(C36/30*3.14159)</f>
+        <v>0.52264187649607352</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0336755388222723</v>
+        <f>B37*COS(C37/30*3.14159)</f>
+        <v>5.96713142768475</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5677307060285353</v>
+        <f>B37*SIN(C37/30*3.14159)</f>
+        <v>0.62717025179528818</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4553715398327942</v>
+        <f>B38*COS(C38/30*3.14159)</f>
+        <v>-4.9726081361759684</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8470353935878503</v>
+        <f>B38*SIN(C38/30*3.14159)</f>
+        <v>0.52265507176010961</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>18</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1631083610236583</v>
+        <f>B39*COS(C39/30*3.14159)</f>
+        <v>-1.5450774007311847</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6573990580758746</v>
+        <f>B39*SIN(C39/30*3.14159)</f>
+        <v>4.7552850414827672</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.4999923397421799</v>
+        <f>B40*COS(C40/30*3.14159)</f>
+        <v>-3.3456458011157024</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>4.3301314415650731</v>
+        <f>B40*SIN(C40/30*3.14159)</f>
+        <v>3.7157306379064763</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.9999908076906157</v>
+        <f>B41*COS(C41/30*3.14159)</f>
+        <v>-3.7157173209197163</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1961577298780881</v>
+        <f>B41*SIN(C41/30*3.14159)</f>
+        <v>3.3456605911265425</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1963,604 +9799,607 @@
         <v>21</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
+        <f>B42*COS(C42/30*3.14159)</f>
         <v>-2.9389187476599581</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
+        <f>B42*SIN(C42/30*3.14159)</f>
         <v>4.0450904309610705</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.3456458011157024</v>
+        <f>B43*COS(C43/30*3.14159)</f>
+        <v>0.52264847412855131</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7157306379064763</v>
+        <f>B43*SIN(C43/30*3.14159)</f>
+        <v>4.9726088296276734</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.7157173209197163</v>
+        <f>B44*COS(C44/30*3.14159)</f>
+        <v>-4.8907354289964386</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3456605911265425</v>
+        <f>B44*SIN(C44/30*3.14159)</f>
+        <v>1.0395705668972257</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.0450787329018381</v>
+        <f>B45*COS(C45/30*3.14159)</f>
+        <v>6.6339744833877897E-6</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9389348486526981</v>
+        <f>B45*SIN(C45/30*3.14159)</f>
+        <v>4.9999999999955991</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.6631102260625736</v>
+        <f>B46*COS(C46/30*3.14159)</f>
+        <v>2.163126027022233</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1145087881137767</v>
+        <f>B46*SIN(C46/30*3.14159)</f>
+        <v>6.6573933180501665</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.0621700868393518</v>
+        <f>B47*COS(C47/30*3.14159)</f>
+        <v>2.4721440308825522</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5000134054357797</v>
+        <f>B47*SIN(C47/30*3.14159)</f>
+        <v>7.6084495063430477</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.567722611181372</v>
+        <f>B48*COS(C48/30*3.14159)</f>
+        <v>4.6839179255803467</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0336937201315322</v>
+        <f>B48*SIN(C48/30*3.14159)</f>
+        <v>5.2020104638905815</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.755278891442666</v>
+        <f>B49*COS(C49/30*3.14159)</f>
+        <v>3.5000053621763669</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5450963285827215</v>
+        <f>B49*SIN(C49/30*3.14159)</f>
+        <v>6.0621747306339397</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.8907354289964386</v>
+        <f>B50*COS(C50/30*3.14159)</f>
+        <v>5.3530490578061105</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0395705668972257</v>
+        <f>B50*SIN(C50/30*3.14159)</f>
+        <v>5.9451548158749503</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.9726081361759684</v>
+        <f>B51*COS(C51/30*3.14159)</f>
+        <v>1.4553897090509051</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52265507176010961</v>
+        <f>B51*SIN(C51/30*3.14159)</f>
+        <v>6.8470315316046797</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B52">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.9999999999753548</v>
+        <f>B52*COS(C52/30*3.14159)</f>
+        <v>6.3948192108558635</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8575128553469462E-5</v>
+        <f>B52*SIN(C52/30*3.14159)</f>
+        <v>2.8471542389671813</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80901730632302271</v>
+        <f>B53*COS(C53/30*3.14159)</f>
+        <v>-6.9999999999753548</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="1"/>
-        <v>0.58778482293254264</v>
+        <f>B53*SIN(C53/30*3.14159)</f>
+        <v>1.8575128553469462E-5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>121</v>
+        <v>418</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6180346126460454</v>
+        <f>B54*COS(C54/30*3.14159)</f>
+        <v>5.2020166784844033</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1755696458650853</v>
+        <f>B54*SIN(C54/30*3.14159)</f>
+        <v>4.6839110235752877</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>226</v>
+        <v>419</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="0"/>
-        <v>2.427051918969068</v>
+        <f>B55*COS(C55/30*3.14159)</f>
+        <v>5.945161918267889</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7633544687976279</v>
+        <f>B55*SIN(C55/30*3.14159)</f>
+        <v>5.3530411698003286</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>6</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2360692252920908</v>
+        <f>B56*COS(C56/30*3.14159)</f>
+        <v>5.6631211442611589</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3511392917301706</v>
+        <f>B56*SIN(C56/30*3.14159)</f>
+        <v>4.1144937605277985</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>223</v>
+        <v>421</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>2.983565713842375</v>
+        <f>B57*COS(C57/30*3.14159)</f>
+        <v>6.4721384505841817</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31358512589764409</v>
+        <f>B57*SIN(C57/30*3.14159)</f>
+        <v>4.7022785834603411</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>100</v>
+        <v>422</v>
       </c>
       <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58">
-        <v>15</v>
-      </c>
       <c r="D58" s="1">
-        <f t="shared" si="0"/>
-        <v>1.326794896677558E-6</v>
+        <f>B58*COS(C58/30*3.14159)</f>
+        <v>6.9616533322988747</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99999999999911982</v>
+        <f>B58*SIN(C58/30*3.14159)</f>
+        <v>0.73169862709450295</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>2.653589793355116E-6</v>
+        <f>B59*COS(C59/30*3.14159)</f>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9999999999982396</v>
+        <f>B59*SIN(C59/30*3.14159)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.30901548014623692</v>
+        <f>B60*COS(C60/30*3.14159)</f>
+        <v>0.73170786377997177</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="1"/>
-        <v>0.95105700829655349</v>
+        <f>B60*SIN(C60/30*3.14159)</f>
+        <v>6.9616523614787429</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>184</v>
+        <v>425</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.95105577828853327</v>
+        <f>B61*COS(C61/30*3.14159)</f>
+        <v>0.83623755860568205</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30901926571654431</v>
+        <f>B61*SIN(C61/30*3.14159)</f>
+        <v>7.9561741274042772</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9803846900326745E-6</v>
+        <f>B62*COS(C62/30*3.14159)</f>
+        <v>6.0621793744178571</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9999999999973594</v>
+        <f>B62*SIN(C62/30*3.14159)</f>
+        <v>3.4999973189107898</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>317</v>
+        <v>427</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3071795867102321E-6</v>
+        <f>B63*COS(C63/30*3.14159)</f>
+        <v>6.9282049993346941</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9999999999964793</v>
+        <f>B63*SIN(C63/30*3.14159)</f>
+        <v>3.9999969358980456</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.58778374953199164</v>
+        <f>B64*COS(C64/30*3.14159)</f>
+        <v>4.11450127432441</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="1"/>
-        <v>0.80901808619221416</v>
+        <f>B64*SIN(C64/30*3.14159)</f>
+        <v>5.6631156851668507</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="C65">
-        <v>21</v>
-      </c>
       <c r="D65" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1755674990639833</v>
+        <f>B65*COS(C65/30*3.14159)</f>
+        <v>6.8470334626022913</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6180361723844283</v>
+        <f>B65*SIN(C65/30*3.14159)</f>
+        <v>1.4553806244431307</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>215</v>
+        <v>440</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2360619205849477</v>
+        <f>B66*COS(C66/30*3.14159)</f>
+        <v>2.8471627235781689</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8042280331862139</v>
+        <f>B66*SIN(C66/30*3.14159)</f>
+        <v>6.3948154332605212</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>104</v>
+        <v>441</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D73" si="2">B67*COS(C67/30*3.14159)</f>
-        <v>-0.80901574658036768</v>
+        <f>B67*COS(C67/30*3.14159)</f>
+        <v>-2.1631083610236583</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E73" si="3">B67*SIN(C67/30*3.14159)</f>
-        <v>0.58778696973053957</v>
+        <f>B67*SIN(C67/30*3.14159)</f>
+        <v>6.6573990580758746</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>105</v>
+        <v>442</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.6180314931607354</v>
+        <f>B68*COS(C68/30*3.14159)</f>
+        <v>-1.4553715398327942</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1755739394610791</v>
+        <f>B68*SIN(C68/30*3.14159)</f>
+        <v>6.8470353935878503</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.99999999999647926</v>
+        <f>B69*COS(C69/30*3.14159)</f>
+        <v>6.6573961880688799</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6535897933527804E-6</v>
+        <f>B69*SIN(C69/30*3.14159)</f>
+        <v>2.163117194024851</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>190</v>
+        <v>444</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.95105741829587842</v>
+        <f>B70*COS(C70/30*3.14159)</f>
+        <v>-5.6631102260625736</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.30901421828838005</v>
+        <f>B70*SIN(C70/30*3.14159)</f>
+        <v>4.1145087881137767</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2360619205849477</v>
+        <f>B71*COS(C71/30*3.14159)</f>
+        <v>-6.0621700868393518</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="3"/>
-        <v>3.8042280331862139</v>
+        <f>B71*SIN(C71/30*3.14159)</f>
+        <v>3.5000134054357797</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>221</v>
+        <v>450</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.3511349981279666</v>
+        <f>B72*COS(C72/30*3.14159)</f>
+        <v>3.2539002555179075</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2360723447688566</v>
+        <f>B72*SIN(C72/30*3.14159)</f>
+        <v>7.3083604951548811</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>210</v>
+        <v>462</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.2360629863214707</v>
+        <f>B73*COS(C73/30*3.14159)</f>
+        <v>9.2875642767429066E-6</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3511478789221583</v>
+        <f>B73*SIN(C73/30*3.14159)</f>
+        <v>6.9999999999938387</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+    <sortCondition ref="A2:A73"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyang/Desktop/Math Website/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB584E-9867-6C4B-8F51-2A22EF85CB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5693440-D4FA-C649-9B68-062A2476CCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="6800" yWindow="460" windowWidth="28040" windowHeight="16440" activeTab="6" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="LayoutRequisites" sheetId="8" r:id="rId7"/>
     <sheet name="Tracks" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="LayoutRequisites" localSheetId="6">LayoutRequisites!$A$1:$G$190</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,8 +43,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{7E8C53EE-5A0B-B445-A3CB-1A1D007EA6B1}" name="LayoutRequisites" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/wuyang/Desktop/Math Website/coursemap/data/LayoutRequisites.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="308">
   <si>
     <t>number</t>
   </si>
@@ -1041,9 +1063,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1096,8 +1117,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,6 +1134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites" connectionId="1" xr16:uid="{A15A76DB-07C6-4145-9227-D4C8A206FCBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2989,7 +3014,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3003,7 +3028,7 @@
       <c r="C6" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3017,7 +3042,7 @@
       <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3031,7 +3056,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3045,7 +3070,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3059,7 +3084,7 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3087,7 +3112,7 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3101,7 +3126,7 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3115,7 +3140,7 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3129,7 +3154,7 @@
       <c r="C15" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3143,7 +3168,7 @@
       <c r="C16" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3157,7 +3182,7 @@
       <c r="C17" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3171,7 +3196,7 @@
       <c r="C18" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3185,7 +3210,7 @@
       <c r="C19" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3199,7 +3224,7 @@
       <c r="C20" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3213,7 +3238,7 @@
       <c r="C21" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3227,7 +3252,7 @@
       <c r="C22" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3241,7 +3266,7 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3255,7 +3280,7 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3269,7 +3294,7 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3283,7 +3308,7 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3311,7 +3336,7 @@
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3325,7 +3350,7 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3339,7 +3364,7 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3353,7 +3378,7 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3367,7 +3392,7 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3381,7 +3406,7 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3395,7 +3420,7 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3409,7 +3434,7 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3423,7 +3448,7 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3437,7 +3462,7 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3451,7 +3476,7 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3465,7 +3490,7 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3479,7 +3504,7 @@
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3493,7 +3518,7 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3507,7 +3532,7 @@
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3521,7 +3546,7 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3535,7 +3560,7 @@
       <c r="C44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3549,7 +3574,7 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3563,7 +3588,7 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3577,7 +3602,7 @@
       <c r="C47" t="s">
         <v>251</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3591,7 +3616,7 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3605,7 +3630,7 @@
       <c r="C49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3619,7 +3644,7 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3633,7 +3658,7 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3647,7 +3672,7 @@
       <c r="C52" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3661,7 +3686,7 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3675,7 +3700,7 @@
       <c r="C54" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3689,7 +3714,7 @@
       <c r="C55" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3703,7 +3728,7 @@
       <c r="C56" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3717,7 +3742,7 @@
       <c r="C57" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3731,7 +3756,7 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3745,7 +3770,7 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3759,7 +3784,7 @@
       <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3773,7 +3798,7 @@
       <c r="C61" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3787,7 +3812,7 @@
       <c r="C62" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3801,7 +3826,7 @@
       <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3829,7 +3854,7 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3843,7 +3868,7 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3857,7 +3882,7 @@
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3871,7 +3896,7 @@
       <c r="C68" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3885,7 +3910,7 @@
       <c r="C69" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3899,7 +3924,7 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3913,7 +3938,7 @@
       <c r="C71" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3927,7 +3952,7 @@
       <c r="C72" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3941,7 +3966,7 @@
       <c r="C73" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3955,7 +3980,7 @@
       <c r="C74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3969,7 +3994,7 @@
       <c r="C75" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3983,7 +4008,7 @@
       <c r="C76" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3997,7 +4022,7 @@
       <c r="C77" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4011,7 +4036,7 @@
       <c r="C78" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4025,7 +4050,7 @@
       <c r="C79" t="s">
         <v>231</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4039,7 +4064,7 @@
       <c r="C80" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4053,7 +4078,7 @@
       <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4067,7 +4092,7 @@
       <c r="C82" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4081,7 +4106,7 @@
       <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4095,7 +4120,7 @@
       <c r="C84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4109,7 +4134,7 @@
       <c r="C85" t="s">
         <v>231</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4123,7 +4148,7 @@
       <c r="C86" t="s">
         <v>231</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4137,7 +4162,7 @@
       <c r="C87" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4151,7 +4176,7 @@
       <c r="C88" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4165,7 +4190,7 @@
       <c r="C89" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4179,7 +4204,7 @@
       <c r="C90" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4193,7 +4218,7 @@
       <c r="C91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4207,7 +4232,7 @@
       <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4221,7 +4246,7 @@
       <c r="C93" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4235,7 +4260,7 @@
       <c r="C94" t="s">
         <v>231</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4249,7 +4274,7 @@
       <c r="C95" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4263,7 +4288,7 @@
       <c r="C96" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4291,7 +4316,7 @@
       <c r="C98" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4305,7 +4330,7 @@
       <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4319,7 +4344,7 @@
       <c r="C100" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4333,7 +4358,7 @@
       <c r="C101" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4347,7 +4372,7 @@
       <c r="C102" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4361,7 +4386,7 @@
       <c r="C103" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4375,7 +4400,7 @@
       <c r="C104" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4389,7 +4414,7 @@
       <c r="C105" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4403,7 +4428,7 @@
       <c r="C106" t="s">
         <v>231</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4417,7 +4442,7 @@
       <c r="C107" t="s">
         <v>231</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4431,7 +4456,7 @@
       <c r="C108" t="s">
         <v>231</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4445,7 +4470,7 @@
       <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4459,7 +4484,7 @@
       <c r="C110" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4473,7 +4498,7 @@
       <c r="C111" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4487,7 +4512,7 @@
       <c r="C112" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4501,7 +4526,7 @@
       <c r="C113" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4515,7 +4540,7 @@
       <c r="C114" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4529,7 +4554,7 @@
       <c r="C115" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4543,7 +4568,7 @@
       <c r="C116" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4557,7 +4582,7 @@
       <c r="C117" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4571,7 +4596,7 @@
       <c r="C118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4585,7 +4610,7 @@
       <c r="C119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4599,7 +4624,7 @@
       <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4613,7 +4638,7 @@
       <c r="C121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4627,7 +4652,7 @@
       <c r="C122" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4641,7 +4666,7 @@
       <c r="C123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4655,7 +4680,7 @@
       <c r="C124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4669,7 +4694,7 @@
       <c r="C125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4696,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A326" workbookViewId="0">
       <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
@@ -8558,7 +8583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC045EC-A8A3-974C-9403-34BA5D62B768}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -9000,7 +9025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -9039,11 +9064,11 @@
         <v>15</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*COS(C2/30*3.14159)</f>
+        <f t="shared" ref="D2:D33" si="0">B2*COS(C2/30*3.14159)</f>
         <v>1.326794896677558E-6</v>
       </c>
       <c r="E2" s="1">
-        <f>B2*SIN(C2/30*3.14159)</f>
+        <f t="shared" ref="E2:E33" si="1">B2*SIN(C2/30*3.14159)</f>
         <v>0.99999999999911982</v>
       </c>
     </row>
@@ -9058,11 +9083,11 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*COS(C3/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.653589793355116E-6</v>
       </c>
       <c r="E3" s="1">
-        <f>B3*SIN(C3/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.9999999999982396</v>
       </c>
     </row>
@@ -9077,11 +9102,11 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*COS(C4/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.58778374953199164</v>
       </c>
       <c r="E4" s="1">
-        <f>B4*SIN(C4/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.80901808619221416</v>
       </c>
     </row>
@@ -9096,11 +9121,11 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*COS(C5/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.1755674990639833</v>
       </c>
       <c r="E5" s="1">
-        <f>B5*SIN(C5/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.6180361723844283</v>
       </c>
     </row>
@@ -9115,11 +9140,11 @@
         <v>24</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*COS(C6/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.80901574658036768</v>
       </c>
       <c r="E6" s="1">
-        <f>B6*SIN(C6/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.58778696973053957</v>
       </c>
     </row>
@@ -9134,11 +9159,11 @@
         <v>24</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*COS(C7/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.6180314931607354</v>
       </c>
       <c r="E7" s="1">
-        <f>B7*SIN(C7/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.1755739394610791</v>
       </c>
     </row>
@@ -9153,11 +9178,11 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <f>B8*COS(C8/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.99999999999647926</v>
       </c>
       <c r="E8" s="1">
-        <f>B8*SIN(C8/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.6535897933527804E-6</v>
       </c>
     </row>
@@ -9172,11 +9197,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*COS(C9/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>0.80901730632302271</v>
       </c>
       <c r="E9" s="1">
-        <f>B9*SIN(C9/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.58778482293254264</v>
       </c>
     </row>
@@ -9191,11 +9216,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*COS(C10/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.6180346126460454</v>
       </c>
       <c r="E10" s="1">
-        <f>B10*SIN(C10/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.1755696458650853</v>
       </c>
     </row>
@@ -9210,11 +9235,11 @@
         <v>18</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*COS(C11/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.30901548014623692</v>
       </c>
       <c r="E11" s="1">
-        <f>B11*SIN(C11/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.95105700829655349</v>
       </c>
     </row>
@@ -9229,11 +9254,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*COS(C12/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.95105577828853327</v>
       </c>
       <c r="E12" s="1">
-        <f>B12*SIN(C12/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.30901926571654431</v>
       </c>
     </row>
@@ -9248,11 +9273,11 @@
         <v>33</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*COS(C13/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.95105741829587842</v>
       </c>
       <c r="E13" s="1">
-        <f>B13*SIN(C13/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.30901421828838005</v>
       </c>
     </row>
@@ -9267,11 +9292,11 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*COS(C14/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>3.9803846900326745E-6</v>
       </c>
       <c r="E14" s="1">
-        <f>B14*SIN(C14/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999973594</v>
       </c>
     </row>
@@ -9286,11 +9311,11 @@
         <v>24</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*COS(C15/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-3.2360629863214707</v>
       </c>
       <c r="E15" s="1">
-        <f>B15*SIN(C15/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.3511478789221583</v>
       </c>
     </row>
@@ -9305,11 +9330,11 @@
         <v>18</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*COS(C16/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.2360619205849477</v>
       </c>
       <c r="E16" s="1">
-        <f>B16*SIN(C16/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.8042280331862139</v>
       </c>
     </row>
@@ -9324,11 +9349,11 @@
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*COS(C17/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.2360619205849477</v>
       </c>
       <c r="E17" s="1">
-        <f>B17*SIN(C17/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.8042280331862139</v>
       </c>
     </row>
@@ -9343,11 +9368,11 @@
         <v>21</v>
       </c>
       <c r="D18" s="1">
-        <f>B18*COS(C18/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-2.3511349981279666</v>
       </c>
       <c r="E18" s="1">
-        <f>B18*SIN(C18/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.2360723447688566</v>
       </c>
     </row>
@@ -9362,11 +9387,11 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f>B19*COS(C19/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.983565713842375</v>
       </c>
       <c r="E19" s="1">
-        <f>B19*SIN(C19/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.31358512589764409</v>
       </c>
     </row>
@@ -9381,11 +9406,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <f>B20*COS(C20/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.427051918969068</v>
       </c>
       <c r="E20" s="1">
-        <f>B20*SIN(C20/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.7633544687976279</v>
       </c>
     </row>
@@ -9400,11 +9425,11 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <f>B21*COS(C21/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>3.2360692252920908</v>
       </c>
       <c r="E21" s="1">
-        <f>B21*SIN(C21/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.3511392917301706</v>
       </c>
     </row>
@@ -9419,11 +9444,11 @@
         <v>11</v>
       </c>
       <c r="D22" s="1">
-        <f>B22*COS(C22/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.0336876596986921</v>
       </c>
       <c r="E22" s="1">
-        <f>B22*SIN(C22/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.5677253094718004</v>
       </c>
     </row>
@@ -9438,11 +9463,11 @@
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <f>B23*COS(C23/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.4404251916384307</v>
       </c>
       <c r="E23" s="1">
-        <f>B23*SIN(C23/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>5.4812703713661612</v>
       </c>
     </row>
@@ -9457,11 +9482,11 @@
         <v>16</v>
       </c>
       <c r="D24" s="1">
-        <f>B24*COS(C24/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.52263527886267447</v>
       </c>
       <c r="E24" s="1">
-        <f>B24*SIN(C24/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.9726102165048216</v>
       </c>
     </row>
@@ -9476,11 +9501,11 @@
         <v>16</v>
       </c>
       <c r="D25" s="1">
-        <f>B25*COS(C25/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.62716233463520943</v>
       </c>
       <c r="E25" s="1">
-        <f>B25*SIN(C25/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>5.9671322598057861</v>
       </c>
     </row>
@@ -9495,11 +9520,11 @@
         <v>19</v>
       </c>
       <c r="D26" s="1">
-        <f>B26*COS(C26/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-2.0336755388222723</v>
       </c>
       <c r="E26" s="1">
-        <f>B26*SIN(C26/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.5677307060285353</v>
       </c>
     </row>
@@ -9514,11 +9539,11 @@
         <v>27</v>
       </c>
       <c r="D27" s="1">
-        <f>B27*COS(C27/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-4.755278891442666</v>
       </c>
       <c r="E27" s="1">
-        <f>B27*SIN(C27/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.5450963285827215</v>
       </c>
     </row>
@@ -9533,11 +9558,11 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <f>B28*COS(C28/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-4.567722611181372</v>
       </c>
       <c r="E28" s="1">
-        <f>B28*SIN(C28/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.0336937201315322</v>
       </c>
     </row>
@@ -9552,11 +9577,11 @@
         <v>24</v>
       </c>
       <c r="D29" s="1">
-        <f>B29*COS(C29/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-4.0450787329018381</v>
       </c>
       <c r="E29" s="1">
-        <f>B29*SIN(C29/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.9389348486526981</v>
       </c>
     </row>
@@ -9571,11 +9596,11 @@
         <v>20</v>
       </c>
       <c r="D30" s="1">
-        <f>B30*COS(C30/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-2.4999923397421799</v>
       </c>
       <c r="E30" s="1">
-        <f>B30*SIN(C30/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.3301314415650731</v>
       </c>
     </row>
@@ -9590,11 +9615,11 @@
         <v>20</v>
       </c>
       <c r="D31" s="1">
-        <f>B31*COS(C31/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-2.9999908076906157</v>
       </c>
       <c r="E31" s="1">
-        <f>B31*SIN(C31/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>5.1961577298780881</v>
       </c>
     </row>
@@ -9609,11 +9634,11 @@
         <v>12</v>
       </c>
       <c r="D32" s="1">
-        <f>B32*COS(C32/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.5450900193015951</v>
       </c>
       <c r="E32" s="1">
-        <f>B32*SIN(C32/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.7552809414644051</v>
       </c>
     </row>
@@ -9628,11 +9653,11 @@
         <v>15</v>
       </c>
       <c r="D33" s="1">
-        <f>B33*COS(C33/30*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>5.3071795867102321E-6</v>
       </c>
       <c r="E33" s="1">
-        <f>B33*SIN(C33/30*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.9999999999964793</v>
       </c>
     </row>
@@ -9647,11 +9672,11 @@
         <v>6</v>
       </c>
       <c r="D34" s="1">
-        <f>B34*COS(C34/30*3.14159)</f>
+        <f t="shared" ref="D34:D65" si="2">B34*COS(C34/30*3.14159)</f>
         <v>4.0450865316151132</v>
       </c>
       <c r="E34" s="1">
-        <f>B34*SIN(C34/30*3.14159)</f>
+        <f t="shared" ref="E34:E65" si="3">B34*SIN(C34/30*3.14159)</f>
         <v>2.9389241146627132</v>
       </c>
     </row>
@@ -9666,11 +9691,11 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <f>B35*COS(C35/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.854103837938136</v>
       </c>
       <c r="E35" s="1">
-        <f>B35*SIN(C35/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.5267089375952558</v>
       </c>
     </row>
@@ -9685,11 +9710,11 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f>B36*COS(C36/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.9726095230706244</v>
       </c>
       <c r="E36" s="1">
-        <f>B36*SIN(C36/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0.52264187649607352</v>
       </c>
     </row>
@@ -9704,11 +9729,11 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f>B37*COS(C37/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.96713142768475</v>
       </c>
       <c r="E37" s="1">
-        <f>B37*SIN(C37/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0.62717025179528818</v>
       </c>
     </row>
@@ -9723,11 +9748,11 @@
         <v>29</v>
       </c>
       <c r="D38" s="1">
-        <f>B38*COS(C38/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.9726081361759684</v>
       </c>
       <c r="E38" s="1">
-        <f>B38*SIN(C38/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0.52265507176010961</v>
       </c>
     </row>
@@ -9742,11 +9767,11 @@
         <v>18</v>
       </c>
       <c r="D39" s="1">
-        <f>B39*COS(C39/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-1.5450774007311847</v>
       </c>
       <c r="E39" s="1">
-        <f>B39*SIN(C39/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.7552850414827672</v>
       </c>
     </row>
@@ -9761,11 +9786,11 @@
         <v>22</v>
       </c>
       <c r="D40" s="1">
-        <f>B40*COS(C40/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-3.3456458011157024</v>
       </c>
       <c r="E40" s="1">
-        <f>B40*SIN(C40/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.7157306379064763</v>
       </c>
     </row>
@@ -9780,11 +9805,11 @@
         <v>23</v>
       </c>
       <c r="D41" s="1">
-        <f>B41*COS(C41/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-3.7157173209197163</v>
       </c>
       <c r="E41" s="1">
-        <f>B41*SIN(C41/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.3456605911265425</v>
       </c>
     </row>
@@ -9799,11 +9824,11 @@
         <v>21</v>
       </c>
       <c r="D42" s="1">
-        <f>B42*COS(C42/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-2.9389187476599581</v>
       </c>
       <c r="E42" s="1">
-        <f>B42*SIN(C42/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.0450904309610705</v>
       </c>
     </row>
@@ -9818,11 +9843,11 @@
         <v>14</v>
       </c>
       <c r="D43" s="1">
-        <f>B43*COS(C43/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>0.52264847412855131</v>
       </c>
       <c r="E43" s="1">
-        <f>B43*SIN(C43/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9726088296276734</v>
       </c>
     </row>
@@ -9837,11 +9862,11 @@
         <v>28</v>
       </c>
       <c r="D44" s="1">
-        <f>B44*COS(C44/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.8907354289964386</v>
       </c>
       <c r="E44" s="1">
-        <f>B44*SIN(C44/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>1.0395705668972257</v>
       </c>
     </row>
@@ -9856,11 +9881,11 @@
         <v>15</v>
       </c>
       <c r="D45" s="1">
-        <f>B45*COS(C45/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.6339744833877897E-6</v>
       </c>
       <c r="E45" s="1">
-        <f>B45*SIN(C45/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999955991</v>
       </c>
     </row>
@@ -9875,11 +9900,11 @@
         <v>12</v>
       </c>
       <c r="D46" s="1">
-        <f>B46*COS(C46/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.163126027022233</v>
       </c>
       <c r="E46" s="1">
-        <f>B46*SIN(C46/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.6573933180501665</v>
       </c>
     </row>
@@ -9894,11 +9919,11 @@
         <v>12</v>
       </c>
       <c r="D47" s="1">
-        <f>B47*COS(C47/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.4721440308825522</v>
       </c>
       <c r="E47" s="1">
-        <f>B47*SIN(C47/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>7.6084495063430477</v>
       </c>
     </row>
@@ -9913,11 +9938,11 @@
         <v>8</v>
       </c>
       <c r="D48" s="1">
-        <f>B48*COS(C48/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.6839179255803467</v>
       </c>
       <c r="E48" s="1">
-        <f>B48*SIN(C48/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.2020104638905815</v>
       </c>
     </row>
@@ -9932,11 +9957,11 @@
         <v>10</v>
       </c>
       <c r="D49" s="1">
-        <f>B49*COS(C49/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>3.5000053621763669</v>
       </c>
       <c r="E49" s="1">
-        <f>B49*SIN(C49/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.0621747306339397</v>
       </c>
     </row>
@@ -9951,11 +9976,11 @@
         <v>8</v>
       </c>
       <c r="D50" s="1">
-        <f>B50*COS(C50/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.3530490578061105</v>
       </c>
       <c r="E50" s="1">
-        <f>B50*SIN(C50/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.9451548158749503</v>
       </c>
     </row>
@@ -9970,11 +9995,11 @@
         <v>13</v>
       </c>
       <c r="D51" s="1">
-        <f>B51*COS(C51/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>1.4553897090509051</v>
       </c>
       <c r="E51" s="1">
-        <f>B51*SIN(C51/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.8470315316046797</v>
       </c>
     </row>
@@ -9989,11 +10014,11 @@
         <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f>B52*COS(C52/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.3948192108558635</v>
       </c>
       <c r="E52" s="1">
-        <f>B52*SIN(C52/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>2.8471542389671813</v>
       </c>
     </row>
@@ -10008,11 +10033,11 @@
         <v>30</v>
       </c>
       <c r="D53" s="1">
-        <f>B53*COS(C53/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-6.9999999999753548</v>
       </c>
       <c r="E53" s="1">
-        <f>B53*SIN(C53/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>1.8575128553469462E-5</v>
       </c>
     </row>
@@ -10027,11 +10052,11 @@
         <v>7</v>
       </c>
       <c r="D54" s="1">
-        <f>B54*COS(C54/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.2020166784844033</v>
       </c>
       <c r="E54" s="1">
-        <f>B54*SIN(C54/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.6839110235752877</v>
       </c>
     </row>
@@ -10046,11 +10071,11 @@
         <v>7</v>
       </c>
       <c r="D55" s="1">
-        <f>B55*COS(C55/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.945161918267889</v>
       </c>
       <c r="E55" s="1">
-        <f>B55*SIN(C55/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.3530411698003286</v>
       </c>
     </row>
@@ -10065,11 +10090,11 @@
         <v>6</v>
       </c>
       <c r="D56" s="1">
-        <f>B56*COS(C56/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.6631211442611589</v>
       </c>
       <c r="E56" s="1">
-        <f>B56*SIN(C56/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.1144937605277985</v>
       </c>
     </row>
@@ -10084,11 +10109,11 @@
         <v>6</v>
       </c>
       <c r="D57" s="1">
-        <f>B57*COS(C57/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.4721384505841817</v>
       </c>
       <c r="E57" s="1">
-        <f>B57*SIN(C57/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.7022785834603411</v>
       </c>
     </row>
@@ -10103,11 +10128,11 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f>B58*COS(C58/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.9616533322988747</v>
       </c>
       <c r="E58" s="1">
-        <f>B58*SIN(C58/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0.73169862709450295</v>
       </c>
     </row>
@@ -10122,11 +10147,11 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <f>B59*COS(C59/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E59" s="1">
-        <f>B59*SIN(C59/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10141,11 +10166,11 @@
         <v>14</v>
       </c>
       <c r="D60" s="1">
-        <f>B60*COS(C60/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>0.73170786377997177</v>
       </c>
       <c r="E60" s="1">
-        <f>B60*SIN(C60/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.9616523614787429</v>
       </c>
     </row>
@@ -10160,11 +10185,11 @@
         <v>14</v>
       </c>
       <c r="D61" s="1">
-        <f>B61*COS(C61/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>0.83623755860568205</v>
       </c>
       <c r="E61" s="1">
-        <f>B61*SIN(C61/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>7.9561741274042772</v>
       </c>
     </row>
@@ -10179,11 +10204,11 @@
         <v>5</v>
       </c>
       <c r="D62" s="1">
-        <f>B62*COS(C62/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.0621793744178571</v>
       </c>
       <c r="E62" s="1">
-        <f>B62*SIN(C62/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.4999973189107898</v>
       </c>
     </row>
@@ -10198,11 +10223,11 @@
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f>B63*COS(C63/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.9282049993346941</v>
       </c>
       <c r="E63" s="1">
-        <f>B63*SIN(C63/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.9999969358980456</v>
       </c>
     </row>
@@ -10217,11 +10242,11 @@
         <v>9</v>
       </c>
       <c r="D64" s="1">
-        <f>B64*COS(C64/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.11450127432441</v>
       </c>
       <c r="E64" s="1">
-        <f>B64*SIN(C64/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.6631156851668507</v>
       </c>
     </row>
@@ -10236,11 +10261,11 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <f>B65*COS(C65/30*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.8470334626022913</v>
       </c>
       <c r="E65" s="1">
-        <f>B65*SIN(C65/30*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>1.4553806244431307</v>
       </c>
     </row>
@@ -10255,11 +10280,11 @@
         <v>11</v>
       </c>
       <c r="D66" s="1">
-        <f>B66*COS(C66/30*3.14159)</f>
+        <f t="shared" ref="D66:D97" si="4">B66*COS(C66/30*3.14159)</f>
         <v>2.8471627235781689</v>
       </c>
       <c r="E66" s="1">
-        <f>B66*SIN(C66/30*3.14159)</f>
+        <f t="shared" ref="E66:E73" si="5">B66*SIN(C66/30*3.14159)</f>
         <v>6.3948154332605212</v>
       </c>
     </row>
@@ -10274,11 +10299,11 @@
         <v>18</v>
       </c>
       <c r="D67" s="1">
-        <f>B67*COS(C67/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>-2.1631083610236583</v>
       </c>
       <c r="E67" s="1">
-        <f>B67*SIN(C67/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.6573990580758746</v>
       </c>
     </row>
@@ -10293,11 +10318,11 @@
         <v>17</v>
       </c>
       <c r="D68" s="1">
-        <f>B68*COS(C68/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>-1.4553715398327942</v>
       </c>
       <c r="E68" s="1">
-        <f>B68*SIN(C68/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.8470353935878503</v>
       </c>
     </row>
@@ -10312,11 +10337,11 @@
         <v>3</v>
       </c>
       <c r="D69" s="1">
-        <f>B69*COS(C69/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.6573961880688799</v>
       </c>
       <c r="E69" s="1">
-        <f>B69*SIN(C69/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>2.163117194024851</v>
       </c>
     </row>
@@ -10331,11 +10356,11 @@
         <v>24</v>
       </c>
       <c r="D70" s="1">
-        <f>B70*COS(C70/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>-5.6631102260625736</v>
       </c>
       <c r="E70" s="1">
-        <f>B70*SIN(C70/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>4.1145087881137767</v>
       </c>
     </row>
@@ -10350,11 +10375,11 @@
         <v>25</v>
       </c>
       <c r="D71" s="1">
-        <f>B71*COS(C71/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>-6.0621700868393518</v>
       </c>
       <c r="E71" s="1">
-        <f>B71*SIN(C71/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>3.5000134054357797</v>
       </c>
     </row>
@@ -10369,11 +10394,11 @@
         <v>11</v>
       </c>
       <c r="D72" s="1">
-        <f>B72*COS(C72/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>3.2539002555179075</v>
       </c>
       <c r="E72" s="1">
-        <f>B72*SIN(C72/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>7.3083604951548811</v>
       </c>
     </row>
@@ -10388,11 +10413,11 @@
         <v>15</v>
       </c>
       <c r="D73" s="1">
-        <f>B73*COS(C73/30*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>9.2875642767429066E-6</v>
       </c>
       <c r="E73" s="1">
-        <f>B73*SIN(C73/30*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.9999999999938387</v>
       </c>
     </row>
@@ -10406,465 +10431,4389 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="str">
-        <f>CoursesRequisites!A1</f>
-        <v>requisite_id</v>
-      </c>
-      <c r="B1" t="str">
-        <f>CoursesRequisites!B1</f>
-        <v>course_number</v>
-      </c>
-      <c r="C1" t="str">
-        <f>CoursesRequisites!C1</f>
-        <v>requisite_number</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>CoursesRequisites!A2</f>
         <v>1</v>
       </c>
       <c r="B2">
-        <f>CoursesRequisites!B2</f>
         <v>101</v>
       </c>
-      <c r="C2">
-        <f>CoursesRequisites!C2</f>
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="2">
-        <f>VLOOKUP(B2,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E2" s="2">
-        <f>VLOOKUP(B2,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F2" s="2">
-        <f>VLOOKUP(C2,LayoutCourses!A:E,4,0)</f>
-        <v>1.326794896677558E-6</v>
-      </c>
-      <c r="G2" s="2">
-        <f>VLOOKUP(C2,LayoutCourses!A:E,5,0)</f>
-        <v>0.99999999999911982</v>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>CoursesRequisites!A3</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <f>CoursesRequisites!B3</f>
         <v>101</v>
       </c>
-      <c r="C3">
-        <f>CoursesRequisites!C3</f>
+      <c r="C3" s="3">
         <v>102</v>
       </c>
-      <c r="D3" s="2">
-        <f>VLOOKUP(B3,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E3" s="2">
-        <f>VLOOKUP(B3,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F3" s="2">
-        <f>VLOOKUP(C3,LayoutCourses!A:E,4,0)</f>
-        <v>-0.58778374953199164</v>
-      </c>
-      <c r="G3" s="2">
-        <f>VLOOKUP(C3,LayoutCourses!A:E,5,0)</f>
-        <v>0.80901808619221416</v>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>CoursesRequisites!A4</f>
         <v>1</v>
       </c>
       <c r="B4">
-        <f>CoursesRequisites!B4</f>
         <v>101</v>
       </c>
-      <c r="C4">
-        <f>CoursesRequisites!C4</f>
+      <c r="C4" s="3">
         <v>104</v>
       </c>
-      <c r="D4" s="2">
-        <f>VLOOKUP(B4,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E4" s="2">
-        <f>VLOOKUP(B4,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F4" s="2">
-        <f>VLOOKUP(C4,LayoutCourses!A:E,4,0)</f>
-        <v>-0.80901574658036768</v>
-      </c>
-      <c r="G4" s="2">
-        <f>VLOOKUP(C4,LayoutCourses!A:E,5,0)</f>
-        <v>0.58778696973053957</v>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.80900000000000005</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>CoursesRequisites!A5</f>
         <v>1</v>
       </c>
       <c r="B5">
-        <f>CoursesRequisites!B5</f>
         <v>101</v>
       </c>
-      <c r="C5">
-        <f>CoursesRequisites!C5</f>
+      <c r="C5" s="3">
         <v>110</v>
       </c>
-      <c r="D5" s="2">
-        <f>VLOOKUP(B5,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E5" s="2">
-        <f>VLOOKUP(B5,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F5" s="2">
-        <f>VLOOKUP(C5,LayoutCourses!A:E,4,0)</f>
-        <v>-0.99999999999647926</v>
-      </c>
-      <c r="G5" s="2">
-        <f>VLOOKUP(C5,LayoutCourses!A:E,5,0)</f>
-        <v>2.6535897933527804E-6</v>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>CoursesRequisites!A6</f>
         <v>1</v>
       </c>
       <c r="B6">
-        <f>CoursesRequisites!B6</f>
         <v>101</v>
       </c>
-      <c r="C6">
-        <f>CoursesRequisites!C6</f>
+      <c r="C6" s="3">
         <v>120</v>
       </c>
-      <c r="D6" s="2">
-        <f>VLOOKUP(B6,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E6" s="2">
-        <f>VLOOKUP(B6,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F6" s="2">
-        <f>VLOOKUP(C6,LayoutCourses!A:E,4,0)</f>
-        <v>0.80901730632302271</v>
-      </c>
-      <c r="G6" s="2">
-        <f>VLOOKUP(C6,LayoutCourses!A:E,5,0)</f>
-        <v>0.58778482293254264</v>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>CoursesRequisites!A7</f>
         <v>1</v>
       </c>
       <c r="B7">
-        <f>CoursesRequisites!B7</f>
         <v>101</v>
       </c>
-      <c r="C7">
-        <f>CoursesRequisites!C7</f>
+      <c r="C7" s="3">
         <v>180</v>
       </c>
-      <c r="D7" s="2">
-        <f>VLOOKUP(B7,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E7" s="2">
-        <f>VLOOKUP(B7,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F7" s="2">
-        <f>VLOOKUP(C7,LayoutCourses!A:E,4,0)</f>
-        <v>-0.30901548014623692</v>
-      </c>
-      <c r="G7" s="2">
-        <f>VLOOKUP(C7,LayoutCourses!A:E,5,0)</f>
-        <v>0.95105700829655349</v>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.309</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.95109999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>CoursesRequisites!A8</f>
         <v>1</v>
       </c>
       <c r="B8">
-        <f>CoursesRequisites!B8</f>
         <v>101</v>
       </c>
-      <c r="C8">
-        <f>CoursesRequisites!C8</f>
+      <c r="C8" s="3">
         <v>184</v>
       </c>
-      <c r="D8" s="2">
-        <f>VLOOKUP(B8,LayoutCourses!A:E,4,0)</f>
-        <v>2.653589793355116E-6</v>
-      </c>
-      <c r="E8" s="2">
-        <f>VLOOKUP(B8,LayoutCourses!A:E,5,0)</f>
-        <v>1.9999999999982396</v>
-      </c>
-      <c r="F8" s="2">
-        <f>VLOOKUP(C8,LayoutCourses!A:E,4,0)</f>
-        <v>-0.95105577828853327</v>
-      </c>
-      <c r="G8" s="2">
-        <f>VLOOKUP(C8,LayoutCourses!A:E,5,0)</f>
-        <v>0.30901926571654431</v>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.95109999999999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.309</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>CoursesRequisites!A9</f>
         <v>2</v>
       </c>
       <c r="B9">
-        <f>CoursesRequisites!B9</f>
         <v>103</v>
       </c>
-      <c r="C9">
-        <f>CoursesRequisites!C9</f>
+      <c r="C9" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="2">
-        <f>VLOOKUP(B9,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E9" s="2">
-        <f>VLOOKUP(B9,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F9" s="2">
-        <f>VLOOKUP(C9,LayoutCourses!A:E,4,0)</f>
-        <v>1.326794896677558E-6</v>
-      </c>
-      <c r="G9" s="2">
-        <f>VLOOKUP(C9,LayoutCourses!A:E,5,0)</f>
-        <v>0.99999999999911982</v>
+      <c r="D9" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>CoursesRequisites!A10</f>
         <v>2</v>
       </c>
       <c r="B10">
-        <f>CoursesRequisites!B10</f>
         <v>103</v>
       </c>
-      <c r="C10">
-        <f>CoursesRequisites!C10</f>
+      <c r="C10" s="3">
         <v>102</v>
       </c>
-      <c r="D10" s="2">
-        <f>VLOOKUP(B10,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E10" s="2">
-        <f>VLOOKUP(B10,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F10" s="2">
-        <f>VLOOKUP(C10,LayoutCourses!A:E,4,0)</f>
-        <v>-0.58778374953199164</v>
-      </c>
-      <c r="G10" s="2">
-        <f>VLOOKUP(C10,LayoutCourses!A:E,5,0)</f>
-        <v>0.80901808619221416</v>
+      <c r="D10" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>CoursesRequisites!A11</f>
         <v>2</v>
       </c>
       <c r="B11">
-        <f>CoursesRequisites!B11</f>
         <v>103</v>
       </c>
-      <c r="C11">
-        <f>CoursesRequisites!C11</f>
+      <c r="C11" s="3">
         <v>104</v>
       </c>
-      <c r="D11" s="2">
-        <f>VLOOKUP(B11,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E11" s="2">
-        <f>VLOOKUP(B11,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F11" s="2">
-        <f>VLOOKUP(C11,LayoutCourses!A:E,4,0)</f>
-        <v>-0.80901574658036768</v>
-      </c>
-      <c r="G11" s="2">
-        <f>VLOOKUP(C11,LayoutCourses!A:E,5,0)</f>
-        <v>0.58778696973053957</v>
+      <c r="D11" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.80900000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>CoursesRequisites!A12</f>
         <v>2</v>
       </c>
       <c r="B12">
-        <f>CoursesRequisites!B12</f>
         <v>103</v>
       </c>
-      <c r="C12">
-        <f>CoursesRequisites!C12</f>
+      <c r="C12" s="3">
         <v>110</v>
       </c>
-      <c r="D12" s="2">
-        <f>VLOOKUP(B12,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E12" s="2">
-        <f>VLOOKUP(B12,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F12" s="2">
-        <f>VLOOKUP(C12,LayoutCourses!A:E,4,0)</f>
-        <v>-0.99999999999647926</v>
-      </c>
-      <c r="G12" s="2">
-        <f>VLOOKUP(C12,LayoutCourses!A:E,5,0)</f>
-        <v>2.6535897933527804E-6</v>
+      <c r="D12" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>CoursesRequisites!A13</f>
         <v>2</v>
       </c>
       <c r="B13">
-        <f>CoursesRequisites!B13</f>
         <v>103</v>
       </c>
-      <c r="C13">
-        <f>CoursesRequisites!C13</f>
+      <c r="C13" s="3">
         <v>120</v>
       </c>
-      <c r="D13" s="2">
-        <f>VLOOKUP(B13,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E13" s="2">
-        <f>VLOOKUP(B13,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F13" s="2">
-        <f>VLOOKUP(C13,LayoutCourses!A:E,4,0)</f>
-        <v>0.80901730632302271</v>
-      </c>
-      <c r="G13" s="2">
-        <f>VLOOKUP(C13,LayoutCourses!A:E,5,0)</f>
-        <v>0.58778482293254264</v>
+      <c r="D13" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>CoursesRequisites!A14</f>
         <v>2</v>
       </c>
       <c r="B14">
-        <f>CoursesRequisites!B14</f>
         <v>103</v>
       </c>
-      <c r="C14">
-        <f>CoursesRequisites!C14</f>
+      <c r="C14" s="3">
         <v>180</v>
       </c>
-      <c r="D14" s="2">
-        <f>VLOOKUP(B14,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E14" s="2">
-        <f>VLOOKUP(B14,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F14" s="2">
-        <f>VLOOKUP(C14,LayoutCourses!A:E,4,0)</f>
-        <v>-0.30901548014623692</v>
-      </c>
-      <c r="G14" s="2">
-        <f>VLOOKUP(C14,LayoutCourses!A:E,5,0)</f>
-        <v>0.95105700829655349</v>
+      <c r="D14" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.309</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.95109999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>CoursesRequisites!A15</f>
         <v>2</v>
       </c>
       <c r="B15">
-        <f>CoursesRequisites!B15</f>
         <v>103</v>
       </c>
-      <c r="C15">
-        <f>CoursesRequisites!C15</f>
+      <c r="C15" s="3">
         <v>184</v>
       </c>
-      <c r="D15" s="2">
-        <f>VLOOKUP(B15,LayoutCourses!A:E,4,0)</f>
-        <v>-1.1755674990639833</v>
-      </c>
-      <c r="E15" s="2">
-        <f>VLOOKUP(B15,LayoutCourses!A:E,5,0)</f>
-        <v>1.6180361723844283</v>
-      </c>
-      <c r="F15" s="2">
-        <f>VLOOKUP(C15,LayoutCourses!A:E,4,0)</f>
-        <v>-0.95105577828853327</v>
-      </c>
-      <c r="G15" s="2">
-        <f>VLOOKUP(C15,LayoutCourses!A:E,5,0)</f>
-        <v>0.30901926571654431</v>
+      <c r="D15" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.95109999999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.80900000000000005</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.58779999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3">
+        <v>110</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.58779999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="C21" s="3">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.309</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.95109999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>105</v>
+      </c>
+      <c r="C22" s="3">
+        <v>184</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.95109999999999995</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.58779999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>121</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>121</v>
+      </c>
+      <c r="C25" s="3">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.80900000000000005</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.58779999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.309</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.95109999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>121</v>
+      </c>
+      <c r="C28" s="3">
+        <v>184</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.1756</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-0.95109999999999995</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32" s="3">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>210</v>
+      </c>
+      <c r="C33" s="3">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>210</v>
+      </c>
+      <c r="C34" s="3">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>210</v>
+      </c>
+      <c r="C35" s="3">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>210</v>
+      </c>
+      <c r="C36" s="3">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>210</v>
+      </c>
+      <c r="C37" s="3">
+        <v>215</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>210</v>
+      </c>
+      <c r="C38" s="3">
+        <v>221</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>210</v>
+      </c>
+      <c r="C39" s="3">
+        <v>223</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-3.2361</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>215</v>
+      </c>
+      <c r="C40" s="3">
+        <v>101</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>215</v>
+      </c>
+      <c r="C41" s="3">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>215</v>
+      </c>
+      <c r="C42" s="3">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>215</v>
+      </c>
+      <c r="C43" s="3">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>215</v>
+      </c>
+      <c r="C44" s="3">
+        <v>221</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>215</v>
+      </c>
+      <c r="C45" s="3">
+        <v>223</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>215</v>
+      </c>
+      <c r="C46" s="3">
+        <v>200</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>215</v>
+      </c>
+      <c r="C47" s="3">
+        <v>226</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>220</v>
+      </c>
+      <c r="C48" s="3">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>220</v>
+      </c>
+      <c r="C49" s="3">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>220</v>
+      </c>
+      <c r="C50" s="3">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>220</v>
+      </c>
+      <c r="C51" s="3">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>220</v>
+      </c>
+      <c r="C52" s="3">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>220</v>
+      </c>
+      <c r="C53" s="3">
+        <v>226</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>221</v>
+      </c>
+      <c r="C54" s="3">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>221</v>
+      </c>
+      <c r="C55" s="3">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>221</v>
+      </c>
+      <c r="C56" s="3">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>221</v>
+      </c>
+      <c r="C57" s="3">
+        <v>110</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>221</v>
+      </c>
+      <c r="C58" s="3">
+        <v>120</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.58779999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>221</v>
+      </c>
+      <c r="C59" s="3">
+        <v>180</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-0.309</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.95109999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>221</v>
+      </c>
+      <c r="C60" s="3">
+        <v>184</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-0.95109999999999995</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>221</v>
+      </c>
+      <c r="C61" s="3">
+        <v>101</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>221</v>
+      </c>
+      <c r="C62" s="3">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>221</v>
+      </c>
+      <c r="C63" s="3">
+        <v>105</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>221</v>
+      </c>
+      <c r="C64" s="3">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>223</v>
+      </c>
+      <c r="C65" s="3">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>223</v>
+      </c>
+      <c r="C66" s="3">
+        <v>101</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>223</v>
+      </c>
+      <c r="C67" s="3">
+        <v>103</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>223</v>
+      </c>
+      <c r="C68" s="3">
+        <v>105</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>226</v>
+      </c>
+      <c r="C69" s="3">
+        <v>121</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>226</v>
+      </c>
+      <c r="C70" s="3">
+        <v>101</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>226</v>
+      </c>
+      <c r="C71" s="3">
+        <v>103</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>21</v>
+      </c>
+      <c r="B72">
+        <v>226</v>
+      </c>
+      <c r="C72" s="3">
+        <v>105</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>226</v>
+      </c>
+      <c r="C73" s="3">
+        <v>221</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>226</v>
+      </c>
+      <c r="C74" s="3">
+        <v>223</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>227</v>
+      </c>
+      <c r="C75" s="3">
+        <v>226</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>300</v>
+      </c>
+      <c r="C76" s="3">
+        <v>200</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>40</v>
+      </c>
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77" s="3">
+        <v>226</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>300</v>
+      </c>
+      <c r="C78" s="3">
+        <v>227</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>300</v>
+      </c>
+      <c r="C79" s="3">
+        <v>317</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>42</v>
+      </c>
+      <c r="B80">
+        <v>301</v>
+      </c>
+      <c r="C80" s="3">
+        <v>300</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>301</v>
+      </c>
+      <c r="C81" s="3">
+        <v>215</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>44</v>
+      </c>
+      <c r="B82">
+        <v>301</v>
+      </c>
+      <c r="C82" s="3">
+        <v>316</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>45</v>
+      </c>
+      <c r="B83">
+        <v>302</v>
+      </c>
+      <c r="C83" s="3">
+        <v>200</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-0.52259999999999995</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>45</v>
+      </c>
+      <c r="B84">
+        <v>302</v>
+      </c>
+      <c r="C84" s="3">
+        <v>226</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-0.52259999999999995</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>47</v>
+      </c>
+      <c r="B85">
+        <v>303</v>
+      </c>
+      <c r="C85" s="3">
+        <v>302</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-0.62719999999999998</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5.9671000000000003</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-0.52259999999999995</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>307</v>
+      </c>
+      <c r="C86" s="3">
+        <v>221</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-2.0337000000000001</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>307</v>
+      </c>
+      <c r="C87" s="3">
+        <v>223</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-2.0337000000000001</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>52</v>
+      </c>
+      <c r="B88">
+        <v>307</v>
+      </c>
+      <c r="C88" s="3">
+        <v>200</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-2.0337000000000001</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>52</v>
+      </c>
+      <c r="B89">
+        <v>307</v>
+      </c>
+      <c r="C89" s="3">
+        <v>226</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-2.0337000000000001</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>308</v>
+      </c>
+      <c r="C90" s="3">
+        <v>221</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-4.7553000000000001</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>53</v>
+      </c>
+      <c r="B91">
+        <v>308</v>
+      </c>
+      <c r="C91" s="3">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-4.7553000000000001</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>53</v>
+      </c>
+      <c r="B92">
+        <v>308</v>
+      </c>
+      <c r="C92" s="3">
+        <v>226</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-4.7553000000000001</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>54</v>
+      </c>
+      <c r="B93">
+        <v>308</v>
+      </c>
+      <c r="C93" s="3">
+        <v>223</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-4.7553000000000001</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>55</v>
+      </c>
+      <c r="B94">
+        <v>309</v>
+      </c>
+      <c r="C94" s="3">
+        <v>221</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-4.5677000000000003</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>55</v>
+      </c>
+      <c r="B95">
+        <v>309</v>
+      </c>
+      <c r="C95" s="3">
+        <v>220</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-4.5677000000000003</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G95" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>55</v>
+      </c>
+      <c r="B96">
+        <v>309</v>
+      </c>
+      <c r="C96" s="3">
+        <v>226</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-4.5677000000000003</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>56</v>
+      </c>
+      <c r="B97">
+        <v>309</v>
+      </c>
+      <c r="C97" s="3">
+        <v>223</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-4.5677000000000003</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>57</v>
+      </c>
+      <c r="B98">
+        <v>310</v>
+      </c>
+      <c r="C98" s="3">
+        <v>221</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-4.0450999999999997</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G98" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>58</v>
+      </c>
+      <c r="B99">
+        <v>310</v>
+      </c>
+      <c r="C99" s="3">
+        <v>220</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-4.0450999999999997</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>58</v>
+      </c>
+      <c r="B100">
+        <v>310</v>
+      </c>
+      <c r="C100" s="3">
+        <v>226</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-4.0450999999999997</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>312</v>
+      </c>
+      <c r="C101" s="3">
+        <v>220</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4.3300999999999998</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>59</v>
+      </c>
+      <c r="B102">
+        <v>312</v>
+      </c>
+      <c r="C102" s="3">
+        <v>223</v>
+      </c>
+      <c r="D102" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4.3300999999999998</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>59</v>
+      </c>
+      <c r="B103">
+        <v>312</v>
+      </c>
+      <c r="C103" s="3">
+        <v>226</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>4.3300999999999998</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>60</v>
+      </c>
+      <c r="B104">
+        <v>313</v>
+      </c>
+      <c r="C104" s="3">
+        <v>312</v>
+      </c>
+      <c r="D104" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>5.1962000000000002</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4.3300999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>61</v>
+      </c>
+      <c r="B105">
+        <v>316</v>
+      </c>
+      <c r="C105" s="3">
+        <v>215</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>62</v>
+      </c>
+      <c r="B106">
+        <v>317</v>
+      </c>
+      <c r="C106" s="3">
+        <v>200</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>62</v>
+      </c>
+      <c r="B107">
+        <v>317</v>
+      </c>
+      <c r="C107" s="3">
+        <v>226</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>63</v>
+      </c>
+      <c r="B108">
+        <v>317</v>
+      </c>
+      <c r="C108" s="3">
+        <v>221</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>63</v>
+      </c>
+      <c r="B109">
+        <v>317</v>
+      </c>
+      <c r="C109" s="3">
+        <v>223</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>67</v>
+      </c>
+      <c r="B110">
+        <v>320</v>
+      </c>
+      <c r="C110" s="3">
+        <v>226</v>
+      </c>
+      <c r="D110" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>68</v>
+      </c>
+      <c r="B111">
+        <v>320</v>
+      </c>
+      <c r="C111" s="3">
+        <v>200</v>
+      </c>
+      <c r="D111" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>68</v>
+      </c>
+      <c r="B112">
+        <v>320</v>
+      </c>
+      <c r="C112" s="3">
+        <v>226</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>68</v>
+      </c>
+      <c r="B113">
+        <v>320</v>
+      </c>
+      <c r="C113" s="3">
+        <v>220</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+      <c r="F113" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>69</v>
+      </c>
+      <c r="B114">
+        <v>321</v>
+      </c>
+      <c r="C114" s="3">
+        <v>320</v>
+      </c>
+      <c r="D114" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3.5266999999999999</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>70</v>
+      </c>
+      <c r="B115">
+        <v>322</v>
+      </c>
+      <c r="C115" s="3">
+        <v>223</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>70</v>
+      </c>
+      <c r="B116">
+        <v>322</v>
+      </c>
+      <c r="C116" s="3">
+        <v>310</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F116" s="1">
+        <v>-4.0450999999999997</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>71</v>
+      </c>
+      <c r="B117">
+        <v>322</v>
+      </c>
+      <c r="C117" s="3">
+        <v>221</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F117" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>71</v>
+      </c>
+      <c r="B118">
+        <v>322</v>
+      </c>
+      <c r="C118" s="3">
+        <v>223</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>71</v>
+      </c>
+      <c r="B119">
+        <v>322</v>
+      </c>
+      <c r="C119" s="3">
+        <v>220</v>
+      </c>
+      <c r="D119" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F119" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>72</v>
+      </c>
+      <c r="B120">
+        <v>323</v>
+      </c>
+      <c r="C120" s="3">
+        <v>322</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5.9671000000000003</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="F120" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>73</v>
+      </c>
+      <c r="B121">
+        <v>340</v>
+      </c>
+      <c r="C121" s="3">
+        <v>221</v>
+      </c>
+      <c r="D121" s="1">
+        <v>-1.5450999999999999</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+      <c r="F121" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G121" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>73</v>
+      </c>
+      <c r="B122">
+        <v>340</v>
+      </c>
+      <c r="C122" s="3">
+        <v>223</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-1.5450999999999999</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>74</v>
+      </c>
+      <c r="B123">
+        <v>341</v>
+      </c>
+      <c r="C123" s="3">
+        <v>220</v>
+      </c>
+      <c r="D123" s="1">
+        <v>-3.3456000000000001</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3.7157</v>
+      </c>
+      <c r="F123" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>74</v>
+      </c>
+      <c r="B124">
+        <v>341</v>
+      </c>
+      <c r="C124" s="3">
+        <v>223</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-3.3456000000000001</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3.7157</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>74</v>
+      </c>
+      <c r="B125">
+        <v>341</v>
+      </c>
+      <c r="C125" s="3">
+        <v>226</v>
+      </c>
+      <c r="D125" s="1">
+        <v>-3.3456000000000001</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3.7157</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>75</v>
+      </c>
+      <c r="B126">
+        <v>342</v>
+      </c>
+      <c r="C126" s="3">
+        <v>221</v>
+      </c>
+      <c r="D126" s="1">
+        <v>-3.7157</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3.3456999999999999</v>
+      </c>
+      <c r="F126" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>75</v>
+      </c>
+      <c r="B127">
+        <v>342</v>
+      </c>
+      <c r="C127" s="3">
+        <v>220</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-3.7157</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3.3456999999999999</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>75</v>
+      </c>
+      <c r="B128">
+        <v>342</v>
+      </c>
+      <c r="C128" s="3">
+        <v>226</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-3.7157</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3.3456999999999999</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>76</v>
+      </c>
+      <c r="B129">
+        <v>342</v>
+      </c>
+      <c r="C129" s="3">
+        <v>223</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-3.7157</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3.3456999999999999</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>77</v>
+      </c>
+      <c r="B130">
+        <v>344</v>
+      </c>
+      <c r="C130" s="3">
+        <v>221</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-2.9388999999999998</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G130" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>77</v>
+      </c>
+      <c r="B131">
+        <v>344</v>
+      </c>
+      <c r="C131" s="3">
+        <v>220</v>
+      </c>
+      <c r="D131" s="1">
+        <v>-2.9388999999999998</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="F131" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G131" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>77</v>
+      </c>
+      <c r="B132">
+        <v>344</v>
+      </c>
+      <c r="C132" s="3">
+        <v>226</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-2.9388999999999998</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>78</v>
+      </c>
+      <c r="B133">
+        <v>344</v>
+      </c>
+      <c r="C133" s="3">
+        <v>223</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-2.9388999999999998</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>79</v>
+      </c>
+      <c r="B134">
+        <v>345</v>
+      </c>
+      <c r="C134" s="3">
+        <v>215</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="F134" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>80</v>
+      </c>
+      <c r="B135">
+        <v>360</v>
+      </c>
+      <c r="C135" s="3">
+        <v>101</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-4.8906999999999998</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1.0396000000000001</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>80</v>
+      </c>
+      <c r="B136">
+        <v>360</v>
+      </c>
+      <c r="C136" s="3">
+        <v>103</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-4.8906999999999998</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1.0396000000000001</v>
+      </c>
+      <c r="F136" s="1">
+        <v>-1.1756</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>80</v>
+      </c>
+      <c r="B137">
+        <v>360</v>
+      </c>
+      <c r="C137" s="3">
+        <v>105</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-4.8906999999999998</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1.0396000000000001</v>
+      </c>
+      <c r="F137" s="1">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>80</v>
+      </c>
+      <c r="B138">
+        <v>360</v>
+      </c>
+      <c r="C138" s="3">
+        <v>121</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-4.8906999999999998</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1.0396000000000001</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>81</v>
+      </c>
+      <c r="B139">
+        <v>361</v>
+      </c>
+      <c r="C139" s="3">
+        <v>215</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G139" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>82</v>
+      </c>
+      <c r="B140">
+        <v>400</v>
+      </c>
+      <c r="C140" s="3">
+        <v>300</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="E140" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>83</v>
+      </c>
+      <c r="B141">
+        <v>400</v>
+      </c>
+      <c r="C141" s="3">
+        <v>316</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="E141" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>84</v>
+      </c>
+      <c r="B142">
+        <v>401</v>
+      </c>
+      <c r="C142" s="3">
+        <v>316</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2.4721000000000002</v>
+      </c>
+      <c r="E142" s="1">
+        <v>7.6083999999999996</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>85</v>
+      </c>
+      <c r="B143">
+        <v>401</v>
+      </c>
+      <c r="C143" s="3">
+        <v>400</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2.4721000000000002</v>
+      </c>
+      <c r="E143" s="1">
+        <v>7.6083999999999996</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="G143" s="1">
+        <v>6.6574</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>86</v>
+      </c>
+      <c r="B144">
+        <v>402</v>
+      </c>
+      <c r="C144" s="3">
+        <v>301</v>
+      </c>
+      <c r="D144" s="1">
+        <v>4.6839000000000004</v>
+      </c>
+      <c r="E144" s="1">
+        <v>5.202</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="G144" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>86</v>
+      </c>
+      <c r="B145">
+        <v>402</v>
+      </c>
+      <c r="C145" s="3">
+        <v>320</v>
+      </c>
+      <c r="D145" s="1">
+        <v>4.6839000000000004</v>
+      </c>
+      <c r="E145" s="1">
+        <v>5.202</v>
+      </c>
+      <c r="F145" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G145" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>87</v>
+      </c>
+      <c r="B146">
+        <v>403</v>
+      </c>
+      <c r="C146" s="3">
+        <v>301</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E146" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="G146" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>87</v>
+      </c>
+      <c r="B147">
+        <v>403</v>
+      </c>
+      <c r="C147" s="3">
+        <v>320</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="F147" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>88</v>
+      </c>
+      <c r="B148">
+        <v>403</v>
+      </c>
+      <c r="C148" s="3">
+        <v>402</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E148" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="F148" s="1">
+        <v>4.6839000000000004</v>
+      </c>
+      <c r="G148" s="1">
+        <v>5.202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>89</v>
+      </c>
+      <c r="B149">
+        <v>404</v>
+      </c>
+      <c r="C149" s="3">
+        <v>300</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="E149" s="1">
+        <v>5.9451999999999998</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="G149" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>89</v>
+      </c>
+      <c r="B150">
+        <v>404</v>
+      </c>
+      <c r="C150" s="3">
+        <v>321</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="E150" s="1">
+        <v>5.9451999999999998</v>
+      </c>
+      <c r="F150" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="G150" s="1">
+        <v>3.5266999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>90</v>
+      </c>
+      <c r="B151">
+        <v>404</v>
+      </c>
+      <c r="C151" s="3">
+        <v>420</v>
+      </c>
+      <c r="D151" s="1">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="E151" s="1">
+        <v>5.9451999999999998</v>
+      </c>
+      <c r="F151" s="1">
+        <v>5.6631</v>
+      </c>
+      <c r="G151" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>91</v>
+      </c>
+      <c r="B152">
+        <v>405</v>
+      </c>
+      <c r="C152" s="3">
+        <v>316</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1.4554</v>
+      </c>
+      <c r="E152" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1.5450999999999999</v>
+      </c>
+      <c r="G152" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>95</v>
+      </c>
+      <c r="B153">
+        <v>412</v>
+      </c>
+      <c r="C153" s="3">
+        <v>320</v>
+      </c>
+      <c r="D153" s="1">
+        <v>6.3948</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2.8472</v>
+      </c>
+      <c r="F153" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G153" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>96</v>
+      </c>
+      <c r="B154">
+        <v>412</v>
+      </c>
+      <c r="C154" s="3">
+        <v>322</v>
+      </c>
+      <c r="D154" s="1">
+        <v>6.3948</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2.8472</v>
+      </c>
+      <c r="F154" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>97</v>
+      </c>
+      <c r="B155">
+        <v>418</v>
+      </c>
+      <c r="C155" s="3">
+        <v>321</v>
+      </c>
+      <c r="D155" s="1">
+        <v>5.202</v>
+      </c>
+      <c r="E155" s="1">
+        <v>4.6839000000000004</v>
+      </c>
+      <c r="F155" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="G155" s="1">
+        <v>3.5266999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>98</v>
+      </c>
+      <c r="B156">
+        <v>419</v>
+      </c>
+      <c r="C156" s="3">
+        <v>418</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5.9451999999999998</v>
+      </c>
+      <c r="E156" s="1">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="F156" s="1">
+        <v>5.202</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4.6839000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>99</v>
+      </c>
+      <c r="B157">
+        <v>420</v>
+      </c>
+      <c r="C157" s="3">
+        <v>321</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5.6631</v>
+      </c>
+      <c r="E157" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="F157" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="G157" s="1">
+        <v>3.5266999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>100</v>
+      </c>
+      <c r="B158">
+        <v>421</v>
+      </c>
+      <c r="C158" s="3">
+        <v>420</v>
+      </c>
+      <c r="D158" s="1">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="E158" s="1">
+        <v>4.7023000000000001</v>
+      </c>
+      <c r="F158" s="1">
+        <v>5.6631</v>
+      </c>
+      <c r="G158" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>101</v>
+      </c>
+      <c r="B159">
+        <v>422</v>
+      </c>
+      <c r="C159" s="3">
+        <v>323</v>
+      </c>
+      <c r="D159" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="F159" s="1">
+        <v>5.9671000000000003</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>102</v>
+      </c>
+      <c r="B160">
+        <v>423</v>
+      </c>
+      <c r="C160" s="3">
+        <v>323</v>
+      </c>
+      <c r="D160" s="1">
+        <v>8</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>5.9671000000000003</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>103</v>
+      </c>
+      <c r="B161">
+        <v>423</v>
+      </c>
+      <c r="C161" s="3">
+        <v>412</v>
+      </c>
+      <c r="D161" s="1">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>6.3948</v>
+      </c>
+      <c r="G161" s="1">
+        <v>2.8472</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>103</v>
+      </c>
+      <c r="B162">
+        <v>423</v>
+      </c>
+      <c r="C162" s="3">
+        <v>422</v>
+      </c>
+      <c r="D162" s="1">
+        <v>8</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>104</v>
+      </c>
+      <c r="B163">
+        <v>424</v>
+      </c>
+      <c r="C163" s="3">
+        <v>223</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="E163" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>105</v>
+      </c>
+      <c r="B164">
+        <v>424</v>
+      </c>
+      <c r="C164" s="3">
+        <v>221</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="E164" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="F164" s="1">
+        <v>-2.3511000000000002</v>
+      </c>
+      <c r="G164" s="1">
+        <v>3.2361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>106</v>
+      </c>
+      <c r="B165">
+        <v>424</v>
+      </c>
+      <c r="C165" s="3">
+        <v>227</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="E165" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="F165" s="1">
+        <v>3.2361</v>
+      </c>
+      <c r="G165" s="1">
+        <v>2.3511000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>107</v>
+      </c>
+      <c r="B166">
+        <v>424</v>
+      </c>
+      <c r="C166" s="3">
+        <v>317</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="E166" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>108</v>
+      </c>
+      <c r="B167">
+        <v>425</v>
+      </c>
+      <c r="C167" s="3">
+        <v>424</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="E167" s="1">
+        <v>7.9561999999999999</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="G167" s="1">
+        <v>6.9617000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>109</v>
+      </c>
+      <c r="B168">
+        <v>426</v>
+      </c>
+      <c r="C168" s="3">
+        <v>321</v>
+      </c>
+      <c r="D168" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="E168" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F168" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="G168" s="1">
+        <v>3.5266999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>109</v>
+      </c>
+      <c r="B169">
+        <v>426</v>
+      </c>
+      <c r="C169" s="3">
+        <v>322</v>
+      </c>
+      <c r="D169" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F169" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>110</v>
+      </c>
+      <c r="B170">
+        <v>427</v>
+      </c>
+      <c r="C170" s="3">
+        <v>426</v>
+      </c>
+      <c r="D170" s="1">
+        <v>6.9282000000000004</v>
+      </c>
+      <c r="E170" s="1">
+        <v>4</v>
+      </c>
+      <c r="F170" s="1">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="G170" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>111</v>
+      </c>
+      <c r="B171">
+        <v>428</v>
+      </c>
+      <c r="C171" s="3">
+        <v>215</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="E171" s="1">
+        <v>5.6631</v>
+      </c>
+      <c r="F171" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G171" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>113</v>
+      </c>
+      <c r="B172">
+        <v>428</v>
+      </c>
+      <c r="C172" s="3">
+        <v>320</v>
+      </c>
+      <c r="D172" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="E172" s="1">
+        <v>5.6631</v>
+      </c>
+      <c r="F172" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G172" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>114</v>
+      </c>
+      <c r="B173">
+        <v>437</v>
+      </c>
+      <c r="C173" s="3">
+        <v>320</v>
+      </c>
+      <c r="D173" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1.4554</v>
+      </c>
+      <c r="F173" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G173" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>114</v>
+      </c>
+      <c r="B174">
+        <v>437</v>
+      </c>
+      <c r="C174" s="3">
+        <v>322</v>
+      </c>
+      <c r="D174" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1.4554</v>
+      </c>
+      <c r="F174" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>115</v>
+      </c>
+      <c r="B175">
+        <v>440</v>
+      </c>
+      <c r="C175" s="3">
+        <v>300</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2.8472</v>
+      </c>
+      <c r="E175" s="1">
+        <v>6.3948</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2.0337000000000001</v>
+      </c>
+      <c r="G175" s="1">
+        <v>4.5677000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>116</v>
+      </c>
+      <c r="B176">
+        <v>440</v>
+      </c>
+      <c r="C176" s="3">
+        <v>320</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2.8472</v>
+      </c>
+      <c r="E176" s="1">
+        <v>6.3948</v>
+      </c>
+      <c r="F176" s="1">
+        <v>4.0450999999999997</v>
+      </c>
+      <c r="G176" s="1">
+        <v>2.9388999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>117</v>
+      </c>
+      <c r="B177">
+        <v>441</v>
+      </c>
+      <c r="C177" s="3">
+        <v>340</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-2.1631</v>
+      </c>
+      <c r="E177" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="F177" s="1">
+        <v>-1.5450999999999999</v>
+      </c>
+      <c r="G177" s="1">
+        <v>4.7553000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>118</v>
+      </c>
+      <c r="B178">
+        <v>442</v>
+      </c>
+      <c r="C178" s="3">
+        <v>220</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-1.4554</v>
+      </c>
+      <c r="E178" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="F178" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G178" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>118</v>
+      </c>
+      <c r="B179">
+        <v>442</v>
+      </c>
+      <c r="C179" s="3">
+        <v>223</v>
+      </c>
+      <c r="D179" s="1">
+        <v>-1.4554</v>
+      </c>
+      <c r="E179" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>118</v>
+      </c>
+      <c r="B180">
+        <v>442</v>
+      </c>
+      <c r="C180" s="3">
+        <v>226</v>
+      </c>
+      <c r="D180" s="1">
+        <v>-1.4554</v>
+      </c>
+      <c r="E180" s="1">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>119</v>
+      </c>
+      <c r="B181">
+        <v>443</v>
+      </c>
+      <c r="C181" s="3">
+        <v>220</v>
+      </c>
+      <c r="D181" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="F181" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G181" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>119</v>
+      </c>
+      <c r="B182">
+        <v>443</v>
+      </c>
+      <c r="C182" s="3">
+        <v>223</v>
+      </c>
+      <c r="D182" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="E182" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2.9836</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>119</v>
+      </c>
+      <c r="B183">
+        <v>443</v>
+      </c>
+      <c r="C183" s="3">
+        <v>226</v>
+      </c>
+      <c r="D183" s="1">
+        <v>6.6574</v>
+      </c>
+      <c r="E183" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>120</v>
+      </c>
+      <c r="B184">
+        <v>444</v>
+      </c>
+      <c r="C184" s="3">
+        <v>220</v>
+      </c>
+      <c r="D184" s="1">
+        <v>-5.6631</v>
+      </c>
+      <c r="E184" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="F184" s="1">
+        <v>-1.2361</v>
+      </c>
+      <c r="G184" s="1">
+        <v>3.8041999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>120</v>
+      </c>
+      <c r="B185">
+        <v>444</v>
+      </c>
+      <c r="C185" s="3">
+        <v>226</v>
+      </c>
+      <c r="D185" s="1">
+        <v>-5.6631</v>
+      </c>
+      <c r="E185" s="1">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1.7634000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>122</v>
+      </c>
+      <c r="B186">
+        <v>450</v>
+      </c>
+      <c r="C186" s="3">
+        <v>301</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3.2538999999999998</v>
+      </c>
+      <c r="E186" s="1">
+        <v>7.3083999999999998</v>
+      </c>
+      <c r="F186" s="1">
+        <v>2.4403999999999999</v>
+      </c>
+      <c r="G186" s="1">
+        <v>5.4813000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>123</v>
+      </c>
+      <c r="B187">
+        <v>450</v>
+      </c>
+      <c r="C187" s="3">
+        <v>400</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3.2538999999999998</v>
+      </c>
+      <c r="E187" s="1">
+        <v>7.3083999999999998</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2.1631</v>
+      </c>
+      <c r="G187" s="1">
+        <v>6.6574</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>124</v>
+      </c>
+      <c r="B188">
+        <v>462</v>
+      </c>
+      <c r="C188" s="3">
+        <v>361</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>7</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+      <c r="G188" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>124</v>
+      </c>
+      <c r="B189">
+        <v>462</v>
+      </c>
+      <c r="C189" s="3">
+        <v>345</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>7</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="G189" s="1">
+        <v>4.9725999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>125</v>
+      </c>
+      <c r="B190">
+        <v>404</v>
+      </c>
+      <c r="C190" s="3">
+        <v>321</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="E190" s="1">
+        <v>5.9451999999999998</v>
+      </c>
+      <c r="F190" s="1">
+        <v>4.8540999999999999</v>
+      </c>
+      <c r="G190" s="1">
+        <v>3.5266999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E49EE8-18EF-9641-9AAC-48E4AFB4D436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0209283-89E5-674F-81CC-FCE560274223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -1449,9 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2948,7 +2946,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4733,9 +4731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8595,9 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC045EC-A8A3-974C-9403-34BA5D62B768}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9037,8 +9031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10571,18 +10565,18 @@
         <v>263</v>
       </c>
       <c r="B81" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6269501277589538</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6541802475774405</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -10711,9 +10705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14280,11 +14272,11 @@
       </c>
       <c r="F119" s="1">
         <f>VLOOKUP(C119,LayoutCourses!A:E,4,0)</f>
-        <v>0</v>
+        <v>1.6269501277589538</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(C119,LayoutCourses!A:E,5,0)</f>
-        <v>0</v>
+        <v>3.6541802475774405</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0209283-89E5-674F-81CC-FCE560274223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5DB4B-2890-844F-A4B4-0664B63036F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
@@ -1122,7 +1122,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9031,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9352,15 +9392,15 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9371,15 +9411,15 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9447,15 +9487,15 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -10435,15 +10475,15 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="4"/>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="5"/>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -10625,15 +10665,15 @@
         <v>5</v>
       </c>
       <c r="C84" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="6"/>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="7"/>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -10644,15 +10684,15 @@
         <v>5</v>
       </c>
       <c r="C85" s="3">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="6"/>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="7"/>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -10697,6 +10737,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
     <sortCondition ref="A2:A73"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10705,7 +10750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11174,11 +11221,11 @@
       </c>
       <c r="D16" s="1">
         <f>VLOOKUP(B16,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="E16" s="1">
         <f>VLOOKUP(B16,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
       <c r="F16" s="1">
         <f>VLOOKUP(C16,LayoutCourses!A:E,4,0)</f>
@@ -11962,11 +12009,11 @@
       </c>
       <c r="F42" s="1">
         <f>VLOOKUP(C42,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G42" s="1">
         <f>VLOOKUP(C42,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -11992,11 +12039,11 @@
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(C43,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G43" s="1">
         <f>VLOOKUP(C43,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -12172,11 +12219,11 @@
       </c>
       <c r="F49" s="1">
         <f>VLOOKUP(C49,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G49" s="1">
         <f>VLOOKUP(C49,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -12202,11 +12249,11 @@
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(C50,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(C50,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -12374,11 +12421,11 @@
       </c>
       <c r="D56" s="1">
         <f>VLOOKUP(B56,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E56" s="1">
         <f>VLOOKUP(B56,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F56" s="1">
         <f>VLOOKUP(C56,LayoutCourses!A:E,4,0)</f>
@@ -12404,11 +12451,11 @@
       </c>
       <c r="D57" s="1">
         <f>VLOOKUP(B57,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E57" s="1">
         <f>VLOOKUP(B57,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(C57,LayoutCourses!A:E,4,0)</f>
@@ -12434,11 +12481,11 @@
       </c>
       <c r="D58" s="1">
         <f>VLOOKUP(B58,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E58" s="1">
         <f>VLOOKUP(B58,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(C58,LayoutCourses!A:E,4,0)</f>
@@ -12464,11 +12511,11 @@
       </c>
       <c r="D59" s="1">
         <f>VLOOKUP(B59,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E59" s="1">
         <f>VLOOKUP(B59,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(C59,LayoutCourses!A:E,4,0)</f>
@@ -12494,11 +12541,11 @@
       </c>
       <c r="D60" s="1">
         <f>VLOOKUP(B60,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E60" s="1">
         <f>VLOOKUP(B60,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(C60,LayoutCourses!A:E,4,0)</f>
@@ -12524,11 +12571,11 @@
       </c>
       <c r="D61" s="1">
         <f>VLOOKUP(B61,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E61" s="1">
         <f>VLOOKUP(B61,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(C61,LayoutCourses!A:E,4,0)</f>
@@ -12554,11 +12601,11 @@
       </c>
       <c r="D62" s="1">
         <f>VLOOKUP(B62,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E62" s="1">
         <f>VLOOKUP(B62,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(C62,LayoutCourses!A:E,4,0)</f>
@@ -12584,11 +12631,11 @@
       </c>
       <c r="D63" s="1">
         <f>VLOOKUP(B63,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E63" s="1">
         <f>VLOOKUP(B63,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(C63,LayoutCourses!A:E,4,0)</f>
@@ -12614,11 +12661,11 @@
       </c>
       <c r="D64" s="1">
         <f>VLOOKUP(B64,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="E64" s="1">
         <f>VLOOKUP(B64,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(C64,LayoutCourses!A:E,4,0)</f>
@@ -12644,11 +12691,11 @@
       </c>
       <c r="D65" s="1">
         <f>VLOOKUP(B65,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E65" s="1">
         <f>VLOOKUP(B65,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(C65,LayoutCourses!A:E,4,0)</f>
@@ -12674,11 +12721,11 @@
       </c>
       <c r="D66" s="1">
         <f>VLOOKUP(B66,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E66" s="1">
         <f>VLOOKUP(B66,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F66" s="1">
         <f>VLOOKUP(C66,LayoutCourses!A:E,4,0)</f>
@@ -12704,11 +12751,11 @@
       </c>
       <c r="D67" s="1">
         <f>VLOOKUP(B67,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E67" s="1">
         <f>VLOOKUP(B67,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F67" s="1">
         <f>VLOOKUP(C67,LayoutCourses!A:E,4,0)</f>
@@ -12734,11 +12781,11 @@
       </c>
       <c r="D68" s="1">
         <f>VLOOKUP(B68,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E68" s="1">
         <f>VLOOKUP(B68,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F68" s="1">
         <f>VLOOKUP(C68,LayoutCourses!A:E,4,0)</f>
@@ -12764,11 +12811,11 @@
       </c>
       <c r="D69" s="1">
         <f>VLOOKUP(B69,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E69" s="1">
         <f>VLOOKUP(B69,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F69" s="1">
         <f>VLOOKUP(C69,LayoutCourses!A:E,4,0)</f>
@@ -12794,11 +12841,11 @@
       </c>
       <c r="D70" s="1">
         <f>VLOOKUP(B70,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E70" s="1">
         <f>VLOOKUP(B70,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F70" s="1">
         <f>VLOOKUP(C70,LayoutCourses!A:E,4,0)</f>
@@ -12824,11 +12871,11 @@
       </c>
       <c r="D71" s="1">
         <f>VLOOKUP(B71,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E71" s="1">
         <f>VLOOKUP(B71,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(C71,LayoutCourses!A:E,4,0)</f>
@@ -12854,11 +12901,11 @@
       </c>
       <c r="D72" s="1">
         <f>VLOOKUP(B72,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E72" s="1">
         <f>VLOOKUP(B72,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F72" s="1">
         <f>VLOOKUP(C72,LayoutCourses!A:E,4,0)</f>
@@ -12884,11 +12931,11 @@
       </c>
       <c r="D73" s="1">
         <f>VLOOKUP(B73,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E73" s="1">
         <f>VLOOKUP(B73,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(C73,LayoutCourses!A:E,4,0)</f>
@@ -12914,11 +12961,11 @@
       </c>
       <c r="D74" s="1">
         <f>VLOOKUP(B74,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E74" s="1">
         <f>VLOOKUP(B74,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(C74,LayoutCourses!A:E,4,0)</f>
@@ -12944,11 +12991,11 @@
       </c>
       <c r="D75" s="1">
         <f>VLOOKUP(B75,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="E75" s="1">
         <f>VLOOKUP(B75,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(C75,LayoutCourses!A:E,4,0)</f>
@@ -13222,11 +13269,11 @@
       </c>
       <c r="F84" s="1">
         <f>VLOOKUP(C84,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G84" s="1">
         <f>VLOOKUP(C84,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -13252,11 +13299,11 @@
       </c>
       <c r="F85" s="1">
         <f>VLOOKUP(C85,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G85" s="1">
         <f>VLOOKUP(C85,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -13492,11 +13539,11 @@
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(C93,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G93" s="1">
         <f>VLOOKUP(C93,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -13522,11 +13569,11 @@
       </c>
       <c r="F94" s="1">
         <f>VLOOKUP(C94,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G94" s="1">
         <f>VLOOKUP(C94,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -13702,11 +13749,11 @@
       </c>
       <c r="F100" s="1">
         <f>VLOOKUP(C100,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G100" s="1">
         <f>VLOOKUP(C100,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -13732,11 +13779,11 @@
       </c>
       <c r="F101" s="1">
         <f>VLOOKUP(C101,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G101" s="1">
         <f>VLOOKUP(C101,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -14062,11 +14109,11 @@
       </c>
       <c r="F112" s="1">
         <f>VLOOKUP(C112,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(C112,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -14092,11 +14139,11 @@
       </c>
       <c r="F113" s="1">
         <f>VLOOKUP(C113,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(C113,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -14452,11 +14499,11 @@
       </c>
       <c r="F125" s="1">
         <f>VLOOKUP(C125,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(C125,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -14482,11 +14529,11 @@
       </c>
       <c r="F126" s="1">
         <f>VLOOKUP(C126,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G126" s="1">
         <f>VLOOKUP(C126,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -14684,11 +14731,11 @@
       </c>
       <c r="D133" s="1">
         <f>VLOOKUP(B133,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E133" s="1">
         <f>VLOOKUP(B133,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(C133,LayoutCourses!A:E,4,0)</f>
@@ -14714,11 +14761,11 @@
       </c>
       <c r="D134" s="1">
         <f>VLOOKUP(B134,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E134" s="1">
         <f>VLOOKUP(B134,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F134" s="1">
         <f>VLOOKUP(C134,LayoutCourses!A:E,4,0)</f>
@@ -14744,11 +14791,11 @@
       </c>
       <c r="D135" s="1">
         <f>VLOOKUP(B135,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E135" s="1">
         <f>VLOOKUP(B135,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F135" s="1">
         <f>VLOOKUP(C135,LayoutCourses!A:E,4,0)</f>
@@ -14774,11 +14821,11 @@
       </c>
       <c r="D136" s="1">
         <f>VLOOKUP(B136,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E136" s="1">
         <f>VLOOKUP(B136,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F136" s="1">
         <f>VLOOKUP(C136,LayoutCourses!A:E,4,0)</f>
@@ -14804,11 +14851,11 @@
       </c>
       <c r="D137" s="1">
         <f>VLOOKUP(B137,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E137" s="1">
         <f>VLOOKUP(B137,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F137" s="1">
         <f>VLOOKUP(C137,LayoutCourses!A:E,4,0)</f>
@@ -14834,11 +14881,11 @@
       </c>
       <c r="D138" s="1">
         <f>VLOOKUP(B138,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E138" s="1">
         <f>VLOOKUP(B138,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F138" s="1">
         <f>VLOOKUP(C138,LayoutCourses!A:E,4,0)</f>
@@ -14864,11 +14911,11 @@
       </c>
       <c r="D139" s="1">
         <f>VLOOKUP(B139,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E139" s="1">
         <f>VLOOKUP(B139,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F139" s="1">
         <f>VLOOKUP(C139,LayoutCourses!A:E,4,0)</f>
@@ -14894,11 +14941,11 @@
       </c>
       <c r="D140" s="1">
         <f>VLOOKUP(B140,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E140" s="1">
         <f>VLOOKUP(B140,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F140" s="1">
         <f>VLOOKUP(C140,LayoutCourses!A:E,4,0)</f>
@@ -14924,11 +14971,11 @@
       </c>
       <c r="D141" s="1">
         <f>VLOOKUP(B141,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="E141" s="1">
         <f>VLOOKUP(B141,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
       <c r="F141" s="1">
         <f>VLOOKUP(C141,LayoutCourses!A:E,4,0)</f>
@@ -14962,11 +15009,11 @@
       </c>
       <c r="F142" s="1">
         <f>VLOOKUP(C142,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="G142" s="1">
         <f>VLOOKUP(C142,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -14992,11 +15039,11 @@
       </c>
       <c r="F143" s="1">
         <f>VLOOKUP(C143,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="G143" s="1">
         <f>VLOOKUP(C143,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -15232,11 +15279,11 @@
       </c>
       <c r="F151" s="1">
         <f>VLOOKUP(C151,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G151" s="1">
         <f>VLOOKUP(C151,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -15434,11 +15481,11 @@
       </c>
       <c r="D158" s="1">
         <f>VLOOKUP(B158,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E158" s="1">
         <f>VLOOKUP(B158,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F158" s="1">
         <f>VLOOKUP(C158,LayoutCourses!A:E,4,0)</f>
@@ -15464,11 +15511,11 @@
       </c>
       <c r="D159" s="1">
         <f>VLOOKUP(B159,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E159" s="1">
         <f>VLOOKUP(B159,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F159" s="1">
         <f>VLOOKUP(C159,LayoutCourses!A:E,4,0)</f>
@@ -15494,11 +15541,11 @@
       </c>
       <c r="D160" s="1">
         <f>VLOOKUP(B160,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E160" s="1">
         <f>VLOOKUP(B160,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F160" s="1">
         <f>VLOOKUP(C160,LayoutCourses!A:E,4,0)</f>
@@ -15524,11 +15571,11 @@
       </c>
       <c r="D161" s="1">
         <f>VLOOKUP(B161,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E161" s="1">
         <f>VLOOKUP(B161,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F161" s="1">
         <f>VLOOKUP(C161,LayoutCourses!A:E,4,0)</f>
@@ -15554,11 +15601,11 @@
       </c>
       <c r="D162" s="1">
         <f>VLOOKUP(B162,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E162" s="1">
         <f>VLOOKUP(B162,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F162" s="1">
         <f>VLOOKUP(C162,LayoutCourses!A:E,4,0)</f>
@@ -15584,11 +15631,11 @@
       </c>
       <c r="D163" s="1">
         <f>VLOOKUP(B163,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E163" s="1">
         <f>VLOOKUP(B163,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F163" s="1">
         <f>VLOOKUP(C163,LayoutCourses!A:E,4,0)</f>
@@ -15614,11 +15661,11 @@
       </c>
       <c r="D164" s="1">
         <f>VLOOKUP(B164,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E164" s="1">
         <f>VLOOKUP(B164,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F164" s="1">
         <f>VLOOKUP(C164,LayoutCourses!A:E,4,0)</f>
@@ -15644,11 +15691,11 @@
       </c>
       <c r="D165" s="1">
         <f>VLOOKUP(B165,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E165" s="1">
         <f>VLOOKUP(B165,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F165" s="1">
         <f>VLOOKUP(C165,LayoutCourses!A:E,4,0)</f>
@@ -15674,11 +15721,11 @@
       </c>
       <c r="D166" s="1">
         <f>VLOOKUP(B166,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E166" s="1">
         <f>VLOOKUP(B166,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F166" s="1">
         <f>VLOOKUP(C166,LayoutCourses!A:E,4,0)</f>
@@ -15704,11 +15751,11 @@
       </c>
       <c r="D167" s="1">
         <f>VLOOKUP(B167,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E167" s="1">
         <f>VLOOKUP(B167,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F167" s="1">
         <f>VLOOKUP(C167,LayoutCourses!A:E,4,0)</f>
@@ -15734,11 +15781,11 @@
       </c>
       <c r="D168" s="1">
         <f>VLOOKUP(B168,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E168" s="1">
         <f>VLOOKUP(B168,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F168" s="1">
         <f>VLOOKUP(C168,LayoutCourses!A:E,4,0)</f>
@@ -15764,11 +15811,11 @@
       </c>
       <c r="D169" s="1">
         <f>VLOOKUP(B169,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E169" s="1">
         <f>VLOOKUP(B169,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F169" s="1">
         <f>VLOOKUP(C169,LayoutCourses!A:E,4,0)</f>
@@ -15794,19 +15841,19 @@
       </c>
       <c r="D170" s="1">
         <f>VLOOKUP(B170,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="E170" s="1">
         <f>VLOOKUP(B170,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
       <c r="F170" s="1">
         <f>VLOOKUP(C170,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G170" s="1">
         <f>VLOOKUP(C170,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -15832,11 +15879,11 @@
       </c>
       <c r="F171" s="1">
         <f>VLOOKUP(C171,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G171" s="1">
         <f>VLOOKUP(C171,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -15862,11 +15909,11 @@
       </c>
       <c r="F172" s="1">
         <f>VLOOKUP(C172,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G172" s="1">
         <f>VLOOKUP(C172,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -16072,11 +16119,11 @@
       </c>
       <c r="F179" s="1">
         <f>VLOOKUP(C179,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G179" s="1">
         <f>VLOOKUP(C179,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -16102,11 +16149,11 @@
       </c>
       <c r="F180" s="1">
         <f>VLOOKUP(C180,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G180" s="1">
         <f>VLOOKUP(C180,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -16132,11 +16179,11 @@
       </c>
       <c r="F181" s="1">
         <f>VLOOKUP(C181,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(C181,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -16222,11 +16269,11 @@
       </c>
       <c r="F184" s="1">
         <f>VLOOKUP(C184,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G184" s="1">
         <f>VLOOKUP(C184,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -16252,11 +16299,11 @@
       </c>
       <c r="F185" s="1">
         <f>VLOOKUP(C185,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G185" s="1">
         <f>VLOOKUP(C185,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -16282,11 +16329,11 @@
       </c>
       <c r="F186" s="1">
         <f>VLOOKUP(C186,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G186" s="1">
         <f>VLOOKUP(C186,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -16372,11 +16419,11 @@
       </c>
       <c r="F189" s="1">
         <f>VLOOKUP(C189,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G189" s="1">
         <f>VLOOKUP(C189,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -16402,11 +16449,11 @@
       </c>
       <c r="F190" s="1">
         <f>VLOOKUP(C190,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G190" s="1">
         <f>VLOOKUP(C190,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -16432,11 +16479,11 @@
       </c>
       <c r="F191" s="1">
         <f>VLOOKUP(C191,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G191" s="1">
         <f>VLOOKUP(C191,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -16492,11 +16539,11 @@
       </c>
       <c r="F193" s="1">
         <f>VLOOKUP(C193,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G193" s="1">
         <f>VLOOKUP(C193,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -16822,11 +16869,11 @@
       </c>
       <c r="F204" s="1">
         <f>VLOOKUP(C204,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(C204,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -16852,11 +16899,11 @@
       </c>
       <c r="F205" s="1">
         <f>VLOOKUP(C205,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G205" s="1">
         <f>VLOOKUP(C205,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -16912,11 +16959,11 @@
       </c>
       <c r="F207" s="1">
         <f>VLOOKUP(C207,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G207" s="1">
         <f>VLOOKUP(C207,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -16942,11 +16989,11 @@
       </c>
       <c r="F208" s="1">
         <f>VLOOKUP(C208,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G208" s="1">
         <f>VLOOKUP(C208,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -17212,11 +17259,11 @@
       </c>
       <c r="F217" s="1">
         <f>VLOOKUP(C217,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G217" s="1">
         <f>VLOOKUP(C217,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -17422,11 +17469,11 @@
       </c>
       <c r="F224" s="1">
         <f>VLOOKUP(C224,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(C224,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -17542,11 +17589,11 @@
       </c>
       <c r="F228" s="1">
         <f>VLOOKUP(C228,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(C228,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -17572,11 +17619,11 @@
       </c>
       <c r="F229" s="1">
         <f>VLOOKUP(C229,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G229" s="1">
         <f>VLOOKUP(C229,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -17632,11 +17679,11 @@
       </c>
       <c r="F231" s="1">
         <f>VLOOKUP(C231,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G231" s="1">
         <f>VLOOKUP(C231,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -17692,11 +17739,11 @@
       </c>
       <c r="F233" s="1">
         <f>VLOOKUP(C233,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(C233,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -17722,11 +17769,11 @@
       </c>
       <c r="F234" s="1">
         <f>VLOOKUP(C234,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G234" s="1">
         <f>VLOOKUP(C234,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -17782,11 +17829,11 @@
       </c>
       <c r="F236" s="1">
         <f>VLOOKUP(C236,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(C236,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -17872,11 +17919,11 @@
       </c>
       <c r="F239" s="1">
         <f>VLOOKUP(C239,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(C239,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -17902,11 +17949,11 @@
       </c>
       <c r="F240" s="1">
         <f>VLOOKUP(C240,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(C240,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -17932,11 +17979,11 @@
       </c>
       <c r="F241" s="1">
         <f>VLOOKUP(C241,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(C241,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -18022,11 +18069,11 @@
       </c>
       <c r="F244" s="1">
         <f>VLOOKUP(C244,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(C244,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -18052,11 +18099,11 @@
       </c>
       <c r="F245" s="1">
         <f>VLOOKUP(C245,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(C245,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -18082,11 +18129,11 @@
       </c>
       <c r="F246" s="1">
         <f>VLOOKUP(C246,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(C246,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -18532,11 +18579,11 @@
       </c>
       <c r="F261" s="1">
         <f>VLOOKUP(C261,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="G261" s="1">
         <f>VLOOKUP(C261,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -18562,11 +18609,11 @@
       </c>
       <c r="F262" s="1">
         <f>VLOOKUP(C262,LayoutCourses!A:E,4,0)</f>
-        <v>2.5000038301259764</v>
+        <v>2.9389294816602929</v>
       </c>
       <c r="G262" s="1">
         <f>VLOOKUP(C262,LayoutCourses!A:E,5,0)</f>
-        <v>4.3301248075956709</v>
+        <v>4.0450826322620355</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -18682,11 +18729,11 @@
       </c>
       <c r="F266" s="1">
         <f>VLOOKUP(C266,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G266" s="1">
         <f>VLOOKUP(C266,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -18802,11 +18849,11 @@
       </c>
       <c r="F270" s="1">
         <f>VLOOKUP(C270,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G270" s="1">
         <f>VLOOKUP(C270,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -19012,11 +19059,11 @@
       </c>
       <c r="F277" s="1">
         <f>VLOOKUP(C277,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(C277,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -19192,11 +19239,11 @@
       </c>
       <c r="F283" s="1">
         <f>VLOOKUP(C283,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G283" s="1">
         <f>VLOOKUP(C283,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -19372,11 +19419,11 @@
       </c>
       <c r="F289" s="1">
         <f>VLOOKUP(C289,LayoutCourses!A:E,4,0)</f>
-        <v>1.7918444959595989</v>
+        <v>2.0336876596986921</v>
       </c>
       <c r="G289" s="1">
         <f>VLOOKUP(C289,LayoutCourses!A:E,5,0)</f>
-        <v>4.6679003098073215</v>
+        <v>4.5677253094718004</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -19762,11 +19809,11 @@
       </c>
       <c r="F302" s="1">
         <f>VLOOKUP(C302,LayoutCourses!A:E,4,0)</f>
-        <v>-1.9999938717937438</v>
+        <v>-2.3511349981279666</v>
       </c>
       <c r="G302" s="1">
         <f>VLOOKUP(C302,LayoutCourses!A:E,5,0)</f>
-        <v>3.4641051532520586</v>
+        <v>3.2360723447688566</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -19792,11 +19839,11 @@
       </c>
       <c r="F303" s="1">
         <f>VLOOKUP(C303,LayoutCourses!A:E,4,0)</f>
-        <v>-2.3511349981279666</v>
+        <v>-2.676516640892562</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(C303,LayoutCourses!A:E,5,0)</f>
-        <v>3.2360723447688566</v>
+        <v>2.9725845103251811</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -20272,11 +20319,11 @@
       </c>
       <c r="F319" s="1">
         <f>VLOOKUP(C319,LayoutCourses!A:E,4,0)</f>
-        <v>2.0336876596986921</v>
+        <v>2.5000038301259764</v>
       </c>
       <c r="G319" s="1">
         <f>VLOOKUP(C319,LayoutCourses!A:E,5,0)</f>
-        <v>4.5677253094718004</v>
+        <v>4.3301248075956709</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -20362,11 +20409,11 @@
       </c>
       <c r="F322" s="1">
         <f>VLOOKUP(C322,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G322" s="1">
         <f>VLOOKUP(C322,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -20452,11 +20499,11 @@
       </c>
       <c r="F325" s="1">
         <f>VLOOKUP(C325,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G325" s="1">
         <f>VLOOKUP(C325,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -20542,11 +20589,11 @@
       </c>
       <c r="F328" s="1">
         <f>VLOOKUP(C328,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6269404310578177</v>
+        <v>-1.9999938717937438</v>
       </c>
       <c r="G328" s="1">
         <f>VLOOKUP(C328,LayoutCourses!A:E,5,0)</f>
-        <v>3.6541845648228284</v>
+        <v>3.4641051532520586</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5DB4B-2890-844F-A4B4-0664B63036F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07303C6D-E359-D74F-969E-C193B5801151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="8" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LayoutCourses" sheetId="5" r:id="rId6"/>
     <sheet name="LayoutRequisites" sheetId="8" r:id="rId7"/>
     <sheet name="Tracks" sheetId="4" r:id="rId8"/>
+    <sheet name="CoursesTracks" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LayoutRequisites" localSheetId="6">LayoutRequisites!$A$1:$G$190</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="315">
   <si>
     <t>number</t>
   </si>
@@ -159,9 +160,6 @@
   </si>
   <si>
     <t>MATH 404, 541</t>
-  </si>
-  <si>
-    <t>Mathematic of Information</t>
   </si>
   <si>
     <t>x</t>
@@ -1048,6 +1046,30 @@
   </si>
   <si>
     <t>One of MATH 361, MATH 345.</t>
+  </si>
+  <si>
+    <t>Mathematics of Information</t>
+  </si>
+  <si>
+    <t>Mathematics of Discrete Algorithms</t>
+  </si>
+  <si>
+    <t>Mathematical Biology</t>
+  </si>
+  <si>
+    <t>Applied Track for Graduate School</t>
+  </si>
+  <si>
+    <t>Mathematical Modelling and Copmutation</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Mathematical Optimization</t>
+  </si>
+  <si>
+    <t>track_id</t>
   </si>
 </sst>
 </file>
@@ -1122,58 +1144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1556,10 +1527,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1573,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1590,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1607,10 +1578,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1624,13 +1595,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,13 +1629,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,13 +1646,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1692,13 +1663,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1709,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1743,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1760,13 +1731,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1777,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1794,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1811,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -1828,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1845,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -1862,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -1879,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
         <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1896,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1913,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1930,13 +1901,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1964,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
         <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1981,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1998,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2015,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
         <v>102</v>
       </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2032,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -2049,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -2066,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -2083,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -2100,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
         <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -2117,10 +2088,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
         <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -2134,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -2151,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -2168,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
         <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2185,13 +2156,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
-        <v>123</v>
-      </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2202,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
-      </c>
-      <c r="D42" t="s">
-        <v>125</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -2219,10 +2190,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>127</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -2236,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
         <v>128</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -2253,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -2270,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -2287,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
         <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -2304,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -2321,10 +2292,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
         <v>138</v>
-      </c>
-      <c r="D49" t="s">
-        <v>139</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -2338,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
         <v>140</v>
       </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,10 +2326,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
         <v>142</v>
-      </c>
-      <c r="D51" t="s">
-        <v>143</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -2372,10 +2343,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
         <v>144</v>
-      </c>
-      <c r="D52" t="s">
-        <v>145</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2389,10 +2360,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
         <v>146</v>
-      </c>
-      <c r="D53" t="s">
-        <v>147</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2406,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
         <v>148</v>
-      </c>
-      <c r="D54" t="s">
-        <v>149</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2423,13 +2394,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
         <v>150</v>
       </c>
-      <c r="D55" t="s">
-        <v>151</v>
-      </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,13 +2411,13 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" t="s">
         <v>152</v>
-      </c>
-      <c r="D56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2457,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
         <v>154</v>
-      </c>
-      <c r="D57" t="s">
-        <v>155</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2474,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
         <v>156</v>
-      </c>
-      <c r="D58" t="s">
-        <v>157</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -2491,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
         <v>158</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2508,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
         <v>160</v>
-      </c>
-      <c r="D60" t="s">
-        <v>161</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -2525,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
         <v>162</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -2542,10 +2513,10 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
         <v>164</v>
-      </c>
-      <c r="D62" t="s">
-        <v>165</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -2559,10 +2530,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
         <v>166</v>
-      </c>
-      <c r="D63" t="s">
-        <v>167</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -2576,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
         <v>168</v>
-      </c>
-      <c r="D64" t="s">
-        <v>169</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -2593,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
         <v>170</v>
-      </c>
-      <c r="D65" t="s">
-        <v>171</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -2610,10 +2581,10 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
         <v>172</v>
-      </c>
-      <c r="D66" t="s">
-        <v>173</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -2627,13 +2598,13 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
         <v>174</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>175</v>
-      </c>
-      <c r="E67" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2644,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
         <v>177</v>
-      </c>
-      <c r="D68" t="s">
-        <v>178</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -2661,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
         <v>179</v>
-      </c>
-      <c r="D69" t="s">
-        <v>180</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -2678,10 +2649,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -2695,10 +2666,10 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -2712,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
         <v>185</v>
-      </c>
-      <c r="D72" t="s">
-        <v>186</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -2729,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" t="s">
         <v>187</v>
-      </c>
-      <c r="D73" t="s">
-        <v>188</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -2746,10 +2717,10 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
         <v>189</v>
-      </c>
-      <c r="D74" t="s">
-        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -2763,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" t="s">
         <v>191</v>
-      </c>
-      <c r="D75" t="s">
-        <v>192</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -2780,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" t="s">
         <v>193</v>
-      </c>
-      <c r="D76" t="s">
-        <v>194</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -2797,10 +2768,10 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" t="s">
         <v>195</v>
-      </c>
-      <c r="D77" t="s">
-        <v>196</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -2814,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" t="s">
         <v>197</v>
-      </c>
-      <c r="D78" t="s">
-        <v>198</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -2831,10 +2802,10 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" t="s">
         <v>200</v>
-      </c>
-      <c r="D79" t="s">
-        <v>201</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -2848,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -2865,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
         <v>203</v>
-      </c>
-      <c r="D81" t="s">
-        <v>204</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2882,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" t="s">
         <v>205</v>
-      </c>
-      <c r="D82" t="s">
-        <v>206</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2899,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" t="s">
         <v>207</v>
-      </c>
-      <c r="D83" t="s">
-        <v>208</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2916,10 +2887,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
         <v>209</v>
-      </c>
-      <c r="D84" t="s">
-        <v>210</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -2933,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
         <v>211</v>
-      </c>
-      <c r="D85" t="s">
-        <v>212</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -2950,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" t="s">
         <v>213</v>
-      </c>
-      <c r="D86" t="s">
-        <v>214</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -2967,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
         <v>215</v>
-      </c>
-      <c r="D87" t="s">
-        <v>216</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -3065,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3076,10 +3047,10 @@
         <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3090,10 +3061,10 @@
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3121,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3135,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3149,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3163,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3191,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,10 +3173,10 @@
         <v>220</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3216,10 +3187,10 @@
         <v>220</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,10 +3201,10 @@
         <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3244,10 +3215,10 @@
         <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3258,10 +3229,10 @@
         <v>223</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3272,10 +3243,10 @@
         <v>223</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3286,10 +3257,10 @@
         <v>226</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,10 +3271,10 @@
         <v>226</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3317,7 +3288,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3345,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3373,7 +3344,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3415,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3429,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3485,7 +3456,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3513,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3527,7 +3498,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,7 +3526,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,7 +3540,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,7 +3554,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3597,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3611,7 +3582,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3625,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3650,10 +3621,10 @@
         <v>302</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3695,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3709,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,7 +3694,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,10 +3719,10 @@
         <v>308</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3762,10 +3733,10 @@
         <v>308</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3776,10 +3747,10 @@
         <v>309</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3790,10 +3761,10 @@
         <v>309</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +3806,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3849,7 +3820,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,7 +3834,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3888,10 +3859,10 @@
         <v>317</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3905,7 +3876,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +3890,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3933,7 +3904,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3944,10 +3915,10 @@
         <v>320</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3958,10 +3929,10 @@
         <v>320</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3975,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,10 +3957,10 @@
         <v>322</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4000,10 +3971,10 @@
         <v>322</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,7 +3988,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4016,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,10 +4027,10 @@
         <v>342</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,10 +4041,10 @@
         <v>342</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,10 +4055,10 @@
         <v>344</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,10 +4069,10 @@
         <v>344</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,7 +4086,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,7 +4100,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,10 +4153,10 @@
         <v>401</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,10 +4167,10 @@
         <v>401</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,7 +4198,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,10 +4209,10 @@
         <v>403</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,7 +4226,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,7 +4240,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4308,10 +4279,10 @@
         <v>406</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4322,10 +4293,10 @@
         <v>406</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,7 +4338,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,7 +4366,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4394,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,7 +4408,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,10 +4433,10 @@
         <v>424</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,10 +4447,10 @@
         <v>424</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,10 +4461,10 @@
         <v>424</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,10 +4475,10 @@
         <v>424</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4521,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,7 +4506,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4534,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,7 +4548,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,7 +4562,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,7 +4576,7 @@
         <v>14</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,7 +4590,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,7 +4604,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,7 +4632,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,7 +4646,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,7 +4660,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,7 +4674,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,7 +4702,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4781,13 +4752,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8640,7 +8611,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -9071,9 +9042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9087,16 +9056,16 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10737,11 +10706,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
     <sortCondition ref="A2:A73"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10765,25 +10729,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -20783,9 +20747,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20808,7 +20774,732 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8396A1F-A881-EB40-B8E4-93B002EFD8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB658419-3EF8-164A-905E-50A25A80237B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="920" windowWidth="28040" windowHeight="16440" firstSheet="1" activeTab="10" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="440" yWindow="920" windowWidth="28040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="295">
   <si>
     <t>number</t>
   </si>
@@ -810,171 +810,36 @@
     <t>Honours Differential Calculus</t>
   </si>
   <si>
-    <t>One of MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184.</t>
-  </si>
-  <si>
-    <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001.</t>
-  </si>
-  <si>
     <t xml:space="preserve">One of MATH 215, MATH 255, MATH 256, MATH 258 </t>
   </si>
   <si>
-    <t>One of MATH 152, MATH 221, MATH 223.</t>
-  </si>
-  <si>
     <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001</t>
   </si>
   <si>
-    <t>One of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254.</t>
-  </si>
-  <si>
     <t>One of MATH 152, MATH 221, MATH 223</t>
   </si>
   <si>
-    <t>A score of 68% or higher in MATH 226.</t>
-  </si>
-  <si>
-    <t>All of MECH 222, MECH 225.</t>
-  </si>
-  <si>
-    <t>One of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001 </t>
-  </si>
-  <si>
-    <t>One of MATH 215, MATH 255, MATH 256, MATH 258.</t>
-  </si>
-  <si>
-    <t>All of MECH 221, MECH 224.</t>
-  </si>
-  <si>
-    <t>One of BMEG 220, ELEC 211.</t>
-  </si>
-  <si>
-    <t>One of MATH 217, MATH 227, MATH 254, MATH 317.</t>
-  </si>
-  <si>
     <t>One of MATH 300, MATH 305</t>
   </si>
   <si>
-    <t>One of MATH 256, MATH 257, MATH 316, MATH 358, MECH 358, PHYS 312.</t>
-  </si>
-  <si>
-    <t>One of MATH 302, STAT 302.</t>
-  </si>
-  <si>
     <t>One of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254</t>
   </si>
   <si>
-    <t>One of MATH 152, MATH 221, MATH 223 </t>
-  </si>
-  <si>
     <t>One of MATH 152, MATH 221</t>
   </si>
   <si>
-    <t>One of MATH 220, MATH 226, CPSC 121.</t>
-  </si>
-  <si>
-    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121 and 9 additional credits of mathematics courses.</t>
-  </si>
-  <si>
-    <t>MATH 312.</t>
-  </si>
-  <si>
     <t>One of MATH 200, MATH 226, MATH 253</t>
   </si>
   <si>
-    <t>MATH 320.</t>
-  </si>
-  <si>
-    <t>MATH 322.</t>
-  </si>
-  <si>
-    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in one of MATH 215, MATH 255, MATH 256, MATH 258.</t>
-  </si>
-  <si>
-    <t>One of BIOL 301, MATH 215, MATH 255, MATH 256, MATH 258.</t>
-  </si>
-  <si>
     <t>Fourier series; auto- and cross-correlation; power spectra; discrete Fourier transform; boundary-value problems; numerical methods; partial differential equations; heat, wave, Laplace, Poisson, and wave equations. Applications to mechanical engineering and practical computing applications emphasized. Credit will be granted for only one of MECH 358 or MATH 358. </t>
   </si>
   <si>
-    <t>A score of 68% or higher in one of MATH 301, MATH 320.</t>
-  </si>
-  <si>
-    <t>MATH 402 is recommended.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in one of MATH 301, MATH 320. </t>
-  </si>
-  <si>
-    <t>MATH 420.</t>
-  </si>
-  <si>
     <t>One of MATH 307, CPSC 302</t>
   </si>
   <si>
-    <t>A score of 68% or higher in MATH 321.</t>
-  </si>
-  <si>
-    <t>MATH 418.</t>
-  </si>
-  <si>
-    <t>MATH 323.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in one of MATH 412, MATH 422.</t>
-  </si>
-  <si>
-    <t>MATH 424.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in all of MATH 321, MATH 322.</t>
-  </si>
-  <si>
-    <t>MATH 426.</t>
-  </si>
-  <si>
     <t>One of MATH 215, MATH 255, MATH 256, MATH 258</t>
   </si>
   <si>
-    <t>One of PHYS 216, PHYS 306, ENPH 270.</t>
-  </si>
-  <si>
-    <t>One of MATH 320, MATH 322.</t>
-  </si>
-  <si>
-    <t>MATH 300.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in MATH 320.</t>
-  </si>
-  <si>
-    <t>MATH 340.</t>
-  </si>
-  <si>
-    <t>3rd year standing and one of MATH 220, MATH 223, MATH 226 or CPSC 221.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in one of MATH 220, MATH 223, MATH 226, CPSC 121. And 6 credits of MATH numbered 300 or above.</t>
-  </si>
-  <si>
-    <t>One of MATH 220, MATH 226 and 6 credits of MATH courses numbered 300 or higher.</t>
-  </si>
-  <si>
-    <t>27 credits of MATH.</t>
-  </si>
-  <si>
-    <t>MATH 301.</t>
-  </si>
-  <si>
-    <t>MATH 400.</t>
-  </si>
-  <si>
-    <t>One of MATH 361, MATH 345.</t>
-  </si>
-  <si>
     <t>Mathematics of Information</t>
   </si>
   <si>
@@ -999,42 +864,9 @@
     <t>track_id</t>
   </si>
   <si>
-    <t>One of MATH 200, MATH 217, MATH 226, MATH 253.</t>
-  </si>
-  <si>
     <t>is_primary</t>
   </si>
   <si>
-    <t>Either (a) a score of 68% or higher in MATH 120 or (b) a score of 80% or higher in one of MATH 100, MATH 102, MATH 104, MATH 180, MATH 184 or (c) a score of 5 in AP Calculus AB.</t>
-  </si>
-  <si>
-    <t>A score of 68% or higher in MATH 322.</t>
-  </si>
-  <si>
-    <t>Either (a) a score of 64% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001 or (b) one of MATH 121, MATH 200, MATH 217, MATH 226, MATH 253, MATH 254.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Either (a) a score of 64% or higher in one of MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184 or (b) one of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001 </t>
-  </si>
-  <si>
-    <t>Either (a) MATH 121 or (b) a score of 68% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001.</t>
-  </si>
-  <si>
-    <t>Either (a) a score of 68% or higher in MATH 121 or (b) a score of 80% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001.</t>
-  </si>
-  <si>
-    <t>Either (a) one of MATH 152, MATH 221 and one of MATH 220, MATH 226, CPSC 121 or (b) MATH 223.</t>
-  </si>
-  <si>
-    <t>One of MATH 152, MATH 221, MATH 223 is recommended.</t>
-  </si>
-  <si>
-    <t>Either (a) a score of 68% or higher in MATH 226 or (b) one of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254 and a score of 80% or higher in MATH 220.</t>
-  </si>
-  <si>
-    <t>Either (a) a score of 68% or higher in one of MATH 223, MATH 310 or (b) one of MATH 152, MATH 221, MATH 223 and a score of 80% or higher in MATH 220.</t>
-  </si>
-  <si>
     <t>Either (a) one of MATH 152, MATH 221 and one of MATH 220, MATH 226, CPSC 121 or (b) MATH 223</t>
   </si>
   <si>
@@ -1044,19 +876,157 @@
     <t>MATH 300 and a score of 68% or higher in MATH 321</t>
   </si>
   <si>
-    <t>Either (a) a score of 80% or higher in one of MATH 256, MATH 257, MATH 316, MATH 358, MECH 358, PHYS 312 or (b) MATH 400.</t>
-  </si>
-  <si>
     <t>Either (a) a score of 68% or higher in MATH 223 or (b) a score of 80% or higher in one of MATH 152, MATH 221</t>
   </si>
   <si>
-    <t>Either (a) a score of 68% or higher in MATH 227 or (b) a score of 80% or higher in one of MATH 217, MATH 254, MATH 264, MATH 317.</t>
-  </si>
-  <si>
     <t>requisite_is_primary</t>
   </si>
   <si>
-    <t>A score of 68% or higher in one of PHYS 102, PHYS 108, PHYS 118, PHYS 153, PHYS 158, SCIE 001 and a score of 68% or higher in one of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001.</t>
+    <t>Either (a) a score of 68% or higher in MATH 120 or (b) a score of 80% or higher in one of MATH 100, MATH 102, MATH 104, MATH 180, MATH 184 or (c) a score of 5 in AP Calculus AB</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 64% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001 or (b) one of MATH 121, MATH 200, MATH 217, MATH 226, MATH 253, MATH 254</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of PHYS 102, PHYS 108, PHYS 118, PHYS 153, PHYS 158, SCIE 001 and a score of 68% or higher in one of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 64% or higher in one of MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184 or (b) one of MATH 101, MATH 103, MATH 105, MATH 121, SCIE 001</t>
+  </si>
+  <si>
+    <t>Either (a) MATH 121 or (b) a score of 68% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 121 or (b) a score of 80% or higher in one of MATH 101, MATH 103, MATH 105, SCIE 001</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 226</t>
+  </si>
+  <si>
+    <t>All of MECH 222, MECH 225</t>
+  </si>
+  <si>
+    <t>One of MATH 200, MATH 217, MATH 226, MATH 253</t>
+  </si>
+  <si>
+    <t>All of MECH 221, MECH 224</t>
+  </si>
+  <si>
+    <t>One of BMEG 220, ELEC 211</t>
+  </si>
+  <si>
+    <t>One of MATH 217, MATH 227, MATH 254, MATH 317</t>
+  </si>
+  <si>
+    <t>One of MATH 256, MATH 257, MATH 316, MATH 358, MECH 358, PHYS 312</t>
+  </si>
+  <si>
+    <t>One of MATH 302, STAT 302</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 226, CPSC 121</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121 and 9 additional credits of mathematics courses</t>
+  </si>
+  <si>
+    <t>MATH 312</t>
+  </si>
+  <si>
+    <t>One of MATH 152, MATH 221, MATH 223 is recommended</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 226 or (b) one of MATH 200, MATH 217, MATH 226, MATH 253, MATH 254 and a score of 80% or higher in MATH 220</t>
+  </si>
+  <si>
+    <t>MATH 320</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in one of MATH 223, MATH 310 or (b) one of MATH 152, MATH 221, MATH 223 and a score of 80% or higher in MATH 220</t>
+  </si>
+  <si>
+    <t>MATH 322</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 223, MATH 226, CPSC 121</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 215, MATH 255, MATH 256, MATH 258</t>
+  </si>
+  <si>
+    <t>One of BIOL 301, MATH 215, MATH 255, MATH 256, MATH 258</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 301, MATH 320</t>
+  </si>
+  <si>
+    <t>MATH 402 is recommended</t>
+  </si>
+  <si>
+    <t>MATH 420</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 320</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 322</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in MATH 321</t>
+  </si>
+  <si>
+    <t>MATH 418</t>
+  </si>
+  <si>
+    <t>MATH 323</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 412, MATH 422</t>
+  </si>
+  <si>
+    <t>Either (a) a score of 68% or higher in MATH 227 or (b) a score of 80% or higher in one of MATH 217, MATH 254, MATH 264, MATH 317</t>
+  </si>
+  <si>
+    <t>MATH 424</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in all of MATH 321, MATH 322</t>
+  </si>
+  <si>
+    <t>MATH 426</t>
+  </si>
+  <si>
+    <t>One of PHYS 216, PHYS 306, ENPH 270</t>
+  </si>
+  <si>
+    <t>One of MATH 320, MATH 322</t>
+  </si>
+  <si>
+    <t>MATH 300</t>
+  </si>
+  <si>
+    <t>MATH 340</t>
+  </si>
+  <si>
+    <t>3rd year standing and one of MATH 220, MATH 223, MATH 226 or CPSC 221</t>
+  </si>
+  <si>
+    <t>A score of 68% or higher in one of MATH 220, MATH 223, MATH 226, CPSC 121. And 6 credits of MATH numbered 300 or above</t>
+  </si>
+  <si>
+    <t>One of MATH 220, MATH 226 and 6 credits of MATH courses numbered 300 or higher</t>
+  </si>
+  <si>
+    <t>27 credits of MATH</t>
+  </si>
+  <si>
+    <t>MATH 301</t>
+  </si>
+  <si>
+    <t>MATH 400</t>
+  </si>
+  <si>
+    <t>One of MATH 361, MATH 345</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2377,7 @@
         <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
         <v>152</v>
@@ -4181,7 +4151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEBBEA-02AB-3A44-9D7C-A60E65E1E2E4}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4212,7 +4182,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6804,8 +6774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC08885-D475-D740-B093-B1999F0EDA05}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6884,7 +6854,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6898,7 +6868,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,7 +6910,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6968,7 +6938,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6982,7 +6952,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,7 +6966,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7010,7 +6980,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7024,7 +6994,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,7 +7008,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7052,7 +7022,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7066,7 +7036,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,7 +7050,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7094,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7108,7 +7078,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,7 +7120,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7164,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7178,7 +7148,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7192,7 +7162,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,7 +7190,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7234,7 +7204,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7248,7 +7218,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7262,7 +7232,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7290,7 +7260,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7304,7 +7274,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7318,7 +7288,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7332,7 +7302,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7346,7 +7316,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7360,7 +7330,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7374,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7388,7 +7358,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7402,7 +7372,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7416,7 +7386,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7430,7 +7400,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7444,7 +7414,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,7 +7428,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7472,7 +7442,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7486,7 +7456,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7500,7 +7470,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,7 +7484,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7528,7 +7498,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,7 +7512,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,7 +7526,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,7 +7540,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7584,7 +7554,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7598,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7612,7 +7582,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7626,7 +7596,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7640,7 +7610,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7654,7 +7624,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,7 +7638,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7682,7 +7652,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7696,7 +7666,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7710,7 +7680,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7724,7 +7694,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7738,7 +7708,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7752,7 +7722,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7766,7 +7736,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7780,7 +7750,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7794,7 +7764,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7822,7 +7792,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7836,7 +7806,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7850,7 +7820,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7864,7 +7834,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7878,7 +7848,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7892,7 +7862,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7906,7 +7876,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7920,7 +7890,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7934,7 +7904,7 @@
         <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7948,7 +7918,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7962,7 +7932,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7976,7 +7946,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,7 +7960,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8004,7 +7974,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8018,7 +7988,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8032,7 +8002,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8046,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8060,7 +8030,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,7 +8044,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,7 +8058,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8102,7 +8072,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8116,7 +8086,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8130,7 +8100,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8144,7 +8114,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8158,7 +8128,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,7 +8142,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8186,7 +8156,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8200,7 +8170,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,7 +8184,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8228,7 +8198,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,7 +8212,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8256,7 +8226,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8270,7 +8240,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8284,7 +8254,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8298,7 +8268,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8312,7 +8282,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,7 +8296,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8340,7 +8310,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8354,7 +8324,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8368,7 +8338,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8382,7 +8352,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -8415,7 +8385,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -13740,8 +13710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13779,11 +13749,11 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*COS(C2/32*3.14159)</f>
+        <f t="shared" ref="D2:D33" si="0">B2*COS(C2/32*3.14159)</f>
         <v>1.326794896677558E-6</v>
       </c>
       <c r="E2" s="1">
-        <f>B2*SIN(C2/32*3.14159)</f>
+        <f t="shared" ref="E2:E33" si="1">B2*SIN(C2/32*3.14159)</f>
         <v>0.99999999999911982</v>
       </c>
     </row>
@@ -13798,11 +13768,11 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*COS(C3/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.653589793355116E-6</v>
       </c>
       <c r="E3" s="1">
-        <f>B3*SIN(C3/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.9999999999982396</v>
       </c>
     </row>
@@ -13817,11 +13787,11 @@
         <v>28</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*COS(C4/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.92387864395955233</v>
       </c>
       <c r="E4" s="1">
-        <f>B4*SIN(C4/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.38268557751169385</v>
       </c>
     </row>
@@ -13836,11 +13806,11 @@
         <v>28</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*COS(C5/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.8477572879191047</v>
       </c>
       <c r="E5" s="1">
-        <f>B5*SIN(C5/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.76537115502338771</v>
       </c>
     </row>
@@ -13855,11 +13825,11 @@
         <v>34</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*COS(C6/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.98078583044462497</v>
       </c>
       <c r="E6" s="1">
-        <f>B6*SIN(C6/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.19508755675093026</v>
       </c>
     </row>
@@ -13874,11 +13844,11 @@
         <v>34</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*COS(C7/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.9615716608892499</v>
       </c>
       <c r="E7" s="1">
-        <f>B7*SIN(C7/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.39017511350186052</v>
       </c>
     </row>
@@ -13893,11 +13863,11 @@
         <v>46</v>
       </c>
       <c r="D8" s="1">
-        <f>B8*COS(C8/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.19509406325481018</v>
       </c>
       <c r="E8" s="1">
-        <f>B8*SIN(C8/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.98078453621716943</v>
       </c>
     </row>
@@ -13912,11 +13882,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*COS(C9/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>0.83146988872534855</v>
       </c>
       <c r="E9" s="1">
-        <f>B9*SIN(C9/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.55556981932341898</v>
       </c>
     </row>
@@ -13931,11 +13901,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*COS(C10/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.6629397774506971</v>
       </c>
       <c r="E10" s="1">
-        <f>B10*SIN(C10/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.111139638646838</v>
       </c>
     </row>
@@ -13950,11 +13920,11 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*COS(C11/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.1111418450258703</v>
       </c>
       <c r="E11" s="1">
-        <f>B11*SIN(C11/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.6629383031948315</v>
       </c>
     </row>
@@ -13969,11 +13939,11 @@
         <v>22</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*COS(C12/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.55556871613292513</v>
       </c>
       <c r="E12" s="1">
-        <f>B12*SIN(C12/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0.83147062585181764</v>
       </c>
     </row>
@@ -13988,11 +13958,11 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*COS(C13/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.70710912664682912</v>
       </c>
       <c r="E13" s="1">
-        <f>B13*SIN(C13/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.70710443571848602</v>
       </c>
     </row>
@@ -14007,11 +13977,11 @@
         <v>52</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*COS(C14/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>0.38267944851592278</v>
       </c>
       <c r="E14" s="1">
-        <f>B14*SIN(C14/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>-0.92388118266557917</v>
       </c>
     </row>
@@ -14026,11 +13996,11 @@
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*COS(C15/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>3.9803846900326745E-6</v>
       </c>
       <c r="E15" s="1">
-        <f>B15*SIN(C15/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999973594</v>
       </c>
     </row>
@@ -14045,11 +14015,11 @@
         <v>21</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*COS(C16/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-1.8855808041258091</v>
       </c>
       <c r="E16" s="1">
-        <f>B16*SIN(C16/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.527688340983691</v>
       </c>
     </row>
@@ -14064,11 +14034,11 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*COS(C17/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>0.78036584261715414</v>
       </c>
       <c r="E17" s="1">
-        <f>B17*SIN(C17/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.923140215653325</v>
       </c>
     </row>
@@ -14083,11 +14053,11 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <f>B18*COS(C18/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.3393952309986046</v>
       </c>
       <c r="E18" s="1">
-        <f>B18*SIN(C18/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.2335770309640366</v>
       </c>
     </row>
@@ -14096,18 +14066,18 @@
         <v>220</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
-        <f>B19*COS(C19/32*3.14159)</f>
-        <v>-2.8284214956265759</v>
+        <f t="shared" si="0"/>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E19" s="1">
-        <f>B19*SIN(C19/32*3.14159)</f>
-        <v>2.8284327538546012</v>
+        <f t="shared" si="1"/>
+        <v>1.66671607710442</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -14118,15 +14088,15 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
-        <f>B20*COS(C20/32*3.14159)</f>
-        <v>-1.6667061483987755</v>
+        <f t="shared" si="0"/>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E20" s="1">
-        <f>B20*SIN(C20/32*3.14159)</f>
-        <v>2.4944118775554527</v>
+        <f t="shared" si="1"/>
+        <v>2.3190349899573843</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -14140,11 +14110,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f>B21*COS(C21/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <f>B21*SIN(C21/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14159,11 +14129,11 @@
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <f>B22*COS(C22/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.4944096661760455</v>
       </c>
       <c r="E22" s="1">
-        <f>B22*SIN(C22/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.6667094579702568</v>
       </c>
     </row>
@@ -14175,15 +14145,15 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <f>B23*COS(C23/32*3.14159)</f>
-        <v>3.3258795549013942</v>
+        <f t="shared" si="0"/>
+        <v>3.695518637787369</v>
       </c>
       <c r="E23" s="1">
-        <f>B23*SIN(C23/32*3.14159)</f>
-        <v>2.2222792772936759</v>
+        <f t="shared" si="1"/>
+        <v>1.5307325036616259</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -14197,11 +14167,11 @@
         <v>12</v>
       </c>
       <c r="D24" s="1">
-        <f>B24*COS(C24/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.148053055141661</v>
       </c>
       <c r="E24" s="1">
-        <f>B24*SIN(C24/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.7716374551120313</v>
       </c>
     </row>
@@ -14216,11 +14186,11 @@
         <v>12</v>
       </c>
       <c r="D25" s="1">
-        <f>B25*COS(C25/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>0.95671087928471765</v>
       </c>
       <c r="E25" s="1">
-        <f>B25*SIN(C25/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.309697879260026</v>
       </c>
     </row>
@@ -14235,11 +14205,11 @@
         <v>8</v>
       </c>
       <c r="D26" s="1">
-        <f>B26*COS(C26/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.1213217508376787</v>
       </c>
       <c r="E26" s="1">
-        <f>B26*SIN(C26/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.1213189362806726</v>
       </c>
     </row>
@@ -14254,11 +14224,11 @@
         <v>8</v>
       </c>
       <c r="D27" s="1">
-        <f>B27*COS(C27/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.4748753759772919</v>
       </c>
       <c r="E27" s="1">
-        <f>B27*SIN(C27/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>2.4748720923274514</v>
       </c>
     </row>
@@ -14273,11 +14243,11 @@
         <v>9</v>
       </c>
       <c r="D28" s="1">
-        <f>B28*COS(C28/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.5375754443131053</v>
       </c>
       <c r="E28" s="1">
-        <f>B28*SIN(C28/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.0920399196031001</v>
       </c>
     </row>
@@ -14292,11 +14262,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="1">
-        <f>B29*COS(C29/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.7677681256980657</v>
       </c>
       <c r="E29" s="1">
-        <f>B29*SIN(C29/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>1.767765780233894</v>
       </c>
     </row>
@@ -14311,11 +14281,11 @@
         <v>11</v>
       </c>
       <c r="D30" s="1">
-        <f>B30*COS(C30/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>1.885590165156946</v>
       </c>
       <c r="E30" s="1">
-        <f>B30*SIN(C30/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>3.5276833374132948</v>
       </c>
     </row>
@@ -14330,11 +14300,11 @@
         <v>10</v>
       </c>
       <c r="D31" s="1">
-        <f>B31*COS(C31/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.7778546125646759</v>
       </c>
       <c r="E31" s="1">
-        <f>B31*SIN(C31/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.1573457579870787</v>
       </c>
     </row>
@@ -14349,11 +14319,11 @@
         <v>12</v>
       </c>
       <c r="D32" s="1">
-        <f>B32*COS(C32/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>2.296106110283322</v>
       </c>
       <c r="E32" s="1">
-        <f>B32*SIN(C32/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>5.5432749102240626</v>
       </c>
     </row>
@@ -14368,11 +14338,11 @@
         <v>17</v>
       </c>
       <c r="D33" s="1">
-        <f>B33*COS(C33/32*3.14159)</f>
+        <f t="shared" si="0"/>
         <v>-0.49007868699035295</v>
       </c>
       <c r="E33" s="1">
-        <f>B33*SIN(C33/32*3.14159)</f>
+        <f t="shared" si="1"/>
         <v>4.9759243242394486</v>
       </c>
     </row>
@@ -14387,11 +14357,11 @@
         <v>17</v>
       </c>
       <c r="D34" s="1">
-        <f>B34*COS(C34/32*3.14159)</f>
+        <f t="shared" ref="D34:D65" si="2">B34*COS(C34/32*3.14159)</f>
         <v>-0.58809442438842363</v>
       </c>
       <c r="E34" s="1">
-        <f>B34*SIN(C34/32*3.14159)</f>
+        <f t="shared" ref="E34:E65" si="3">B34*SIN(C34/32*3.14159)</f>
         <v>5.971109189087338</v>
       </c>
     </row>
@@ -14406,11 +14376,11 @@
         <v>10</v>
       </c>
       <c r="D35" s="1">
-        <f>B35*COS(C35/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>3.3334255350776107</v>
       </c>
       <c r="E35" s="1">
-        <f>B35*SIN(C35/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9888149095844945</v>
       </c>
     </row>
@@ -14425,11 +14395,11 @@
         <v>18</v>
       </c>
       <c r="D36" s="1">
-        <f>B36*COS(C36/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-0.97544429026196555</v>
       </c>
       <c r="E36" s="1">
-        <f>B36*SIN(C36/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9039278580129348</v>
       </c>
     </row>
@@ -14444,11 +14414,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="1">
-        <f>B37*COS(C37/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.6193932197977619</v>
       </c>
       <c r="E37" s="1">
-        <f>B37*SIN(C37/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>1.9134278875584694</v>
       </c>
     </row>
@@ -14463,11 +14433,11 @@
         <v>27</v>
       </c>
       <c r="D38" s="1">
-        <f>B38*COS(C38/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.4096010445234768</v>
       </c>
       <c r="E38" s="1">
-        <f>B38*SIN(C38/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>2.3569935570844196</v>
       </c>
     </row>
@@ -14482,11 +14452,11 @@
         <v>26</v>
       </c>
       <c r="D39" s="1">
-        <f>B39*COS(C39/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.1573420723400947</v>
       </c>
       <c r="E39" s="1">
-        <f>B39*SIN(C39/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>2.777860128507367</v>
       </c>
     </row>
@@ -14501,11 +14471,11 @@
         <v>24</v>
       </c>
       <c r="D40" s="1">
-        <f>B40*COS(C40/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-3.5355268695332196</v>
       </c>
       <c r="E40" s="1">
-        <f>B40*SIN(C40/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.5355409423182516</v>
       </c>
     </row>
@@ -14520,11 +14490,11 @@
         <v>24</v>
       </c>
       <c r="D41" s="1">
-        <f>B41*COS(C41/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.2426322434398642</v>
       </c>
       <c r="E41" s="1">
-        <f>B41*SIN(C41/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.2426491307819019</v>
       </c>
     </row>
@@ -14539,11 +14509,11 @@
         <v>13</v>
       </c>
       <c r="D42" s="1">
-        <f>B42*COS(C42/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>1.4514285442796564</v>
       </c>
       <c r="E42" s="1">
-        <f>B42*SIN(C42/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.7847001139935861</v>
       </c>
     </row>
@@ -14558,11 +14528,11 @@
         <v>16</v>
       </c>
       <c r="D43" s="1">
-        <f>B43*COS(C43/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.6339744833877897E-6</v>
       </c>
       <c r="E43" s="1">
-        <f>B43*SIN(C43/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9999999999955991</v>
       </c>
     </row>
@@ -14577,11 +14547,11 @@
         <v>16</v>
       </c>
       <c r="D44" s="1">
-        <f>B44*COS(C44/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>7.960769380065349E-6</v>
       </c>
       <c r="E44" s="1">
-        <f>B44*SIN(C44/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.9999999999947189</v>
       </c>
     </row>
@@ -14596,11 +14566,11 @@
         <v>6</v>
       </c>
       <c r="D45" s="1">
-        <f>B45*COS(C45/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.1573494436267424</v>
       </c>
       <c r="E45" s="1">
-        <f>B45*SIN(C45/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>2.777849096617095</v>
       </c>
     </row>
@@ -14615,11 +14585,11 @@
         <v>6</v>
       </c>
       <c r="D46" s="1">
-        <f>B46*COS(C46/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.9888193323520911</v>
       </c>
       <c r="E46" s="1">
-        <f>B46*SIN(C46/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.3334189159405136</v>
       </c>
     </row>
@@ -14634,11 +14604,11 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f>B47*COS(C47/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E47" s="1">
-        <f>B47*SIN(C47/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14653,11 +14623,11 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f>B48*COS(C48/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E48" s="1">
-        <f>B48*SIN(C48/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14672,11 +14642,11 @@
         <v>32</v>
       </c>
       <c r="D49" s="1">
-        <f>B49*COS(C49/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.9999999999823963</v>
       </c>
       <c r="E49" s="1">
-        <f>B49*SIN(C49/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>1.3267948966763902E-5</v>
       </c>
     </row>
@@ -14691,11 +14661,11 @@
         <v>19</v>
       </c>
       <c r="D50" s="1">
-        <f>B50*COS(C50/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-1.4514158476431596</v>
       </c>
       <c r="E50" s="1">
-        <f>B50*SIN(C50/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.784703965472711</v>
       </c>
     </row>
@@ -14710,11 +14680,11 @@
         <v>25</v>
       </c>
       <c r="D51" s="1">
-        <f>B51*COS(C51/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-3.8650456909477859</v>
       </c>
       <c r="E51" s="1">
-        <f>B51*SIN(C51/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.1719744335170716</v>
       </c>
     </row>
@@ -14729,11 +14699,11 @@
         <v>23</v>
       </c>
       <c r="D52" s="1">
-        <f>B52*COS(C52/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-3.1719590491232501</v>
       </c>
       <c r="E52" s="1">
-        <f>B52*SIN(C52/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.8650583165956403</v>
       </c>
     </row>
@@ -14748,11 +14718,11 @@
         <v>22</v>
       </c>
       <c r="D53" s="1">
-        <f>B53*COS(C53/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-2.7778435806646256</v>
       </c>
       <c r="E53" s="1">
-        <f>B53*SIN(C53/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.1573531292590884</v>
       </c>
     </row>
@@ -14767,11 +14737,11 @@
         <v>14</v>
       </c>
       <c r="D54" s="1">
-        <f>B54*COS(C54/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>0.97545730327144264</v>
       </c>
       <c r="E54" s="1">
-        <f>B54*SIN(C54/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>4.9039252695666562</v>
       </c>
     </row>
@@ -14786,11 +14756,11 @@
         <v>10</v>
       </c>
       <c r="D55" s="1">
-        <f>B55*COS(C55/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.3611764206799744</v>
       </c>
       <c r="E55" s="1">
-        <f>B55*SIN(C55/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>3.5337438942890169</v>
       </c>
     </row>
@@ -14805,11 +14775,11 @@
         <v>30</v>
       </c>
       <c r="D56" s="1">
-        <f>B56*COS(C56/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>-4.9039239753305681</v>
       </c>
       <c r="E56" s="1">
-        <f>B56*SIN(C56/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>0.97546380977360547</v>
       </c>
     </row>
@@ -14824,11 +14794,11 @@
         <v>15</v>
       </c>
       <c r="D57" s="1">
-        <f>B57*COS(C57/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>0.58811026926075216</v>
       </c>
       <c r="E57" s="1">
-        <f>B57*SIN(C57/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.9711076285049529</v>
       </c>
     </row>
@@ -14843,11 +14813,11 @@
         <v>12</v>
       </c>
       <c r="D58" s="1">
-        <f>B58*COS(C58/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.6787904619972092</v>
       </c>
       <c r="E58" s="1">
-        <f>B58*SIN(C58/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.4671540619280732</v>
       </c>
     </row>
@@ -14862,11 +14832,11 @@
         <v>12</v>
       </c>
       <c r="D59" s="1">
-        <f>B59*COS(C59/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>3.0614748137110963</v>
       </c>
       <c r="E59" s="1">
-        <f>B59*SIN(C59/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>7.3910332136320838</v>
       </c>
     </row>
@@ -14881,11 +14851,11 @@
         <v>9</v>
       </c>
       <c r="D60" s="1">
-        <f>B60*COS(C60/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>4.4407570275479342</v>
       </c>
       <c r="E60" s="1">
-        <f>B60*SIN(C60/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.4110698593054254</v>
       </c>
     </row>
@@ -14900,11 +14870,11 @@
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <f>B61*COS(C61/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.0751508886262107</v>
       </c>
       <c r="E61" s="1">
-        <f>B61*SIN(C61/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.1840798392062002</v>
       </c>
     </row>
@@ -14919,11 +14889,11 @@
         <v>8</v>
       </c>
       <c r="D62" s="1">
-        <f>B62*COS(C62/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>5.6568580022338102</v>
       </c>
       <c r="E62" s="1">
-        <f>B62*SIN(C62/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>5.6568504967484605</v>
       </c>
     </row>
@@ -14938,11 +14908,11 @@
         <v>13</v>
       </c>
       <c r="D63" s="1">
-        <f>B63*COS(C63/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.0319999619915192</v>
       </c>
       <c r="E63" s="1">
-        <f>B63*SIN(C63/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>6.698580159591021</v>
       </c>
     </row>
@@ -14957,11 +14927,11 @@
         <v>13</v>
       </c>
       <c r="D64" s="1">
-        <f>B64*COS(C64/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>2.3222856708474504</v>
       </c>
       <c r="E64" s="1">
-        <f>B64*SIN(C64/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>7.6555201823897381</v>
       </c>
     </row>
@@ -14976,11 +14946,11 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <f>B65*COS(C65/32*3.14159)</f>
+        <f t="shared" si="2"/>
         <v>6.6985828556323046</v>
       </c>
       <c r="E65" s="1">
-        <f>B65*SIN(C65/32*3.14159)</f>
+        <f t="shared" si="3"/>
         <v>2.0319910743477587</v>
       </c>
     </row>
@@ -14995,11 +14965,11 @@
         <v>32</v>
       </c>
       <c r="D66" s="1">
-        <f>B66*COS(C66/32*3.14159)</f>
+        <f t="shared" ref="D66:D97" si="4">B66*COS(C66/32*3.14159)</f>
         <v>-6.9999999999753548</v>
       </c>
       <c r="E66" s="1">
-        <f>B66*SIN(C66/32*3.14159)</f>
+        <f t="shared" ref="E66:E86" si="5">B66*SIN(C66/32*3.14159)</f>
         <v>1.8575128553469462E-5</v>
       </c>
     </row>
@@ -15014,11 +14984,11 @@
         <v>7</v>
       </c>
       <c r="D67" s="1">
-        <f>B67*COS(C67/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>5.4110757512744234</v>
       </c>
       <c r="E67" s="1">
-        <f>B67*SIN(C67/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>4.4407498481641516</v>
       </c>
     </row>
@@ -15033,11 +15003,11 @@
         <v>7</v>
       </c>
       <c r="D68" s="1">
-        <f>B68*COS(C68/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.1840865728850556</v>
       </c>
       <c r="E68" s="1">
-        <f>B68*SIN(C68/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>5.075142683616173</v>
       </c>
     </row>
@@ -15052,11 +15022,11 @@
         <v>6</v>
       </c>
       <c r="D69" s="1">
-        <f>B69*COS(C69/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>5.8202892210774397</v>
       </c>
       <c r="E69" s="1">
-        <f>B69*SIN(C69/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>3.8889887352639327</v>
       </c>
     </row>
@@ -15071,11 +15041,11 @@
         <v>6</v>
       </c>
       <c r="D70" s="1">
-        <f>B70*COS(C70/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.6517591098027884</v>
       </c>
       <c r="E70" s="1">
-        <f>B70*SIN(C70/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>4.4445585545873518</v>
       </c>
     </row>
@@ -15090,11 +15060,11 @@
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <f>B71*COS(C71/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E71" s="1">
-        <f>B71*SIN(C71/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15109,11 +15079,11 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f>B72*COS(C72/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E72" s="1">
-        <f>B72*SIN(C72/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15128,11 +15098,11 @@
         <v>4</v>
       </c>
       <c r="D73" s="1">
-        <f>B73*COS(C73/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.4671576161278956</v>
       </c>
       <c r="E73" s="1">
-        <f>B73*SIN(C73/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>2.6787818814078452</v>
       </c>
     </row>
@@ -15147,11 +15117,11 @@
         <v>4</v>
       </c>
       <c r="D74" s="1">
-        <f>B74*COS(C74/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>7.391037275574738</v>
       </c>
       <c r="E74" s="1">
-        <f>B74*SIN(C74/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>3.0614650073232519</v>
       </c>
     </row>
@@ -15166,11 +15136,11 @@
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <f>B75*COS(C75/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.1734502186027962</v>
       </c>
       <c r="E75" s="1">
-        <f>B75*SIN(C75/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>3.2997745981253157</v>
       </c>
     </row>
@@ -15185,11 +15155,11 @@
         <v>5</v>
       </c>
       <c r="D76" s="1">
-        <f>B76*COS(C76/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>7.0553716784031959</v>
       </c>
       <c r="E76" s="1">
-        <f>B76*SIN(C76/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>3.7711709692860751</v>
       </c>
     </row>
@@ -15204,11 +15174,11 @@
         <v>10</v>
       </c>
       <c r="D77" s="1">
-        <f>B77*COS(C77/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>3.888996457590546</v>
       </c>
       <c r="E77" s="1">
-        <f>B77*SIN(C77/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>5.8202840611819102</v>
       </c>
     </row>
@@ -15223,11 +15193,11 @@
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f>B78*COS(C78/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.9662931436016358</v>
       </c>
       <c r="E78" s="1">
-        <f>B78*SIN(C78/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>0.68611940462928955</v>
       </c>
     </row>
@@ -15242,11 +15212,11 @@
         <v>11</v>
       </c>
       <c r="D79" s="1">
-        <f>B79*COS(C79/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>3.2997827890246554</v>
       </c>
       <c r="E79" s="1">
-        <f>B79*SIN(C79/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.1734458404732662</v>
       </c>
     </row>
@@ -15261,11 +15231,11 @@
         <v>19</v>
       </c>
       <c r="D80" s="1">
-        <f>B80*COS(C80/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>-2.0319821867004233</v>
       </c>
       <c r="E80" s="1">
-        <f>B80*SIN(C80/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.6985855516617958</v>
       </c>
     </row>
@@ -15277,15 +15247,15 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D81" s="1">
-        <f>B81*COS(C81/32*3.14159)</f>
-        <v>-3.299766407220166</v>
+        <f t="shared" si="4"/>
+        <v>-5.4110639673268999</v>
       </c>
       <c r="E81" s="1">
-        <f>B81*SIN(C81/32*3.14159)</f>
-        <v>6.1734545967214594</v>
+        <f t="shared" si="5"/>
+        <v>4.4407642069239008</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -15299,11 +15269,11 @@
         <v>2</v>
       </c>
       <c r="D82" s="1">
-        <f>B82*COS(C82/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>6.8654971893117569</v>
       </c>
       <c r="E82" s="1">
-        <f>B82*SIN(C82/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>1.3656311154745873</v>
       </c>
     </row>
@@ -15315,15 +15285,15 @@
         <v>7</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1">
-        <f>B83*COS(C83/32*3.14159)</f>
-        <v>-4.4407426687725504</v>
+        <f t="shared" si="4"/>
+        <v>-6.8654935654627955</v>
       </c>
       <c r="E83" s="1">
-        <f>B83*SIN(C83/32*3.14159)</f>
-        <v>5.4110816432338966</v>
+        <f t="shared" si="5"/>
+        <v>1.3656493336830475</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -15334,15 +15304,15 @@
         <v>7</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D84" s="1">
-        <f>B84*COS(C84/32*3.14159)</f>
-        <v>-5.4110639673268999</v>
+        <f t="shared" si="4"/>
+        <v>-6.4671505077168661</v>
       </c>
       <c r="E84" s="1">
-        <f>B84*SIN(C84/32*3.14159)</f>
-        <v>4.4407642069239008</v>
+        <f t="shared" si="5"/>
+        <v>2.6787990425818569</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -15356,11 +15326,11 @@
         <v>11</v>
       </c>
       <c r="D85" s="1">
-        <f>B85*COS(C85/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>3.771180330313892</v>
       </c>
       <c r="E85" s="1">
-        <f>B85*SIN(C85/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>7.0553666748265895</v>
       </c>
     </row>
@@ -15375,11 +15345,11 @@
         <v>15</v>
       </c>
       <c r="D86" s="1">
-        <f>B86*COS(C86/32*3.14159)</f>
+        <f t="shared" si="4"/>
         <v>0.68612864747087754</v>
       </c>
       <c r="E86" s="1">
-        <f>B86*SIN(C86/32*3.14159)</f>
+        <f t="shared" si="5"/>
         <v>6.9662922332557784</v>
       </c>
     </row>
@@ -15431,7 +15401,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -16851,11 +16821,11 @@
       </c>
       <c r="F43" s="1">
         <f>VLOOKUP(C43,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G43" s="1">
         <f>VLOOKUP(C43,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H43">
         <f>CoursesRequisites!D43</f>
@@ -17089,11 +17059,11 @@
       </c>
       <c r="F50" s="1">
         <f>VLOOKUP(C50,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(C50,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H50">
         <f>CoursesRequisites!D50</f>
@@ -17319,11 +17289,11 @@
       </c>
       <c r="D57" s="1">
         <f>VLOOKUP(B57,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E57" s="1">
         <f>VLOOKUP(B57,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F57" s="1">
         <f>VLOOKUP(C57,LayoutCourses!A:E,4,0)</f>
@@ -17353,11 +17323,11 @@
       </c>
       <c r="D58" s="1">
         <f>VLOOKUP(B58,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E58" s="1">
         <f>VLOOKUP(B58,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F58" s="1">
         <f>VLOOKUP(C58,LayoutCourses!A:E,4,0)</f>
@@ -17387,11 +17357,11 @@
       </c>
       <c r="D59" s="1">
         <f>VLOOKUP(B59,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E59" s="1">
         <f>VLOOKUP(B59,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F59" s="1">
         <f>VLOOKUP(C59,LayoutCourses!A:E,4,0)</f>
@@ -17421,11 +17391,11 @@
       </c>
       <c r="D60" s="1">
         <f>VLOOKUP(B60,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E60" s="1">
         <f>VLOOKUP(B60,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F60" s="1">
         <f>VLOOKUP(C60,LayoutCourses!A:E,4,0)</f>
@@ -17455,11 +17425,11 @@
       </c>
       <c r="D61" s="1">
         <f>VLOOKUP(B61,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E61" s="1">
         <f>VLOOKUP(B61,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F61" s="1">
         <f>VLOOKUP(C61,LayoutCourses!A:E,4,0)</f>
@@ -17489,11 +17459,11 @@
       </c>
       <c r="D62" s="1">
         <f>VLOOKUP(B62,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E62" s="1">
         <f>VLOOKUP(B62,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F62" s="1">
         <f>VLOOKUP(C62,LayoutCourses!A:E,4,0)</f>
@@ -17523,11 +17493,11 @@
       </c>
       <c r="D63" s="1">
         <f>VLOOKUP(B63,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E63" s="1">
         <f>VLOOKUP(B63,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F63" s="1">
         <f>VLOOKUP(C63,LayoutCourses!A:E,4,0)</f>
@@ -17557,11 +17527,11 @@
       </c>
       <c r="D64" s="1">
         <f>VLOOKUP(B64,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E64" s="1">
         <f>VLOOKUP(B64,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F64" s="1">
         <f>VLOOKUP(C64,LayoutCourses!A:E,4,0)</f>
@@ -17591,11 +17561,11 @@
       </c>
       <c r="D65" s="1">
         <f>VLOOKUP(B65,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="E65" s="1">
         <f>VLOOKUP(B65,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="F65" s="1">
         <f>VLOOKUP(C65,LayoutCourses!A:E,4,0)</f>
@@ -17803,11 +17773,11 @@
       </c>
       <c r="F71" s="1">
         <f>VLOOKUP(C71,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G71" s="1">
         <f>VLOOKUP(C71,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H71">
         <f>CoursesRequisites!D71</f>
@@ -17863,11 +17833,11 @@
       </c>
       <c r="D73" s="1">
         <f>VLOOKUP(B73,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E73" s="1">
         <f>VLOOKUP(B73,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F73" s="1">
         <f>VLOOKUP(C73,LayoutCourses!A:E,4,0)</f>
@@ -17897,11 +17867,11 @@
       </c>
       <c r="D74" s="1">
         <f>VLOOKUP(B74,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E74" s="1">
         <f>VLOOKUP(B74,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F74" s="1">
         <f>VLOOKUP(C74,LayoutCourses!A:E,4,0)</f>
@@ -17931,11 +17901,11 @@
       </c>
       <c r="D75" s="1">
         <f>VLOOKUP(B75,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E75" s="1">
         <f>VLOOKUP(B75,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F75" s="1">
         <f>VLOOKUP(C75,LayoutCourses!A:E,4,0)</f>
@@ -17965,11 +17935,11 @@
       </c>
       <c r="D76" s="1">
         <f>VLOOKUP(B76,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E76" s="1">
         <f>VLOOKUP(B76,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F76" s="1">
         <f>VLOOKUP(C76,LayoutCourses!A:E,4,0)</f>
@@ -17999,11 +17969,11 @@
       </c>
       <c r="D77" s="1">
         <f>VLOOKUP(B77,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E77" s="1">
         <f>VLOOKUP(B77,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F77" s="1">
         <f>VLOOKUP(C77,LayoutCourses!A:E,4,0)</f>
@@ -18033,11 +18003,11 @@
       </c>
       <c r="D78" s="1">
         <f>VLOOKUP(B78,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E78" s="1">
         <f>VLOOKUP(B78,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F78" s="1">
         <f>VLOOKUP(C78,LayoutCourses!A:E,4,0)</f>
@@ -18067,11 +18037,11 @@
       </c>
       <c r="D79" s="1">
         <f>VLOOKUP(B79,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E79" s="1">
         <f>VLOOKUP(B79,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F79" s="1">
         <f>VLOOKUP(C79,LayoutCourses!A:E,4,0)</f>
@@ -18101,11 +18071,11 @@
       </c>
       <c r="D80" s="1">
         <f>VLOOKUP(B80,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E80" s="1">
         <f>VLOOKUP(B80,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F80" s="1">
         <f>VLOOKUP(C80,LayoutCourses!A:E,4,0)</f>
@@ -18135,11 +18105,11 @@
       </c>
       <c r="D81" s="1">
         <f>VLOOKUP(B81,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E81" s="1">
         <f>VLOOKUP(B81,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F81" s="1">
         <f>VLOOKUP(C81,LayoutCourses!A:E,4,0)</f>
@@ -18169,11 +18139,11 @@
       </c>
       <c r="D82" s="1">
         <f>VLOOKUP(B82,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E82" s="1">
         <f>VLOOKUP(B82,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F82" s="1">
         <f>VLOOKUP(C82,LayoutCourses!A:E,4,0)</f>
@@ -18203,11 +18173,11 @@
       </c>
       <c r="D83" s="1">
         <f>VLOOKUP(B83,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="E83" s="1">
         <f>VLOOKUP(B83,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="F83" s="1">
         <f>VLOOKUP(C83,LayoutCourses!A:E,4,0)</f>
@@ -18551,11 +18521,11 @@
       </c>
       <c r="F93" s="1">
         <f>VLOOKUP(C93,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G93" s="1">
         <f>VLOOKUP(C93,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H93">
         <f>CoursesRequisites!D93</f>
@@ -18611,11 +18581,11 @@
       </c>
       <c r="D95" s="1">
         <f>VLOOKUP(B95,LayoutCourses!A:E,4,0)</f>
-        <v>3.3258795549013942</v>
+        <v>3.695518637787369</v>
       </c>
       <c r="E95" s="1">
         <f>VLOOKUP(B95,LayoutCourses!A:E,5,0)</f>
-        <v>2.2222792772936759</v>
+        <v>1.5307325036616259</v>
       </c>
       <c r="F95" s="1">
         <f>VLOOKUP(C95,LayoutCourses!A:E,4,0)</f>
@@ -18857,11 +18827,11 @@
       </c>
       <c r="F102" s="1">
         <f>VLOOKUP(C102,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G102" s="1">
         <f>VLOOKUP(C102,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H102">
         <f>CoursesRequisites!D102</f>
@@ -19095,11 +19065,11 @@
       </c>
       <c r="F109" s="1">
         <f>VLOOKUP(C109,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(C109,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H109">
         <f>CoursesRequisites!D109</f>
@@ -19503,11 +19473,11 @@
       </c>
       <c r="F121" s="1">
         <f>VLOOKUP(C121,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(C121,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H121">
         <f>CoursesRequisites!D121</f>
@@ -19911,11 +19881,11 @@
       </c>
       <c r="F133" s="1">
         <f>VLOOKUP(C133,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(C133,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H133">
         <f>CoursesRequisites!D133</f>
@@ -20353,11 +20323,11 @@
       </c>
       <c r="F146" s="1">
         <f>VLOOKUP(C146,LayoutCourses!A:E,4,0)</f>
-        <v>3.3258795549013942</v>
+        <v>3.695518637787369</v>
       </c>
       <c r="G146" s="1">
         <f>VLOOKUP(C146,LayoutCourses!A:E,5,0)</f>
-        <v>2.2222792772936759</v>
+        <v>1.5307325036616259</v>
       </c>
       <c r="H146">
         <f>CoursesRequisites!D146</f>
@@ -21475,11 +21445,11 @@
       </c>
       <c r="F179" s="1">
         <f>VLOOKUP(C179,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G179" s="1">
         <f>VLOOKUP(C179,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H179">
         <f>CoursesRequisites!D179</f>
@@ -21747,11 +21717,11 @@
       </c>
       <c r="F187" s="1">
         <f>VLOOKUP(C187,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G187" s="1">
         <f>VLOOKUP(C187,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H187">
         <f>CoursesRequisites!D187</f>
@@ -21781,11 +21751,11 @@
       </c>
       <c r="F188" s="1">
         <f>VLOOKUP(C188,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G188" s="1">
         <f>VLOOKUP(C188,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H188">
         <f>CoursesRequisites!D188</f>
@@ -21917,11 +21887,11 @@
       </c>
       <c r="F192" s="1">
         <f>VLOOKUP(C192,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G192" s="1">
         <f>VLOOKUP(C192,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H192">
         <f>CoursesRequisites!D192</f>
@@ -21951,11 +21921,11 @@
       </c>
       <c r="F193" s="1">
         <f>VLOOKUP(C193,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G193" s="1">
         <f>VLOOKUP(C193,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H193">
         <f>CoursesRequisites!D193</f>
@@ -22087,11 +22057,11 @@
       </c>
       <c r="F197" s="1">
         <f>VLOOKUP(C197,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(C197,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H197">
         <f>CoursesRequisites!D197</f>
@@ -22121,11 +22091,11 @@
       </c>
       <c r="F198" s="1">
         <f>VLOOKUP(C198,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(C198,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H198">
         <f>CoursesRequisites!D198</f>
@@ -22189,11 +22159,11 @@
       </c>
       <c r="F200" s="1">
         <f>VLOOKUP(C200,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(C200,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H200">
         <f>CoursesRequisites!D200</f>
@@ -22597,11 +22567,11 @@
       </c>
       <c r="F212" s="1">
         <f>VLOOKUP(C212,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G212" s="1">
         <f>VLOOKUP(C212,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H212">
         <f>CoursesRequisites!D212</f>
@@ -22699,11 +22669,11 @@
       </c>
       <c r="F215" s="1">
         <f>VLOOKUP(C215,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G215" s="1">
         <f>VLOOKUP(C215,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H215">
         <f>CoursesRequisites!D215</f>
@@ -23209,11 +23179,11 @@
       </c>
       <c r="F230" s="1">
         <f>VLOOKUP(C230,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(C230,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H230">
         <f>CoursesRequisites!D230</f>
@@ -23379,11 +23349,11 @@
       </c>
       <c r="F235" s="1">
         <f>VLOOKUP(C235,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G235" s="1">
         <f>VLOOKUP(C235,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H235">
         <f>CoursesRequisites!D235</f>
@@ -23413,11 +23383,11 @@
       </c>
       <c r="F236" s="1">
         <f>VLOOKUP(C236,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(C236,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H236">
         <f>CoursesRequisites!D236</f>
@@ -23515,11 +23485,11 @@
       </c>
       <c r="F239" s="1">
         <f>VLOOKUP(C239,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(C239,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H239">
         <f>CoursesRequisites!D239</f>
@@ -23583,11 +23553,11 @@
       </c>
       <c r="F241" s="1">
         <f>VLOOKUP(C241,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(C241,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H241">
         <f>CoursesRequisites!D241</f>
@@ -23719,11 +23689,11 @@
       </c>
       <c r="F245" s="1">
         <f>VLOOKUP(C245,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(C245,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H245">
         <f>CoursesRequisites!D245</f>
@@ -23753,11 +23723,11 @@
       </c>
       <c r="F246" s="1">
         <f>VLOOKUP(C246,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(C246,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H246">
         <f>CoursesRequisites!D246</f>
@@ -23889,11 +23859,11 @@
       </c>
       <c r="F250" s="1">
         <f>VLOOKUP(C250,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G250" s="1">
         <f>VLOOKUP(C250,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H250">
         <f>CoursesRequisites!D250</f>
@@ -23923,11 +23893,11 @@
       </c>
       <c r="F251" s="1">
         <f>VLOOKUP(C251,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G251" s="1">
         <f>VLOOKUP(C251,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H251">
         <f>CoursesRequisites!D251</f>
@@ -25827,11 +25797,11 @@
       </c>
       <c r="F307" s="1">
         <f>VLOOKUP(C307,LayoutCourses!A:E,4,0)</f>
-        <v>-1.6667061483987755</v>
+        <v>-1.9031754294739502</v>
       </c>
       <c r="G307" s="1">
         <f>VLOOKUP(C307,LayoutCourses!A:E,5,0)</f>
-        <v>2.4944118775554527</v>
+        <v>2.3190349899573843</v>
       </c>
       <c r="H307">
         <f>CoursesRequisites!D307</f>
@@ -25861,11 +25831,11 @@
       </c>
       <c r="F308" s="1">
         <f>VLOOKUP(C308,LayoutCourses!A:E,4,0)</f>
-        <v>3.3258795549013942</v>
+        <v>3.695518637787369</v>
       </c>
       <c r="G308" s="1">
         <f>VLOOKUP(C308,LayoutCourses!A:E,5,0)</f>
-        <v>2.2222792772936759</v>
+        <v>1.5307325036616259</v>
       </c>
       <c r="H308">
         <f>CoursesRequisites!D308</f>
@@ -26465,19 +26435,19 @@
       </c>
       <c r="D326" s="1">
         <f>VLOOKUP(B326,LayoutCourses!A:E,4,0)</f>
-        <v>-3.299766407220166</v>
+        <v>-5.4110639673268999</v>
       </c>
       <c r="E326" s="1">
         <f>VLOOKUP(B326,LayoutCourses!A:E,5,0)</f>
-        <v>6.1734545967214594</v>
+        <v>4.4407642069239008</v>
       </c>
       <c r="F326" s="1">
         <f>VLOOKUP(C326,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G326" s="1">
         <f>VLOOKUP(C326,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H326">
         <f>CoursesRequisites!D326</f>
@@ -26499,11 +26469,11 @@
       </c>
       <c r="D327" s="1">
         <f>VLOOKUP(B327,LayoutCourses!A:E,4,0)</f>
-        <v>-3.299766407220166</v>
+        <v>-5.4110639673268999</v>
       </c>
       <c r="E327" s="1">
         <f>VLOOKUP(B327,LayoutCourses!A:E,5,0)</f>
-        <v>6.1734545967214594</v>
+        <v>4.4407642069239008</v>
       </c>
       <c r="F327" s="1">
         <f>VLOOKUP(C327,LayoutCourses!A:E,4,0)</f>
@@ -26533,11 +26503,11 @@
       </c>
       <c r="D328" s="1">
         <f>VLOOKUP(B328,LayoutCourses!A:E,4,0)</f>
-        <v>-3.299766407220166</v>
+        <v>-5.4110639673268999</v>
       </c>
       <c r="E328" s="1">
         <f>VLOOKUP(B328,LayoutCourses!A:E,5,0)</f>
-        <v>6.1734545967214594</v>
+        <v>4.4407642069239008</v>
       </c>
       <c r="F328" s="1">
         <f>VLOOKUP(C328,LayoutCourses!A:E,4,0)</f>
@@ -26575,11 +26545,11 @@
       </c>
       <c r="F329" s="1">
         <f>VLOOKUP(C329,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G329" s="1">
         <f>VLOOKUP(C329,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H329">
         <f>CoursesRequisites!D329</f>
@@ -26669,19 +26639,19 @@
       </c>
       <c r="D332" s="1">
         <f>VLOOKUP(B332,LayoutCourses!A:E,4,0)</f>
-        <v>-4.4407426687725504</v>
+        <v>-6.8654935654627955</v>
       </c>
       <c r="E332" s="1">
         <f>VLOOKUP(B332,LayoutCourses!A:E,5,0)</f>
-        <v>5.4110816432338966</v>
+        <v>1.3656493336830475</v>
       </c>
       <c r="F332" s="1">
         <f>VLOOKUP(C332,LayoutCourses!A:E,4,0)</f>
-        <v>-2.8284214956265759</v>
+        <v>-2.4944052434040569</v>
       </c>
       <c r="G332" s="1">
         <f>VLOOKUP(C332,LayoutCourses!A:E,5,0)</f>
-        <v>2.8284327538546012</v>
+        <v>1.66671607710442</v>
       </c>
       <c r="H332">
         <f>CoursesRequisites!D332</f>
@@ -26703,11 +26673,11 @@
       </c>
       <c r="D333" s="1">
         <f>VLOOKUP(B333,LayoutCourses!A:E,4,0)</f>
-        <v>-4.4407426687725504</v>
+        <v>-6.8654935654627955</v>
       </c>
       <c r="E333" s="1">
         <f>VLOOKUP(B333,LayoutCourses!A:E,5,0)</f>
-        <v>5.4110816432338966</v>
+        <v>1.3656493336830475</v>
       </c>
       <c r="F333" s="1">
         <f>VLOOKUP(C333,LayoutCourses!A:E,4,0)</f>
@@ -26867,7 +26837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26890,7 +26862,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -26898,7 +26870,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -26906,7 +26878,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -26914,7 +26886,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -26922,7 +26894,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -26930,7 +26902,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -26938,7 +26910,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -26950,13 +26922,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A580822-93EF-A74E-8F13-2BC723372EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ABA3C0-A4D5-DE4F-8589-0CE70CB77338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" firstSheet="6" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="324">
   <si>
     <t>number</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>Multivariable and Vector Calculus</t>
-  </si>
-  <si>
-    <t>Partial differentiation, extreme values, multiple integration, vector fields, line and surface integrals, the divergence theorem, Green's and Stokes' theorems. Intended for students in Honours Physics and Engineering Physics. </t>
   </si>
   <si>
     <t>Mathematical Proof</t>
@@ -1096,6 +1093,78 @@
   <si>
     <t>BSc/BA Program</t>
   </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Intended for Honours students.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 550.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 508.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 527.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 525.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 502.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 501.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 537.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 510.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 507.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 545.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 544.</t>
+  </si>
+  <si>
+    <t>Intended for Honours students. Cross-listed with MATH 541.</t>
+  </si>
+  <si>
+    <t>Partial differentiation, extreme values, multiple integration, vector fields, line and surface integrals, the divergence theorem, Green's and Stokes' theorems.</t>
+  </si>
+  <si>
+    <t>Intended for students in Honours Physics and Engineering Physics.</t>
+  </si>
+  <si>
+    <t>Intended for non-math students. Math students are advised to take MATH 361 and 462.</t>
+  </si>
+  <si>
+    <t>Credit excluded with MATH 305.</t>
+  </si>
+  <si>
+    <t>Credited excluded with MATH 406.</t>
+  </si>
+  <si>
+    <t>Intended for Engineering Physics students. Credit excluded with both MATH 401 and MATH 405. Math students are advised to take MATH 401 and 405.</t>
+  </si>
+  <si>
+    <t>Intended for Engineering Physics students. Credit excluded with MATH 300. Math students are advised to take MATH 300.</t>
+  </si>
+  <si>
+    <t>Intended for Mechanical Engineering students.</t>
+  </si>
+  <si>
+    <t>For Mechanical Engineering students only.</t>
+  </si>
+  <si>
+    <t>Intended for students in Honours Physics and Engineering Physics.Credit excluded with MATH 227, 254, 264, and 317. Math students are advised to take MATH 317.</t>
+  </si>
 </sst>
 </file>
 
@@ -1499,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1580,7 @@
     <col min="4" max="4" width="75.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,8 +1596,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1545,7 +1617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1562,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1579,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103</v>
       </c>
@@ -1596,7 +1668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -1613,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -1630,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>110</v>
       </c>
@@ -1638,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1647,7 +1719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120</v>
       </c>
@@ -1655,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -1663,8 +1735,11 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>121</v>
       </c>
@@ -1680,8 +1755,11 @@
       <c r="E10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>152</v>
       </c>
@@ -1698,7 +1776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>180</v>
       </c>
@@ -1715,7 +1793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>184</v>
       </c>
@@ -1732,7 +1810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>190</v>
       </c>
@@ -1749,7 +1827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>200</v>
       </c>
@@ -1766,7 +1844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>210</v>
       </c>
@@ -1774,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -1783,7 +1861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>215</v>
       </c>
@@ -1800,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>217</v>
       </c>
@@ -1811,13 +1889,16 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>220</v>
       </c>
@@ -1825,16 +1906,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>221</v>
       </c>
@@ -1842,16 +1923,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>223</v>
       </c>
@@ -1859,16 +1940,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>226</v>
       </c>
@@ -1876,16 +1960,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>227</v>
       </c>
@@ -1893,16 +1980,19 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>230</v>
       </c>
@@ -1910,16 +2000,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>253</v>
       </c>
@@ -1927,16 +2017,16 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>254</v>
       </c>
@@ -1944,16 +2034,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>255</v>
       </c>
@@ -1961,16 +2054,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>256</v>
       </c>
@@ -1978,16 +2071,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>257</v>
       </c>
@@ -1995,16 +2088,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>258</v>
       </c>
@@ -2012,16 +2105,19 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>264</v>
       </c>
@@ -2029,16 +2125,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
       <c r="E31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
@@ -2046,16 +2142,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>301</v>
       </c>
@@ -2063,16 +2162,16 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
         <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>302</v>
       </c>
@@ -2080,16 +2179,16 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
         <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>303</v>
       </c>
@@ -2097,16 +2196,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
         <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>305</v>
       </c>
@@ -2114,16 +2213,19 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
         <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>307</v>
       </c>
@@ -2131,16 +2233,16 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
         <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>308</v>
       </c>
@@ -2148,16 +2250,16 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>309</v>
       </c>
@@ -2165,16 +2267,16 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>310</v>
       </c>
@@ -2182,16 +2284,16 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
         <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>312</v>
       </c>
@@ -2199,16 +2301,16 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
-        <v>121</v>
-      </c>
       <c r="E41" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>313</v>
       </c>
@@ -2216,16 +2318,16 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
         <v>122</v>
-      </c>
-      <c r="D42" t="s">
-        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>316</v>
       </c>
@@ -2233,16 +2335,16 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
         <v>124</v>
-      </c>
-      <c r="D43" t="s">
-        <v>125</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>317</v>
       </c>
@@ -2250,16 +2352,16 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" t="s">
-        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>318</v>
       </c>
@@ -2267,16 +2369,19 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
         <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>320</v>
       </c>
@@ -2284,16 +2389,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>321</v>
       </c>
@@ -2301,16 +2409,19 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
         <v>132</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>322</v>
       </c>
@@ -2318,16 +2429,19 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
         <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>323</v>
       </c>
@@ -2335,16 +2449,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
         <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>335</v>
       </c>
@@ -2352,16 +2469,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
         <v>138</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
       </c>
       <c r="E50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>340</v>
       </c>
@@ -2369,16 +2486,16 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
         <v>140</v>
-      </c>
-      <c r="D51" t="s">
-        <v>141</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>341</v>
       </c>
@@ -2386,16 +2503,16 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" t="s">
-        <v>143</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>342</v>
       </c>
@@ -2403,16 +2520,16 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
         <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>344</v>
       </c>
@@ -2420,16 +2537,16 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
         <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>345</v>
       </c>
@@ -2437,16 +2554,16 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
         <v>148</v>
-      </c>
-      <c r="D55" t="s">
-        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>358</v>
       </c>
@@ -2454,16 +2571,19 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" t="s">
         <v>150</v>
       </c>
-      <c r="D56" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>360</v>
       </c>
@@ -2471,16 +2591,19 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" t="s">
         <v>152</v>
-      </c>
-      <c r="D57" t="s">
-        <v>153</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>361</v>
       </c>
@@ -2488,16 +2611,16 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
         <v>154</v>
-      </c>
-      <c r="D58" t="s">
-        <v>155</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>400</v>
       </c>
@@ -2505,16 +2628,16 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
         <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>157</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>401</v>
       </c>
@@ -2522,16 +2645,19 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
         <v>158</v>
-      </c>
-      <c r="D60" t="s">
-        <v>159</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>402</v>
       </c>
@@ -2539,16 +2665,19 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
         <v>160</v>
-      </c>
-      <c r="D61" t="s">
-        <v>161</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>403</v>
       </c>
@@ -2556,16 +2685,16 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
         <v>162</v>
-      </c>
-      <c r="D62" t="s">
-        <v>163</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>404</v>
       </c>
@@ -2573,16 +2702,19 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
         <v>164</v>
-      </c>
-      <c r="D63" t="s">
-        <v>165</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>405</v>
       </c>
@@ -2590,16 +2722,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
         <v>166</v>
-      </c>
-      <c r="D64" t="s">
-        <v>167</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>406</v>
       </c>
@@ -2607,16 +2742,19 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" t="s">
         <v>168</v>
-      </c>
-      <c r="D65" t="s">
-        <v>169</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>412</v>
       </c>
@@ -2624,16 +2762,19 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" t="s">
         <v>170</v>
-      </c>
-      <c r="D66" t="s">
-        <v>171</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>414</v>
       </c>
@@ -2641,16 +2782,16 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
         <v>172</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>173</v>
       </c>
-      <c r="E67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>418</v>
       </c>
@@ -2658,16 +2799,19 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
         <v>175</v>
-      </c>
-      <c r="D68" t="s">
-        <v>176</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>419</v>
       </c>
@@ -2675,16 +2819,19 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" t="s">
         <v>177</v>
-      </c>
-      <c r="D69" t="s">
-        <v>178</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>420</v>
       </c>
@@ -2692,16 +2839,19 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>421</v>
       </c>
@@ -2709,16 +2859,19 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>422</v>
       </c>
@@ -2726,16 +2879,19 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
         <v>183</v>
-      </c>
-      <c r="D72" t="s">
-        <v>184</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>423</v>
       </c>
@@ -2743,16 +2899,19 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
         <v>185</v>
-      </c>
-      <c r="D73" t="s">
-        <v>186</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>424</v>
       </c>
@@ -2760,16 +2919,19 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
         <v>187</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>425</v>
       </c>
@@ -2777,16 +2939,19 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
         <v>189</v>
-      </c>
-      <c r="D75" t="s">
-        <v>190</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>426</v>
       </c>
@@ -2794,16 +2959,19 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>427</v>
       </c>
@@ -2811,16 +2979,19 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
         <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>193</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>428</v>
       </c>
@@ -2828,16 +2999,16 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
         <v>194</v>
-      </c>
-      <c r="D78" t="s">
-        <v>195</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>437</v>
       </c>
@@ -2845,16 +3016,19 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" t="s">
         <v>197</v>
-      </c>
-      <c r="D79" t="s">
-        <v>198</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>440</v>
       </c>
@@ -2862,16 +3036,19 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>441</v>
       </c>
@@ -2879,16 +3056,16 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
         <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>201</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>442</v>
       </c>
@@ -2896,16 +3073,16 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
         <v>202</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>443</v>
       </c>
@@ -2913,16 +3090,19 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" t="s">
         <v>204</v>
-      </c>
-      <c r="D83" t="s">
-        <v>205</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>444</v>
       </c>
@@ -2930,16 +3110,16 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" t="s">
         <v>206</v>
-      </c>
-      <c r="D84" t="s">
-        <v>207</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>446</v>
       </c>
@@ -2947,16 +3127,16 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
         <v>208</v>
-      </c>
-      <c r="D85" t="s">
-        <v>209</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>450</v>
       </c>
@@ -2964,16 +3144,19 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
         <v>210</v>
-      </c>
-      <c r="D86" t="s">
-        <v>211</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>462</v>
       </c>
@@ -2981,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" t="s">
         <v>212</v>
-      </c>
-      <c r="D87" t="s">
-        <v>213</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -2999,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
@@ -3036,10 +3219,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17237,10 +17420,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -24430,10 +24613,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -26364,7 +26547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA520945-B158-764D-823B-F47F242E4808}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="R39" activeCellId="1" sqref="C36 R39"/>
     </sheetView>
   </sheetViews>
@@ -27185,10 +27368,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -29333,11 +29516,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC08885-D475-D740-B093-B1999F0EDA05}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29429,7 +29610,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -29443,7 +29624,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -29457,7 +29638,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -29471,7 +29652,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -29485,7 +29666,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -29499,7 +29680,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -29513,7 +29694,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -29527,7 +29708,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -29541,7 +29722,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -29555,7 +29736,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -29569,7 +29750,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -29583,7 +29764,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -29597,7 +29778,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -29611,7 +29792,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -29625,7 +29806,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -29639,7 +29820,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -29653,7 +29834,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -29681,7 +29862,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -29695,7 +29876,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -29709,7 +29890,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -29723,7 +29904,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -29737,7 +29918,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -29751,7 +29932,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -29765,7 +29946,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -29779,7 +29960,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -29793,7 +29974,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -29821,7 +30002,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -29835,7 +30016,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -29849,7 +30030,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -29863,7 +30044,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -29877,7 +30058,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -29891,7 +30072,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -29905,7 +30086,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -29919,7 +30100,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -29933,7 +30114,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -29947,7 +30128,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -29961,7 +30142,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -29975,7 +30156,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -29989,7 +30170,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -30003,7 +30184,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -30017,7 +30198,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -30031,7 +30212,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -30045,7 +30226,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -30059,7 +30240,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -30073,7 +30254,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -30087,7 +30268,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -30101,7 +30282,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -30115,7 +30296,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -30129,7 +30310,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -30143,7 +30324,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -30157,7 +30338,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -30171,7 +30352,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -30185,7 +30366,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -30199,7 +30380,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -30213,7 +30394,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -30227,7 +30408,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -30241,7 +30422,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -30255,7 +30436,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -30269,7 +30450,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -30283,7 +30464,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -30297,7 +30478,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -30311,7 +30492,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -30325,7 +30506,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -30339,7 +30520,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -30353,7 +30534,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -30367,7 +30548,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -30381,7 +30562,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -30395,7 +30576,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -30409,7 +30590,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -30423,7 +30604,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -30437,7 +30618,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -30451,7 +30632,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -30465,7 +30646,7 @@
         <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -30479,7 +30660,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -30493,7 +30674,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -30507,7 +30688,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -30521,7 +30702,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -30535,7 +30716,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -30549,7 +30730,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -30563,7 +30744,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -30577,7 +30758,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -30591,7 +30772,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -30605,7 +30786,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -30619,7 +30800,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -30633,7 +30814,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -30647,7 +30828,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -30661,7 +30842,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -30675,7 +30856,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -30689,7 +30870,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -30703,7 +30884,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -30717,7 +30898,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -30731,7 +30912,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -30745,7 +30926,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -30759,7 +30940,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -30773,7 +30954,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -30787,7 +30968,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -30801,7 +30982,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -30815,7 +30996,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -30829,7 +31010,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -30843,7 +31024,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -30857,7 +31038,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -30871,7 +31052,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -30885,7 +31066,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -30899,21 +31080,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>125</v>
-      </c>
-      <c r="B112" s="4">
-        <v>404</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -30925,9 +31092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:XFD146"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30946,7 +31111,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -35664,7 +35829,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36274,7 +36439,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36287,7 +36452,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -36295,7 +36460,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -36303,7 +36468,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -36311,7 +36476,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -36319,7 +36484,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -36327,7 +36492,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -36335,7 +36500,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -36343,7 +36508,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -36363,7 +36528,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -37045,7 +37210,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -37053,7 +37218,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -37061,7 +37226,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -37069,7 +37234,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -37077,7 +37242,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749F540-3690-E943-ADD3-AB2C43FF2382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF7E36-0033-5347-BFB3-443F67EFF4CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" activeTab="7" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="332">
   <si>
     <t>number</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>The definite integral, integration techniques, applications, modelling, infinite series.</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>course_number</t>
@@ -910,9 +907,6 @@
     <t>Applied Track for Graduate School</t>
   </si>
   <si>
-    <t>Mathematical Modelling and Copmutation</t>
-  </si>
-  <si>
     <t>Mathematical Optimization</t>
   </si>
   <si>
@@ -1165,9 +1159,6 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
-    <t>All Mathematics</t>
-  </si>
-  <si>
     <t>Honours in Mathematics</t>
   </si>
   <si>
@@ -1175,12 +1166,6 @@
   </si>
   <si>
     <t>Engineering Courses</t>
-  </si>
-  <si>
-    <t>Pure Foundations</t>
-  </si>
-  <si>
-    <t>Applied Foundations</t>
   </si>
   <si>
     <t>Mathematics Education</t>
@@ -1202,6 +1187,24 @@
   </si>
   <si>
     <t>For Engineering students only. Cross-listed with MATH 215.</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>program_id</t>
+  </si>
+  <si>
+    <t>Pure Mathematics</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Engineering Physics</t>
   </si>
 </sst>
 </file>
@@ -1294,11 +1297,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites_1" connectionId="5" xr16:uid="{475F1AAF-A6F6-8B44-B2E7-A6A79F11F48B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites" connectionId="2" xr16:uid="{F3D47B22-4B45-FC40-80BD-7477F49EB359}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites" connectionId="2" xr16:uid="{F3D47B22-4B45-FC40-80BD-7477F49EB359}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites_1" connectionId="5" xr16:uid="{475F1AAF-A6F6-8B44-B2E7-A6A79F11F48B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1612,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1639,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1684,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1701,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1718,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1735,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1752,13 +1755,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1769,16 +1772,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1789,16 +1792,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,13 +1812,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1826,13 +1829,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1843,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1860,13 +1863,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1877,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1894,13 +1897,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1911,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1928,16 +1931,16 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1948,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -1965,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1982,16 +1985,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2002,16 +2005,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
         <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,10 +2045,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -2059,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -2076,16 +2079,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2096,16 +2099,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2116,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
         <v>94</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -2133,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -2150,16 +2153,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2170,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2187,16 +2190,16 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2207,10 +2210,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -2224,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -2241,10 +2244,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -2258,16 +2261,16 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
         <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2278,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -2295,10 +2298,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -2312,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -2329,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2346,16 +2349,16 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2366,16 +2369,16 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
         <v>121</v>
-      </c>
-      <c r="D42" t="s">
-        <v>122</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2386,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
         <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -2403,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
         <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -2420,16 +2423,16 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
         <v>128</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2440,16 +2443,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2460,16 +2463,16 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
         <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2480,16 +2483,16 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
         <v>133</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2500,16 +2503,16 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
         <v>135</v>
-      </c>
-      <c r="D49" t="s">
-        <v>136</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2520,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
         <v>137</v>
       </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2537,10 +2540,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s">
         <v>139</v>
-      </c>
-      <c r="D51" t="s">
-        <v>140</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -2554,10 +2557,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
         <v>141</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2571,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
         <v>143</v>
-      </c>
-      <c r="D53" t="s">
-        <v>144</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2588,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
         <v>145</v>
-      </c>
-      <c r="D54" t="s">
-        <v>146</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2605,13 +2608,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2622,16 +2625,16 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" t="s">
         <v>149</v>
       </c>
-      <c r="D56" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" t="s">
-        <v>150</v>
-      </c>
       <c r="F56" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,16 +2645,16 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
         <v>151</v>
-      </c>
-      <c r="D57" t="s">
-        <v>152</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
         <v>153</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -2679,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
         <v>155</v>
-      </c>
-      <c r="D59" t="s">
-        <v>156</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2696,16 +2699,16 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
         <v>157</v>
-      </c>
-      <c r="D60" t="s">
-        <v>158</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2716,16 +2719,16 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
         <v>159</v>
-      </c>
-      <c r="D61" t="s">
-        <v>160</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2736,10 +2739,10 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
         <v>161</v>
-      </c>
-      <c r="D62" t="s">
-        <v>162</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -2753,16 +2756,16 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
         <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2773,16 +2776,16 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
         <v>165</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,16 +2796,16 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
         <v>167</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2813,16 +2816,16 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
         <v>169</v>
-      </c>
-      <c r="D66" t="s">
-        <v>170</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2833,13 +2836,13 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
         <v>171</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>172</v>
-      </c>
-      <c r="E67" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2850,16 +2853,16 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
         <v>174</v>
-      </c>
-      <c r="D68" t="s">
-        <v>175</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2870,16 +2873,16 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
         <v>176</v>
-      </c>
-      <c r="D69" t="s">
-        <v>177</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2890,16 +2893,16 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2910,16 +2913,16 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2930,16 +2933,16 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" t="s">
         <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>183</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2950,16 +2953,16 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
         <v>184</v>
-      </c>
-      <c r="D73" t="s">
-        <v>185</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" t="s">
         <v>186</v>
-      </c>
-      <c r="D74" t="s">
-        <v>187</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2990,16 +2993,16 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
         <v>188</v>
-      </c>
-      <c r="D75" t="s">
-        <v>189</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3010,16 +3013,16 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3030,16 +3033,16 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s">
         <v>191</v>
-      </c>
-      <c r="D77" t="s">
-        <v>192</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3050,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
         <v>193</v>
-      </c>
-      <c r="D78" t="s">
-        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -3067,16 +3070,16 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" t="s">
         <v>196</v>
-      </c>
-      <c r="D79" t="s">
-        <v>197</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3087,16 +3090,16 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3107,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" t="s">
         <v>199</v>
-      </c>
-      <c r="D81" t="s">
-        <v>200</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -3124,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
         <v>201</v>
-      </c>
-      <c r="D82" t="s">
-        <v>202</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -3141,16 +3144,16 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" t="s">
         <v>203</v>
-      </c>
-      <c r="D83" t="s">
-        <v>204</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3161,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" t="s">
         <v>205</v>
-      </c>
-      <c r="D84" t="s">
-        <v>206</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -3178,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
         <v>207</v>
-      </c>
-      <c r="D85" t="s">
-        <v>208</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -3195,16 +3198,16 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" t="s">
         <v>209</v>
-      </c>
-      <c r="D86" t="s">
-        <v>210</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3215,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" t="s">
         <v>211</v>
-      </c>
-      <c r="D87" t="s">
-        <v>212</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -3233,7 +3236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3247,31 +3252,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -16130,19 +16135,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -17516,31 +17521,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -24031,19 +24036,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -24709,31 +24714,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -26672,19 +26677,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -27464,31 +27469,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -29643,19 +29648,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -30036,31 +30041,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -32180,8 +32185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC08885-D475-D740-B093-B1999F0EDA05}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32195,13 +32200,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -32215,10 +32220,10 @@
         <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -32229,10 +32234,10 @@
         <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -32243,10 +32248,10 @@
         <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -32257,10 +32262,10 @@
         <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -32271,10 +32276,10 @@
         <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -32285,10 +32290,10 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -32299,10 +32304,10 @@
         <v>210</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -32313,10 +32318,10 @@
         <v>210</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -32327,10 +32332,10 @@
         <v>210</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -32341,10 +32346,10 @@
         <v>215</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -32355,10 +32360,10 @@
         <v>215</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -32369,10 +32374,10 @@
         <v>215</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -32383,10 +32388,10 @@
         <v>220</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -32397,10 +32402,10 @@
         <v>217</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -32411,10 +32416,10 @@
         <v>217</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -32425,10 +32430,10 @@
         <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -32439,10 +32444,10 @@
         <v>223</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -32453,10 +32458,10 @@
         <v>226</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -32467,10 +32472,10 @@
         <v>226</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -32481,10 +32486,10 @@
         <v>227</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -32495,10 +32500,10 @@
         <v>253</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -32509,10 +32514,10 @@
         <v>254</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -32523,10 +32528,10 @@
         <v>254</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -32537,10 +32542,10 @@
         <v>254</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -32551,10 +32556,10 @@
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -32565,10 +32570,10 @@
         <v>255</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -32579,10 +32584,10 @@
         <v>255</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -32593,10 +32598,10 @@
         <v>256</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -32607,10 +32612,10 @@
         <v>256</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -32621,10 +32626,10 @@
         <v>256</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -32635,10 +32640,10 @@
         <v>257</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -32649,10 +32654,10 @@
         <v>258</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -32663,10 +32668,10 @@
         <v>258</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -32677,10 +32682,10 @@
         <v>258</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -32691,10 +32696,10 @@
         <v>264</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -32705,10 +32710,10 @@
         <v>264</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -32719,10 +32724,10 @@
         <v>300</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -32733,10 +32738,10 @@
         <v>300</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -32747,10 +32752,10 @@
         <v>301</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -32761,10 +32766,10 @@
         <v>301</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -32775,10 +32780,10 @@
         <v>301</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -32789,10 +32794,10 @@
         <v>302</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -32803,10 +32808,10 @@
         <v>303</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -32817,10 +32822,10 @@
         <v>305</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -32831,10 +32836,10 @@
         <v>305</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -32845,10 +32850,10 @@
         <v>305</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -32859,10 +32864,10 @@
         <v>307</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -32873,10 +32878,10 @@
         <v>307</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -32887,10 +32892,10 @@
         <v>308</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -32901,10 +32906,10 @@
         <v>309</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -32915,10 +32920,10 @@
         <v>310</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -32929,10 +32934,10 @@
         <v>310</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -32943,10 +32948,10 @@
         <v>312</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -32957,10 +32962,10 @@
         <v>313</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -32971,10 +32976,10 @@
         <v>316</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -32985,10 +32990,10 @@
         <v>317</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -32999,10 +33004,10 @@
         <v>317</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -33013,10 +33018,10 @@
         <v>318</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -33027,10 +33032,10 @@
         <v>318</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -33041,10 +33046,10 @@
         <v>318</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -33055,10 +33060,10 @@
         <v>320</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -33069,10 +33074,10 @@
         <v>321</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -33083,10 +33088,10 @@
         <v>322</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -33097,10 +33102,10 @@
         <v>323</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -33111,10 +33116,10 @@
         <v>340</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -33125,10 +33130,10 @@
         <v>341</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -33139,10 +33144,10 @@
         <v>342</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -33153,10 +33158,10 @@
         <v>344</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -33167,10 +33172,10 @@
         <v>345</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -33181,10 +33186,10 @@
         <v>360</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -33195,10 +33200,10 @@
         <v>361</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -33209,10 +33214,10 @@
         <v>400</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -33223,10 +33228,10 @@
         <v>400</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -33237,10 +33242,10 @@
         <v>401</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -33251,10 +33256,10 @@
         <v>402</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -33265,10 +33270,10 @@
         <v>403</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -33279,10 +33284,10 @@
         <v>403</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -33293,10 +33298,10 @@
         <v>404</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -33307,10 +33312,10 @@
         <v>404</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -33321,10 +33326,10 @@
         <v>405</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -33335,10 +33340,10 @@
         <v>406</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -33349,10 +33354,10 @@
         <v>406</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -33363,10 +33368,10 @@
         <v>412</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -33377,10 +33382,10 @@
         <v>412</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -33391,10 +33396,10 @@
         <v>418</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -33405,10 +33410,10 @@
         <v>419</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -33419,10 +33424,10 @@
         <v>420</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -33433,10 +33438,10 @@
         <v>421</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -33447,10 +33452,10 @@
         <v>422</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -33461,10 +33466,10 @@
         <v>423</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -33475,10 +33480,10 @@
         <v>423</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -33489,10 +33494,10 @@
         <v>424</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -33503,10 +33508,10 @@
         <v>424</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -33517,10 +33522,10 @@
         <v>425</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -33531,10 +33536,10 @@
         <v>426</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -33545,10 +33550,10 @@
         <v>427</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -33559,10 +33564,10 @@
         <v>428</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -33573,10 +33578,10 @@
         <v>428</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -33587,10 +33592,10 @@
         <v>428</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -33601,10 +33606,10 @@
         <v>437</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -33615,10 +33620,10 @@
         <v>440</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -33629,10 +33634,10 @@
         <v>440</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -33643,10 +33648,10 @@
         <v>441</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -33657,10 +33662,10 @@
         <v>442</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -33671,10 +33676,10 @@
         <v>443</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -33685,10 +33690,10 @@
         <v>444</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -33699,10 +33704,10 @@
         <v>446</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -33713,10 +33718,10 @@
         <v>450</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -33727,10 +33732,10 @@
         <v>450</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -33741,10 +33746,10 @@
         <v>462</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -33755,10 +33760,10 @@
         <v>358</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -33780,16 +33785,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -38535,7 +38540,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38545,7 +38550,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -38556,7 +38561,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -38564,7 +38569,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -38572,7 +38577,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -38580,7 +38585,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -38588,7 +38593,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -38596,7 +38601,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -38604,7 +38609,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -38612,7 +38617,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -38620,7 +38625,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -38628,7 +38633,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -38636,7 +38641,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -38644,7 +38649,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -38652,7 +38657,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -38660,7 +38665,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -38668,7 +38673,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -38676,7 +38681,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -38684,7 +38689,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -38692,7 +38697,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -38713,10 +38718,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -39142,125 +39147,197 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>322</v>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>323</v>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>229</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>230</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>231</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>232</v>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>233</v>
+      <c r="B8">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>324</v>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>234</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -39270,20 +39347,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -39291,7 +39368,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>302</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -39299,7 +39376,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>303</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -39307,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>307</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -39315,7 +39392,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>340</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -39323,7 +39400,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>442</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -39331,44 +39408,44 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>441</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>340</v>
@@ -39376,18 +39453,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>341</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>342</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -39395,7 +39472,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>344</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -39403,7 +39480,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>441</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -39411,7 +39488,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>442</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -39419,71 +39496,71 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>443</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>303</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>318</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>345</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>400</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -39491,135 +39568,135 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>462</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>321</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>316</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>317</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>401</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>405</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>402</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>403</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>420</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>421</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>302</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>303</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -39627,7 +39704,7 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>318</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -39635,7 +39712,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>428</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -39643,156 +39720,156 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>450</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>300</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>302</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>303</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>345</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>400</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>341</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>307</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>308</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>312</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>340</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>322</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>302</v>
@@ -39800,145 +39877,505 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>414</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>344</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>442</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>316</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>307</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>340</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>317</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>441</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>402</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>7</v>
       </c>
-      <c r="B83">
+      <c r="B108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
         <v>403</v>
       </c>
     </row>
@@ -39949,20 +40386,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -39973,21 +40410,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -39995,32 +40432,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -40033,7 +40459,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E86"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40045,19 +40471,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB029B-96AC-5343-9B5D-403A0C64B98F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899AE31-3ABC-0A40-B3EE-839ED54C95E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" firstSheet="2" activeTab="6" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="334">
   <si>
     <t>number</t>
   </si>
@@ -901,9 +901,6 @@
     <t>Mathematical Biology</t>
   </si>
   <si>
-    <t>Applied Track for Graduate School</t>
-  </si>
-  <si>
     <t>Mathematical Optimization</t>
   </si>
   <si>
@@ -1205,6 +1202,15 @@
   </si>
   <si>
     <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>description1</t>
+  </si>
+  <si>
+    <t>description2</t>
+  </si>
+  <si>
+    <t>Applied Track for Grad School</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1781,7 +1787,7 @@
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1801,7 +1807,7 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1934,13 +1940,13 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1994,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2014,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2034,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,7 +2094,7 @@
         <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2108,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2162,7 +2168,7 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2179,7 +2185,7 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2199,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2270,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2355,10 +2361,10 @@
         <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2378,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2432,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2452,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2472,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2492,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2512,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2634,7 +2640,7 @@
         <v>149</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2654,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2708,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2765,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2785,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2825,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2862,7 +2868,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2882,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2902,7 +2908,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2922,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2942,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2962,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2982,7 +2988,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3002,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3013,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
         <v>189</v>
@@ -3022,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3042,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3079,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3099,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3207,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,7 +3242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3271,10 +3279,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -10284,11 +10292,11 @@
       </c>
       <c r="D186" s="1">
         <f>VLOOKUP(B186,courses_program1!A:E,4,0)</f>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E186" s="1">
         <f>VLOOKUP(B186,courses_program1!A:E,5,0)</f>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
       <c r="F186" s="1">
         <f>VLOOKUP(C186,courses_program1!A:E,4,0)</f>
@@ -10322,11 +10330,11 @@
       </c>
       <c r="D187" s="1">
         <f>VLOOKUP(B187,courses_program1!A:E,4,0)</f>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E187" s="1">
         <f>VLOOKUP(B187,courses_program1!A:E,5,0)</f>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
       <c r="F187" s="1">
         <f>VLOOKUP(C187,courses_program1!A:E,4,0)</f>
@@ -10360,11 +10368,11 @@
       </c>
       <c r="D188" s="1">
         <f>VLOOKUP(B188,courses_program1!A:E,4,0)</f>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E188" s="1">
         <f>VLOOKUP(B188,courses_program1!A:E,5,0)</f>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
       <c r="F188" s="1">
         <f>VLOOKUP(C188,courses_program1!A:E,4,0)</f>
@@ -10398,11 +10406,11 @@
       </c>
       <c r="D189" s="1">
         <f>VLOOKUP(B189,courses_program1!A:E,4,0)</f>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E189" s="1">
         <f>VLOOKUP(B189,courses_program1!A:E,5,0)</f>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
       <c r="F189" s="1">
         <f>VLOOKUP(C189,courses_program1!A:E,4,0)</f>
@@ -10436,11 +10444,11 @@
       </c>
       <c r="D190" s="1">
         <f>VLOOKUP(B190,courses_program1!A:E,4,0)</f>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E190" s="1">
         <f>VLOOKUP(B190,courses_program1!A:E,5,0)</f>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
       <c r="F190" s="1">
         <f>VLOOKUP(C190,courses_program1!A:E,4,0)</f>
@@ -10474,11 +10482,11 @@
       </c>
       <c r="D191" s="1">
         <f>VLOOKUP(B191,courses_program1!A:E,4,0)</f>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E191" s="1">
         <f>VLOOKUP(B191,courses_program1!A:E,5,0)</f>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
       <c r="F191" s="1">
         <f>VLOOKUP(C191,courses_program1!A:E,4,0)</f>
@@ -10512,11 +10520,11 @@
       </c>
       <c r="D192" s="1">
         <f>VLOOKUP(B192,courses_program1!A:E,4,0)</f>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E192" s="1">
         <f>VLOOKUP(B192,courses_program1!A:E,5,0)</f>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
       <c r="F192" s="1">
         <f>VLOOKUP(C192,courses_program1!A:E,4,0)</f>
@@ -10550,11 +10558,11 @@
       </c>
       <c r="D193" s="1">
         <f>VLOOKUP(B193,courses_program1!A:E,4,0)</f>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E193" s="1">
         <f>VLOOKUP(B193,courses_program1!A:E,5,0)</f>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
       <c r="F193" s="1">
         <f>VLOOKUP(C193,courses_program1!A:E,4,0)</f>
@@ -10588,11 +10596,11 @@
       </c>
       <c r="D194" s="1">
         <f>VLOOKUP(B194,courses_program1!A:E,4,0)</f>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E194" s="1">
         <f>VLOOKUP(B194,courses_program1!A:E,5,0)</f>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
       <c r="F194" s="1">
         <f>VLOOKUP(C194,courses_program1!A:E,4,0)</f>
@@ -10626,11 +10634,11 @@
       </c>
       <c r="D195" s="1">
         <f>VLOOKUP(B195,courses_program1!A:E,4,0)</f>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E195" s="1">
         <f>VLOOKUP(B195,courses_program1!A:E,5,0)</f>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
       <c r="F195" s="1">
         <f>VLOOKUP(C195,courses_program1!A:E,4,0)</f>
@@ -10664,11 +10672,11 @@
       </c>
       <c r="D196" s="1">
         <f>VLOOKUP(B196,courses_program1!A:E,4,0)</f>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="E196" s="1">
         <f>VLOOKUP(B196,courses_program1!A:E,5,0)</f>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
       <c r="F196" s="1">
         <f>VLOOKUP(C196,courses_program1!A:E,4,0)</f>
@@ -10702,11 +10710,11 @@
       </c>
       <c r="D197" s="1">
         <f>VLOOKUP(B197,courses_program1!A:E,4,0)</f>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="E197" s="1">
         <f>VLOOKUP(B197,courses_program1!A:E,5,0)</f>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
       <c r="F197" s="1">
         <f>VLOOKUP(C197,courses_program1!A:E,4,0)</f>
@@ -10740,11 +10748,11 @@
       </c>
       <c r="D198" s="1">
         <f>VLOOKUP(B198,courses_program1!A:E,4,0)</f>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="E198" s="1">
         <f>VLOOKUP(B198,courses_program1!A:E,5,0)</f>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
       <c r="F198" s="1">
         <f>VLOOKUP(C198,courses_program1!A:E,4,0)</f>
@@ -10778,11 +10786,11 @@
       </c>
       <c r="D199" s="1">
         <f>VLOOKUP(B199,courses_program1!A:E,4,0)</f>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="E199" s="1">
         <f>VLOOKUP(B199,courses_program1!A:E,5,0)</f>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
       <c r="F199" s="1">
         <f>VLOOKUP(C199,courses_program1!A:E,4,0)</f>
@@ -10816,11 +10824,11 @@
       </c>
       <c r="D200" s="1">
         <f>VLOOKUP(B200,courses_program1!A:E,4,0)</f>
-        <v>-3.5355268695332196</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E200" s="1">
         <f>VLOOKUP(B200,courses_program1!A:E,5,0)</f>
-        <v>3.5355409423182516</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="F200" s="1">
         <f>VLOOKUP(C200,courses_program1!A:E,4,0)</f>
@@ -10854,11 +10862,11 @@
       </c>
       <c r="D201" s="1">
         <f>VLOOKUP(B201,courses_program1!A:E,4,0)</f>
-        <v>-3.5355268695332196</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E201" s="1">
         <f>VLOOKUP(B201,courses_program1!A:E,5,0)</f>
-        <v>3.5355409423182516</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="F201" s="1">
         <f>VLOOKUP(C201,courses_program1!A:E,4,0)</f>
@@ -10892,11 +10900,11 @@
       </c>
       <c r="D202" s="1">
         <f>VLOOKUP(B202,courses_program1!A:E,4,0)</f>
-        <v>-3.5355268695332196</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E202" s="1">
         <f>VLOOKUP(B202,courses_program1!A:E,5,0)</f>
-        <v>3.5355409423182516</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="F202" s="1">
         <f>VLOOKUP(C202,courses_program1!A:E,4,0)</f>
@@ -10930,19 +10938,19 @@
       </c>
       <c r="D203" s="1">
         <f>VLOOKUP(B203,courses_program1!A:E,4,0)</f>
-        <v>-4.2426322434398642</v>
+        <v>-3.8063508589479005</v>
       </c>
       <c r="E203" s="1">
         <f>VLOOKUP(B203,courses_program1!A:E,5,0)</f>
-        <v>4.2426491307819019</v>
+        <v>4.6380699799147687</v>
       </c>
       <c r="F203" s="1">
         <f>VLOOKUP(C203,courses_program1!A:E,4,0)</f>
-        <v>-3.5355268695332196</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(C203,courses_program1!A:E,5,0)</f>
-        <v>3.5355409423182516</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="H203">
         <f>courses_requisites!D203</f>
@@ -12078,11 +12086,11 @@
       </c>
       <c r="F233" s="1">
         <f>VLOOKUP(C233,courses_program1!A:E,4,0)</f>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(C233,courses_program1!A:E,5,0)</f>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
       <c r="H233">
         <f>courses_requisites!D233</f>
@@ -12374,11 +12382,11 @@
       </c>
       <c r="D241" s="1">
         <f>VLOOKUP(B241,courses_program1!A:E,4,0)</f>
-        <v>-3.1719590491232501</v>
+        <v>-2.7778435806646256</v>
       </c>
       <c r="E241" s="1">
         <f>VLOOKUP(B241,courses_program1!A:E,5,0)</f>
-        <v>3.8650583165956403</v>
+        <v>4.1573531292590884</v>
       </c>
       <c r="F241" s="1">
         <f>VLOOKUP(C241,courses_program1!A:E,4,0)</f>
@@ -12412,11 +12420,11 @@
       </c>
       <c r="D242" s="1">
         <f>VLOOKUP(B242,courses_program1!A:E,4,0)</f>
-        <v>-3.1719590491232501</v>
+        <v>-2.7778435806646256</v>
       </c>
       <c r="E242" s="1">
         <f>VLOOKUP(B242,courses_program1!A:E,5,0)</f>
-        <v>3.8650583165956403</v>
+        <v>4.1573531292590884</v>
       </c>
       <c r="F242" s="1">
         <f>VLOOKUP(C242,courses_program1!A:E,4,0)</f>
@@ -12450,11 +12458,11 @@
       </c>
       <c r="D243" s="1">
         <f>VLOOKUP(B243,courses_program1!A:E,4,0)</f>
-        <v>-3.1719590491232501</v>
+        <v>-2.7778435806646256</v>
       </c>
       <c r="E243" s="1">
         <f>VLOOKUP(B243,courses_program1!A:E,5,0)</f>
-        <v>3.8650583165956403</v>
+        <v>4.1573531292590884</v>
       </c>
       <c r="F243" s="1">
         <f>VLOOKUP(C243,courses_program1!A:E,4,0)</f>
@@ -12488,11 +12496,11 @@
       </c>
       <c r="D244" s="1">
         <f>VLOOKUP(B244,courses_program1!A:E,4,0)</f>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E244" s="1">
         <f>VLOOKUP(B244,courses_program1!A:E,5,0)</f>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
       <c r="F244" s="1">
         <f>VLOOKUP(C244,courses_program1!A:E,4,0)</f>
@@ -12526,11 +12534,11 @@
       </c>
       <c r="D245" s="1">
         <f>VLOOKUP(B245,courses_program1!A:E,4,0)</f>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E245" s="1">
         <f>VLOOKUP(B245,courses_program1!A:E,5,0)</f>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
       <c r="F245" s="1">
         <f>VLOOKUP(C245,courses_program1!A:E,4,0)</f>
@@ -12564,11 +12572,11 @@
       </c>
       <c r="D246" s="1">
         <f>VLOOKUP(B246,courses_program1!A:E,4,0)</f>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E246" s="1">
         <f>VLOOKUP(B246,courses_program1!A:E,5,0)</f>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
       <c r="F246" s="1">
         <f>VLOOKUP(C246,courses_program1!A:E,4,0)</f>
@@ -12602,11 +12610,11 @@
       </c>
       <c r="D247" s="1">
         <f>VLOOKUP(B247,courses_program1!A:E,4,0)</f>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E247" s="1">
         <f>VLOOKUP(B247,courses_program1!A:E,5,0)</f>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
       <c r="F247" s="1">
         <f>VLOOKUP(C247,courses_program1!A:E,4,0)</f>
@@ -12640,11 +12648,11 @@
       </c>
       <c r="D248" s="1">
         <f>VLOOKUP(B248,courses_program1!A:E,4,0)</f>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E248" s="1">
         <f>VLOOKUP(B248,courses_program1!A:E,5,0)</f>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
       <c r="F248" s="1">
         <f>VLOOKUP(C248,courses_program1!A:E,4,0)</f>
@@ -12678,11 +12686,11 @@
       </c>
       <c r="D249" s="1">
         <f>VLOOKUP(B249,courses_program1!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E249" s="1">
         <f>VLOOKUP(B249,courses_program1!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
       <c r="F249" s="1">
         <f>VLOOKUP(C249,courses_program1!A:E,4,0)</f>
@@ -12716,11 +12724,11 @@
       </c>
       <c r="D250" s="1">
         <f>VLOOKUP(B250,courses_program1!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E250" s="1">
         <f>VLOOKUP(B250,courses_program1!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
       <c r="F250" s="1">
         <f>VLOOKUP(C250,courses_program1!A:E,4,0)</f>
@@ -12754,11 +12762,11 @@
       </c>
       <c r="D251" s="1">
         <f>VLOOKUP(B251,courses_program1!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E251" s="1">
         <f>VLOOKUP(B251,courses_program1!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
       <c r="F251" s="1">
         <f>VLOOKUP(C251,courses_program1!A:E,4,0)</f>
@@ -12792,11 +12800,11 @@
       </c>
       <c r="D252" s="1">
         <f>VLOOKUP(B252,courses_program1!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E252" s="1">
         <f>VLOOKUP(B252,courses_program1!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
       <c r="F252" s="1">
         <f>VLOOKUP(C252,courses_program1!A:E,4,0)</f>
@@ -12830,11 +12838,11 @@
       </c>
       <c r="D253" s="1">
         <f>VLOOKUP(B253,courses_program1!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E253" s="1">
         <f>VLOOKUP(B253,courses_program1!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
       <c r="F253" s="1">
         <f>VLOOKUP(C253,courses_program1!A:E,4,0)</f>
@@ -15604,11 +15612,11 @@
       </c>
       <c r="D326" s="1">
         <f>VLOOKUP(B326,courses_program1!A:E,4,0)</f>
-        <v>-2.7778435806646256</v>
+        <v>-2.3569760051572612</v>
       </c>
       <c r="E326" s="1">
         <f>VLOOKUP(B326,courses_program1!A:E,5,0)</f>
-        <v>4.1573531292590884</v>
+        <v>4.4096104262296141</v>
       </c>
       <c r="F326" s="1">
         <f>VLOOKUP(C326,courses_program1!A:E,4,0)</f>
@@ -15642,11 +15650,11 @@
       </c>
       <c r="D327" s="1">
         <f>VLOOKUP(B327,courses_program1!A:E,4,0)</f>
-        <v>-2.7778435806646256</v>
+        <v>-2.3569760051572612</v>
       </c>
       <c r="E327" s="1">
         <f>VLOOKUP(B327,courses_program1!A:E,5,0)</f>
-        <v>4.1573531292590884</v>
+        <v>4.4096104262296141</v>
       </c>
       <c r="F327" s="1">
         <f>VLOOKUP(C327,courses_program1!A:E,4,0)</f>
@@ -15680,11 +15688,11 @@
       </c>
       <c r="D328" s="1">
         <f>VLOOKUP(B328,courses_program1!A:E,4,0)</f>
-        <v>-2.7778435806646256</v>
+        <v>-2.3569760051572612</v>
       </c>
       <c r="E328" s="1">
         <f>VLOOKUP(B328,courses_program1!A:E,5,0)</f>
-        <v>4.1573531292590884</v>
+        <v>4.4096104262296141</v>
       </c>
       <c r="F328" s="1">
         <f>VLOOKUP(C328,courses_program1!A:E,4,0)</f>
@@ -16932,8 +16940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6408E2B-6C19-0747-B3D4-AF408E10463D}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16961,10 +16969,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -19143,9 +19151,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10F87B-D863-3F4D-9764-B42BC2F98A49}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -19177,11 +19187,11 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D21" si="0">B2*COS(C2/32*3.14159)</f>
+        <f t="shared" ref="D2:D22" si="0">B2*COS(C2/32*3.14159)</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E21" si="1">B2*SIN(C2/32*3.14159)</f>
+        <f t="shared" ref="E2:E22" si="1">B2*SIN(C2/32*3.14159)</f>
         <v>0</v>
       </c>
     </row>
@@ -19339,475 +19349,494 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3569760051572612</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>4.4096104262296141</v>
+        <v>3.8650583165956403</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>6.6339744833877897E-6</v>
+        <v>-2.3569760051572612</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>4.9999999999955991</v>
+        <v>4.4096104262296141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>7.960769380065349E-6</v>
+        <v>6.6339744833877897E-6</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>5.9999999999947189</v>
+        <v>4.9999999999955991</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>3.1719693053913818</v>
+        <v>7.960769380065349E-6</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>3.8650498995038749</v>
+        <v>5.9999999999947189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>3.8063631664696578</v>
+        <v>3.1719693053913818</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>4.6380598794046506</v>
+        <v>3.8650498995038749</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>-3.299766407220166</v>
+        <v>3.8063631664696578</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>6.1734545967214594</v>
+        <v>4.6380598794046506</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>21</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>-3.7711616082516182</v>
+        <v>-3.299766407220166</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>7.055376681967382</v>
+        <v>6.1734545967214594</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0319821867004233</v>
+        <v>-3.7711616082516182</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>6.6985855516617958</v>
+        <v>7.055376681967382</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78412589918456477</v>
+        <v>-2.0319821867004233</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>7.9614789187831176</v>
+        <v>6.6985855516617958</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>-3.888981012930476</v>
+        <v>-0.78412589918456477</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>5.8202943809627232</v>
+        <v>7.9614789187831176</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>3.888996457590546</v>
+        <v>-3.888981012930476</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>5.8202840611819102</v>
+        <v>5.8202943809627232</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D35" si="2">B22*COS(C22/32*3.14159)</f>
-        <v>0.68612864747087754</v>
+        <f t="shared" si="0"/>
+        <v>3.888996457590546</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E35" si="3">B22*SIN(C22/32*3.14159)</f>
-        <v>6.9662922332557784</v>
+        <f t="shared" si="1"/>
+        <v>5.8202840611819102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>15</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" ref="D23:D36" si="2">B23*COS(C23/32*3.14159)</f>
+        <v>0.68612864747087754</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E36" si="3">B23*SIN(C23/32*3.14159)</f>
+        <v>6.9662922332557784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>419</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="2"/>
         <v>0.78414702568100292</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="3"/>
         <v>7.9614768380066039</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>420</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <f t="shared" si="2"/>
         <v>9.2875642767429066E-6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
         <v>6.9999999999938387</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>421</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>1.0614359173420464E-5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="3"/>
         <v>7.9999999999929585</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>422</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <f t="shared" si="2"/>
         <v>4.4407570275479342</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="3"/>
         <v>5.4110698593054254</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>423</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <f t="shared" si="2"/>
         <v>5.0751508886262107</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <f t="shared" si="3"/>
         <v>6.1840798392062002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>424</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>13</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <f t="shared" si="2"/>
         <v>2.0319999619915192</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="3"/>
         <v>6.698580159591021</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>425</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <f t="shared" si="2"/>
         <v>2.3222856708474504</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <f t="shared" si="3"/>
         <v>7.6555201823897381</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>426</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <f t="shared" si="2"/>
         <v>1.3656402245800197</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="3"/>
         <v>6.8654953773933185</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>427</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>14</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <f t="shared" si="2"/>
         <v>1.5607316852343083</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <f t="shared" si="3"/>
         <v>7.8462804313066501</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>437</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>11</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <f t="shared" si="2"/>
         <v>3.2997827890246554</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <f t="shared" si="3"/>
         <v>6.1734458404732662</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>440</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>7</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>18</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
         <v>-1.3656220063667519</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <f t="shared" si="3"/>
         <v>6.865499001218109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>443</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>12</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
         <v>2.6787904619972092</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <f t="shared" si="3"/>
         <v>6.4671540619280732</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>450</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>20</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>-3.0614552009300198</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="3"/>
         <v>7.3910413375043795</v>
       </c>
@@ -19819,7 +19848,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F81BF95-7C2E-564E-8741-4F25E4CD8A20}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19848,10 +19877,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -19882,7 +19911,6 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>courses_requisites!D24</f>
         <v>1</v>
       </c>
       <c r="I2" t="str">
@@ -19953,7 +19981,6 @@
         <v>3.8277631723781691</v>
       </c>
       <c r="H4">
-        <f>courses_requisites!D38</f>
         <v>1</v>
       </c>
       <c r="I4" t="str">
@@ -20129,7 +20156,6 @@
         <v>0.99999999999911982</v>
       </c>
       <c r="H9">
-        <f>courses_requisites!D84</f>
         <v>1</v>
       </c>
       <c r="I9" t="str">
@@ -20165,7 +20191,6 @@
         <v>0.99999999999911982</v>
       </c>
       <c r="H10">
-        <f>courses_requisites!D88</f>
         <v>1</v>
       </c>
       <c r="I10" t="str">
@@ -20201,7 +20226,6 @@
         <v>3.0920399196031001</v>
       </c>
       <c r="H11">
-        <f>courses_requisites!D94</f>
         <v>1</v>
       </c>
       <c r="I11" t="str">
@@ -20237,7 +20261,6 @@
         <v>1.9999999999982396</v>
       </c>
       <c r="H12">
-        <f>courses_requisites!D95</f>
         <v>1</v>
       </c>
       <c r="I12" t="str">
@@ -20276,7 +20299,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I22" si="2">_xlfn.CONCAT(B13,C13)</f>
+        <f t="shared" ref="I13:I24" si="2">_xlfn.CONCAT(B13,C13)</f>
         <v>300226</v>
       </c>
     </row>
@@ -20343,7 +20366,6 @@
         <v>4.9039278580129348</v>
       </c>
       <c r="H15">
-        <f>courses_requisites!D149</f>
         <v>1</v>
       </c>
       <c r="I15" t="str">
@@ -20414,7 +20436,6 @@
         <v>4.4096104262296141</v>
       </c>
       <c r="H17">
-        <f>courses_requisites!D157</f>
         <v>1</v>
       </c>
       <c r="I17" t="str">
@@ -20424,55 +20445,55 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C18">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1">
         <f>VLOOKUP(B18,courses_program3!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E18" s="1">
         <f>VLOOKUP(B18,courses_program3!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="F18" s="1">
         <f>VLOOKUP(C18,courses_program3!A:E,4,0)</f>
-        <v>-1.1611326781145277</v>
+        <v>2.5375754443131053</v>
       </c>
       <c r="G18" s="1">
         <f>VLOOKUP(C18,courses_program3!A:E,5,0)</f>
-        <v>3.8277631723781691</v>
+        <v>3.0920399196031001</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>316215</v>
+        <f t="shared" ref="I18:I19" si="3">_xlfn.CONCAT(B18,C18)</f>
+        <v>307223</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C19">
         <v>226</v>
       </c>
       <c r="D19" s="1">
         <f>VLOOKUP(B19,courses_program3!A:E,4,0)</f>
-        <v>6.6339744833877897E-6</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E19" s="1">
         <f>VLOOKUP(B19,courses_program3!A:E,5,0)</f>
-        <v>4.9999999999955991</v>
+        <v>3.8650583165956403</v>
       </c>
       <c r="F19" s="1">
         <f>VLOOKUP(C19,courses_program3!A:E,4,0)</f>
@@ -20486,369 +20507,363 @@
         <v>1</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>307226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>316</v>
+      </c>
+      <c r="C20">
+        <v>215</v>
+      </c>
+      <c r="D20" s="1">
+        <f>VLOOKUP(B20,courses_program3!A:E,4,0)</f>
+        <v>-2.3569760051572612</v>
+      </c>
+      <c r="E20" s="1">
+        <f>VLOOKUP(B20,courses_program3!A:E,5,0)</f>
+        <v>4.4096104262296141</v>
+      </c>
+      <c r="F20" s="1">
+        <f>VLOOKUP(C20,courses_program3!A:E,4,0)</f>
+        <v>-1.1611326781145277</v>
+      </c>
+      <c r="G20" s="1">
+        <f>VLOOKUP(C20,courses_program3!A:E,5,0)</f>
+        <v>3.8277631723781691</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>316215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="C21">
+        <v>226</v>
+      </c>
+      <c r="D21" s="1">
+        <f>VLOOKUP(B21,courses_program3!A:E,4,0)</f>
+        <v>6.6339744833877897E-6</v>
+      </c>
+      <c r="E21" s="1">
+        <f>VLOOKUP(B21,courses_program3!A:E,5,0)</f>
+        <v>4.9999999999955991</v>
+      </c>
+      <c r="F21" s="1">
+        <f>VLOOKUP(C21,courses_program3!A:E,4,0)</f>
+        <v>2.653589793355116E-6</v>
+      </c>
+      <c r="G21" s="1">
+        <f>VLOOKUP(C21,courses_program3!A:E,5,0)</f>
+        <v>1.9999999999982396</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>320226</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>69</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>321</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>320</v>
       </c>
-      <c r="D20" s="1">
-        <f>VLOOKUP(B20,courses_program3!A:E,4,0)</f>
+      <c r="D22" s="1">
+        <f>VLOOKUP(B22,courses_program3!A:E,4,0)</f>
         <v>7.960769380065349E-6</v>
       </c>
-      <c r="E20" s="1">
-        <f>VLOOKUP(B20,courses_program3!A:E,5,0)</f>
+      <c r="E22" s="1">
+        <f>VLOOKUP(B22,courses_program3!A:E,5,0)</f>
         <v>5.9999999999947189</v>
       </c>
-      <c r="F20" s="1">
-        <f>VLOOKUP(C20,courses_program3!A:E,4,0)</f>
+      <c r="F22" s="1">
+        <f>VLOOKUP(C22,courses_program3!A:E,4,0)</f>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="G20" s="1">
-        <f>VLOOKUP(C20,courses_program3!A:E,5,0)</f>
+      <c r="G22" s="1">
+        <f>VLOOKUP(C22,courses_program3!A:E,5,0)</f>
         <v>4.9999999999955991</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="str">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
         <v>321320</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>70</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>322</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>223</v>
       </c>
-      <c r="D21" s="1">
-        <f>VLOOKUP(B21,courses_program3!A:E,4,0)</f>
+      <c r="D23" s="1">
+        <f>VLOOKUP(B23,courses_program3!A:E,4,0)</f>
         <v>3.1719693053913818</v>
       </c>
-      <c r="E21" s="1">
-        <f>VLOOKUP(B21,courses_program3!A:E,5,0)</f>
+      <c r="E23" s="1">
+        <f>VLOOKUP(B23,courses_program3!A:E,5,0)</f>
         <v>3.8650498995038749</v>
       </c>
-      <c r="F21" s="1">
-        <f>VLOOKUP(C21,courses_program3!A:E,4,0)</f>
+      <c r="F23" s="1">
+        <f>VLOOKUP(C23,courses_program3!A:E,4,0)</f>
         <v>2.5375754443131053</v>
       </c>
-      <c r="G21" s="1">
-        <f>VLOOKUP(C21,courses_program3!A:E,5,0)</f>
+      <c r="G23" s="1">
+        <f>VLOOKUP(C23,courses_program3!A:E,5,0)</f>
         <v>3.0920399196031001</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>322223</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>72</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>323</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>322</v>
       </c>
-      <c r="D22" s="1">
-        <f>VLOOKUP(B22,courses_program3!A:E,4,0)</f>
+      <c r="D24" s="1">
+        <f>VLOOKUP(B24,courses_program3!A:E,4,0)</f>
         <v>3.8063631664696578</v>
       </c>
-      <c r="E22" s="1">
-        <f>VLOOKUP(B22,courses_program3!A:E,5,0)</f>
+      <c r="E24" s="1">
+        <f>VLOOKUP(B24,courses_program3!A:E,5,0)</f>
         <v>4.6380598794046506</v>
       </c>
-      <c r="F22" s="1">
-        <f>VLOOKUP(C22,courses_program3!A:E,4,0)</f>
+      <c r="F24" s="1">
+        <f>VLOOKUP(C24,courses_program3!A:E,4,0)</f>
         <v>3.1719693053913818</v>
       </c>
-      <c r="G22" s="1">
-        <f>VLOOKUP(C22,courses_program3!A:E,5,0)</f>
+      <c r="G24" s="1">
+        <f>VLOOKUP(C24,courses_program3!A:E,5,0)</f>
         <v>3.8650498995038749</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="str">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v>323322</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>82</v>
-      </c>
-      <c r="B23">
-        <v>400</v>
-      </c>
-      <c r="C23">
-        <v>300</v>
-      </c>
-      <c r="D23" s="1">
-        <f>VLOOKUP(B23,courses_program3!A:E,4,0)</f>
-        <v>-3.299766407220166</v>
-      </c>
-      <c r="E23" s="1">
-        <f>VLOOKUP(B23,courses_program3!A:E,5,0)</f>
-        <v>6.1734545967214594</v>
-      </c>
-      <c r="F23" s="1">
-        <f>VLOOKUP(C23,courses_program3!A:E,4,0)</f>
-        <v>-0.97544429026196555</v>
-      </c>
-      <c r="G23" s="1">
-        <f>VLOOKUP(C23,courses_program3!A:E,5,0)</f>
-        <v>4.9039278580129348</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" ref="I23:I49" si="3">_xlfn.CONCAT(B23,C23)</f>
-        <v>400300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>83</v>
-      </c>
-      <c r="B24">
-        <v>400</v>
-      </c>
-      <c r="C24">
-        <v>316</v>
-      </c>
-      <c r="D24" s="1">
-        <f>VLOOKUP(B24,courses_program3!A:E,4,0)</f>
-        <v>-3.299766407220166</v>
-      </c>
-      <c r="E24" s="1">
-        <f>VLOOKUP(B24,courses_program3!A:E,5,0)</f>
-        <v>6.1734545967214594</v>
-      </c>
-      <c r="F24" s="1">
-        <f>VLOOKUP(C24,courses_program3!A:E,4,0)</f>
-        <v>-2.3569760051572612</v>
-      </c>
-      <c r="G24" s="1">
-        <f>VLOOKUP(C24,courses_program3!A:E,5,0)</f>
-        <v>4.4096104262296141</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>400316</v>
-      </c>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="D25" s="1">
+        <f>VLOOKUP(B25,courses_program3!A:E,4,0)</f>
+        <v>-3.299766407220166</v>
+      </c>
+      <c r="E25" s="1">
+        <f>VLOOKUP(B25,courses_program3!A:E,5,0)</f>
+        <v>6.1734545967214594</v>
+      </c>
+      <c r="F25" s="1">
+        <f>VLOOKUP(C25,courses_program3!A:E,4,0)</f>
+        <v>-0.97544429026196555</v>
+      </c>
+      <c r="G25" s="1">
+        <f>VLOOKUP(C25,courses_program3!A:E,5,0)</f>
+        <v>4.9039278580129348</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ref="I25:I51" si="4">_xlfn.CONCAT(B25,C25)</f>
+        <v>400300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26">
+        <v>316</v>
+      </c>
+      <c r="D26" s="1">
+        <f>VLOOKUP(B26,courses_program3!A:E,4,0)</f>
+        <v>-3.299766407220166</v>
+      </c>
+      <c r="E26" s="1">
+        <f>VLOOKUP(B26,courses_program3!A:E,5,0)</f>
+        <v>6.1734545967214594</v>
+      </c>
+      <c r="F26" s="1">
+        <f>VLOOKUP(C26,courses_program3!A:E,4,0)</f>
+        <v>-2.3569760051572612</v>
+      </c>
+      <c r="G26" s="1">
+        <f>VLOOKUP(C26,courses_program3!A:E,5,0)</f>
+        <v>4.4096104262296141</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>400316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <f>courses_requisites!A276</f>
         <v>84</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>401</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>400</v>
       </c>
-      <c r="D25" s="1">
-        <f>VLOOKUP(B25,courses_program3!A:E,4,0)</f>
+      <c r="D27" s="1">
+        <f>VLOOKUP(B27,courses_program3!A:E,4,0)</f>
         <v>-3.7711616082516182</v>
       </c>
-      <c r="E25" s="1">
-        <f>VLOOKUP(B25,courses_program3!A:E,5,0)</f>
+      <c r="E27" s="1">
+        <f>VLOOKUP(B27,courses_program3!A:E,5,0)</f>
         <v>7.055376681967382</v>
       </c>
-      <c r="F25" s="1">
-        <f>VLOOKUP(C25,courses_program3!A:E,4,0)</f>
+      <c r="F27" s="1">
+        <f>VLOOKUP(C27,courses_program3!A:E,4,0)</f>
         <v>-3.299766407220166</v>
       </c>
-      <c r="G25" s="1">
-        <f>VLOOKUP(C25,courses_program3!A:E,5,0)</f>
+      <c r="G27" s="1">
+        <f>VLOOKUP(C27,courses_program3!A:E,5,0)</f>
         <v>6.1734545967214594</v>
       </c>
-      <c r="H25">
-        <f>courses_requisites!D276</f>
-        <v>1</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
         <v>401400</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <f>courses_requisites!A277</f>
         <v>86</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>402</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>301</v>
       </c>
-      <c r="D26" s="1">
-        <f>VLOOKUP(B26,courses_program3!A:E,4,0)</f>
+      <c r="D28" s="1">
+        <f>VLOOKUP(B28,courses_program3!A:E,4,0)</f>
         <v>-2.0319821867004233</v>
       </c>
-      <c r="E26" s="1">
-        <f>VLOOKUP(B26,courses_program3!A:E,5,0)</f>
+      <c r="E28" s="1">
+        <f>VLOOKUP(B28,courses_program3!A:E,5,0)</f>
         <v>6.6985855516617958</v>
       </c>
-      <c r="F26" s="1">
-        <f>VLOOKUP(C26,courses_program3!A:E,4,0)</f>
+      <c r="F28" s="1">
+        <f>VLOOKUP(C28,courses_program3!A:E,4,0)</f>
         <v>-1.7416990171717917</v>
       </c>
-      <c r="G26" s="1">
-        <f>VLOOKUP(C26,courses_program3!A:E,5,0)</f>
+      <c r="G28" s="1">
+        <f>VLOOKUP(C28,courses_program3!A:E,5,0)</f>
         <v>5.7416447585672534</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
         <v>402301</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
         <f>courses_requisites!A278</f>
         <v>86</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>402</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>320</v>
       </c>
-      <c r="D27" s="1">
-        <f>VLOOKUP(B27,courses_program3!A:E,4,0)</f>
+      <c r="D29" s="1">
+        <f>VLOOKUP(B29,courses_program3!A:E,4,0)</f>
         <v>-2.0319821867004233</v>
       </c>
-      <c r="E27" s="1">
-        <f>VLOOKUP(B27,courses_program3!A:E,5,0)</f>
+      <c r="E29" s="1">
+        <f>VLOOKUP(B29,courses_program3!A:E,5,0)</f>
         <v>6.6985855516617958</v>
       </c>
-      <c r="F27" s="1">
-        <f>VLOOKUP(C27,courses_program3!A:E,4,0)</f>
+      <c r="F29" s="1">
+        <f>VLOOKUP(C29,courses_program3!A:E,4,0)</f>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="G27" s="1">
-        <f>VLOOKUP(C27,courses_program3!A:E,5,0)</f>
+      <c r="G29" s="1">
+        <f>VLOOKUP(C29,courses_program3!A:E,5,0)</f>
         <v>4.9999999999955991</v>
       </c>
-      <c r="H27">
-        <f>courses_requisites!D278</f>
-        <v>1</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
         <v>402320</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <f>courses_requisites!A282</f>
         <v>89</v>
       </c>
-      <c r="B28">
-        <v>404</v>
-      </c>
-      <c r="C28">
-        <v>300</v>
-      </c>
-      <c r="D28" s="1">
-        <f>VLOOKUP(B28,courses_program3!A:E,4,0)</f>
-        <v>-0.78412589918456477</v>
-      </c>
-      <c r="E28" s="1">
-        <f>VLOOKUP(B28,courses_program3!A:E,5,0)</f>
-        <v>7.9614789187831176</v>
-      </c>
-      <c r="F28" s="1">
-        <f>VLOOKUP(C28,courses_program3!A:E,4,0)</f>
-        <v>-0.97544429026196555</v>
-      </c>
-      <c r="G28" s="1">
-        <f>VLOOKUP(C28,courses_program3!A:E,5,0)</f>
-        <v>4.9039278580129348</v>
-      </c>
-      <c r="H28">
-        <f>courses_requisites!D282</f>
-        <v>1</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>404300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f>courses_requisites!A283</f>
-        <v>89</v>
-      </c>
-      <c r="B29">
-        <v>404</v>
-      </c>
-      <c r="C29">
-        <v>321</v>
-      </c>
-      <c r="D29" s="1">
-        <f>VLOOKUP(B29,courses_program3!A:E,4,0)</f>
-        <v>-0.78412589918456477</v>
-      </c>
-      <c r="E29" s="1">
-        <f>VLOOKUP(B29,courses_program3!A:E,5,0)</f>
-        <v>7.9614789187831176</v>
-      </c>
-      <c r="F29" s="1">
-        <f>VLOOKUP(C29,courses_program3!A:E,4,0)</f>
-        <v>7.960769380065349E-6</v>
-      </c>
-      <c r="G29" s="1">
-        <f>VLOOKUP(C29,courses_program3!A:E,5,0)</f>
-        <v>5.9999999999947189</v>
-      </c>
-      <c r="H29">
-        <f>courses_requisites!D283</f>
-        <v>1</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>404321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f>courses_requisites!A284</f>
-        <v>90</v>
-      </c>
       <c r="B30">
         <v>404</v>
       </c>
       <c r="C30">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="D30" s="1">
         <f>VLOOKUP(B30,courses_program3!A:E,4,0)</f>
@@ -20860,219 +20875,213 @@
       </c>
       <c r="F30" s="1">
         <f>VLOOKUP(C30,courses_program3!A:E,4,0)</f>
-        <v>9.2875642767429066E-6</v>
+        <v>-0.97544429026196555</v>
       </c>
       <c r="G30" s="1">
         <f>VLOOKUP(C30,courses_program3!A:E,5,0)</f>
-        <v>6.9999999999938387</v>
+        <v>4.9039278580129348</v>
       </c>
       <c r="H30">
-        <f>courses_requisites!D284</f>
         <v>1</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>404420</v>
+        <f t="shared" si="4"/>
+        <v>404300</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
+        <f>courses_requisites!A283</f>
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>404</v>
+      </c>
+      <c r="C31">
+        <v>321</v>
+      </c>
+      <c r="D31" s="1">
+        <f>VLOOKUP(B31,courses_program3!A:E,4,0)</f>
+        <v>-0.78412589918456477</v>
+      </c>
+      <c r="E31" s="1">
+        <f>VLOOKUP(B31,courses_program3!A:E,5,0)</f>
+        <v>7.9614789187831176</v>
+      </c>
+      <c r="F31" s="1">
+        <f>VLOOKUP(C31,courses_program3!A:E,4,0)</f>
+        <v>7.960769380065349E-6</v>
+      </c>
+      <c r="G31" s="1">
+        <f>VLOOKUP(C31,courses_program3!A:E,5,0)</f>
+        <v>5.9999999999947189</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>404321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>courses_requisites!A284</f>
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>404</v>
+      </c>
+      <c r="C32">
+        <v>420</v>
+      </c>
+      <c r="D32" s="1">
+        <f>VLOOKUP(B32,courses_program3!A:E,4,0)</f>
+        <v>-0.78412589918456477</v>
+      </c>
+      <c r="E32" s="1">
+        <f>VLOOKUP(B32,courses_program3!A:E,5,0)</f>
+        <v>7.9614789187831176</v>
+      </c>
+      <c r="F32" s="1">
+        <f>VLOOKUP(C32,courses_program3!A:E,4,0)</f>
+        <v>9.2875642767429066E-6</v>
+      </c>
+      <c r="G32" s="1">
+        <f>VLOOKUP(C32,courses_program3!A:E,5,0)</f>
+        <v>6.9999999999938387</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>404420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f>courses_requisites!A287</f>
         <v>91</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>405</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>316</v>
       </c>
-      <c r="D31" s="1">
-        <f>VLOOKUP(B31,courses_program3!A:E,4,0)</f>
+      <c r="D33" s="1">
+        <f>VLOOKUP(B33,courses_program3!A:E,4,0)</f>
         <v>-3.888981012930476</v>
       </c>
-      <c r="E31" s="1">
-        <f>VLOOKUP(B31,courses_program3!A:E,5,0)</f>
+      <c r="E33" s="1">
+        <f>VLOOKUP(B33,courses_program3!A:E,5,0)</f>
         <v>5.8202943809627232</v>
       </c>
-      <c r="F31" s="1">
-        <f>VLOOKUP(C31,courses_program3!A:E,4,0)</f>
+      <c r="F33" s="1">
+        <f>VLOOKUP(C33,courses_program3!A:E,4,0)</f>
         <v>-2.3569760051572612</v>
       </c>
-      <c r="G31" s="1">
-        <f>VLOOKUP(C31,courses_program3!A:E,5,0)</f>
+      <c r="G33" s="1">
+        <f>VLOOKUP(C33,courses_program3!A:E,5,0)</f>
         <v>4.4096104262296141</v>
       </c>
-      <c r="H31">
-        <f>courses_requisites!D287</f>
-        <v>1</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
         <v>405316</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f>courses_requisites!A295</f>
         <v>95</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>412</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>320</v>
       </c>
-      <c r="D32" s="1">
-        <f>VLOOKUP(B32,courses_program3!A:E,4,0)</f>
+      <c r="D34" s="1">
+        <f>VLOOKUP(B34,courses_program3!A:E,4,0)</f>
         <v>3.888996457590546</v>
       </c>
-      <c r="E32" s="1">
-        <f>VLOOKUP(B32,courses_program3!A:E,5,0)</f>
+      <c r="E34" s="1">
+        <f>VLOOKUP(B34,courses_program3!A:E,5,0)</f>
         <v>5.8202840611819102</v>
       </c>
-      <c r="F32" s="1">
-        <f>VLOOKUP(C32,courses_program3!A:E,4,0)</f>
+      <c r="F34" s="1">
+        <f>VLOOKUP(C34,courses_program3!A:E,4,0)</f>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="G32" s="1">
-        <f>VLOOKUP(C32,courses_program3!A:E,5,0)</f>
+      <c r="G34" s="1">
+        <f>VLOOKUP(C34,courses_program3!A:E,5,0)</f>
         <v>4.9999999999955991</v>
       </c>
-      <c r="H32">
-        <f>courses_requisites!D295</f>
-        <v>1</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
         <v>412320</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <f>courses_requisites!A296</f>
         <v>96</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>412</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>322</v>
       </c>
-      <c r="D33" s="1">
-        <f>VLOOKUP(B33,courses_program3!A:E,4,0)</f>
+      <c r="D35" s="1">
+        <f>VLOOKUP(B35,courses_program3!A:E,4,0)</f>
         <v>3.888996457590546</v>
       </c>
-      <c r="E33" s="1">
-        <f>VLOOKUP(B33,courses_program3!A:E,5,0)</f>
+      <c r="E35" s="1">
+        <f>VLOOKUP(B35,courses_program3!A:E,5,0)</f>
         <v>5.8202840611819102</v>
       </c>
-      <c r="F33" s="1">
-        <f>VLOOKUP(C33,courses_program3!A:E,4,0)</f>
+      <c r="F35" s="1">
+        <f>VLOOKUP(C35,courses_program3!A:E,4,0)</f>
         <v>3.1719693053913818</v>
       </c>
-      <c r="G33" s="1">
-        <f>VLOOKUP(C33,courses_program3!A:E,5,0)</f>
+      <c r="G35" s="1">
+        <f>VLOOKUP(C35,courses_program3!A:E,5,0)</f>
         <v>3.8650498995038749</v>
       </c>
-      <c r="H33">
-        <f>courses_requisites!D296</f>
-        <v>1</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
         <v>412322</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <f>courses_requisites!A297</f>
         <v>97</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>418</v>
-      </c>
-      <c r="C34">
-        <v>321</v>
-      </c>
-      <c r="D34" s="1">
-        <f>VLOOKUP(B34,courses_program3!A:E,4,0)</f>
-        <v>0.68612864747087754</v>
-      </c>
-      <c r="E34" s="1">
-        <f>VLOOKUP(B34,courses_program3!A:E,5,0)</f>
-        <v>6.9662922332557784</v>
-      </c>
-      <c r="F34" s="1">
-        <f>VLOOKUP(C34,courses_program3!A:E,4,0)</f>
-        <v>7.960769380065349E-6</v>
-      </c>
-      <c r="G34" s="1">
-        <f>VLOOKUP(C34,courses_program3!A:E,5,0)</f>
-        <v>5.9999999999947189</v>
-      </c>
-      <c r="H34">
-        <f>courses_requisites!D297</f>
-        <v>1</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>418321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f>courses_requisites!A298</f>
-        <v>98</v>
-      </c>
-      <c r="B35">
-        <v>419</v>
-      </c>
-      <c r="C35">
-        <v>418</v>
-      </c>
-      <c r="D35" s="1">
-        <f>VLOOKUP(B35,courses_program3!A:E,4,0)</f>
-        <v>0.78414702568100292</v>
-      </c>
-      <c r="E35" s="1">
-        <f>VLOOKUP(B35,courses_program3!A:E,5,0)</f>
-        <v>7.9614768380066039</v>
-      </c>
-      <c r="F35" s="1">
-        <f>VLOOKUP(C35,courses_program3!A:E,4,0)</f>
-        <v>0.68612864747087754</v>
-      </c>
-      <c r="G35" s="1">
-        <f>VLOOKUP(C35,courses_program3!A:E,5,0)</f>
-        <v>6.9662922332557784</v>
-      </c>
-      <c r="H35">
-        <f>courses_requisites!D298</f>
-        <v>1</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>419418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f>courses_requisites!A299</f>
-        <v>99</v>
-      </c>
-      <c r="B36">
-        <v>420</v>
       </c>
       <c r="C36">
         <v>321</v>
       </c>
       <c r="D36" s="1">
         <f>VLOOKUP(B36,courses_program3!A:E,4,0)</f>
-        <v>9.2875642767429066E-6</v>
+        <v>0.68612864747087754</v>
       </c>
       <c r="E36" s="1">
         <f>VLOOKUP(B36,courses_program3!A:E,5,0)</f>
-        <v>6.9999999999938387</v>
+        <v>6.9662922332557784</v>
       </c>
       <c r="F36" s="1">
         <f>VLOOKUP(C36,courses_program3!A:E,4,0)</f>
@@ -21083,168 +21092,163 @@
         <v>5.9999999999947189</v>
       </c>
       <c r="H36">
-        <f>courses_requisites!D299</f>
         <v>1</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>420321</v>
+        <f t="shared" si="4"/>
+        <v>418321</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
+        <f>courses_requisites!A298</f>
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>419</v>
+      </c>
+      <c r="C37">
+        <v>418</v>
+      </c>
+      <c r="D37" s="1">
+        <f>VLOOKUP(B37,courses_program3!A:E,4,0)</f>
+        <v>0.78414702568100292</v>
+      </c>
+      <c r="E37" s="1">
+        <f>VLOOKUP(B37,courses_program3!A:E,5,0)</f>
+        <v>7.9614768380066039</v>
+      </c>
+      <c r="F37" s="1">
+        <f>VLOOKUP(C37,courses_program3!A:E,4,0)</f>
+        <v>0.68612864747087754</v>
+      </c>
+      <c r="G37" s="1">
+        <f>VLOOKUP(C37,courses_program3!A:E,5,0)</f>
+        <v>6.9662922332557784</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>419418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>courses_requisites!A299</f>
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>420</v>
+      </c>
+      <c r="C38">
+        <v>321</v>
+      </c>
+      <c r="D38" s="1">
+        <f>VLOOKUP(B38,courses_program3!A:E,4,0)</f>
+        <v>9.2875642767429066E-6</v>
+      </c>
+      <c r="E38" s="1">
+        <f>VLOOKUP(B38,courses_program3!A:E,5,0)</f>
+        <v>6.9999999999938387</v>
+      </c>
+      <c r="F38" s="1">
+        <f>VLOOKUP(C38,courses_program3!A:E,4,0)</f>
+        <v>7.960769380065349E-6</v>
+      </c>
+      <c r="G38" s="1">
+        <f>VLOOKUP(C38,courses_program3!A:E,5,0)</f>
+        <v>5.9999999999947189</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>420321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
         <f>courses_requisites!A300</f>
         <v>100</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>421</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>420</v>
       </c>
-      <c r="D37" s="1">
-        <f>VLOOKUP(B37,courses_program3!A:E,4,0)</f>
+      <c r="D39" s="1">
+        <f>VLOOKUP(B39,courses_program3!A:E,4,0)</f>
         <v>1.0614359173420464E-5</v>
       </c>
-      <c r="E37" s="1">
-        <f>VLOOKUP(B37,courses_program3!A:E,5,0)</f>
+      <c r="E39" s="1">
+        <f>VLOOKUP(B39,courses_program3!A:E,5,0)</f>
         <v>7.9999999999929585</v>
       </c>
-      <c r="F37" s="1">
-        <f>VLOOKUP(C37,courses_program3!A:E,4,0)</f>
+      <c r="F39" s="1">
+        <f>VLOOKUP(C39,courses_program3!A:E,4,0)</f>
         <v>9.2875642767429066E-6</v>
       </c>
-      <c r="G37" s="1">
-        <f>VLOOKUP(C37,courses_program3!A:E,5,0)</f>
+      <c r="G39" s="1">
+        <f>VLOOKUP(C39,courses_program3!A:E,5,0)</f>
         <v>6.9999999999938387</v>
       </c>
-      <c r="H37">
-        <f>courses_requisites!D300</f>
-        <v>1</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
         <v>421420</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
         <f>courses_requisites!A301</f>
         <v>101</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>422</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>323</v>
       </c>
-      <c r="D38" s="1">
-        <f>VLOOKUP(B38,courses_program3!A:E,4,0)</f>
+      <c r="D40" s="1">
+        <f>VLOOKUP(B40,courses_program3!A:E,4,0)</f>
         <v>4.4407570275479342</v>
       </c>
-      <c r="E38" s="1">
-        <f>VLOOKUP(B38,courses_program3!A:E,5,0)</f>
+      <c r="E40" s="1">
+        <f>VLOOKUP(B40,courses_program3!A:E,5,0)</f>
         <v>5.4110698593054254</v>
       </c>
-      <c r="F38" s="1">
-        <f>VLOOKUP(C38,courses_program3!A:E,4,0)</f>
+      <c r="F40" s="1">
+        <f>VLOOKUP(C40,courses_program3!A:E,4,0)</f>
         <v>3.8063631664696578</v>
       </c>
-      <c r="G38" s="1">
-        <f>VLOOKUP(C38,courses_program3!A:E,5,0)</f>
+      <c r="G40" s="1">
+        <f>VLOOKUP(C40,courses_program3!A:E,5,0)</f>
         <v>4.6380598794046506</v>
       </c>
-      <c r="H38">
-        <f>courses_requisites!D301</f>
-        <v>1</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
         <v>422323</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
         <f>courses_requisites!A302</f>
         <v>102</v>
       </c>
-      <c r="B39">
-        <v>423</v>
-      </c>
-      <c r="C39">
-        <v>323</v>
-      </c>
-      <c r="D39" s="1">
-        <f>VLOOKUP(B39,courses_program3!A:E,4,0)</f>
-        <v>5.0751508886262107</v>
-      </c>
-      <c r="E39" s="1">
-        <f>VLOOKUP(B39,courses_program3!A:E,5,0)</f>
-        <v>6.1840798392062002</v>
-      </c>
-      <c r="F39" s="1">
-        <f>VLOOKUP(C39,courses_program3!A:E,4,0)</f>
-        <v>3.8063631664696578</v>
-      </c>
-      <c r="G39" s="1">
-        <f>VLOOKUP(C39,courses_program3!A:E,5,0)</f>
-        <v>4.6380598794046506</v>
-      </c>
-      <c r="H39">
-        <f>courses_requisites!D302</f>
-        <v>0</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="3"/>
-        <v>423323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f>courses_requisites!A303</f>
-        <v>103</v>
-      </c>
-      <c r="B40">
-        <v>423</v>
-      </c>
-      <c r="C40">
-        <v>412</v>
-      </c>
-      <c r="D40" s="1">
-        <f>VLOOKUP(B40,courses_program3!A:E,4,0)</f>
-        <v>5.0751508886262107</v>
-      </c>
-      <c r="E40" s="1">
-        <f>VLOOKUP(B40,courses_program3!A:E,5,0)</f>
-        <v>6.1840798392062002</v>
-      </c>
-      <c r="F40" s="1">
-        <f>VLOOKUP(C40,courses_program3!A:E,4,0)</f>
-        <v>3.888996457590546</v>
-      </c>
-      <c r="G40" s="1">
-        <f>VLOOKUP(C40,courses_program3!A:E,5,0)</f>
-        <v>5.8202840611819102</v>
-      </c>
-      <c r="H40">
-        <f>courses_requisites!D303</f>
-        <v>0</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>423412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f>courses_requisites!A304</f>
-        <v>103</v>
-      </c>
       <c r="B41">
         <v>423</v>
       </c>
       <c r="C41">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="D41" s="1">
         <f>VLOOKUP(B41,courses_program3!A:E,4,0)</f>
@@ -21256,520 +21260,577 @@
       </c>
       <c r="F41" s="1">
         <f>VLOOKUP(C41,courses_program3!A:E,4,0)</f>
-        <v>4.4407570275479342</v>
+        <v>3.8063631664696578</v>
       </c>
       <c r="G41" s="1">
         <f>VLOOKUP(C41,courses_program3!A:E,5,0)</f>
-        <v>5.4110698593054254</v>
+        <v>4.6380598794046506</v>
       </c>
       <c r="H41">
-        <f>courses_requisites!D304</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>423422</v>
+        <f t="shared" si="4"/>
+        <v>423323</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
+        <f>courses_requisites!A303</f>
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <v>423</v>
+      </c>
+      <c r="C42">
+        <v>412</v>
+      </c>
+      <c r="D42" s="1">
+        <f>VLOOKUP(B42,courses_program3!A:E,4,0)</f>
+        <v>5.0751508886262107</v>
+      </c>
+      <c r="E42" s="1">
+        <f>VLOOKUP(B42,courses_program3!A:E,5,0)</f>
+        <v>6.1840798392062002</v>
+      </c>
+      <c r="F42" s="1">
+        <f>VLOOKUP(C42,courses_program3!A:E,4,0)</f>
+        <v>3.888996457590546</v>
+      </c>
+      <c r="G42" s="1">
+        <f>VLOOKUP(C42,courses_program3!A:E,5,0)</f>
+        <v>5.8202840611819102</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>423412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>courses_requisites!A304</f>
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>423</v>
+      </c>
+      <c r="C43">
+        <v>422</v>
+      </c>
+      <c r="D43" s="1">
+        <f>VLOOKUP(B43,courses_program3!A:E,4,0)</f>
+        <v>5.0751508886262107</v>
+      </c>
+      <c r="E43" s="1">
+        <f>VLOOKUP(B43,courses_program3!A:E,5,0)</f>
+        <v>6.1840798392062002</v>
+      </c>
+      <c r="F43" s="1">
+        <f>VLOOKUP(C43,courses_program3!A:E,4,0)</f>
+        <v>4.4407570275479342</v>
+      </c>
+      <c r="G43" s="1">
+        <f>VLOOKUP(C43,courses_program3!A:E,5,0)</f>
+        <v>5.4110698593054254</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>423422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
         <f>courses_requisites!A305</f>
         <v>104</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>424</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>223</v>
       </c>
-      <c r="D42" s="1">
-        <f>VLOOKUP(B42,courses_program3!A:E,4,0)</f>
+      <c r="D44" s="1">
+        <f>VLOOKUP(B44,courses_program3!A:E,4,0)</f>
         <v>2.0319999619915192</v>
       </c>
-      <c r="E42" s="1">
-        <f>VLOOKUP(B42,courses_program3!A:E,5,0)</f>
+      <c r="E44" s="1">
+        <f>VLOOKUP(B44,courses_program3!A:E,5,0)</f>
         <v>6.698580159591021</v>
       </c>
-      <c r="F42" s="1">
-        <f>VLOOKUP(C42,courses_program3!A:E,4,0)</f>
+      <c r="F44" s="1">
+        <f>VLOOKUP(C44,courses_program3!A:E,4,0)</f>
         <v>2.5375754443131053</v>
       </c>
-      <c r="G42" s="1">
-        <f>VLOOKUP(C42,courses_program3!A:E,5,0)</f>
+      <c r="G44" s="1">
+        <f>VLOOKUP(C44,courses_program3!A:E,5,0)</f>
         <v>3.0920399196031001</v>
       </c>
-      <c r="H42">
-        <f>courses_requisites!D305</f>
-        <v>1</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
         <v>424223</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
         <f>courses_requisites!A308</f>
         <v>106</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>424</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>227</v>
       </c>
-      <c r="D43" s="1">
-        <f>VLOOKUP(B43,courses_program3!A:E,4,0)</f>
+      <c r="D45" s="1">
+        <f>VLOOKUP(B45,courses_program3!A:E,4,0)</f>
         <v>2.0319999619915192</v>
       </c>
-      <c r="E43" s="1">
-        <f>VLOOKUP(B43,courses_program3!A:E,5,0)</f>
+      <c r="E45" s="1">
+        <f>VLOOKUP(B45,courses_program3!A:E,5,0)</f>
         <v>6.698580159591021</v>
       </c>
-      <c r="F43" s="1">
-        <f>VLOOKUP(C43,courses_program3!A:E,4,0)</f>
+      <c r="F45" s="1">
+        <f>VLOOKUP(C45,courses_program3!A:E,4,0)</f>
         <v>0.78036584261715414</v>
       </c>
-      <c r="G43" s="1">
-        <f>VLOOKUP(C43,courses_program3!A:E,5,0)</f>
+      <c r="G45" s="1">
+        <f>VLOOKUP(C45,courses_program3!A:E,5,0)</f>
         <v>3.923140215653325</v>
       </c>
-      <c r="H43">
-        <f>courses_requisites!D308</f>
-        <v>1</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="3"/>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
         <v>424227</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
         <f>courses_requisites!A313</f>
         <v>108</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>425</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>424</v>
       </c>
-      <c r="D44" s="1">
-        <f>VLOOKUP(B44,courses_program3!A:E,4,0)</f>
+      <c r="D46" s="1">
+        <f>VLOOKUP(B46,courses_program3!A:E,4,0)</f>
         <v>2.3222856708474504</v>
       </c>
-      <c r="E44" s="1">
-        <f>VLOOKUP(B44,courses_program3!A:E,5,0)</f>
+      <c r="E46" s="1">
+        <f>VLOOKUP(B46,courses_program3!A:E,5,0)</f>
         <v>7.6555201823897381</v>
       </c>
-      <c r="F44" s="1">
-        <f>VLOOKUP(C44,courses_program3!A:E,4,0)</f>
+      <c r="F46" s="1">
+        <f>VLOOKUP(C46,courses_program3!A:E,4,0)</f>
         <v>2.0319999619915192</v>
       </c>
-      <c r="G44" s="1">
-        <f>VLOOKUP(C44,courses_program3!A:E,5,0)</f>
+      <c r="G46" s="1">
+        <f>VLOOKUP(C46,courses_program3!A:E,5,0)</f>
         <v>6.698580159591021</v>
       </c>
-      <c r="H44">
-        <f>courses_requisites!D313</f>
-        <v>1</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
         <v>425424</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
         <f>courses_requisites!A314</f>
         <v>109</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>426</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>321</v>
       </c>
-      <c r="D45" s="1">
-        <f>VLOOKUP(B45,courses_program3!A:E,4,0)</f>
+      <c r="D47" s="1">
+        <f>VLOOKUP(B47,courses_program3!A:E,4,0)</f>
         <v>1.3656402245800197</v>
       </c>
-      <c r="E45" s="1">
-        <f>VLOOKUP(B45,courses_program3!A:E,5,0)</f>
+      <c r="E47" s="1">
+        <f>VLOOKUP(B47,courses_program3!A:E,5,0)</f>
         <v>6.8654953773933185</v>
       </c>
-      <c r="F45" s="1">
-        <f>VLOOKUP(C45,courses_program3!A:E,4,0)</f>
+      <c r="F47" s="1">
+        <f>VLOOKUP(C47,courses_program3!A:E,4,0)</f>
         <v>7.960769380065349E-6</v>
       </c>
-      <c r="G45" s="1">
-        <f>VLOOKUP(C45,courses_program3!A:E,5,0)</f>
+      <c r="G47" s="1">
+        <f>VLOOKUP(C47,courses_program3!A:E,5,0)</f>
         <v>5.9999999999947189</v>
       </c>
-      <c r="H45">
-        <f>courses_requisites!D314</f>
-        <v>1</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="3"/>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
         <v>426321</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
         <f>courses_requisites!A315</f>
         <v>109</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>426</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>322</v>
       </c>
-      <c r="D46" s="1">
-        <f>VLOOKUP(B46,courses_program3!A:E,4,0)</f>
+      <c r="D48" s="1">
+        <f>VLOOKUP(B48,courses_program3!A:E,4,0)</f>
         <v>1.3656402245800197</v>
       </c>
-      <c r="E46" s="1">
-        <f>VLOOKUP(B46,courses_program3!A:E,5,0)</f>
+      <c r="E48" s="1">
+        <f>VLOOKUP(B48,courses_program3!A:E,5,0)</f>
         <v>6.8654953773933185</v>
       </c>
-      <c r="F46" s="1">
-        <f>VLOOKUP(C46,courses_program3!A:E,4,0)</f>
+      <c r="F48" s="1">
+        <f>VLOOKUP(C48,courses_program3!A:E,4,0)</f>
         <v>3.1719693053913818</v>
       </c>
-      <c r="G46" s="1">
-        <f>VLOOKUP(C46,courses_program3!A:E,5,0)</f>
+      <c r="G48" s="1">
+        <f>VLOOKUP(C48,courses_program3!A:E,5,0)</f>
         <v>3.8650498995038749</v>
       </c>
-      <c r="H46">
-        <f>courses_requisites!D315</f>
-        <v>1</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="3"/>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
         <v>426322</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
         <f>courses_requisites!A316</f>
         <v>110</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>427</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>426</v>
       </c>
-      <c r="D47" s="1">
-        <f>VLOOKUP(B47,courses_program3!A:E,4,0)</f>
+      <c r="D49" s="1">
+        <f>VLOOKUP(B49,courses_program3!A:E,4,0)</f>
         <v>1.5607316852343083</v>
       </c>
-      <c r="E47" s="1">
-        <f>VLOOKUP(B47,courses_program3!A:E,5,0)</f>
+      <c r="E49" s="1">
+        <f>VLOOKUP(B49,courses_program3!A:E,5,0)</f>
         <v>7.8462804313066501</v>
       </c>
-      <c r="F47" s="1">
-        <f>VLOOKUP(C47,courses_program3!A:E,4,0)</f>
+      <c r="F49" s="1">
+        <f>VLOOKUP(C49,courses_program3!A:E,4,0)</f>
         <v>1.3656402245800197</v>
       </c>
-      <c r="G47" s="1">
-        <f>VLOOKUP(C47,courses_program3!A:E,5,0)</f>
+      <c r="G49" s="1">
+        <f>VLOOKUP(C49,courses_program3!A:E,5,0)</f>
         <v>6.8654953773933185</v>
       </c>
-      <c r="H47">
-        <f>courses_requisites!D316</f>
-        <v>1</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="3"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
         <v>427426</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
         <f>courses_requisites!A321</f>
         <v>114</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>437</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>320</v>
       </c>
-      <c r="D48" s="1">
-        <f>VLOOKUP(B48,courses_program3!A:E,4,0)</f>
+      <c r="D50" s="1">
+        <f>VLOOKUP(B50,courses_program3!A:E,4,0)</f>
         <v>3.2997827890246554</v>
       </c>
-      <c r="E48" s="1">
-        <f>VLOOKUP(B48,courses_program3!A:E,5,0)</f>
+      <c r="E50" s="1">
+        <f>VLOOKUP(B50,courses_program3!A:E,5,0)</f>
         <v>6.1734458404732662</v>
       </c>
-      <c r="F48" s="1">
-        <f>VLOOKUP(C48,courses_program3!A:E,4,0)</f>
+      <c r="F50" s="1">
+        <f>VLOOKUP(C50,courses_program3!A:E,4,0)</f>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="G48" s="1">
-        <f>VLOOKUP(C48,courses_program3!A:E,5,0)</f>
+      <c r="G50" s="1">
+        <f>VLOOKUP(C50,courses_program3!A:E,5,0)</f>
         <v>4.9999999999955991</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="3"/>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
         <v>437320</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
         <f>courses_requisites!A322</f>
         <v>114</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>437</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>322</v>
       </c>
-      <c r="D49" s="1">
-        <f>VLOOKUP(B49,courses_program3!A:E,4,0)</f>
+      <c r="D51" s="1">
+        <f>VLOOKUP(B51,courses_program3!A:E,4,0)</f>
         <v>3.2997827890246554</v>
       </c>
-      <c r="E49" s="1">
-        <f>VLOOKUP(B49,courses_program3!A:E,5,0)</f>
+      <c r="E51" s="1">
+        <f>VLOOKUP(B51,courses_program3!A:E,5,0)</f>
         <v>6.1734458404732662</v>
       </c>
-      <c r="F49" s="1">
-        <f>VLOOKUP(C49,courses_program3!A:E,4,0)</f>
+      <c r="F51" s="1">
+        <f>VLOOKUP(C51,courses_program3!A:E,4,0)</f>
         <v>3.1719693053913818</v>
       </c>
-      <c r="G49" s="1">
-        <f>VLOOKUP(C49,courses_program3!A:E,5,0)</f>
+      <c r="G51" s="1">
+        <f>VLOOKUP(C51,courses_program3!A:E,5,0)</f>
         <v>3.8650498995038749</v>
       </c>
-      <c r="H49">
-        <f>courses_requisites!D322</f>
-        <v>1</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="3"/>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="4"/>
         <v>437322</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
         <f>courses_requisites!A323</f>
         <v>115</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>440</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>300</v>
       </c>
-      <c r="D50" s="1">
-        <f>VLOOKUP(B50,courses_program3!A:E,4,0)</f>
+      <c r="D52" s="1">
+        <f>VLOOKUP(B52,courses_program3!A:E,4,0)</f>
         <v>-1.3656220063667519</v>
       </c>
-      <c r="E50" s="1">
-        <f>VLOOKUP(B50,courses_program3!A:E,5,0)</f>
+      <c r="E52" s="1">
+        <f>VLOOKUP(B52,courses_program3!A:E,5,0)</f>
         <v>6.865499001218109</v>
       </c>
-      <c r="F50" s="1">
-        <f>VLOOKUP(C50,courses_program3!A:E,4,0)</f>
+      <c r="F52" s="1">
+        <f>VLOOKUP(C52,courses_program3!A:E,4,0)</f>
         <v>-0.97544429026196555</v>
       </c>
-      <c r="G50" s="1">
-        <f>VLOOKUP(C50,courses_program3!A:E,5,0)</f>
+      <c r="G52" s="1">
+        <f>VLOOKUP(C52,courses_program3!A:E,5,0)</f>
         <v>4.9039278580129348</v>
       </c>
-      <c r="H50">
-        <f>courses_requisites!D323</f>
-        <v>1</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" ref="I50:I55" si="4">_xlfn.CONCAT(B50,C50)</f>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" ref="I52:I57" si="5">_xlfn.CONCAT(B52,C52)</f>
         <v>440300</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
         <f>courses_requisites!A324</f>
         <v>116</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>440</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>320</v>
       </c>
-      <c r="D51" s="1">
-        <f>VLOOKUP(B51,courses_program3!A:E,4,0)</f>
+      <c r="D53" s="1">
+        <f>VLOOKUP(B53,courses_program3!A:E,4,0)</f>
         <v>-1.3656220063667519</v>
       </c>
-      <c r="E51" s="1">
-        <f>VLOOKUP(B51,courses_program3!A:E,5,0)</f>
+      <c r="E53" s="1">
+        <f>VLOOKUP(B53,courses_program3!A:E,5,0)</f>
         <v>6.865499001218109</v>
       </c>
-      <c r="F51" s="1">
-        <f>VLOOKUP(C51,courses_program3!A:E,4,0)</f>
+      <c r="F53" s="1">
+        <f>VLOOKUP(C53,courses_program3!A:E,4,0)</f>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="G51" s="1">
-        <f>VLOOKUP(C51,courses_program3!A:E,5,0)</f>
+      <c r="G53" s="1">
+        <f>VLOOKUP(C53,courses_program3!A:E,5,0)</f>
         <v>4.9999999999955991</v>
       </c>
-      <c r="H51">
-        <f>courses_requisites!D324</f>
-        <v>1</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="4"/>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="5"/>
         <v>440320</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
         <f>courses_requisites!A330</f>
         <v>119</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>443</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>223</v>
       </c>
-      <c r="D52" s="1">
-        <f>VLOOKUP(B52,courses_program3!A:E,4,0)</f>
+      <c r="D54" s="1">
+        <f>VLOOKUP(B54,courses_program3!A:E,4,0)</f>
         <v>2.6787904619972092</v>
       </c>
-      <c r="E52" s="1">
-        <f>VLOOKUP(B52,courses_program3!A:E,5,0)</f>
+      <c r="E54" s="1">
+        <f>VLOOKUP(B54,courses_program3!A:E,5,0)</f>
         <v>6.4671540619280732</v>
       </c>
-      <c r="F52" s="1">
-        <f>VLOOKUP(C52,courses_program3!A:E,4,0)</f>
+      <c r="F54" s="1">
+        <f>VLOOKUP(C54,courses_program3!A:E,4,0)</f>
         <v>2.5375754443131053</v>
       </c>
-      <c r="G52" s="1">
-        <f>VLOOKUP(C52,courses_program3!A:E,5,0)</f>
+      <c r="G54" s="1">
+        <f>VLOOKUP(C54,courses_program3!A:E,5,0)</f>
         <v>3.0920399196031001</v>
       </c>
-      <c r="H52">
-        <f>courses_requisites!D330</f>
-        <v>1</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="4"/>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="5"/>
         <v>443223</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
         <f>courses_requisites!A331</f>
         <v>119</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>443</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>226</v>
       </c>
-      <c r="D53" s="1">
-        <f>VLOOKUP(B53,courses_program3!A:E,4,0)</f>
+      <c r="D55" s="1">
+        <f>VLOOKUP(B55,courses_program3!A:E,4,0)</f>
         <v>2.6787904619972092</v>
       </c>
-      <c r="E53" s="1">
-        <f>VLOOKUP(B53,courses_program3!A:E,5,0)</f>
+      <c r="E55" s="1">
+        <f>VLOOKUP(B55,courses_program3!A:E,5,0)</f>
         <v>6.4671540619280732</v>
       </c>
-      <c r="F53" s="1">
-        <f>VLOOKUP(C53,courses_program3!A:E,4,0)</f>
+      <c r="F55" s="1">
+        <f>VLOOKUP(C55,courses_program3!A:E,4,0)</f>
         <v>2.653589793355116E-6</v>
       </c>
-      <c r="G53" s="1">
-        <f>VLOOKUP(C53,courses_program3!A:E,5,0)</f>
+      <c r="G55" s="1">
+        <f>VLOOKUP(C55,courses_program3!A:E,5,0)</f>
         <v>1.9999999999982396</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="4"/>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="5"/>
         <v>443226</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
         <f>courses_requisites!A334</f>
         <v>122</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>450</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>301</v>
       </c>
-      <c r="D54" s="1">
-        <f>VLOOKUP(B54,courses_program3!A:E,4,0)</f>
+      <c r="D56" s="1">
+        <f>VLOOKUP(B56,courses_program3!A:E,4,0)</f>
         <v>-3.0614552009300198</v>
       </c>
-      <c r="E54" s="1">
-        <f>VLOOKUP(B54,courses_program3!A:E,5,0)</f>
+      <c r="E56" s="1">
+        <f>VLOOKUP(B56,courses_program3!A:E,5,0)</f>
         <v>7.3910413375043795</v>
       </c>
-      <c r="F54" s="1">
-        <f>VLOOKUP(C54,courses_program3!A:E,4,0)</f>
+      <c r="F56" s="1">
+        <f>VLOOKUP(C56,courses_program3!A:E,4,0)</f>
         <v>-1.7416990171717917</v>
       </c>
-      <c r="G54" s="1">
-        <f>VLOOKUP(C54,courses_program3!A:E,5,0)</f>
+      <c r="G56" s="1">
+        <f>VLOOKUP(C56,courses_program3!A:E,5,0)</f>
         <v>5.7416447585672534</v>
       </c>
-      <c r="H54">
-        <f>courses_requisites!D334</f>
-        <v>1</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="4"/>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="5"/>
         <v>450301</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
         <f>courses_requisites!A335</f>
         <v>123</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>450</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>400</v>
       </c>
-      <c r="D55" s="1">
-        <f>VLOOKUP(B55,courses_program3!A:E,4,0)</f>
+      <c r="D57" s="1">
+        <f>VLOOKUP(B57,courses_program3!A:E,4,0)</f>
         <v>-3.0614552009300198</v>
       </c>
-      <c r="E55" s="1">
-        <f>VLOOKUP(B55,courses_program3!A:E,5,0)</f>
+      <c r="E57" s="1">
+        <f>VLOOKUP(B57,courses_program3!A:E,5,0)</f>
         <v>7.3910413375043795</v>
       </c>
-      <c r="F55" s="1">
-        <f>VLOOKUP(C55,courses_program3!A:E,4,0)</f>
+      <c r="F57" s="1">
+        <f>VLOOKUP(C57,courses_program3!A:E,4,0)</f>
         <v>-3.299766407220166</v>
       </c>
-      <c r="G55" s="1">
-        <f>VLOOKUP(C55,courses_program3!A:E,5,0)</f>
+      <c r="G57" s="1">
+        <f>VLOOKUP(C57,courses_program3!A:E,5,0)</f>
         <v>6.1734545967214594</v>
       </c>
-      <c r="H55">
-        <f>courses_requisites!D335</f>
-        <v>1</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="4"/>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="5"/>
         <v>450400</v>
       </c>
     </row>
@@ -22173,7 +22234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329F23B9-9B0C-114C-93EB-966F67518A33}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -22200,10 +22263,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -25737,10 +25800,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -32317,7 +32380,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -32429,7 +32492,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -32443,7 +32506,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -32471,7 +32534,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -32485,7 +32548,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -32499,7 +32562,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -32527,7 +32590,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -32583,7 +32646,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -32667,7 +32730,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -32723,7 +32786,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -32751,7 +32814,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -32779,7 +32842,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -32821,7 +32884,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -32849,7 +32912,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -32891,7 +32954,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -32933,7 +32996,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -32947,7 +33010,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -32975,7 +33038,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -32989,7 +33052,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -33003,7 +33066,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -33045,7 +33108,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -33087,7 +33150,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -33101,7 +33164,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -33115,7 +33178,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -33129,7 +33192,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -33143,7 +33206,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -33171,7 +33234,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -33185,7 +33248,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -33199,7 +33262,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -33213,7 +33276,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -33241,7 +33304,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -33269,7 +33332,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -33283,7 +33346,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -33297,7 +33360,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -33311,7 +33374,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -33325,7 +33388,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -33339,7 +33402,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -33353,7 +33416,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -33367,7 +33430,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -33395,7 +33458,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -33409,7 +33472,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -33423,7 +33486,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -33437,7 +33500,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -33451,7 +33514,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -33465,7 +33528,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -33479,7 +33542,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -33493,7 +33556,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -33507,7 +33570,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -33521,7 +33584,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -33535,7 +33598,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -33549,7 +33612,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -33563,7 +33626,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -33577,7 +33640,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -33591,7 +33654,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -33619,7 +33682,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -33633,7 +33696,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -33647,7 +33710,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -33661,7 +33724,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -33675,7 +33738,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -33689,7 +33752,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -33703,7 +33766,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -33717,7 +33780,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -33731,7 +33794,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -33745,7 +33808,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -33759,7 +33822,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -33773,7 +33836,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -33787,7 +33850,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -33801,7 +33864,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -33813,8 +33876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
   <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33834,7 +33897,7 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -39187,10 +39250,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39198,21 +39261,24 @@
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39223,10 +39289,13 @@
         <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39234,13 +39303,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39251,10 +39323,13 @@
         <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -39262,13 +39337,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -39276,13 +39354,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -39290,13 +39371,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -39304,13 +39388,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -39318,13 +39405,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -39332,13 +39422,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -39346,13 +39439,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -39360,13 +39456,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -39374,10 +39473,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E13" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -39389,7 +39491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
@@ -39397,7 +39499,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -40506,67 +40608,82 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>289</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>290</v>
-      </c>
       <c r="C2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -40578,8 +40695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41279,15 +41396,15 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>-4.6193932197977619</v>
+        <v>-4.4096010445234768</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="3"/>
-        <v>1.9134278875584694</v>
+        <v>2.3569935570844196</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -41298,15 +41415,15 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>-4.4096010445234768</v>
+        <v>-4.1573420723400947</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="3"/>
-        <v>2.3569935570844196</v>
+        <v>2.777860128507367</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -41317,15 +41434,15 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>-4.1573420723400947</v>
+        <v>-3.8650456909477859</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="3"/>
-        <v>2.777860128507367</v>
+        <v>3.1719744335170716</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -41336,15 +41453,15 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5355268695332196</v>
+        <v>-3.1719590491232501</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="3"/>
-        <v>3.5355409423182516</v>
+        <v>3.8650583165956403</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -41355,15 +41472,15 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>-4.2426322434398642</v>
+        <v>-3.8063508589479005</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="3"/>
-        <v>4.2426491307819019</v>
+        <v>4.6380699799147687</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -41545,15 +41662,15 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="2"/>
-        <v>-3.1719590491232501</v>
+        <v>-2.7778435806646256</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="3"/>
-        <v>3.8650583165956403</v>
+        <v>4.1573531292590884</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -41564,15 +41681,15 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="2"/>
-        <v>-3.8650456909477859</v>
+        <v>-3.5355268695332196</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="3"/>
-        <v>3.1719744335170716</v>
+        <v>3.5355409423182516</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -41583,15 +41700,15 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3569760051572612</v>
+        <v>-1.9134095005812624</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="3"/>
-        <v>4.4096104262296141</v>
+        <v>4.6194008359402368</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -42115,15 +42232,15 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="4"/>
-        <v>-2.7778435806646256</v>
+        <v>-2.3569760051572612</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="5"/>
-        <v>4.1573531292590884</v>
+        <v>4.4096104262296141</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899AE31-3ABC-0A40-B3EE-839ED54C95E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DF4684-2217-B240-B8F4-77AE3E75772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="640" windowWidth="28040" windowHeight="16440" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="337">
   <si>
     <t>number</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>Intended for students in Honours Physics and Engineering Physics. Credit excluded with MATH 227, 254, 264 and 317. Math students are advised to take MATH 317.</t>
   </si>
   <si>
-    <t>For Engineering students only. Cross-listed with MATH 215.</t>
-  </si>
-  <si>
     <t>Applied Mathematics</t>
   </si>
   <si>
@@ -1210,7 +1207,19 @@
     <t>description2</t>
   </si>
   <si>
-    <t>Applied Track for Grad School</t>
+    <t>For Engineering students only. Cross-listed with MATH 215. Credit excluded with MATH 215, 256 and 258</t>
+  </si>
+  <si>
+    <t>For Mechanical Engineering students only. Credit excluded with MATH 215, 255 and 256.</t>
+  </si>
+  <si>
+    <t>Credit excluded with MATH 215, 255 and 258.</t>
+  </si>
+  <si>
+    <t>Credit excluded with MATH 255, 256 and 258.</t>
+  </si>
+  <si>
+    <t>Applied Track for Graduate School</t>
   </si>
 </sst>
 </file>
@@ -1315,11 +1324,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites_1" connectionId="5" xr16:uid="{475F1AAF-A6F6-8B44-B2E7-A6A79F11F48B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites" connectionId="2" xr16:uid="{F3D47B22-4B45-FC40-80BD-7477F49EB359}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites" connectionId="2" xr16:uid="{F3D47B22-4B45-FC40-80BD-7477F49EB359}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LayoutRequisites_1" connectionId="5" xr16:uid="{475F1AAF-A6F6-8B44-B2E7-A6A79F11F48B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1621,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1928,6 +1937,9 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2114,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2133,6 +2145,9 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
+      <c r="F28" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -2168,7 +2183,7 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -38643,7 +38658,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39266,16 +39281,16 @@
         <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
         <v>288</v>
       </c>
       <c r="D1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
         <v>331</v>
-      </c>
-      <c r="E1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -39303,7 +39318,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
         <v>313</v>
@@ -39337,7 +39352,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
         <v>313</v>
@@ -39354,7 +39369,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
         <v>313</v>
@@ -39405,7 +39420,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>313</v>
@@ -39422,7 +39437,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>313</v>
@@ -39439,7 +39454,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>313</v>
@@ -39456,7 +39471,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>313</v>
@@ -39473,7 +39488,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>313</v>
@@ -40618,16 +40633,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
         <v>288</v>
       </c>
       <c r="C1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" t="s">
         <v>331</v>
-      </c>
-      <c r="D1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4410B1F-9B45-534D-A78C-D34BFC42C5C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A40C08-EF67-7046-8C89-5275EA97D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1060" windowWidth="25820" windowHeight="16400" firstSheet="8" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="1600" yWindow="780" windowWidth="25820" windowHeight="16400" firstSheet="8" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="377">
   <si>
     <t>number</t>
   </si>
@@ -1289,16 +1289,25 @@
     <t>Pure Mathematics: Discrete</t>
   </si>
   <si>
-    <t>Advanced Pure Mathematics: Algebra and Number Theory</t>
-  </si>
-  <si>
-    <t>Advanced Pure Mathematics: Algebra and Discrete Mathematics</t>
-  </si>
-  <si>
-    <t>Advanced Pure Mathematics: Algebra and Geometry</t>
-  </si>
-  <si>
-    <t>Advanced Pure Mathematics: Analysis</t>
+    <t>The &lt;a href="https://www.math.ubc.ca" target="_blank"&gt;UBC Department of Mathematics&lt;/a&gt; offers a wide range of undergraduate courses from calculus to number theory to mathematical biology. Explore the different &lt;a href="https://www.math.ubc.ca/undergraduate/programs-study" target="_blank"&gt;programs of study&lt;/a&gt; including BA/BSc Major in Mathematics, BA/BSc Honours in Mathematics, and courses offered for engineering programs.</t>
+  </si>
+  <si>
+    <t>The course map presents all MATH courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Complete information is available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/courses.cfm?page=name&amp;code=MATH" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt; and current course offerings are available in the &lt;a href="https://courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;tname=subj-department&amp;dept=MATH" target="_blank"&gt;UBC Course Schedule&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Degree requirements for BA/BSc Major in Mathematics include:&lt;br&gt;&amp;bull; Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;br&gt;&amp;bull; Calculus II (MATH 101, 103, 105 or 121)&lt;br&gt;&amp;bull; Calculus III (MATH 200, 217 or 226)&lt;br&gt;&amp;bull; Mathematical Proof (MATH 220)&lt;br&gt;&amp;bull; Linear Algebra (MATH 221 or 223)&lt;br&gt;&amp;bull; Differential Equations (MATH 215)&lt;br&gt;&amp;bull; Mathematical Computing (MATH 210 or CPSC 210)&lt;br&gt;&amp;bull; 24 credits of MATH courses numbered 300 or above</t>
+  </si>
+  <si>
+    <t>After completing 100 and 200 level degree requirements, students in the BA/BSc Major in Mathematics program choose any 24 credits of MATH courses numbered 300 and above. Explore the different tracks within the program such as discrete mathematics and mathematical biology to find sequences of courses which work well together. Complete degree requirements are available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Third and fourth year requirements include:&lt;br&gt;&amp;bull; MATH 300 Complex Analysis&lt;br&gt;&amp;bull; MATH 320 Real Variables I&lt;br&gt;&amp;bull; MATH 321 Real Variables II&lt;br&gt;&amp;bull; MATH 322 Introduction to Group Theory&lt;br&gt;&amp;bull; MATH 323 Introduction to Rings and Modules&lt;br&gt;&amp;bull; 15 credits from MATH 400-406, 412, 418-428, 433-440, 443, 449, 450&lt;br&gt;&amp;bull; Additional 9 credits of MATH courses numbered 300 or above</t>
+  </si>
+  <si>
+    <t>Degree requirements for BA/BSc Honours in Mathematics are listed in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;. First and second year requirements are:&lt;br&gt;&amp;bull; Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;br&gt;&amp;bull; Calculus II (MATH 101, 103, 105 or 121)&lt;br&gt;&amp;bull; Calculus III (MATH 200, 217 or 226)&lt;br&gt;&amp;bull; Calculus IV (MATH 317 or 227)&lt;br&gt;&amp;bull; Linear Algebra (MATH 221 or 223)&lt;br&gt;&amp;bull; Differential Equations (MATH 215)&lt;br&gt;&amp;bull; Mathematical Computing (MATH 210 or CPSC 210)</t>
+  </si>
+  <si>
+    <t>Engineering courses are designed for specific applications and are reserved for APSC students.</t>
   </si>
 </sst>
 </file>
@@ -1363,12 +1372,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11172,10 +11184,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11354,16 +11366,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>306</v>
       </c>
       <c r="E11" t="s">
@@ -11371,16 +11383,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>306</v>
       </c>
       <c r="E12" t="s">
@@ -11388,16 +11400,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>306</v>
       </c>
       <c r="E13" t="s">
@@ -11405,138 +11417,70 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -11549,7 +11493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -19416,7 +19360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC045EC-A8A3-974C-9403-34BA5D62B768}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -19874,11 +19818,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="75.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -19894,61 +19842,59 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" t="s">
-        <v>306</v>
-      </c>
+      <c r="C5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97739FE-A80C-5540-A689-529E947CF3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B91AA-15E2-4C4E-88ED-CAA692E08C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="7" activeTab="8" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="3" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -1261,9 +1261,6 @@
     <t>Degree requirements for BA/BSc Major in Mathematics include:&lt;br&gt;&amp;bull; Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;br&gt;&amp;bull; Calculus II (MATH 101, 103, 105 or 121)&lt;br&gt;&amp;bull; Calculus III (MATH 200, 217 or 226)&lt;br&gt;&amp;bull; Mathematical Proof (MATH 220)&lt;br&gt;&amp;bull; Linear Algebra (MATH 221 or 223)&lt;br&gt;&amp;bull; Differential Equations (MATH 215)&lt;br&gt;&amp;bull; Mathematical Computing (MATH 210 or CPSC 210)&lt;br&gt;&amp;bull; 24 credits of MATH courses numbered 300 or above</t>
   </si>
   <si>
-    <t>After completing 100 and 200 level degree requirements, students in the BA/BSc Major in Mathematics program choose any 24 credits of MATH courses numbered 300 and above. Explore the different tracks within the program such as discrete mathematics and mathematical biology to find sequences of courses which work well together. Complete degree requirements are available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Third and fourth year requirements include:&lt;br&gt;&amp;bull; MATH 300 Complex Analysis&lt;br&gt;&amp;bull; MATH 320 Real Variables I&lt;br&gt;&amp;bull; MATH 321 Real Variables II&lt;br&gt;&amp;bull; MATH 322 Introduction to Group Theory&lt;br&gt;&amp;bull; MATH 323 Introduction to Rings and Modules&lt;br&gt;&amp;bull; 15 credits from MATH 400-406, 412, 418-428, 433-440, 443, 449, 450&lt;br&gt;&amp;bull; Additional 9 credits of MATH courses numbered 300 or above</t>
   </si>
   <si>
@@ -1285,21 +1282,6 @@
     <t>Structures: Number Theory and Geometry</t>
   </si>
   <si>
-    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 400, 317 and 319.</t>
-  </si>
-  <si>
-    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360 and 461.</t>
-  </si>
-  <si>
-    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442.</t>
-  </si>
-  <si>
-    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462.</t>
-  </si>
-  <si>
-    <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313.</t>
-  </si>
-  <si>
     <t>Introduction to Mathematical Modelling</t>
   </si>
   <si>
@@ -1319,6 +1301,24 @@
   </si>
   <si>
     <t>Mathematical Modelling</t>
+  </si>
+  <si>
+    <t>After completing 100 and 200 level degree requirements, students in the BA/BSc Major in Mathematics program choose any 24 credits of MATH courses numbered 300 and above. Certain courses work especially well together. Math majors are strongly recommended to select all the courses in one of the five listed streams. Complete degree requirements are available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 400, 317, 319</t>
+  </si>
+  <si>
+    <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 424; PHIL 320, 322, 323, 420</t>
+  </si>
+  <si>
+    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406</t>
+  </si>
+  <si>
+    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321</t>
+  </si>
+  <si>
+    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321</t>
   </si>
 </sst>
 </file>
@@ -1383,13 +1383,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2837,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -3408,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -11318,12 +11324,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -11343,7 +11351,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11351,16 +11359,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11368,16 +11376,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -11385,16 +11393,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -11402,16 +11410,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -11419,16 +11427,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -11438,11 +11446,12 @@
       <c r="C7" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -11452,11 +11461,12 @@
       <c r="C8" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -11466,11 +11476,12 @@
       <c r="C9" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
@@ -11480,12 +11491,12 @@
       <c r="C10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -11495,10 +11506,10 @@
       <c r="C11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13694,7 +13705,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -13736,7 +13747,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -19326,7 +19337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19370,7 +19383,7 @@
         <v>302</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>357</v>
@@ -19384,10 +19397,10 @@
         <v>301</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19398,7 +19411,7 @@
         <v>303</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -34229,7 +34242,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="str">
-        <f t="shared" ref="I339:I352" si="6">_xlfn.CONCAT(B339,C339)</f>
+        <f t="shared" ref="I339:I351" si="6">_xlfn.CONCAT(B339,C339)</f>
         <v>360200</v>
       </c>
     </row>
@@ -34736,7 +34749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA520945-B158-764D-823B-F47F242E4808}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B91AA-15E2-4C4E-88ED-CAA692E08C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AEA852-07FD-E741-92F8-71B0CB9F64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="3" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="8" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -1306,19 +1306,19 @@
     <t>After completing 100 and 200 level degree requirements, students in the BA/BSc Major in Mathematics program choose any 24 credits of MATH courses numbered 300 and above. Certain courses work especially well together. Math majors are strongly recommended to select all the courses in one of the five listed streams. Complete degree requirements are available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 400, 317, 319</t>
-  </si>
-  <si>
     <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 424; PHIL 320, 322, 323, 420</t>
   </si>
   <si>
-    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406</t>
-  </si>
-  <si>
-    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321</t>
-  </si>
-  <si>
-    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321</t>
+    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 400, 317, 319&lt;br&gt;&lt;br&gt;Suggested courses from other departments: PHYS 301, 304, 306</t>
+  </si>
+  <si>
+    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406; PHYS 210, 410</t>
+  </si>
+  <si>
+    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310</t>
+  </si>
+  <si>
+    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321; PHYS 305</t>
   </si>
 </sst>
 </file>
@@ -11323,7 +11323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -11362,7 +11362,7 @@
         <v>361</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>357</v>
@@ -11430,7 +11430,7 @@
         <v>364</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>357</v>
@@ -19337,7 +19337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AEA852-07FD-E741-92F8-71B0CB9F64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2506B917-5390-E640-8EC0-B3CEA4EAF303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="8" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
@@ -1315,10 +1315,10 @@
     <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406; PHYS 210, 410</t>
   </si>
   <si>
-    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310</t>
-  </si>
-  <si>
     <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321; PHYS 305</t>
+  </si>
+  <si>
+    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
   </si>
 </sst>
 </file>
@@ -11324,7 +11324,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11396,7 +11396,7 @@
         <v>363</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>357</v>
@@ -11413,7 +11413,7 @@
         <v>371</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>357</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2506B917-5390-E640-8EC0-B3CEA4EAF303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D79341-7174-664F-BBC4-779D389663D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="8" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="1" activeTab="6" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -372,12 +372,6 @@
     <t>Parametrization of curves and surfaces; line and surface integrals; theorems of Green, Gauss, Stokes; applications to physics and/or introduction to differential forms.</t>
   </si>
   <si>
-    <t>Introduction to Finite Mathematics</t>
-  </si>
-  <si>
-    <t>Difference equations, number theory, counting. Intended primarily for students not in the Faculty of Science who wish to have some exposure to mathematical thinking. Students who obtain credit for MATH 100, MATH 102, MATH 104, MATH 110, MATH 120, MATH 180, MATH 184, or SCIE 001 cannot in the same year or in later years obtain credit for MATH 230. </t>
-  </si>
-  <si>
     <t>Multivariable Calculus</t>
   </si>
   <si>
@@ -1319,6 +1313,12 @@
   </si>
   <si>
     <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
+  </si>
+  <si>
+    <t>Marvels of Mathematics</t>
+  </si>
+  <si>
+    <t>A variety of topics in mathematics, showcasing its beauty and utility. Intended for a general audience of students whose degrees have no mathematics requirements, but who may be curious about practical and recreational mathematics. Not for credit in the Faculty of Science. Students who obtain UBC credit for any other mathematics course cannot in the same or later years obtain credit for MATH 230.</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA558D3A-1489-2E48-A14C-5F94B15C1134}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1754,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1814,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1834,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1854,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1874,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1885,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1894,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -1914,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1934,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1954,7 +1956,7 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1974,7 +1976,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1994,7 +1996,7 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2031,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -2068,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2082,13 +2084,13 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2125,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2136,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2145,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2165,7 +2167,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2185,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2196,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -2213,16 +2215,16 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2233,16 +2235,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2253,16 +2255,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2273,16 +2275,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2293,16 +2295,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2313,16 +2315,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2333,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2353,16 +2355,16 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,10 +2375,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -2390,16 +2392,16 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2410,16 +2412,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2430,16 +2432,16 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2450,10 +2452,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -2467,10 +2469,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -2484,10 +2486,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -2501,16 +2503,16 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2521,16 +2523,16 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2541,16 +2543,16 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2561,16 +2563,16 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2581,16 +2583,16 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2601,16 +2603,16 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2621,16 +2623,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2641,16 +2643,16 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,16 +2663,16 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,16 +2683,16 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,16 +2703,16 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2721,10 +2723,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
@@ -2738,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2755,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2772,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2789,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -2806,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
         <v>72</v>
@@ -2823,16 +2825,16 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2843,10 +2845,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D58" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -2861,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2878,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -2895,16 +2897,16 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2915,16 +2917,16 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2935,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -2952,16 +2954,16 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,16 +2974,16 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2992,16 +2994,16 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,16 +3014,16 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3032,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3052,16 +3054,16 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3072,16 +3074,16 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
         <v>172</v>
-      </c>
-      <c r="D70" t="s">
-        <v>174</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3092,16 +3094,16 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
         <v>173</v>
-      </c>
-      <c r="D71" t="s">
-        <v>175</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3112,16 +3114,16 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3132,16 +3134,16 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3152,16 +3154,16 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3172,16 +3174,16 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3192,16 +3194,16 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3212,16 +3214,16 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3232,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -3249,16 +3251,16 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3269,16 +3271,16 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3289,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -3306,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -3323,16 +3325,16 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -3360,10 +3362,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -3377,16 +3379,16 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3397,10 +3399,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -3414,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -3461,10 +3463,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,7 +5947,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6754,10 +6756,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8741,7 +8743,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9200,10 +9202,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -11323,7 +11325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -11336,19 +11338,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
@@ -11359,13 +11361,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -11376,13 +11378,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
@@ -11393,13 +11395,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
@@ -11410,13 +11412,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -11427,13 +11429,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11444,10 +11446,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -11459,10 +11461,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -11474,10 +11476,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -11489,10 +11491,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -11504,10 +11506,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -11526,7 +11528,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -12101,9 +12103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC08885-D475-D740-B093-B1999F0EDA05}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12193,7 +12193,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -12207,7 +12207,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -12221,7 +12221,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -12235,7 +12235,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -12249,7 +12249,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -12277,7 +12277,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -12291,7 +12291,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -12305,7 +12305,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -12319,7 +12319,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -12333,7 +12333,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -12347,7 +12347,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -12361,7 +12361,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -12375,7 +12375,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -12403,7 +12403,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,7 +12417,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -12445,7 +12445,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -12459,7 +12459,7 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -12473,7 +12473,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -12487,7 +12487,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -12515,7 +12515,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -12529,7 +12529,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -12543,7 +12543,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -12557,7 +12557,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -12585,7 +12585,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -12599,7 +12599,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -12613,7 +12613,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -12627,7 +12627,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -12641,7 +12641,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -12669,7 +12669,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -12683,7 +12683,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -12697,7 +12697,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -12711,7 +12711,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -12725,7 +12725,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -12739,7 +12739,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -12753,7 +12753,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -12767,7 +12767,7 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -12781,7 +12781,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -12823,7 +12823,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -12837,7 +12837,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -12851,7 +12851,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -12865,7 +12865,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -12879,7 +12879,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -12893,7 +12893,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -12907,7 +12907,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -12921,7 +12921,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -12935,7 +12935,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -12949,7 +12949,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -12963,7 +12963,7 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -12977,7 +12977,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -12991,7 +12991,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -13005,7 +13005,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -13019,7 +13019,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -13033,7 +13033,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -13047,7 +13047,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -13061,7 +13061,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -13075,7 +13075,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -13089,7 +13089,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -13103,7 +13103,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -13131,7 +13131,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -13145,7 +13145,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -13159,7 +13159,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -13187,7 +13187,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -13201,7 +13201,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -13215,7 +13215,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -13229,7 +13229,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -13243,7 +13243,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -13271,7 +13271,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -13285,7 +13285,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -13299,7 +13299,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -13313,7 +13313,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -13327,7 +13327,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -13341,7 +13341,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -13355,7 +13355,7 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -13369,7 +13369,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -13383,7 +13383,7 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -13397,7 +13397,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -13411,7 +13411,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -13439,7 +13439,7 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -13453,7 +13453,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -13467,7 +13467,7 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -13481,7 +13481,7 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -13495,7 +13495,7 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -13509,7 +13509,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -13523,7 +13523,7 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -13537,7 +13537,7 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -13551,7 +13551,7 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -13565,7 +13565,7 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -13579,7 +13579,7 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -13607,7 +13607,7 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -13621,7 +13621,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -13635,7 +13635,7 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -13649,7 +13649,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -13663,7 +13663,7 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -13677,7 +13677,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -13691,7 +13691,7 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -13705,7 +13705,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -13719,7 +13719,7 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -13733,7 +13733,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -13747,7 +13747,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B521BB6-DE7E-F648-84B9-F67E5C6BF11B}">
   <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13778,7 +13778,7 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18869,7 +18869,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -19337,9 +19337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19349,16 +19347,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19366,13 +19364,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19380,13 +19378,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19394,13 +19392,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19408,10 +19406,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -19422,10 +19420,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19452,7 +19450,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -19466,11 +19464,11 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D33" si="0">B2*COS(C2/32*3.14159)</f>
+        <f t="shared" ref="D2:D34" si="0">B2*COS(C2/32*3.14159)</f>
         <v>1.326794896677558E-6</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E33" si="1">B2*SIN(C2/32*3.14159)</f>
+        <f t="shared" ref="E2:E34" si="1">B2*SIN(C2/32*3.14159)</f>
         <v>0.99999999999911982</v>
       </c>
       <c r="F2">
@@ -19941,21 +19939,21 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>253</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>1.148053055141661</v>
+        <v>-3.9807378987986626</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>2.7716374551120313</v>
+        <v>0.3920787944635748</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -19963,21 +19961,21 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0.95671087928471765</v>
+        <v>1.148053055141661</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>2.309697879260026</v>
+        <v>2.7716374551120313</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -19985,21 +19983,21 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>255</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
+        <v>254</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>2.1213217508376787</v>
+        <v>0.95671087928471765</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>2.1213189362806726</v>
+        <v>2.309697879260026</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -20007,21 +20005,21 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>256</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C27" s="3">
+        <v>255</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>2.4748753759772919</v>
+        <v>2.1213217508376787</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>2.4748720923274514</v>
+        <v>2.1213189362806726</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -20029,21 +20027,21 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>2.5375754443131053</v>
+        <v>2.4748753759772919</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>3.0920399196031001</v>
+        <v>2.4748720923274514</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -20051,21 +20049,21 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>1.7677681256980657</v>
+        <v>2.5375754443131053</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>1.767765780233894</v>
+        <v>3.0920399196031001</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -20073,21 +20071,21 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C30" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>1.885590165156946</v>
+        <v>1.7677681256980657</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>3.5276833374132948</v>
+        <v>1.767765780233894</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -20095,21 +20093,21 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>300</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
+        <v>264</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>2.7778546125646759</v>
+        <v>1.885590165156946</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>4.1573457579870787</v>
+        <v>3.5276833374132948</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -20117,21 +20115,21 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>2.296106110283322</v>
+        <v>2.7778546125646759</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>5.5432749102240626</v>
+        <v>4.1573457579870787</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -20139,21 +20137,21 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.49007868699035295</v>
+        <v>2.296106110283322</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>4.9759243242394486</v>
+        <v>5.5432749102240626</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -20161,21 +20159,21 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>17</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D66" si="2">B34*COS(C34/32*3.14159)</f>
-        <v>-0.58809442438842363</v>
+        <f t="shared" si="0"/>
+        <v>-0.49007868699035295</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E66" si="3">B34*SIN(C34/32*3.14159)</f>
-        <v>5.971109189087338</v>
+        <f t="shared" si="1"/>
+        <v>4.9759243242394486</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -20183,1173 +20181,1195 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>303</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:D67" si="2">B35*COS(C35/32*3.14159)</f>
+        <v>-0.58809442438842363</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:E67" si="3">B35*SIN(C35/32*3.14159)</f>
+        <v>5.971109189087338</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>305</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>6</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>10</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>3.3334255350776107</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="3"/>
         <v>4.9888149095844945</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>307</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>18</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>-0.97544429026196555</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <f t="shared" si="3"/>
         <v>4.9039278580129348</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>308</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>28</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>-4.6193932197977619</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <f t="shared" si="3"/>
         <v>1.9134278875584694</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>309</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>-4.4096010445234768</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <f t="shared" si="3"/>
         <v>2.3569935570844196</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>310</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>26</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>-4.1573420723400947</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <f t="shared" si="3"/>
         <v>2.777860128507367</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>312</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>23</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>-3.1719590491232501</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <f t="shared" si="3"/>
         <v>3.8650583165956403</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>313</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>23</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>-3.8063508589479005</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="3"/>
         <v>4.6380699799147687</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>316</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>13</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <f t="shared" si="2"/>
         <v>1.4514285442796564</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <f t="shared" si="3"/>
         <v>4.7847001139935861</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>317</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <f t="shared" si="2"/>
         <v>6.6339744833877897E-6</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <f t="shared" si="3"/>
         <v>4.9999999999955991</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>318</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>6</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>16</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <f t="shared" si="2"/>
         <v>7.960769380065349E-6</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <f t="shared" si="3"/>
         <v>5.9999999999947189</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>319</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <v>25</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <f t="shared" si="2"/>
         <v>-3.8650456909477859</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <f t="shared" si="3"/>
         <v>3.1719744335170716</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>320</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>6</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <f t="shared" si="2"/>
         <v>4.1573494436267424</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <f t="shared" si="3"/>
         <v>2.777849096617095</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>321</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <f t="shared" si="2"/>
         <v>4.9888193323520911</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <f t="shared" si="3"/>
         <v>3.3334189159405136</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>322</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>323</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>6</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>335</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>32</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <f t="shared" si="2"/>
         <v>-4.9999999999823963</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <f t="shared" si="3"/>
         <v>1.3267948966763902E-5</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>340</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>19</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <f t="shared" si="2"/>
         <v>-1.4514158476431596</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <f t="shared" si="3"/>
         <v>4.784703965472711</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>341</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>22</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D53" s="1">
         <f t="shared" si="2"/>
         <v>-2.7778435806646256</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <f t="shared" si="3"/>
         <v>4.1573531292590884</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>342</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>24</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="1">
         <f t="shared" si="2"/>
         <v>-3.5355268695332196</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <f t="shared" si="3"/>
         <v>3.5355409423182516</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>344</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>20</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <f t="shared" si="2"/>
         <v>-1.9134095005812624</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <f t="shared" si="3"/>
         <v>4.6194008359402368</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>345</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <f t="shared" si="2"/>
         <v>0.97545730327144264</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56" s="1">
         <f t="shared" si="3"/>
         <v>4.9039252695666562</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>358</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>4.25</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="3">
         <v>10</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D57" s="1">
         <f t="shared" si="2"/>
         <v>2.3611764206799744</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <f t="shared" si="3"/>
         <v>3.5337438942890169</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>360</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>6</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D58" s="1">
         <f t="shared" si="2"/>
         <v>1.1705487639257313</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E58" s="1">
         <f t="shared" si="3"/>
         <v>5.8847103234799878</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>361</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>6</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>15</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D59" s="1">
         <f t="shared" si="2"/>
         <v>0.58811026926075216</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <f t="shared" si="3"/>
         <v>5.9711076285049529</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>400</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>12</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <f t="shared" si="2"/>
         <v>2.6787904619972092</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <f t="shared" si="3"/>
         <v>6.4671540619280732</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>401</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>8</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>12</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <f t="shared" si="2"/>
         <v>3.0614748137110963</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <f t="shared" si="3"/>
         <v>7.3910332136320838</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>402</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>9</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <f t="shared" si="2"/>
         <v>4.4407570275479342</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <f t="shared" si="3"/>
         <v>5.4110698593054254</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>403</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>8</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>9</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D63" s="1">
         <f t="shared" si="2"/>
         <v>5.0751508886262107</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E63" s="1">
         <f t="shared" si="3"/>
         <v>6.1840798392062002</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>404</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>8</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D64" s="1">
         <f t="shared" si="2"/>
         <v>5.6568580022338102</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E64" s="1">
         <f t="shared" si="3"/>
         <v>5.6568504967484605</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>405</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>13</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D65" s="1">
         <f t="shared" si="2"/>
         <v>2.0319999619915192</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <f t="shared" si="3"/>
         <v>6.698580159591021</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>406</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B66" s="3">
         <v>8</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C66" s="3">
         <v>13</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <f t="shared" si="2"/>
         <v>2.3222856708474504</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E66" s="1">
         <f t="shared" si="3"/>
         <v>7.6555201823897381</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>412</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>7</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
         <f t="shared" si="2"/>
         <v>6.9662931436016358</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <f t="shared" si="3"/>
         <v>0.68611940462928955</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>418</v>
-      </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" ref="D67:D87" si="4">B67*COS(C67/32*3.14159)</f>
-        <v>5.4110757512744234</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" ref="E67:E87" si="5">B67*SIN(C67/32*3.14159)</f>
-        <v>4.4407498481641516</v>
-      </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>7</v>
       </c>
       <c r="D68" s="1">
+        <f t="shared" ref="D68:D88" si="4">B68*COS(C68/32*3.14159)</f>
+        <v>5.4110757512744234</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" ref="E68:E88" si="5">B68*SIN(C68/32*3.14159)</f>
+        <v>4.4407498481641516</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>419</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
         <f t="shared" si="4"/>
         <v>6.1840865728850556</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E69" s="1">
         <f t="shared" si="5"/>
         <v>5.075142683616173</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>420</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>7</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D70" s="1">
         <f t="shared" si="4"/>
         <v>5.8202892210774397</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E70" s="1">
         <f t="shared" si="5"/>
         <v>3.8889887352639327</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>421</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>8</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>6</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="1">
         <f t="shared" si="4"/>
         <v>6.6517591098027884</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E71" s="1">
         <f t="shared" si="5"/>
         <v>4.4445585545873518</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>422</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>7</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E72" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>423</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>8</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E73" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>424</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>7</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <f t="shared" si="4"/>
         <v>6.4671576161278956</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E74" s="1">
         <f t="shared" si="5"/>
         <v>2.6787818814078452</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>425</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>8</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>4</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D75" s="1">
         <f t="shared" si="4"/>
         <v>7.391037275574738</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E75" s="1">
         <f t="shared" si="5"/>
         <v>3.0614650073232519</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>426</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>7</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>5</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D76" s="1">
         <f t="shared" si="4"/>
         <v>6.1734502186027962</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E76" s="1">
         <f t="shared" si="5"/>
         <v>3.2997745981253157</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>427</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>8</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>5</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D77" s="1">
         <f t="shared" si="4"/>
         <v>7.0553716784031959</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E77" s="1">
         <f t="shared" si="5"/>
         <v>3.7711709692860751</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>428</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>7</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>10</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D78" s="1">
         <f t="shared" si="4"/>
         <v>3.888996457590546</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E78" s="1">
         <f t="shared" si="5"/>
         <v>5.8202840611819102</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>437</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>7</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D79" s="1">
         <f t="shared" si="4"/>
         <v>6.8654971893117569</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E79" s="1">
         <f t="shared" si="5"/>
         <v>1.3656311154745873</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>440</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>7</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>11</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <f t="shared" si="4"/>
         <v>3.2997827890246554</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E80" s="1">
         <f t="shared" si="5"/>
         <v>6.1734458404732662</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>441</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>19</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <f t="shared" si="4"/>
         <v>-2.0319821867004233</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E81" s="1">
         <f t="shared" si="5"/>
         <v>6.6985855516617958</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>442</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>21</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D82" s="1">
         <f t="shared" si="4"/>
         <v>-2.3569760051572612</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E82" s="1">
         <f t="shared" si="5"/>
         <v>4.4096104262296141</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>443</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>7</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>3</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D83" s="1">
         <f t="shared" si="4"/>
         <v>6.6985828556323046</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E83" s="1">
         <f t="shared" si="5"/>
         <v>2.0319910743477587</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>444</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>7</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>30</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D84" s="1">
         <f t="shared" si="4"/>
         <v>-6.8654935654627955</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E84" s="1">
         <f t="shared" si="5"/>
         <v>1.3656493336830475</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>446</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>7</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>28</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D85" s="1">
         <f t="shared" si="4"/>
         <v>-6.4671505077168661</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E85" s="1">
         <f t="shared" si="5"/>
         <v>2.6787990425818569</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>450</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>8</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>11</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D86" s="1">
         <f t="shared" si="4"/>
         <v>3.771180330313892</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E86" s="1">
         <f t="shared" si="5"/>
         <v>7.0553666748265895</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>462</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>7</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>15</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D87" s="1">
         <f t="shared" si="4"/>
         <v>0.68612864747087754</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E87" s="1">
         <f t="shared" si="5"/>
         <v>6.9662922332557784</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>461</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>7</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>14</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D88" s="1">
         <f t="shared" si="4"/>
         <v>1.3656402245800197</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E88" s="1">
         <f t="shared" si="5"/>
         <v>6.8654953773933185</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E86">
-    <sortCondition ref="A2:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E87">
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21359,9 +21379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE2127-F1A0-9D43-BB22-8321377E9C1D}">
   <dimension ref="A1:I352"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="D352" sqref="D352"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21396,10 +21414,10 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -34772,7 +34790,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D79341-7174-664F-BBC4-779D389663D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B740BEE-23DF-7B4C-983F-80A5D34A3695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="1" activeTab="6" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="9" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -1303,22 +1303,22 @@
     <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 424; PHIL 320, 322, 323, 420</t>
   </si>
   <si>
-    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 400, 317, 319&lt;br&gt;&lt;br&gt;Suggested courses from other departments: PHYS 301, 304, 306</t>
-  </si>
-  <si>
-    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 405, 340, 441, 360, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406; PHYS 210, 410</t>
-  </si>
-  <si>
     <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321; PHYS 305</t>
   </si>
   <si>
-    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 441, 344 and 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
-  </si>
-  <si>
     <t>Marvels of Mathematics</t>
   </si>
   <si>
     <t>A variety of topics in mathematics, showcasing its beauty and utility. Intended for a general audience of students whose degrees have no mathematics requirements, but who may be curious about practical and recreational mathematics. Not for credit in the Faculty of Science. Students who obtain UBC credit for any other mathematics course cannot in the same or later years obtain credit for MATH 230.</t>
+  </si>
+  <si>
+    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 317, 319, 400&lt;br&gt;&lt;br&gt;Suggested courses from other departments: PHYS 301, 304, 306</t>
+  </si>
+  <si>
+    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 340, 360, 405, 441, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406; PHYS 210, 410</t>
+  </si>
+  <si>
+    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 344, 441, 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
   </si>
 </sst>
 </file>
@@ -2198,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -11325,7 +11325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -11364,7 +11364,7 @@
         <v>359</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>355</v>
@@ -11381,7 +11381,7 @@
         <v>360</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>355</v>
@@ -11398,7 +11398,7 @@
         <v>361</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>355</v>
@@ -11415,7 +11415,7 @@
         <v>369</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>355</v>
@@ -19422,7 +19422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5E774-6755-684C-B2A6-0325506B6789}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B740BEE-23DF-7B4C-983F-80A5D34A3695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571CBF9-0026-024F-96BB-5B188D19A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="25820" windowHeight="16400" firstSheet="9" activeTab="14" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="920" yWindow="1200" windowWidth="27020" windowHeight="15820" firstSheet="4" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="requisites_program4" sheetId="17" r:id="rId14"/>
     <sheet name="tracks" sheetId="4" r:id="rId15"/>
     <sheet name="courses_tracks" sheetId="9" r:id="rId16"/>
+    <sheet name="reflections" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="LayoutRequisites" localSheetId="7">requisites_program1!$A$1:$G$189</definedName>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="448">
   <si>
     <t>number</t>
   </si>
@@ -1102,27 +1103,12 @@
     <t>program_id</t>
   </si>
   <si>
-    <t>Mechanical Engineering</t>
-  </si>
-  <si>
-    <t>Engineering Physics</t>
-  </si>
-  <si>
     <t>description1</t>
   </si>
   <si>
     <t>description2</t>
   </si>
   <si>
-    <t>Manufacturing, Materials Engineering</t>
-  </si>
-  <si>
-    <t>Chemical, Civil, Environmental Engineering</t>
-  </si>
-  <si>
-    <t>Electrical, Computer Engineering</t>
-  </si>
-  <si>
     <t>Introduction to Real Analysis</t>
   </si>
   <si>
@@ -1249,21 +1235,6 @@
     <t>The &lt;a href="https://www.math.ubc.ca" target="_blank"&gt;UBC Department of Mathematics&lt;/a&gt; offers a wide range of undergraduate courses from calculus to number theory to mathematical biology. Explore the different &lt;a href="https://www.math.ubc.ca/undergraduate/programs-study" target="_blank"&gt;programs of study&lt;/a&gt; including BA/BSc Major in Mathematics, BA/BSc Honours in Mathematics, and courses offered for engineering programs.</t>
   </si>
   <si>
-    <t>The course map presents all MATH courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Complete information is available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/courses.cfm?page=name&amp;code=MATH" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt; and current course offerings are available in the &lt;a href="https://courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;tname=subj-department&amp;dept=MATH" target="_blank"&gt;UBC Course Schedule&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Degree requirements for BA/BSc Major in Mathematics include:&lt;br&gt;&amp;bull; Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;br&gt;&amp;bull; Calculus II (MATH 101, 103, 105 or 121)&lt;br&gt;&amp;bull; Calculus III (MATH 200, 217 or 226)&lt;br&gt;&amp;bull; Mathematical Proof (MATH 220)&lt;br&gt;&amp;bull; Linear Algebra (MATH 221 or 223)&lt;br&gt;&amp;bull; Differential Equations (MATH 215)&lt;br&gt;&amp;bull; Mathematical Computing (MATH 210 or CPSC 210)&lt;br&gt;&amp;bull; 24 credits of MATH courses numbered 300 or above</t>
-  </si>
-  <si>
-    <t>Third and fourth year requirements include:&lt;br&gt;&amp;bull; MATH 300 Complex Analysis&lt;br&gt;&amp;bull; MATH 320 Real Variables I&lt;br&gt;&amp;bull; MATH 321 Real Variables II&lt;br&gt;&amp;bull; MATH 322 Introduction to Group Theory&lt;br&gt;&amp;bull; MATH 323 Introduction to Rings and Modules&lt;br&gt;&amp;bull; 15 credits from MATH 400-406, 412, 418-428, 433-440, 443, 449, 450&lt;br&gt;&amp;bull; Additional 9 credits of MATH courses numbered 300 or above</t>
-  </si>
-  <si>
-    <t>Degree requirements for BA/BSc Honours in Mathematics are listed in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;. First and second year requirements are:&lt;br&gt;&amp;bull; Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;br&gt;&amp;bull; Calculus II (MATH 101, 103, 105 or 121)&lt;br&gt;&amp;bull; Calculus III (MATH 200, 217 or 226)&lt;br&gt;&amp;bull; Calculus IV (MATH 317 or 227)&lt;br&gt;&amp;bull; Linear Algebra (MATH 221 or 223)&lt;br&gt;&amp;bull; Differential Equations (MATH 215)&lt;br&gt;&amp;bull; Mathematical Computing (MATH 210 or CPSC 210)</t>
-  </si>
-  <si>
-    <t>Engineering courses are designed for specific applications and are reserved for APSC students.</t>
-  </si>
-  <si>
     <t>Differential Equations and Analysis</t>
   </si>
   <si>
@@ -1300,25 +1271,265 @@
     <t>After completing 100 and 200 level degree requirements, students in the BA/BSc Major in Mathematics program choose any 24 credits of MATH courses numbered 300 and above. Certain courses work especially well together. Math majors are strongly recommended to select all the courses in one of the five listed streams. Complete degree requirements are available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 424; PHIL 320, 322, 323, 420</t>
-  </si>
-  <si>
-    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 330, 421; PHIL 321; PHYS 305</t>
-  </si>
-  <si>
     <t>Marvels of Mathematics</t>
   </si>
   <si>
     <t>A variety of topics in mathematics, showcasing its beauty and utility. Intended for a general audience of students whose degrees have no mathematics requirements, but who may be curious about practical and recreational mathematics. Not for credit in the Faculty of Science. Students who obtain UBC credit for any other mathematics course cannot in the same or later years obtain credit for MATH 230.</t>
   </si>
   <si>
-    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 300, 301, 316, 317, 319, 400&lt;br&gt;&lt;br&gt;Suggested courses from other departments: PHYS 301, 304, 306</t>
-  </si>
-  <si>
-    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 307, 316, 340, 360, 405, 441, 461&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 302, 303, 402, 406; PHYS 210, 410</t>
-  </si>
-  <si>
-    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.&lt;br&gt;&lt;br&gt;Courses: MATH 302, 303, 307, 340, 344, 441, 442&lt;br&gt;&lt;br&gt;Suggested courses from other departments: CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
+    <t>reflection_id</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>James Yu</t>
+  </si>
+  <si>
+    <t>PhD Student in Economics</t>
+  </si>
+  <si>
+    <t>UBC Math and Economics 2022</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>MATH 302, 307, 340, 442</t>
+  </si>
+  <si>
+    <t>Many everyday optimization problems can be solved through the lens of graph-analyzing algorithms.</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>reflection</t>
+  </si>
+  <si>
+    <t>I took Math 442 (Graphs and Networks) to formalize my interest in studying networks, an area I now explore in studying game theory as a PhD student in Economics. My biggest takeaway from the course was the idea that many everyday optimization problems can be solved through the lens of graph-analyzing algorithms: pathfinding, scheduling, searching and more. I learned that by representing a problem as a graph of vertices and edges, we give structure to difficult, high-dimensional scenarios. These structures then allow us to efficiently solve problems via algorithmic analysis, unlocking improvements in our lives that were previously inaccessible. In my research and graduate studies, I now use many of these models to gain insight into the welfare of individuals interacting in network environments such as markets and social media. By modeling these environments with graphs, we can determine if there are opportunities for systemic change, which can lead to beneficial welfare improvements in the lives of these individuals.</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Degree requirements for BA/BSc Major in Mathematics include:&lt;ul&gt;&lt;li&gt;Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;/li&gt;&lt;li&gt;Calculus II (MATH 101, 103, 105 or 121)&lt;/li&gt;&lt;li&gt;Calculus III (MATH 200, 217 or 226)&lt;/li&gt;&lt;li&gt;Mathematical Proof (MATH 220)&lt;/li&gt;&lt;li&gt;Linear Algebra (MATH 221 or 223)&lt;/li&gt;&lt;li&gt;Differential Equations (MATH 215)&lt;/li&gt;&lt;li&gt;Mathematical Computing (MATH 210 or CPSC 210)&lt;/li&gt;&lt;li&gt;24 credits of MATH courses numbered 300 or above&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>suggested</t>
+  </si>
+  <si>
+    <t>MATH 300, 301, 316, 317, 319, 400</t>
+  </si>
+  <si>
+    <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.</t>
+  </si>
+  <si>
+    <t>PHYS 301, 304, 306</t>
+  </si>
+  <si>
+    <t>MATH 307, 316, 340, 360, 405, 441, 461</t>
+  </si>
+  <si>
+    <t>This stream is centred on solving problems using numerical techniques and approximations. Topics in this stream have many applications in engineering, economics and computing. If you like solving math problems using software and programming, this stream is for you.</t>
+  </si>
+  <si>
+    <t>CPSC 302, 303, 402, 406; PHYS 210, 410</t>
+  </si>
+  <si>
+    <t>MATH 302, 303, 307, 340, 344, 441, 442</t>
+  </si>
+  <si>
+    <t>This stream is centred on the theoretical foundations of data science. Topics in this stream have many applications in machine learning and signal processing. If you like algorithms and making sense of large data sets, this stream is for you.</t>
+  </si>
+  <si>
+    <t>CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
+  </si>
+  <si>
+    <t>MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462</t>
+  </si>
+  <si>
+    <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.</t>
+  </si>
+  <si>
+    <t>CPSC 330, 421; PHIL 321; PHYS 305</t>
+  </si>
+  <si>
+    <t>MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313</t>
+  </si>
+  <si>
+    <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.</t>
+  </si>
+  <si>
+    <t>CPSC 424; PHIL 320, 322, 323, 420</t>
+  </si>
+  <si>
+    <t>Complete information is available in the &lt;a href="http://www.calendar.ubc.ca/vancouver/courses.cfm?page=name&amp;code=MATH" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt; and current course offerings are available in the &lt;a href="https://courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;tname=subj-department&amp;dept=MATH" target="_blank"&gt;UBC Course Schedule&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Degree requirements for BA/BSc Honours in Mathematics are listed in the &lt;a href="http://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,215,410,429" target="_blank"&gt;UBC Academic Calendar&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>First and second year requirements are:&lt;ul&gt;&lt;li&gt;Calculus I (MATH 100, 102, 104, 180, 184, 110 or 120)&lt;/li&gt;&lt;li&gt;Calculus II (MATH 101, 103, 105 or 121)&lt;/li&gt;&lt;li&gt;Calculus III (MATH 200, 217 or 226)&lt;/li&gt;&lt;li&gt;Calculus IV (MATH 317 or 227)&lt;/li&gt;&lt;li&gt;Linear Algebra (MATH 221 or 223)&lt;/li&gt;&lt;li&gt;Differential Equations (MATH 215)&lt;/li&gt;&lt;li&gt;Mathematical Computing (MATH 210 or CPSC 210)&lt;/li&gt;&lt;/ul&gt;Third and fourth year requirements include:&lt;ul&gt;&lt;li&gt;MATH 300 Complex Analysis&lt;/li&gt;&lt;li&gt;MATH 320 Real Variables I&lt;/li&gt;&lt;li&gt;MATH 321 Real Variables II&lt;/li&gt;&lt;li&gt;MATH 322 Introduction to Group Theory&lt;/li&gt;&lt;li&gt;MATH 323 Introduction to Rings and Modules&lt;/li&gt;&lt;li&gt;15 credits from MATH 400-406, 412, 418-428, 433-440, 443, 449, 450&lt;/li&gt;&lt;li&gt;Additional 9 credits of MATH courses numbered 300 or above&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Fiona Sudihok</t>
+  </si>
+  <si>
+    <t>Systems Engineer</t>
+  </si>
+  <si>
+    <t>UBC Math 2020</t>
+  </si>
+  <si>
+    <t>Math courses are not easy and fairly rigorous, and I think that having gone through them during undergrad in general made me a better problem solver, which is a very crucial skill in my day to day work. I really enjoyed a lot of the courses I took while I was in the program, but if I could change things up I would have liked to take courses that are more connected to each other to gain deeper knowledge on certain topics, as opposed to taking a more "introductory" course at every level.</t>
+  </si>
+  <si>
+    <t>Jingyuan Hu</t>
+  </si>
+  <si>
+    <t>PhD Student in Operations Research</t>
+  </si>
+  <si>
+    <t>UBC Math 2019</t>
+  </si>
+  <si>
+    <t>MATH 300, 302, 317</t>
+  </si>
+  <si>
+    <t>My thorough training in analysis and probability has proved immensely valuable.</t>
+  </si>
+  <si>
+    <t>As a PhD student in Operations Research, I frequently grapple with problems related to optimization and machine learning, and my thorough training in analysis and probability has proved immensely valuable. Whether you're engaged in research or an internship, acquiring knowledge in advanced courses sooner rather than later will give you a competitive edge. After all, the earlier you start, the more margin for error you have. Talk to your teachers and classmates often – having diverse perspectives and ideas is always beneficial.</t>
+  </si>
+  <si>
+    <t>JingyuanHu.jpg</t>
+  </si>
+  <si>
+    <t>MSc Student in Astrophysics</t>
+  </si>
+  <si>
+    <t>Megan Oxland</t>
+  </si>
+  <si>
+    <t>MATH 300, 301, 316, 317, 400</t>
+  </si>
+  <si>
+    <t>The math courses that were heavily focused on linear algebra, calculus, and differential equations turned out to be the most useful.</t>
+  </si>
+  <si>
+    <t>The math courses I took at UBC allowed me to explore my passions and taught me the foundational problem-solving skills I still use on a daily basis. I learned early on I was much more interested in applied math, yet every course I took still turned out to be valuable. In my day-to-day work in Astrophysics, the math courses that were heavily focused on linear algebra, calculus, and differential equations turned out to be the most useful. If you like MATH 316, MATH 400 is a natural continuation. And in MATH 317 the vector operators (i.e. gradient, divergence, curl, etc.) and theorems (i.e. Gauss, Stokes etc.) are extremely important topics that always arise in physics.&lt;br&gt;&lt;br&gt;There are a large number of electives Math students are able to take. Take the opportunity to select courses that are of interest, and not just ones that your friends are taking or are known to boost your average. This is the time to learn about all disciplines, and if you find something you are truly passionate about, stick with it and consider adding a minor to your degree. No only will you enjoy your electives, but a minor will organize your electives in a logical way and may provide you with future opportunities. One final piece of advice: go to office hours! I cannot stress this enough. Your professors are there to help you, and although it may be intimidating at first you will always feel much better after leaving.</t>
+  </si>
+  <si>
+    <t>Shuwen Jiang</t>
+  </si>
+  <si>
+    <t>MSc in Finance</t>
+  </si>
+  <si>
+    <t>UBC Math and Economics 2021</t>
+  </si>
+  <si>
+    <t>MATH 307, 316, 340</t>
+  </si>
+  <si>
+    <t>MATH 340 (Introduction to Linear Programming) taught me how to think about optimization problems, such as how to maximize profit with constraints on risk.</t>
+  </si>
+  <si>
+    <t>JamesYu.png</t>
+  </si>
+  <si>
+    <t>Faner Chen</t>
+  </si>
+  <si>
+    <t>FanerChen.jpg</t>
+  </si>
+  <si>
+    <t>Investment Banker</t>
+  </si>
+  <si>
+    <t>MATH 302, 345, 360</t>
+  </si>
+  <si>
+    <t>Every time I encounter big problems, I always try to break them into smaller ones and approach them step by step.</t>
+  </si>
+  <si>
+    <t>I might not remember every single theorem I learned in class, but what I value most is the skill of problem solving and logical thinking. During my first two years at UBC, I always wondered how I can apply what I have learned to something practical. Then I took some courses in mathematical modelling, like MATH 345 and MATH 360. In these courses, some real-world problems were seemingly impossible to solve. We were expected to break them down into smaller pieces and make reasonable assumptions. In my job, every time I encounter big problems, I always try to break them into smaller ones and approach them step by step.</t>
+  </si>
+  <si>
+    <t>Chuxuan Zhang</t>
+  </si>
+  <si>
+    <t>ChuxuanZhang.jpg</t>
+  </si>
+  <si>
+    <t>MSc Student in Computer Science</t>
+  </si>
+  <si>
+    <t>UBC Math 2022</t>
+  </si>
+  <si>
+    <t>MATH 302, 303, 361</t>
+  </si>
+  <si>
+    <t>You can learn classical biological models and get inspired by them even if your research interest seems in a completely different domain.</t>
+  </si>
+  <si>
+    <t>MATH 361 helped me gain a lot of insight. I'm now doing research in the area of affective computing where I refine existing models which predict/classify human emotions. It is intuitive and straightforward to draw analogies between human emotions and biological systems. As humans, we experience complex emotions instead of monotone discrete emotions at any time. For example, if you are into horror movies, you probably have the combined feeling of being scared and thrilled when watching them. But too much fear might kill your joy, and too much joy won’t give you a sense of dread at all. The dynamic equilibrium is similar to the classical Lotka-Volterra predator-prey model which is taught in MATH 361! MATH 361 is a course where you can learn classical biological models and get inspired by them even if your research interest seems in a completely different domain.</t>
+  </si>
+  <si>
+    <t>Joshua Renault</t>
+  </si>
+  <si>
+    <t>JoshuaRenault.png</t>
+  </si>
+  <si>
+    <t>MSc Student in Math</t>
+  </si>
+  <si>
+    <t>MATH 310, 312, 313</t>
+  </si>
+  <si>
+    <t>If you allow yourself to be amazed by the discipline, you will excel.</t>
+  </si>
+  <si>
+    <t>The abstract nature of MATH 313 (Topics in Number Theory) is fascinating. I believe that this course gave me the skills to be confident starting any proof. This course will definitely have you closing your eyes and trying to imagine different spaces, and it is totally worth it.  (Take MATH 312 not STAT 312 as a prerequisite. It’s tougher but what you learn doing the proofs is invaluable.)&lt;br&gt;&lt;br&gt;I think the best advice I can offer is to enjoy the math you are taking. It is definitely a challenging degree, but if you allow yourself to be amazed by the discipline, you will excel.</t>
+  </si>
+  <si>
+    <t>Karishma Sharma</t>
+  </si>
+  <si>
+    <t>High School Math Teacher</t>
+  </si>
+  <si>
+    <t>MATH 308, 310, 312, 342</t>
+  </si>
+  <si>
+    <t>MATH 308 is where I really began to develop a love of proofs.</t>
+  </si>
+  <si>
+    <t>MATH 308 is where I really began to develop a love of proofs. It was the first time I really understood how to approach proofs and how much fun they could be. This later directly applied to my job as I taught Foundations of Math 11/12 during my Teacher Education Practicum and had to be familiar with geometry proofs in particular. I learned relevant math teaching skills from this course as well. The way it was designed allowed us to problem-solve in less traditional ways. Assignments were formatted in a way that promoted student learning, so now I am able to apply those same strategies when assigning work to students. The prof I had for this course helped inspire me to dig deeper with my learning by asking guiding questions, and also engaging in teaching strategy discussions during office hours, which again has influenced my current teaching practices. I will be forever grateful for this course and the prof I had for inspiring and empowering me in so many different ways.</t>
+  </si>
+  <si>
+    <t>MeganOxland.jpeg</t>
+  </si>
+  <si>
+    <t>KarishmaSharma.jpg</t>
+  </si>
+  <si>
+    <t>ShuwenJiang.jpg</t>
+  </si>
+  <si>
+    <t>Math courses are not easy and fairly rigorous, and I think that having gone through them during undergrad in general made me a better problem solver.</t>
+  </si>
+  <si>
+    <t>ubc.png</t>
+  </si>
+  <si>
+    <t>Engineering courses are designed for specific applications and are usually reserved for APSC students.</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1396,6 +1607,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1776,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1796,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1816,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1836,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1856,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1876,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1896,7 +2110,7 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1916,7 +2130,7 @@
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1936,7 +2150,7 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1956,7 +2170,7 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1976,7 +2190,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1996,7 +2210,7 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2070,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2090,7 +2304,7 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2127,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2147,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2198,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -2224,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2244,7 +2458,7 @@
         <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2264,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2284,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2304,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2324,7 +2538,7 @@
         <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2344,7 +2558,7 @@
         <v>277</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2401,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2421,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2512,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2592,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2612,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2623,16 +2837,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2652,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2834,7 +3048,7 @@
         <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2845,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -3003,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3260,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3416,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -5947,7 +6161,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8743,7 +8957,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9174,7 +9388,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11323,20 +11537,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="3" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" customWidth="1"/>
+    <col min="7" max="7" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -11347,13 +11561,19 @@
         <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11361,16 +11581,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11378,16 +11604,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -11395,16 +11627,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -11412,16 +11650,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -11429,89 +11673,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11520,7 +11695,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11814,284 +11989,346 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>14</v>
-      </c>
-      <c r="B48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>14</v>
-      </c>
-      <c r="B49">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>14</v>
-      </c>
-      <c r="B50">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="B53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>11</v>
-      </c>
-      <c r="B54">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>11</v>
-      </c>
-      <c r="B55">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>11</v>
-      </c>
-      <c r="B56">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>11</v>
-      </c>
-      <c r="B57">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>11</v>
-      </c>
-      <c r="B58">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>12</v>
-      </c>
-      <c r="B59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>12</v>
-      </c>
-      <c r="B60">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>12</v>
-      </c>
-      <c r="B61">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>12</v>
-      </c>
-      <c r="B62">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>12</v>
-      </c>
-      <c r="B63">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>12</v>
-      </c>
-      <c r="B64">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>12</v>
-      </c>
-      <c r="B65">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>12</v>
-      </c>
-      <c r="B68">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE88373-DABB-E24C-8F06-14D0F52FB5C0}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="12.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23" style="7" customWidth="1"/>
+    <col min="6" max="7" width="29.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="74.6640625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>12</v>
-      </c>
-      <c r="B69">
+      <c r="F2" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>12</v>
-      </c>
-      <c r="B70">
+      <c r="G2" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>12</v>
-      </c>
-      <c r="B71">
-        <v>406</v>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -12977,7 +13214,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -13705,7 +13942,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -13747,7 +13984,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -18869,7 +19106,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -19337,7 +19574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19353,10 +19592,10 @@
         <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19367,10 +19606,10 @@
         <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19381,10 +19620,10 @@
         <v>300</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19395,10 +19634,10 @@
         <v>299</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19409,7 +19648,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -19450,7 +19689,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -34790,7 +35029,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571CBF9-0026-024F-96BB-5B188D19A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A6261-EB4A-8648-84D0-1C97275972C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1200" windowWidth="27020" windowHeight="15820" firstSheet="4" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="920" yWindow="1200" windowWidth="27020" windowHeight="15820" firstSheet="3" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="449">
   <si>
     <t>number</t>
   </si>
@@ -1530,6 +1530,25 @@
   </si>
   <si>
     <t>Engineering courses are designed for specific applications and are usually reserved for APSC students.</t>
+  </si>
+  <si>
+    <t>Courses in &lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,33"&gt;Bachelor of Applied Science&lt;/a&gt; programs include:
+&lt;ul&gt;
+&lt;li&gt;All programs: MATH 100, 101, 152&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,1612"&gt;Biomedical Engineering (BMEG)&lt;/a&gt;: MATH 253, 256, 264&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,35"&gt;Chemical and Biological Engineering (CHBE)&lt;/a&gt;: MATH 253, 256&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,37"&gt;Civil Engineering (CIVL)&lt;/a&gt;: MATH 253, 256&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,39"&gt;Electrical Engineering (ELEC)&lt;/a&gt;: MATH 253, 256, 264&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,39"&gt;Computer Engineering (ELEC)&lt;/a&gt;: MATH 220, 253, 256, 318&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,40"&gt;Engineering Physics (ENPH)&lt;/a&gt;: MATH 217, 255, 257, 305, 307, 318, 400, 401, 405, 406&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,1679"&gt;Environmental Engineering (ENVE)&lt;/a&gt;: MATH 253, 256&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,41"&gt;Geological Engineering&lt;/a&gt;: MATH 253&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,42"&gt;Integrated Engineering (IGEN)&lt;/a&gt;: MATH 253, 255&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,1665"&gt;Manufacturing Engineering (MANU)&lt;/a&gt;: MATH 253, 255&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,44"&gt;Materials Engineering (MTRL)&lt;/a&gt;: MATH 253, 255&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,43"&gt;Mechanical Engineering (MECH)&lt;/a&gt;: MATH 254, 258, 358&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,45"&gt;Mining Engineering (MINE)&lt;/a&gt;: MATH 253, 255&lt;/li&gt;
+&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -11999,7 +12018,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12107,7 +12126,7 @@
         <v>416</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>277</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="221" x14ac:dyDescent="0.2">
@@ -19650,7 +19669,9 @@
       <c r="C5" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickwalls/Documents/work/uper/coursemap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A6261-EB4A-8648-84D0-1C97275972C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75638E36-F54E-EF41-A635-5B0B5D1BE6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1200" windowWidth="27020" windowHeight="15820" firstSheet="3" activeTab="5" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
+    <workbookView xWindow="920" yWindow="1200" windowWidth="27020" windowHeight="15820" firstSheet="8" activeTab="15" xr2:uid="{51EE6A31-502D-6549-9177-715EB70CBFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -1322,9 +1322,6 @@
     <t>suggested</t>
   </si>
   <si>
-    <t>MATH 300, 301, 316, 317, 319, 400</t>
-  </si>
-  <si>
     <t>This stream is centred on the analysis of functions and the phenomena they describe, from quantum mechanics to celestial motion. Topics in this stream have many applications in physics and engineering. If you like calculus and want to learn about some of its most important applications, this stream is for you.</t>
   </si>
   <si>
@@ -1349,16 +1346,10 @@
     <t>CPSC 340, 440; PHIL 320, 321; PHYS 310; STAT 301, 305, 306, 406</t>
   </si>
   <si>
-    <t>MATH 302, 303, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462</t>
-  </si>
-  <si>
     <t>This stream is centred on constructing and evaluating mathematical models. Topics in this stream have many applications in science, especially in mathematical biology and computational mathematics for physical problems. If you like multidisciplinary work and using mathematics to describe real-world problems, this stream is for you.</t>
   </si>
   <si>
     <t>CPSC 330, 421; PHIL 321; PHYS 305</t>
-  </si>
-  <si>
-    <t>MATH 310, 341, 342, 308+309 &lt;strong&gt;or&lt;/strong&gt; 312+313</t>
   </si>
   <si>
     <t>This stream is centred on classical problems in two of the most enduring branches of mathematics. Topics in this stream have modern applications in areas including cryptography and computer graphics. If you like patterns and puzzles, this stream is for you.</t>
@@ -1549,6 +1540,15 @@
 &lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,43"&gt;Mechanical Engineering (MECH)&lt;/a&gt;: MATH 254, 258, 358&lt;/li&gt;
 &lt;li&gt;&lt;a href="https://www.calendar.ubc.ca/vancouver/index.cfm?tree=12,195,272,45"&gt;Mining Engineering (MINE)&lt;/a&gt;: MATH 253, 255&lt;/li&gt;
 &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>MATH 300, 301, 316, 317, 319, 400, 405</t>
+  </si>
+  <si>
+    <t>MATH 302, 303, 316, 344, 345, 360+461 &lt;strong&gt;or&lt;/strong&gt; 361+462</t>
+  </si>
+  <si>
+    <t>MATH 308, 309, 310, 312, 313, 341, 342</t>
   </si>
 </sst>
 </file>
@@ -11558,8 +11558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A164B-708E-884A-B2CD-DB267B8D4A7F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11603,13 +11603,13 @@
         <v>349</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>376</v>
@@ -11626,13 +11626,13 @@
         <v>350</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>376</v>
@@ -11649,13 +11649,13 @@
         <v>351</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>376</v>
@@ -11672,13 +11672,13 @@
         <v>359</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>376</v>
@@ -11695,13 +11695,13 @@
         <v>352</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>376</v>
@@ -11714,9 +11714,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605FB08-D761-1B4B-8F7E-F0D219ED9D4B}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11778,18 +11780,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>307</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
-        <v>316</v>
+      <c r="B9">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11797,7 +11799,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>405</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11805,7 +11807,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>340</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11813,7 +11815,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11821,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>360</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11829,23 +11831,23 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>461</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
-        <v>303</v>
+      <c r="B16">
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11853,7 +11855,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11861,7 +11863,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11869,7 +11871,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11877,7 +11879,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="3">
-        <v>344</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11885,23 +11887,23 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>442</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>302</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
-        <v>303</v>
+      <c r="B23">
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11909,7 +11911,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11917,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11925,7 +11927,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11933,7 +11935,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3">
-        <v>461</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11941,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11949,31 +11951,31 @@
         <v>4</v>
       </c>
       <c r="B29" s="3">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>310</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3">
-        <v>341</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="3">
-        <v>342</v>
+      <c r="B32">
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11981,7 +11983,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="3">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11989,7 +11991,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11997,7 +11999,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -12005,6 +12007,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
         <v>313</v>
       </c>
     </row>
@@ -12076,25 +12094,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -12108,25 +12126,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="221" x14ac:dyDescent="0.2">
@@ -12140,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>365</v>
@@ -12172,25 +12190,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -12204,25 +12222,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -12233,25 +12251,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>277</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="289" x14ac:dyDescent="0.2">
@@ -12265,25 +12283,25 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="187" x14ac:dyDescent="0.2">
@@ -12297,25 +12315,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="204" x14ac:dyDescent="0.2">
@@ -12329,25 +12347,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -19593,7 +19611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05D007-E767-5440-814F-4CB4191763F7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -19628,7 +19646,7 @@
         <v>348</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19653,10 +19671,10 @@
         <v>299</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="200" customHeight="1" x14ac:dyDescent="0.2">
@@ -19667,10 +19685,10 @@
         <v>301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
